--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="25800" windowHeight="16360" tabRatio="500"/>
+    <workbookView xWindow="3880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="GO" sheetId="1" r:id="rId1"/>
-    <sheet name="GO 5 fold x-validation" sheetId="2" r:id="rId2"/>
-    <sheet name="taxonomy" sheetId="3" r:id="rId3"/>
+    <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
+    <sheet name="GO-Bayes 5 fold x-validation" sheetId="2" r:id="rId2"/>
+    <sheet name="GO-SVM" sheetId="4" r:id="rId3"/>
+    <sheet name="GO-SVM 5 fold x-validation" sheetId="5" r:id="rId4"/>
+    <sheet name="taxonomy-Bayes" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="33">
-  <si>
-    <t>Sample Threshold Results</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="35">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -121,6 +120,15 @@
   <si>
     <t>nodes w/ &gt;2 children only</t>
   </si>
+  <si>
+    <t>Uniprot Abstracts</t>
+  </si>
+  <si>
+    <t>Uniprot Abstracts Dataset</t>
+  </si>
+  <si>
+    <t>Nematoda</t>
+  </si>
 </sst>
 </file>
 
@@ -202,8 +210,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,7 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -362,6 +380,11 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,6 +428,11 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -736,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView showRuler="0" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,41 +777,41 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -796,20 +824,20 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3902</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>10057</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2">
         <v>6319</v>
@@ -822,15 +850,15 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3">
         <v>0.204035763078878</v>
@@ -846,15 +874,15 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2">
         <v>0.27093682569203698</v>
@@ -867,15 +895,15 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2">
         <v>0.22796059653171</v>
@@ -888,7 +916,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
@@ -904,20 +932,20 @@
     <row r="10" spans="1:13" s="1" customFormat="1"/>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -930,20 +958,20 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1019</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>2641</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2">
         <v>8048</v>
@@ -956,20 +984,20 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>0.48576143311547798</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3">
         <v>0.42389983732683101</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3">
         <f>(2*H14*H15)/(H14+H15)</f>
@@ -983,20 +1011,20 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.54709100711506498</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>0.60370370713948596</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2">
         <v>0.27093682569203698</v>
@@ -1009,20 +1037,20 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0.43679605836792801</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2">
         <v>0.40844856585831202</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2">
         <v>0.22796059653171</v>
@@ -1035,16 +1063,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1062,20 +1090,20 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="2">
         <v>5</v>
@@ -1088,20 +1116,20 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>792</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>1887</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1112,20 +1140,20 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>0.48576143311547798</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3">
         <v>0.48807197980933698</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1136,20 +1164,20 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>0.54709100711506498</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2">
         <v>0.62680451482770305</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1160,20 +1188,20 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0.43679605836792801</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
         <v>0.399622357359323</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1184,13 +1212,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1217,20 +1245,20 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="2">
         <v>10</v>
@@ -1243,20 +1271,20 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>565</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2">
         <v>1160</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="2">
         <v>4209</v>
@@ -1269,20 +1297,20 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
         <v>0.48576143311547798</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3">
         <v>0.48807333436241201</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3">
         <v>0.24896843627107901</v>
@@ -1295,20 +1323,20 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>0.54709100711506498</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2">
         <v>0.62680898294323095</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2">
         <v>0.29761920043191598</v>
@@ -1321,20 +1349,20 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>0.43679605836792801</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2">
         <v>0.399622357359323</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="2">
         <v>0.21398849023168601</v>
@@ -1347,18 +1375,18 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>41</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2">
         <v>20</v>
@@ -1384,20 +1412,20 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>100</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
         <v>100</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2">
         <v>100</v>
@@ -1410,20 +1438,20 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>155</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2">
         <v>247</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="2">
         <v>970</v>
@@ -1436,20 +1464,20 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1">
         <v>0.48616835187587498</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="3">
         <v>0.48817437148173798</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3">
         <v>0.24910208437516501</v>
@@ -1462,20 +1490,20 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>0.548124402950247</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2">
         <v>0.62715704548235196</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2">
         <v>0.298001453053098</v>
@@ -1488,20 +1516,20 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>0.43679605836792801</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2">
         <v>0.39961639987195302</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="2">
         <v>0.21398849023168601</v>
@@ -1514,20 +1542,20 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>41</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2">
         <v>50</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2">
         <v>20</v>
@@ -1553,20 +1581,20 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2">
         <v>150</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="2">
         <v>150</v>
@@ -1579,20 +1607,20 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>116</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2">
         <v>184</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="2">
         <v>705</v>
@@ -1605,20 +1633,20 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
         <v>0.48637052779672801</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3">
         <v>0.48840285846010301</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3">
         <v>0.249392064267002</v>
@@ -1631,20 +1659,20 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0.54879059026371202</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2">
         <v>0.62841784423852098</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="2">
         <v>0.29883280427546099</v>
@@ -1657,20 +1685,20 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0.43669979874196502</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2">
         <v>0.39941171101014</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" s="2">
         <v>0.21398849023168601</v>
@@ -1683,20 +1711,20 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2">
         <v>50</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="2">
         <v>20</v>
@@ -1722,20 +1750,20 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>200</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2">
         <v>200</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="2">
         <v>200</v>
@@ -1748,20 +1776,20 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2">
         <v>138</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1772,20 +1800,20 @@
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
         <v>0.48675278744709499</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" s="3">
         <v>0.48840285846010301</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1796,20 +1824,20 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>0.54976489860342004</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2">
         <v>0.62841784423852098</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1820,20 +1848,20 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>0.43669979874196502</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="2">
         <v>0.39941171101014</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -1844,13 +1872,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>41</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
@@ -1879,20 +1907,20 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>250</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2">
         <v>250</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53" s="2">
         <v>250</v>
@@ -1905,20 +1933,20 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>85</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2">
         <v>129</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -1929,20 +1957,20 @@
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
         <v>0.48702320940955901</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" s="3">
         <v>0.488605161251217</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -1953,20 +1981,20 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <v>0.55078339772073703</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2">
         <v>0.62913898705262805</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -1977,20 +2005,20 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>0.436493528114902</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="2">
         <v>0.39939121024477803</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2001,13 +2029,13 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>41</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2">
         <v>50</v>
@@ -2036,20 +2064,20 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>300</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2">
         <v>300</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60" s="2">
         <v>300</v>
@@ -2062,20 +2090,20 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>72</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2">
         <v>114</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2086,20 +2114,20 @@
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1">
         <v>0.48739978480253898</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" s="3">
         <v>0.48872736622167701</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -2110,20 +2138,20 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <v>0.55180492935180403</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="2">
         <v>0.62970937814422201</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2134,20 +2162,20 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>0.43645765496236999</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="2">
         <v>0.39932482681408199</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2158,13 +2186,13 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65">
         <v>41</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" s="2">
         <v>50</v>
@@ -2193,7 +2221,7 @@
     </row>
     <row r="67" spans="1:13" s="5" customFormat="1">
       <c r="A67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2208,15 +2236,15 @@
     </row>
     <row r="68" spans="1:13" s="7" customFormat="1">
       <c r="A68" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -2227,20 +2255,20 @@
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="30">
       <c r="A69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="11">
         <v>49.784075200442302</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" s="12">
         <v>26</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H69" s="12">
         <v>79.611685183746403</v>
@@ -2253,17 +2281,17 @@
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="30">
       <c r="A70" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="12">
         <v>1575</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H70" s="12">
         <v>2812</v>
@@ -2293,7 +2321,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -2303,20 +2331,20 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73">
         <v>3167</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <v>1550</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2327,20 +2355,20 @@
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1">
         <v>0.49337237131233402</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="1">
         <v>0.39384079605051497</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -2351,20 +2379,20 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>0.51179921584639299</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>0.49120715090927503</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2375,20 +2403,20 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76">
         <v>0.47622629596279598</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>0.32868862333069199</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2399,20 +2427,20 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>23</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>23</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2423,20 +2451,20 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" s="13">
         <v>0.2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" s="13">
         <v>0.2</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2447,20 +2475,20 @@
     </row>
     <row r="79" spans="1:13" s="11" customFormat="1" ht="30">
       <c r="A79" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="11">
         <v>0</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="11">
         <v>26</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79" s="12">
         <v>5</v>
@@ -2473,7 +2501,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80">
         <v>10</v>
@@ -2494,20 +2522,20 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>784</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" s="2">
         <v>1150</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2518,20 +2546,20 @@
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1">
       <c r="A83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <v>0.490722548118881</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" s="3">
         <v>0.39386850516520699</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -2542,20 +2570,20 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>0.53130340451447799</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2">
         <v>0.49129336659196898</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2566,20 +2594,20 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>0.45590091965929802</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85" s="2">
         <v>0.32868862333069199</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2590,20 +2618,20 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86">
         <v>27</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" s="2">
         <v>23</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -2614,20 +2642,20 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" s="13">
         <v>0.2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="14">
         <v>0.2</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2638,20 +2666,20 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>49</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2">
         <v>50</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2688,17 +2716,17 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" s="2">
         <v>5522</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -2709,15 +2737,15 @@
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -2728,15 +2756,15 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -2747,15 +2775,15 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -2766,15 +2794,15 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -2785,16 +2813,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" s="13"/>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="2"/>
       <c r="G96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -2805,20 +2833,20 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97">
         <v>100</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E97" s="2">
         <v>5</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -2830,7 +2858,7 @@
     <row r="98" spans="1:13">
       <c r="A98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2">
         <v>5</v>
@@ -2846,36 +2874,36 @@
     </row>
     <row r="100" spans="1:13" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="7" customFormat="1">
       <c r="A101" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1">
       <c r="A102" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="3">
         <v>2</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102" s="3">
         <v>2</v>
@@ -2888,15 +2916,15 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -2907,15 +2935,15 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -2926,15 +2954,15 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -2945,15 +2973,15 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -2976,20 +3004,20 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E109" s="3">
         <v>3</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H109" s="3">
         <v>3</v>
@@ -3002,15 +3030,15 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -3021,15 +3049,15 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -3040,15 +3068,15 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3059,15 +3087,15 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -3090,21 +3118,21 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116" s="3">
         <v>4</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E116" s="3">
         <v>4</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116" s="3">
         <v>4</v>
@@ -3117,21 +3145,21 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="2">
         <v>3902</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" s="2">
         <v>4285</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3142,21 +3170,21 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118" s="3">
         <v>0.27126315160063702</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118" s="3">
         <v>0.38421011587133003</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -3167,21 +3195,21 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" s="2">
         <v>0.98857203560338303</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" s="2">
         <v>0.53130146903195996</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -3192,21 +3220,21 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2">
         <v>0.176799337860297</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" s="2">
         <v>0.30090442042062998</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -3217,12 +3245,12 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E121" s="2">
         <v>53</v>
@@ -3238,14 +3266,14 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B122" s="2">
         <v>0</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -3261,21 +3289,21 @@
     </row>
     <row r="124" spans="1:13" s="1" customFormat="1">
       <c r="A124" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B124" s="3">
         <v>5</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E124" s="3">
         <v>5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124" s="3">
         <v>5</v>
@@ -3288,17 +3316,17 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -3309,17 +3337,17 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -3330,17 +3358,17 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -3351,17 +3379,17 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -3372,6 +3400,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3384,8 +3413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3397,41 +3426,41 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -3444,20 +3473,20 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3902</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>10057</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3468,17 +3497,20 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>0.49603097992439599</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.47962773378500001</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3489,17 +3521,20 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.56906542548785199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0.62230621829199995</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3510,17 +3545,20 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0.440324575707433</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0.39039074705999999</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3531,17 +3569,20 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3552,20 +3593,20 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
@@ -3578,20 +3619,20 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>557</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2">
         <v>1162</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3602,20 +3643,20 @@
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>0.49370813828154803</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
         <v>0.479631648691</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3626,20 +3667,20 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0.57207093873627302</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>0.62231917582200003</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3650,20 +3691,20 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0.43487591306479301</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <v>0.39039074705999999</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3674,20 +3715,20 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>44.2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>50</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3698,20 +3739,20 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
         <v>100</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2">
         <v>100</v>
@@ -3724,18 +3765,18 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3746,18 +3787,18 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>0.49402044410599999</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3768,18 +3809,18 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0.56804575176399996</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -3790,18 +3831,18 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0.43758762674099999</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -3812,18 +3853,18 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>42.799999999999898</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -3834,6 +3875,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3844,12 +3886,760 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1729</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.51408817950591101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.53505107641116001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.49470597325862897</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="10840" yWindow="0" windowWidth="23400" windowHeight="16360" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="GO-SVM" sheetId="4" r:id="rId3"/>
     <sheet name="GO-SVM 5 fold x-validation" sheetId="5" r:id="rId4"/>
     <sheet name="taxonomy-Bayes" sheetId="3" r:id="rId5"/>
+    <sheet name="taxonomy-SVM" sheetId="6" r:id="rId6"/>
+    <sheet name="taxonomy-SVM x-validation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="57">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -127,7 +129,73 @@
     <t>Uniprot Abstracts Dataset</t>
   </si>
   <si>
-    <t>Nematoda</t>
+    <t>made up of all specimens</t>
+  </si>
+  <si>
+    <t>Test set</t>
+  </si>
+  <si>
+    <t>Train set</t>
+  </si>
+  <si>
+    <t>made up only of Nematoda specimens</t>
+  </si>
+  <si>
+    <t>Root: Eukaryota Opisthokonta Holozoa Metazoa (Animalia) Eumetazoa Bilateria Nematoda</t>
+  </si>
+  <si>
+    <t>Root: Eukaryota</t>
+  </si>
+  <si>
+    <t>kmer</t>
+  </si>
+  <si>
+    <t>made up only of Eukaryota specimens</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>Timings</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  897.730534077</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  41.9078559875</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  94.878715992</t>
+  </si>
+  <si>
+    <t>Total time:  1565.37001801</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  1602.46402097</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  95.0237419605</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  104.838932037</t>
+  </si>
+  <si>
+    <t>Total time:  2322.98362517</t>
+  </si>
+  <si>
+    <t>Folds: 5</t>
+  </si>
+  <si>
+    <t>avg f1</t>
+  </si>
+  <si>
+    <t>avg precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg recall </t>
+  </si>
+  <si>
+    <t>avg threshold</t>
   </si>
 </sst>
 </file>
@@ -210,7 +278,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,8 +376,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,8 +433,14 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -385,6 +489,21 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -433,6 +552,21 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -764,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3414,7 +3548,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3889,7 +4023,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3956,7 +4090,9 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>4729</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -3978,7 +4114,9 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>0.31961330401024901</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -4000,7 +4138,9 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>17</v>
@@ -4022,7 +4162,9 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0.190202234267</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -4044,7 +4186,9 @@
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -4383,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4398,60 +4542,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1"/>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1"/>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>1417</v>
       </c>
       <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
@@ -4463,8 +4600,1309 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1202</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.56101920639203295</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.62124711730175097</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.51143703040254695</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1304</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1">
+        <v>347</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1417</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.90244661783863001</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.93988586996980705</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.86787580235856099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>42820</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1">
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1417</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1177</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.811805840828</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.68322658764300004</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1304</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>347</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1163</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.92052714130699997</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.96601726586699999</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.879128635755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1325</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1">
+        <v>327</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1163</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.86955924292099995</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.85697805794299997</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.88251533742300003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:13" s="4" customFormat="1">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1">
+      <c r="B42" s="10"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1">
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="F47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="D7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -4477,8 +5915,9 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="D8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -4488,6 +5927,36 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
@@ -4502,28 +5971,28 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+    <row r="12" spans="1:13" s="1" customFormat="1">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -4551,18 +6020,18 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1"/>
@@ -4577,28 +6046,28 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+    <row r="20" spans="1:13" s="1" customFormat="1">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1"/>
@@ -4626,19 +6095,6 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="0" windowWidth="23400" windowHeight="16360" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="7620" yWindow="0" windowWidth="24240" windowHeight="16360" tabRatio="657" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
-    <sheet name="GO-Bayes 5 fold x-validation" sheetId="2" r:id="rId2"/>
+    <sheet name="GO-Bayes x-validation" sheetId="2" r:id="rId2"/>
     <sheet name="GO-SVM" sheetId="4" r:id="rId3"/>
-    <sheet name="GO-SVM 5 fold x-validation" sheetId="5" r:id="rId4"/>
+    <sheet name="GO-SVM x-validation" sheetId="5" r:id="rId4"/>
     <sheet name="taxonomy-Bayes" sheetId="3" r:id="rId5"/>
-    <sheet name="taxonomy-SVM" sheetId="6" r:id="rId6"/>
-    <sheet name="taxonomy-SVM x-validation" sheetId="7" r:id="rId7"/>
+    <sheet name="taxonomy-Bayes x-val" sheetId="8" r:id="rId6"/>
+    <sheet name="taxonomy-SVM" sheetId="6" r:id="rId7"/>
+    <sheet name="taxonomy-SVM x-val" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="112">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -129,9 +131,6 @@
     <t>Uniprot Abstracts Dataset</t>
   </si>
   <si>
-    <t>made up of all specimens</t>
-  </si>
-  <si>
     <t>Test set</t>
   </si>
   <si>
@@ -156,33 +155,6 @@
     <t>nodes</t>
   </si>
   <si>
-    <t>Timings</t>
-  </si>
-  <si>
-    <t>Creating classifiers:  897.730534077</t>
-  </si>
-  <si>
-    <t>Evaluating test set:  41.9078559875</t>
-  </si>
-  <si>
-    <t>Computing metrics per threshold:  94.878715992</t>
-  </si>
-  <si>
-    <t>Total time:  1565.37001801</t>
-  </si>
-  <si>
-    <t>Creating classifiers:  1602.46402097</t>
-  </si>
-  <si>
-    <t>Evaluating test set:  95.0237419605</t>
-  </si>
-  <si>
-    <t>Computing metrics per threshold:  104.838932037</t>
-  </si>
-  <si>
-    <t>Total time:  2322.98362517</t>
-  </si>
-  <si>
     <t>Folds: 5</t>
   </si>
   <si>
@@ -196,6 +168,201 @@
   </si>
   <si>
     <t>avg threshold</t>
+  </si>
+  <si>
+    <t>time (sec)</t>
+  </si>
+  <si>
+    <t>Root: Bacteria</t>
+  </si>
+  <si>
+    <t>made up only of Bacteria specimens</t>
+  </si>
+  <si>
+    <t>-----Timings-----</t>
+  </si>
+  <si>
+    <t>Taxonomy 99% redundant</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Eukaryota Opisthokonta Holozoa Metazoa (Animalia) Eumetazoa Bilateria Nematoda</t>
+  </si>
+  <si>
+    <t>Descendants</t>
+  </si>
+  <si>
+    <t>Specimens</t>
+  </si>
+  <si>
+    <t>Unique Speciments</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  83.7033369541</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  1135.01665115</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  85.1609618664</t>
+  </si>
+  <si>
+    <t>Total time:  1637.07920694</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  4.40257906914</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  48.7820978165</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  76.0832760334</t>
+  </si>
+  <si>
+    <t>Total time:  452.014630079</t>
+  </si>
+  <si>
+    <t>Classifiers</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  5.47679901123</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  62.1647951603</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  85.62251091</t>
+  </si>
+  <si>
+    <t>Total time:  485.759006023</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  10.0899400711</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  38.6180889606</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  94.7428879738</t>
+  </si>
+  <si>
+    <t>Total time:  478.347054958</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  59.1422469616</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  45.4854691029</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  99.2808561325</t>
+  </si>
+  <si>
+    <t>Total time:  535.961901903</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  17.0526659489</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  86.5334739685</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  90.0791289806</t>
+  </si>
+  <si>
+    <t>Total time:  511.287096977</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  29.1562490463</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  159.083805084</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  100.90671587</t>
+  </si>
+  <si>
+    <t>Total time:  608.49554491</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  496.451714039</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  74.416946888</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  99.0461220741</t>
+  </si>
+  <si>
+    <t>Total time:  987.849020958</t>
+  </si>
+  <si>
+    <t>Root: Eumetozoa</t>
+  </si>
+  <si>
+    <t>made up only of Eumetozoa specimens</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  767.662853003</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  94.5163969994</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  97.5299370289</t>
+  </si>
+  <si>
+    <t>Total time:  1275.91682911</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  67.4847249985</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  774.317973137</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  86.7882628441</t>
+  </si>
+  <si>
+    <t>Total time:  1258.79839802</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  50.8177828789</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  364.810142994</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  92.6988677979</t>
+  </si>
+  <si>
+    <t>Total time:  845.540286064</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  820.247880936</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  110.184319019</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  107.753900051</t>
+  </si>
+  <si>
+    <t>Total time:  1356.93933797</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  913.108801126</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  98.4113311768</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  92.6377630234</t>
+  </si>
+  <si>
+    <t>Total time:  1431.79873204</t>
   </si>
 </sst>
 </file>
@@ -249,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +435,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,7 +451,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -406,8 +579,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -433,14 +712,19 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -504,6 +788,59 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -567,6 +904,59 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -898,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3545,10 +3935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3574,125 +3964,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:13" s="7" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3902</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
-        <v>10057</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3902</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10057</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.49603097992439599</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0.47962773378500001</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>0.56906542548785199</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>0.62230621829199995</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.440324575707433</v>
+        <v>0.56906542548785199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0.39039074705999999</v>
+        <v>0.62230621829199995</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3703,20 +4074,20 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>0.440324575707433</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>0.39039074705999999</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3725,120 +4096,120 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
-        <v>1162</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>557</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1162</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>0.49370813828154803</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>0.479631648691</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>0.57207093873627302</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.62231917582200003</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.43487591306479301</v>
+        <v>0.57207093873627302</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
-        <v>0.39039074705999999</v>
+        <v>0.62231917582200003</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3849,20 +4220,20 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>44.2</v>
+        <v>0.43487591306479301</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2">
-        <v>50</v>
+        <v>0.39039074705999999</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3871,112 +4242,114 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2">
-        <v>100</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>44.2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>100</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>152</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>0.49402044410599999</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>0.56804575176399996</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>0.43758762674099999</v>
+        <v>0.56804575176399996</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -3987,18 +4360,18 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>42.799999999999898</v>
+        <v>0.43758762674099999</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4006,6 +4379,28 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>42.799999999999898</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4020,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4199,6 +4594,46 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.50096778681704801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.55508409768742994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.45646596425324099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4213,10 +4648,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4242,102 +4677,98 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:13" s="7" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1732</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>0.493747849016</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0.56422429402999996</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -4348,14 +4779,17 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.44140962446499998</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4364,18 +4798,26 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
@@ -4390,28 +4832,28 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1"/>
@@ -4439,18 +4881,18 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1"/>
@@ -4465,28 +4907,28 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1"/>
@@ -4513,6 +4955,19 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4527,84 +4982,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1"/>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10">
         <v>1417</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>1202</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="11"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4620,8 +5068,11 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.56101920639203295</v>
+      <c r="B8" s="10">
+        <v>0.56163531351899998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="3"/>
@@ -4635,10 +5086,12 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0.62124711730175097</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9" s="11">
+        <v>0.80656328320799997</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -4652,10 +5105,12 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.51143703040254695</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="B10" s="11">
+        <v>0.43081140350899999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -4669,10 +5124,12 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="B11" s="11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -4682,34 +5139,52 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1181</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1304</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.75730625753000003</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -4718,50 +5193,54 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1">
-        <v>347</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.84529918610999999</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.68590568060000001</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>1417</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
@@ -4773,12 +5252,14 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.90244661783863001</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4788,98 +5269,154 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>0.93988586996980705</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="B19" s="11"/>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>1177</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>0.86787580235856099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.81543699401400005</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1">
-      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.91127491694399998</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.73783914728699995</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1">
+      <c r="B25" s="10">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1147</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.79515409071800003</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>42820</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.81881774556200004</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -4890,68 +5427,50 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.77281976744199998</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B32" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1180</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
@@ -4961,87 +5480,88 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1">
+    <row r="35" spans="1:13" s="1" customFormat="1">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.798372914095</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1">
+        <v>14</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.82385504586900005</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1">
+        <v>15</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.77441983122400004</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="11">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="10">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1162</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -5052,22 +5572,1169 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.83454334883600001</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.99087179487199994</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.72082051282100001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="11">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1165</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1">
+      <c r="A49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21">
+        <v>0.85043844696199999</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0.99255765199199997</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.74392033543000002</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="11">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="1" customFormat="1">
+      <c r="A53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="10">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1">
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="10">
+        <v>17233</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="11">
+        <v>470</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" s="1" customFormat="1">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="F64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="D65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="D66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="D67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" s="1" customFormat="1">
+      <c r="A68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="10">
+        <v>5</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" s="1" customFormat="1">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:13" s="1" customFormat="1">
+      <c r="A75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" s="1" customFormat="1">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:13" s="1" customFormat="1">
+      <c r="A82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" s="1" customFormat="1">
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:13" s="1" customFormat="1">
+      <c r="A89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" s="1" customFormat="1">
+      <c r="A92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="1:13" s="1" customFormat="1">
+      <c r="A96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" s="1" customFormat="1">
+      <c r="A99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:13" s="1" customFormat="1">
+      <c r="A103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:13" s="4" customFormat="1">
+      <c r="A105" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="18"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
+    </row>
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="10">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1">
+      <c r="A111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="10">
+        <v>42820</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="11">
+        <v>1761</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1">
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="F114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="D115" s="1"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="D116" s="1"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="D117" s="1"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1">
+      <c r="A118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="10">
         <v>5</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1">
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="10"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:13" s="1" customFormat="1">
+      <c r="A125" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="1:13" s="1" customFormat="1">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="10"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="1:13" s="1" customFormat="1">
+      <c r="A132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" spans="1:13" s="1" customFormat="1">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="1:13" s="1" customFormat="1">
+      <c r="A139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="1:13" s="1" customFormat="1">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="10"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="1:13" s="1" customFormat="1">
+      <c r="A146" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" s="1" customFormat="1">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="1:13" s="1" customFormat="1">
+      <c r="A153" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5083,10 +6750,578 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD12"/>
+    <sheetView showRuler="0" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.75855051136200002</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.85655264826099997</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.68079211692300001</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="11">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>6621.7481899300001</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="10">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="10">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="10">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5100,71 +7335,51 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1">
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1417</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11">
-        <v>1177</v>
+        <v>1417</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
@@ -5177,29 +7392,30 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.811805840828</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>1159</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -5209,31 +7425,34 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0.68322658764300004</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.43744561087700001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="11">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>0.44158517573700001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -5243,35 +7462,51 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="10">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.43338293650800003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1304</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -5280,143 +7515,127 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1">
-        <v>347</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1163</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.79320379712699995</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.92052714130699997</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.89564732142900005</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="11">
-        <v>0.96601726586699999</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+        <v>0.71178977272699995</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="11">
-        <v>0.879128635755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="10">
-        <v>5</v>
-      </c>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1325</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.75909577690600005</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5427,201 +7646,289 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1">
-        <v>327</v>
+        <v>14</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.79478166585700005</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.72647679324900005</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B27" s="11">
-        <v>1163</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B28" s="10">
-        <v>0.86955924292099995</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="11">
-        <v>0.85697805794299997</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1150</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.72984548173700003</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.777811769298</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
-        <v>0.88251533742300003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
+      <c r="B33" s="11">
+        <v>0.68745155038799999</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="11">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="B34" s="11">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1">
-      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1">
-      <c r="B37" s="10"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1">
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1">
-      <c r="B39" s="10"/>
-    </row>
-    <row r="41" spans="1:13" s="4" customFormat="1">
-      <c r="A41" s="4" t="s">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.725545878639</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.81116170275300004</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.65627763041599996</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="11">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1">
-      <c r="B42" s="10"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1">
-      <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="B42" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1172</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.75401954630500001</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.85064190725400002</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -5632,184 +7939,1029 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="F47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.67710843373499996</v>
+      </c>
+      <c r="D47" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="11">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" s="1" customFormat="1">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" s="1" customFormat="1">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="56" spans="1:13" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1">
+      <c r="A58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1">
+      <c r="B59" s="10"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="10">
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="11">
         <v>5</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A54" s="1" t="s">
+      <c r="B63" s="11">
+        <v>42820</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" s="1" customFormat="1">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="F66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" s="1" customFormat="1">
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="10">
+        <v>5</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" s="1" customFormat="1">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1">
+      <c r="A77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" s="1" customFormat="1">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="1" customFormat="1">
+      <c r="A84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1">
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="1" customFormat="1">
+      <c r="A91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" s="1" customFormat="1">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="1" customFormat="1">
+      <c r="A98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" s="1" customFormat="1">
+      <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="1" customFormat="1">
+      <c r="A105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="4" customFormat="1">
+      <c r="A108" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="18"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A111" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B111" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="11">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
+      <c r="B114" s="11">
+        <v>98605</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="F117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1">
+      <c r="A121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="10">
+        <v>5</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" s="1" customFormat="1">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="10"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="1" customFormat="1">
+      <c r="A128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="1:13" s="1" customFormat="1">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="1" customFormat="1">
+      <c r="A135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" spans="1:13" s="1" customFormat="1">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="1" customFormat="1">
+      <c r="A142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="10">
         <v>8</v>
       </c>
-      <c r="B55" s="10">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" s="1" customFormat="1">
-      <c r="A57" s="1" t="s">
+      <c r="D144" s="1"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="1:13" s="1" customFormat="1">
+      <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
+      <c r="B145" s="10"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
+      <c r="D146" s="1"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
+    <row r="148" spans="1:13">
+      <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1">
-      <c r="A61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="10">
-        <v>5</v>
+    <row r="149" spans="1:13" s="1" customFormat="1">
+      <c r="A149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="1:13" s="1" customFormat="1">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" s="1" customFormat="1">
+      <c r="A156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5823,12 +8975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5839,57 +8991,44 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="17"/>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1">
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5899,11 +9038,10 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="11"/>
       <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -5913,55 +9051,55 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -5971,18 +9109,25 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6007,23 +9152,55 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
@@ -6034,9 +9211,11 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -6046,54 +9225,438 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>1392</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="0" windowWidth="17580" windowHeight="16360" tabRatio="657" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="9880" yWindow="0" windowWidth="22760" windowHeight="16360" tabRatio="657" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="434">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -1156,6 +1156,180 @@
   </si>
   <si>
     <t>Total time:  187511.506023</t>
+  </si>
+  <si>
+    <t>GO Datasets</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>80/20 testing only</t>
+  </si>
+  <si>
+    <t>Test: Uniprot</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>k-fold validation only</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>Train: P1 - intersection w/ Uniprot</t>
+  </si>
+  <si>
+    <t>Train: P1 AND Uniprot</t>
+  </si>
+  <si>
+    <t>Train: P2 and Uniprot</t>
+  </si>
+  <si>
+    <t>Test: Uniprot only</t>
+  </si>
+  <si>
+    <t>Train: P2 - intersection w/ Uniprot</t>
+  </si>
+  <si>
+    <t>Train: PubMed papers w/ gene names</t>
+  </si>
+  <si>
+    <t>Train: PubMed papers w/ GO names</t>
+  </si>
+  <si>
+    <t>Train: Uniprot abstracts</t>
+  </si>
+  <si>
+    <t>80/20 testing AND k-fold</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  16074.9302411</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  262998.395081</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  16570.864491</t>
+  </si>
+  <si>
+    <t>Total time:  297021.813278</t>
+  </si>
+  <si>
+    <t>Avg F1:  0.492157812249</t>
+  </si>
+  <si>
+    <t>Avg Precision:  0.608750114021</t>
+  </si>
+  <si>
+    <t>Avg Recall:  0.413771572226</t>
+  </si>
+  <si>
+    <t>Avg Threshold:  62.0</t>
+  </si>
+  <si>
+    <t>Total time:  72777.333312</t>
+  </si>
+  <si>
+    <t>Sample threshold:  1</t>
+  </si>
+  <si>
+    <t>No. of folds:  5</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  6096</t>
+  </si>
+  <si>
+    <t>Type 1 predictions:  4102</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  17582</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  10901.042448</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  56398.9208441</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  137624.955103</t>
+  </si>
+  <si>
+    <t>Total time:  206260.85861</t>
+  </si>
+  <si>
+    <t>Handling Ambiguous Predictions</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>No ambiguous prediction at the leaf level.</t>
+  </si>
+  <si>
+    <t>Ambiguous prediction(s) are at the upper levels</t>
+  </si>
+  <si>
+    <t>Rules:</t>
+  </si>
+  <si>
+    <t>1) Break the tie at the lowest ambiguous level</t>
+  </si>
+  <si>
+    <t>a) if the higher prob is the node w/ a lower level pred, return longest path</t>
+  </si>
+  <si>
+    <t>b) if the higher prob is w/o lower level pred, propagate the higher level node</t>
+  </si>
+  <si>
+    <t>2) if all nodes equal, go back to step 1 but at the next lowest level</t>
+  </si>
+  <si>
+    <t>3) repeat 1 and 2 until the tie is broken or we reach the root</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Ambiguous prediction is at the leaf level only</t>
+  </si>
+  <si>
+    <t>1) Break at tie at the leaf level</t>
+  </si>
+  <si>
+    <t>a) if one has higher prob, propagate that node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) if all nodes are equal, propagate LCA </t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Ambiguoud prediction is at the leaf level and 1 or more higher levels</t>
+  </si>
+  <si>
+    <t>b) if all nodes are equal, go to step 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Break tie at the next lower level recursively </t>
+  </si>
+  <si>
+    <t>Note: if only 1 ambiguous level remains, this becomes a Case 2</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1471,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="623">
+  <cellStyleXfs count="643">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1921,8 +2095,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2000,8 +2194,18 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="623">
+  <cellStyles count="643">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2313,6 +2517,16 @@
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2624,6 +2838,16 @@
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2953,10 +3177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView showRuler="0" topLeftCell="A130" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A151" sqref="A146:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5915,6 +6139,11 @@
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
     </row>
+    <row r="146" spans="2:2" s="4" customFormat="1">
+      <c r="B146" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5928,15 +6157,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
@@ -6066,8 +6297,123 @@
         <v>78</v>
       </c>
     </row>
+    <row r="28" spans="1:7" s="52" customFormat="1">
+      <c r="A28" s="52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>417</v>
+      </c>
+      <c r="E30" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="F31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="F32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="E33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="E34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="E36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="F37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="F38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="E40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="F41" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="F42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="E43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="F44" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6078,10 +6424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="A5:B10"/>
+    <sheetView showRuler="0" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6545,8 +6891,68 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
+    <row r="28" spans="1:13" s="52" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7182,15 +7588,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showRuler="0" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -7406,6 +7812,136 @@
     <row r="26" spans="1:4">
       <c r="B26" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>390</v>
+      </c>
+      <c r="C40" s="34"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -7420,10 +7956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q490"/>
+  <dimension ref="A1:Q450"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A298" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317"/>
+    <sheetView showRuler="0" topLeftCell="A311" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11418,17 +11954,17 @@
       <c r="Q238" s="3"/>
     </row>
     <row r="239" spans="1:17" s="1" customFormat="1">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B239" s="17">
+      <c r="B239" s="49">
         <v>0.84410802621000003</v>
       </c>
-      <c r="C239" s="34"/>
-      <c r="D239" s="2" t="s">
+      <c r="C239" s="50"/>
+      <c r="D239" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E239" s="17">
+      <c r="E239" s="49">
         <v>0.95013923013900004</v>
       </c>
       <c r="G239" s="14" t="s">
@@ -12523,6 +13059,10 @@
       <c r="B303" s="13">
         <v>111120</v>
       </c>
+      <c r="E303" s="13">
+        <f>B303+B304</f>
+        <v>138900</v>
+      </c>
     </row>
     <row r="304" spans="1:8" s="13" customFormat="1">
       <c r="A304" s="13" t="s">
@@ -12625,12 +13165,12 @@
         <v>369</v>
       </c>
       <c r="H313" s="14"/>
+      <c r="I313" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J313" s="2"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3"/>
-      <c r="N313" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="O313" s="3"/>
       <c r="P313" s="3"/>
       <c r="Q313" s="3"/>
@@ -12653,12 +13193,12 @@
         <v>370</v>
       </c>
       <c r="H314" s="14"/>
+      <c r="I314" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="J314" s="2"/>
       <c r="L314" s="3"/>
       <c r="M314" s="3"/>
-      <c r="N314" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="O314" s="3"/>
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
@@ -12681,11 +13221,10 @@
         <v>371</v>
       </c>
       <c r="H315" s="33"/>
-      <c r="I315" s="1"/>
+      <c r="I315" t="s">
+        <v>373</v>
+      </c>
       <c r="J315" s="3"/>
-      <c r="N315" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="316" spans="1:17">
       <c r="A316" s="1" t="s">
@@ -12703,14 +13242,13 @@
       <c r="F316" s="1"/>
       <c r="G316" s="42"/>
       <c r="H316" s="42"/>
-      <c r="I316" s="1"/>
+      <c r="I316" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="J316" s="2"/>
       <c r="K316" s="1"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
-      <c r="N316" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
@@ -12731,12 +13269,12 @@
       </c>
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
+      <c r="I317" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="J317" s="3"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3"/>
-      <c r="N317" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="O317" s="3"/>
       <c r="P317" s="3">
         <f>187511.506023/(60*60)</f>
@@ -12781,7 +13319,9 @@
       <c r="A320" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B320" s="8"/>
+      <c r="B320" s="8">
+        <v>2282</v>
+      </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="9"/>
@@ -12802,13 +13342,22 @@
       <c r="A321" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B321" s="8"/>
+      <c r="B321" s="8">
+        <v>0.81664099371400001</v>
+      </c>
       <c r="D321" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E321" s="8"/>
-      <c r="G321" s="13"/>
+      <c r="E321" s="8">
+        <v>0.87568483266599995</v>
+      </c>
+      <c r="G321" s="13" t="s">
+        <v>407</v>
+      </c>
       <c r="H321" s="13"/>
+      <c r="I321" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="J321" s="3"/>
       <c r="L321" s="3"/>
       <c r="M321" s="3"/>
@@ -12821,26 +13370,44 @@
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B322" s="9"/>
-      <c r="C322"/>
-      <c r="D322" s="3" t="s">
+      <c r="B322" s="53">
+        <v>0.807703675801</v>
+      </c>
+      <c r="C322" s="44"/>
+      <c r="D322" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E322" s="9"/>
-      <c r="G322" s="13"/>
+      <c r="E322" s="53">
+        <v>0.91527623504400002</v>
+      </c>
+      <c r="G322" s="13" t="s">
+        <v>408</v>
+      </c>
       <c r="H322" s="13"/>
+      <c r="I322" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="323" spans="1:17" s="34" customFormat="1">
       <c r="A323" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B323" s="17"/>
+      <c r="B323" s="17">
+        <v>0.82577830916399997</v>
+      </c>
       <c r="D323" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E323" s="17"/>
-      <c r="G323" s="42"/>
+      <c r="E323" s="17">
+        <v>0.83937656415999995</v>
+      </c>
+      <c r="G323" s="42" t="s">
+        <v>409</v>
+      </c>
       <c r="H323" s="42"/>
+      <c r="I323" s="34" t="s">
+        <v>411</v>
+      </c>
       <c r="J323" s="2"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
@@ -12861,6 +13428,9 @@
       <c r="E324"/>
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
+      <c r="I324" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="J324" s="3"/>
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
@@ -12873,13 +13443,20 @@
       <c r="A325" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B325" s="8"/>
+      <c r="B325" s="8">
+        <v>99</v>
+      </c>
       <c r="D325" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E325" s="8"/>
+      <c r="E325" s="8">
+        <v>6</v>
+      </c>
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
+      <c r="I325" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="J325" s="3"/>
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
@@ -12907,11 +13484,10 @@
       <c r="D327" s="1"/>
       <c r="E327" s="9"/>
       <c r="F327" s="1"/>
-      <c r="G327" s="33" t="s">
+      <c r="I327" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H327" s="33"/>
-      <c r="I327" s="1"/>
+      <c r="J327" s="33"/>
     </row>
     <row r="328" spans="1:17" s="1" customFormat="1">
       <c r="A328" s="1" t="s">
@@ -12925,11 +13501,10 @@
         <v>8</v>
       </c>
       <c r="E328" s="9"/>
-      <c r="G328" s="13" t="s">
+      <c r="I328" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H328" s="13"/>
-      <c r="J328" s="34"/>
+      <c r="J328" s="13"/>
     </row>
     <row r="329" spans="1:17" s="1" customFormat="1">
       <c r="A329" s="1" t="s">
@@ -12942,10 +13517,10 @@
         <v>7</v>
       </c>
       <c r="E329" s="8"/>
-      <c r="G329" s="13" t="s">
+      <c r="I329" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="H329" s="13"/>
+      <c r="J329" s="13"/>
     </row>
     <row r="330" spans="1:17">
       <c r="A330" s="1" t="s">
@@ -12960,12 +13535,10 @@
       </c>
       <c r="E330" s="17"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="42" t="s">
+      <c r="I330" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H330" s="42"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="2"/>
+      <c r="J330" s="42"/>
       <c r="K330" s="1"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
@@ -12986,14 +13559,13 @@
         <v>9</v>
       </c>
       <c r="E331" s="34"/>
-      <c r="G331" s="14" t="s">
+      <c r="I331" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H331" s="14">
+      <c r="J331" s="14">
         <f>158036.651968/(60*60)</f>
         <v>43.899069991111105</v>
       </c>
-      <c r="J331" s="3"/>
       <c r="L331" s="3"/>
       <c r="M331" s="3"/>
       <c r="N331" s="3"/>
@@ -13060,22 +13632,30 @@
       <c r="A336" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B336" s="9"/>
+      <c r="B336" s="9">
+        <v>2305</v>
+      </c>
       <c r="C336"/>
       <c r="E336" s="9"/>
-      <c r="G336" s="13"/>
+      <c r="G336" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H336" s="13"/>
     </row>
     <row r="337" spans="1:17" s="1" customFormat="1">
       <c r="A337" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B337" s="8"/>
+      <c r="B337" s="8">
+        <v>0.86187464395699998</v>
+      </c>
       <c r="D337" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E337" s="8"/>
-      <c r="G337" s="14"/>
+      <c r="G337" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="H337" s="14"/>
       <c r="J337" s="3"/>
       <c r="L337" s="3"/>
@@ -13089,13 +13669,17 @@
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B338" s="17"/>
+      <c r="B338" s="17">
+        <v>0.90463201605499999</v>
+      </c>
       <c r="C338" s="34"/>
       <c r="D338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E338" s="17"/>
-      <c r="G338" s="14"/>
+      <c r="G338" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="H338" s="14"/>
       <c r="J338" s="3"/>
       <c r="L338" s="3"/>
@@ -13109,13 +13693,17 @@
       <c r="A339" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B339" s="17"/>
+      <c r="B339" s="17">
+        <v>0.82297670472100004</v>
+      </c>
       <c r="C339" s="34"/>
       <c r="D339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E339" s="17"/>
-      <c r="G339" s="14"/>
+      <c r="G339" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="H339" s="14"/>
       <c r="J339" s="3"/>
       <c r="L339" s="3"/>
@@ -13136,15 +13724,22 @@
       </c>
       <c r="E340" s="17"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="33"/>
-      <c r="H340" s="33"/>
+      <c r="G340" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="H340" s="33">
+        <f>297021.813278/(60*60)</f>
+        <v>82.506059243888885</v>
+      </c>
       <c r="I340" s="1"/>
     </row>
     <row r="341" spans="1:17" s="1" customFormat="1">
       <c r="A341" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B341" s="8"/>
+      <c r="B341" s="8">
+        <v>100</v>
+      </c>
       <c r="D341" s="3" t="s">
         <v>15</v>
       </c>
@@ -13379,218 +13974,233 @@
       <c r="G358" s="13"/>
       <c r="H358" s="13"/>
     </row>
-    <row r="359" spans="1:17" s="1" customFormat="1">
-      <c r="A359" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B359" s="8">
-        <v>11</v>
-      </c>
-      <c r="D359"/>
-      <c r="E359"/>
-      <c r="G359" s="13"/>
-      <c r="H359" s="13"/>
-    </row>
-    <row r="360" spans="1:17" s="1" customFormat="1">
-      <c r="A360" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B360" s="8"/>
-      <c r="E360" s="3"/>
-      <c r="G360" s="13"/>
-      <c r="H360" s="13"/>
-    </row>
-    <row r="361" spans="1:17" s="1" customFormat="1">
-      <c r="A361" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B361" s="8"/>
-      <c r="D361" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="14"/>
-      <c r="H361" s="14"/>
-      <c r="I361" s="3"/>
-      <c r="J361" s="3"/>
-      <c r="L361" s="3"/>
-      <c r="M361" s="3"/>
-      <c r="N361" s="3"/>
-      <c r="O361" s="3"/>
-      <c r="P361" s="3"/>
-      <c r="Q361" s="3"/>
-    </row>
+    <row r="360" spans="1:17" s="4" customFormat="1">
+      <c r="A360" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B360" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" s="13" customFormat="1"/>
     <row r="362" spans="1:17" s="1" customFormat="1">
-      <c r="A362" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B362" s="17"/>
-      <c r="C362" s="34"/>
-      <c r="D362" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E362" s="2"/>
+      <c r="A362" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B362" s="46"/>
+      <c r="D362" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E362" s="29"/>
       <c r="G362" s="13"/>
       <c r="H362" s="13"/>
     </row>
-    <row r="363" spans="1:17" s="1" customFormat="1">
-      <c r="A363" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B363" s="17"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E363" s="34"/>
-      <c r="G363" s="13"/>
-      <c r="H363" s="13"/>
+    <row r="363" spans="1:17" s="13" customFormat="1">
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="14"/>
     </row>
     <row r="364" spans="1:17" s="1" customFormat="1">
-      <c r="A364" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B364" s="17"/>
-      <c r="C364" s="34"/>
-      <c r="D364" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E364" s="34"/>
-      <c r="G364" s="13"/>
-      <c r="H364" s="13"/>
+      <c r="A364" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="8">
+        <v>5</v>
+      </c>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="G364" s="14"/>
+      <c r="H364" s="14"/>
+      <c r="J364" s="3"/>
+      <c r="L364" s="3"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
+      <c r="O364" s="3"/>
+      <c r="P364" s="3"/>
+      <c r="Q364" s="3"/>
     </row>
     <row r="365" spans="1:17" s="1" customFormat="1">
       <c r="A365" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B365" s="8"/>
-      <c r="D365" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G365" s="13"/>
-      <c r="H365" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B365" s="9"/>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="G365" s="14"/>
+      <c r="H365" s="14"/>
+      <c r="J365" s="2"/>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
+      <c r="P365" s="3"/>
+      <c r="Q365" s="3"/>
     </row>
     <row r="366" spans="1:17" s="1" customFormat="1">
+      <c r="A366" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B366" s="8"/>
-      <c r="D366"/>
-      <c r="E366"/>
-      <c r="G366" s="13"/>
-      <c r="H366" s="13"/>
-    </row>
-    <row r="367" spans="1:17" s="13" customFormat="1">
+      <c r="D366" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" s="8"/>
+      <c r="G366" s="14"/>
+      <c r="H366" s="14"/>
+      <c r="J366" s="2"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+    </row>
+    <row r="367" spans="1:17" s="1" customFormat="1">
       <c r="A367" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B367" s="8">
-        <v>12</v>
-      </c>
-      <c r="C367" s="1"/>
-      <c r="D367" s="1"/>
-      <c r="E367" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B367" s="9"/>
+      <c r="C367"/>
+      <c r="D367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E367" s="9"/>
+      <c r="G367" s="14"/>
+      <c r="H367" s="14"/>
+      <c r="J367" s="2"/>
+      <c r="L367" s="3"/>
+      <c r="M367" s="3"/>
+      <c r="N367" s="3"/>
+      <c r="O367" s="3"/>
+      <c r="P367" s="3"/>
+      <c r="Q367" s="3"/>
     </row>
     <row r="368" spans="1:17">
       <c r="A368" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B368" s="9"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="42"/>
-      <c r="H368" s="42"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="2"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="2"/>
-      <c r="M368" s="2"/>
-      <c r="N368" s="2"/>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-      <c r="Q368" s="2"/>
-    </row>
-    <row r="369" spans="1:17" s="1" customFormat="1">
+      <c r="D368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" s="9"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="33"/>
+      <c r="H368" s="33"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="3"/>
+    </row>
+    <row r="369" spans="1:17">
       <c r="A369" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B369" s="8"/>
-      <c r="D369" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E369" s="3"/>
-      <c r="G369" s="13"/>
-      <c r="H369" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="B369" s="9"/>
+      <c r="D369" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E369" s="9"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="42"/>
+      <c r="H369" s="42"/>
+      <c r="I369" s="1"/>
+      <c r="J369" s="2"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="2"/>
+      <c r="M369" s="2"/>
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
+      <c r="P369" s="2"/>
+      <c r="Q369" s="2"/>
     </row>
     <row r="370" spans="1:17" s="1" customFormat="1">
       <c r="A370" s="1" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370"/>
-      <c r="D370" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E370"/>
+      <c r="D370" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="9"/>
       <c r="G370" s="13"/>
       <c r="H370" s="13"/>
+      <c r="J370" s="3"/>
+      <c r="L370" s="3"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+      <c r="O370" s="3"/>
+      <c r="P370" s="3"/>
+      <c r="Q370" s="3"/>
     </row>
     <row r="371" spans="1:17" s="1" customFormat="1">
-      <c r="A371" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B371" s="9"/>
-      <c r="C371"/>
-      <c r="D371" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E371"/>
+      <c r="B371" s="8"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="13"/>
       <c r="G371" s="13"/>
       <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="J371" s="3"/>
+      <c r="L371" s="3"/>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
+      <c r="O371" s="3"/>
+      <c r="P371" s="3"/>
+      <c r="Q371" s="3"/>
     </row>
     <row r="372" spans="1:17" s="1" customFormat="1">
-      <c r="A372" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B372" s="9"/>
-      <c r="C372"/>
-      <c r="D372" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="A372" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B372" s="8">
+        <v>6</v>
+      </c>
+      <c r="E372" s="8"/>
       <c r="G372" s="13"/>
       <c r="H372" s="13"/>
-    </row>
-    <row r="373" spans="1:17" s="1" customFormat="1">
+      <c r="J372" s="3"/>
+      <c r="L372" s="3"/>
+      <c r="M372" s="3"/>
+      <c r="N372" s="3"/>
+      <c r="O372" s="3"/>
+      <c r="P372" s="3"/>
+      <c r="Q372" s="3"/>
+    </row>
+    <row r="373" spans="1:17">
       <c r="A373" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B373" s="8"/>
-      <c r="D373" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
-      <c r="K373" s="3"/>
-      <c r="L373" s="3"/>
-      <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
-      <c r="O373" s="3"/>
-      <c r="P373" s="3"/>
-      <c r="Q373" s="3"/>
-    </row>
-    <row r="374" spans="1:17">
-      <c r="A374" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="33"/>
+      <c r="H373" s="33"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="2"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="2"/>
+      <c r="M373" s="2"/>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" s="2"/>
+      <c r="Q373" s="2"/>
+    </row>
+    <row r="374" spans="1:17" s="1" customFormat="1">
+      <c r="A374" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B374" s="8"/>
-      <c r="C374" s="1"/>
-      <c r="D374" s="1"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
+      <c r="D374" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" s="8"/>
+      <c r="G374" s="13"/>
+      <c r="H374" s="13"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
       <c r="L374" s="3"/>
       <c r="M374" s="3"/>
       <c r="N374" s="3"/>
@@ -13600,60 +14210,49 @@
     </row>
     <row r="375" spans="1:17" s="1" customFormat="1">
       <c r="A375" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B375" s="8">
-        <v>13</v>
-      </c>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
-      <c r="K375" s="3"/>
-      <c r="L375" s="3"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
-      <c r="O375" s="3"/>
-      <c r="P375" s="3"/>
-      <c r="Q375" s="3"/>
-    </row>
-    <row r="376" spans="1:17" s="1" customFormat="1">
-      <c r="A376" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B376" s="16"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-      <c r="J376" s="3"/>
-      <c r="K376" s="3"/>
-      <c r="L376" s="3"/>
-      <c r="M376" s="3"/>
-      <c r="N376" s="3"/>
-      <c r="O376" s="3"/>
-      <c r="P376" s="3"/>
-      <c r="Q376" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B375" s="9"/>
+      <c r="C375"/>
+      <c r="D375" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E375" s="9"/>
+      <c r="G375" s="13"/>
+      <c r="H375" s="13"/>
+    </row>
+    <row r="376" spans="1:17" s="34" customFormat="1">
+      <c r="A376" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" s="17"/>
+      <c r="D376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E376" s="17"/>
+      <c r="G376" s="42"/>
+      <c r="H376" s="42"/>
+      <c r="J376" s="2"/>
+      <c r="L376" s="2"/>
+      <c r="M376" s="2"/>
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+      <c r="P376" s="2"/>
+      <c r="Q376" s="2"/>
     </row>
     <row r="377" spans="1:17" s="1" customFormat="1">
       <c r="A377" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B377" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="B377"/>
       <c r="C377"/>
       <c r="D377" s="3" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E377"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
+      <c r="G377" s="14"/>
+      <c r="H377" s="14"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="3"/>
       <c r="L377" s="3"/>
       <c r="M377" s="3"/>
       <c r="N377" s="3"/>
@@ -13661,20 +14260,18 @@
       <c r="P377" s="3"/>
       <c r="Q377" s="3"/>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" s="1" customFormat="1">
       <c r="A378" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B378" s="9"/>
+        <v>221</v>
+      </c>
+      <c r="B378" s="8"/>
       <c r="D378" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F378" s="3"/>
-      <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E378" s="8"/>
+      <c r="G378" s="14"/>
+      <c r="H378" s="14"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="3"/>
       <c r="L378" s="3"/>
       <c r="M378" s="3"/>
       <c r="N378" s="3"/>
@@ -13683,124 +14280,90 @@
       <c r="Q378" s="3"/>
     </row>
     <row r="379" spans="1:17">
-      <c r="A379" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B379" s="9"/>
-      <c r="D379" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E379" s="1"/>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-      <c r="J379" s="3"/>
-      <c r="K379" s="3"/>
-      <c r="L379" s="3"/>
-      <c r="M379" s="3"/>
-      <c r="N379" s="3"/>
-      <c r="O379" s="3"/>
-      <c r="P379" s="3"/>
-      <c r="Q379" s="3"/>
-    </row>
-    <row r="380" spans="1:17" s="1" customFormat="1">
-      <c r="A380" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B380" s="8"/>
-      <c r="D380" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E380"/>
-      <c r="F380" s="3"/>
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-      <c r="J380" s="3"/>
-      <c r="K380" s="3"/>
-      <c r="L380" s="3"/>
-      <c r="M380" s="3"/>
-      <c r="N380" s="3"/>
-      <c r="O380" s="3"/>
-      <c r="P380" s="3"/>
-      <c r="Q380" s="3"/>
-    </row>
-    <row r="381" spans="1:17">
+      <c r="E379" s="8"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="33"/>
+      <c r="H379" s="33"/>
+      <c r="I379" s="1"/>
+    </row>
+    <row r="380" spans="1:17">
+      <c r="A380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B380" s="8">
+        <v>7</v>
+      </c>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="33"/>
+      <c r="H380" s="33"/>
+      <c r="I380" s="1"/>
+    </row>
+    <row r="381" spans="1:17" s="1" customFormat="1">
       <c r="A381" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B381" s="8"/>
-      <c r="C381" s="1"/>
-      <c r="D381" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-      <c r="J381" s="3"/>
-      <c r="K381" s="3"/>
-      <c r="L381" s="3"/>
-      <c r="M381" s="3"/>
-      <c r="N381" s="3"/>
-      <c r="O381" s="3"/>
-      <c r="P381" s="3"/>
-      <c r="Q381" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B381" s="9"/>
+      <c r="C381"/>
+      <c r="D381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E381" s="9"/>
+      <c r="G381" s="13"/>
+      <c r="H381" s="13"/>
+      <c r="J381" s="34"/>
     </row>
     <row r="382" spans="1:17" s="1" customFormat="1">
-      <c r="B382" s="9"/>
-      <c r="C382"/>
-      <c r="D382"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-      <c r="H382" s="2"/>
-      <c r="I382" s="2"/>
-      <c r="J382" s="2"/>
-      <c r="K382" s="3"/>
-      <c r="L382" s="2"/>
-      <c r="M382" s="2"/>
-      <c r="N382" s="2"/>
-      <c r="O382" s="2"/>
-      <c r="P382" s="2"/>
-      <c r="Q382" s="2"/>
-    </row>
-    <row r="383" spans="1:17" s="1" customFormat="1">
+      <c r="A382" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382" s="8"/>
+      <c r="D382" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" s="8"/>
+      <c r="G382" s="13"/>
+      <c r="H382" s="13"/>
+    </row>
+    <row r="383" spans="1:17">
       <c r="A383" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B383" s="8">
-        <v>14</v>
-      </c>
-      <c r="E383" s="2"/>
-      <c r="F383" s="3"/>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
-      <c r="J383" s="3"/>
-      <c r="K383" s="3"/>
-      <c r="L383" s="3"/>
-      <c r="M383" s="3"/>
-      <c r="N383" s="3"/>
-      <c r="O383" s="3"/>
-      <c r="P383" s="3"/>
-      <c r="Q383" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B383" s="17"/>
+      <c r="C383" s="34"/>
+      <c r="D383" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E383" s="17"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="42"/>
+      <c r="H383" s="42"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="2"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="2"/>
+      <c r="M383" s="2"/>
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+      <c r="P383" s="2"/>
+      <c r="Q383" s="2"/>
     </row>
     <row r="384" spans="1:17" s="1" customFormat="1">
       <c r="A384" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B384" s="9"/>
-      <c r="C384"/>
-      <c r="E384"/>
-      <c r="F384" s="3"/>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B384" s="34"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E384" s="34"/>
+      <c r="G384" s="14"/>
+      <c r="H384" s="14"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="3"/>
       <c r="L384" s="3"/>
       <c r="M384" s="3"/>
       <c r="N384" s="3"/>
@@ -13808,20 +14371,19 @@
       <c r="P384" s="3"/>
       <c r="Q384" s="3"/>
     </row>
-    <row r="385" spans="1:17">
-      <c r="A385" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B385" s="9"/>
-      <c r="D385" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
+    <row r="385" spans="1:17" s="1" customFormat="1">
+      <c r="A385" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B385" s="17"/>
+      <c r="C385" s="34"/>
+      <c r="D385" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E385" s="17"/>
+      <c r="G385" s="14"/>
+      <c r="H385" s="14"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="3"/>
       <c r="L385" s="3"/>
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
@@ -13829,335 +14391,382 @@
       <c r="P385" s="3"/>
       <c r="Q385" s="3"/>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" s="1" customFormat="1">
       <c r="A386" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B386" s="8"/>
+      <c r="D386" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E386" s="8"/>
+      <c r="G386" s="13"/>
+      <c r="H386" s="13"/>
+    </row>
+    <row r="387" spans="1:17">
+      <c r="B387" s="8"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="33"/>
+      <c r="H387" s="33"/>
+      <c r="I387" s="1"/>
+    </row>
+    <row r="388" spans="1:17" s="1" customFormat="1">
+      <c r="A388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" s="8">
         <v>8</v>
       </c>
-      <c r="B386" s="9"/>
-      <c r="D386" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E386" s="1"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-      <c r="J386" s="3"/>
-      <c r="K386" s="3"/>
-      <c r="L386" s="3"/>
-      <c r="M386" s="3"/>
-      <c r="N386" s="3"/>
-      <c r="O386" s="3"/>
-      <c r="P386" s="3"/>
-      <c r="Q386" s="3"/>
-    </row>
-    <row r="387" spans="1:17" s="1" customFormat="1">
-      <c r="A387" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B387" s="8"/>
-      <c r="D387" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E387" s="13"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="14"/>
-      <c r="H387" s="14"/>
-      <c r="I387" s="3"/>
-      <c r="J387" s="3"/>
-      <c r="L387" s="3"/>
-      <c r="M387" s="3"/>
-      <c r="N387" s="3"/>
-      <c r="O387" s="3"/>
-      <c r="P387" s="3"/>
-      <c r="Q387" s="3"/>
-    </row>
-    <row r="388" spans="1:17" s="13" customFormat="1">
-      <c r="A388" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="389" spans="1:17" s="13" customFormat="1">
+      <c r="E388" s="8"/>
+      <c r="G388" s="13"/>
+      <c r="H388" s="13"/>
+    </row>
+    <row r="389" spans="1:17" s="1" customFormat="1">
       <c r="A389" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="390" spans="1:17">
-      <c r="A390" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B389" s="9"/>
+      <c r="C389"/>
+      <c r="E389" s="9"/>
+      <c r="G389" s="13"/>
+      <c r="H389" s="13"/>
+    </row>
+    <row r="390" spans="1:17" s="1" customFormat="1">
+      <c r="A390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390" s="8"/>
+      <c r="D390" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="8"/>
+      <c r="G390" s="14"/>
+      <c r="H390" s="14"/>
+      <c r="J390" s="3"/>
+      <c r="L390" s="3"/>
+      <c r="M390" s="3"/>
+      <c r="N390" s="3"/>
+      <c r="O390" s="3"/>
+      <c r="P390" s="3"/>
+      <c r="Q390" s="3"/>
     </row>
     <row r="391" spans="1:17" s="1" customFormat="1">
       <c r="A391" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B391" s="1">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B391" s="17"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E391" s="17"/>
+      <c r="G391" s="14"/>
+      <c r="H391" s="14"/>
+      <c r="J391" s="3"/>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3"/>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+      <c r="P391" s="3"/>
+      <c r="Q391" s="3"/>
     </row>
     <row r="392" spans="1:17" s="1" customFormat="1">
       <c r="A392" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B392" s="17"/>
+      <c r="C392" s="34"/>
+      <c r="D392" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E392" s="17"/>
+      <c r="G392" s="14"/>
+      <c r="H392" s="14"/>
+      <c r="J392" s="3"/>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3"/>
+      <c r="N392" s="3"/>
+      <c r="O392" s="3"/>
+      <c r="P392" s="3"/>
+      <c r="Q392" s="3"/>
     </row>
     <row r="393" spans="1:17">
-      <c r="A393" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="394" spans="1:17">
+      <c r="A393" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B393" s="17"/>
+      <c r="C393" s="34"/>
+      <c r="D393" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E393" s="17"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="33"/>
+      <c r="H393" s="33"/>
+      <c r="I393" s="1"/>
+    </row>
+    <row r="394" spans="1:17" s="1" customFormat="1">
       <c r="A394" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B394" s="8"/>
       <c r="D394" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="395" spans="1:17">
-      <c r="A395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E394" s="16"/>
+      <c r="G394" s="13"/>
+      <c r="H394" s="13"/>
+    </row>
+    <row r="395" spans="1:17" s="1" customFormat="1">
+      <c r="B395" s="45"/>
+      <c r="C395" s="33"/>
+      <c r="D395" s="13"/>
+      <c r="E395" s="45"/>
+      <c r="G395" s="13"/>
+      <c r="H395" s="13"/>
+    </row>
+    <row r="396" spans="1:17" s="1" customFormat="1">
+      <c r="A396" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B396" s="8">
         <v>9</v>
       </c>
-      <c r="D395" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="396" spans="1:17">
-      <c r="A396" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="D396" s="13"/>
+      <c r="E396" s="8"/>
+      <c r="G396" s="13"/>
+      <c r="H396" s="13"/>
     </row>
     <row r="397" spans="1:17">
       <c r="A397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="9"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="42"/>
+      <c r="H397" s="42"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="2"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="2"/>
+      <c r="M397" s="2"/>
+      <c r="N397" s="2"/>
+      <c r="O397" s="2"/>
+      <c r="P397" s="2"/>
+      <c r="Q397" s="2"/>
+    </row>
+    <row r="398" spans="1:17" s="1" customFormat="1">
+      <c r="A398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" s="8"/>
+      <c r="D398" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398" s="8"/>
+      <c r="G398" s="14"/>
+      <c r="H398" s="14"/>
+      <c r="J398" s="3"/>
+      <c r="L398" s="3"/>
+      <c r="M398" s="3"/>
+      <c r="N398" s="3"/>
+      <c r="O398" s="3"/>
+      <c r="P398" s="3"/>
+      <c r="Q398" s="3"/>
+    </row>
+    <row r="399" spans="1:17" s="1" customFormat="1">
+      <c r="A399" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" s="17"/>
+      <c r="D399" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399" s="17"/>
+      <c r="F399" s="13"/>
+      <c r="G399" s="14"/>
+      <c r="H399" s="14"/>
+      <c r="I399" s="13"/>
+      <c r="J399" s="14"/>
+      <c r="L399" s="3"/>
+      <c r="M399" s="3"/>
+      <c r="N399" s="3"/>
+      <c r="O399" s="3"/>
+      <c r="P399" s="3"/>
+      <c r="Q399" s="3"/>
+    </row>
+    <row r="400" spans="1:17">
+      <c r="A400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" s="17"/>
+      <c r="D400" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" s="17"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="33"/>
+      <c r="H400" s="33"/>
+      <c r="I400" s="1"/>
+    </row>
+    <row r="401" spans="1:17">
+      <c r="A401" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B401" s="17"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E401" s="17"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="33"/>
+      <c r="H401" s="33"/>
+      <c r="I401" s="1"/>
+    </row>
+    <row r="402" spans="1:17" s="1" customFormat="1">
+      <c r="A402" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B402" s="8"/>
+      <c r="D402" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D397" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="400" spans="1:17" s="4" customFormat="1">
-      <c r="A400" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B400" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:17" s="13" customFormat="1"/>
-    <row r="402" spans="1:17" s="1" customFormat="1">
-      <c r="A402" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B402" s="46"/>
-      <c r="D402" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E402" s="29"/>
+      <c r="E402" s="8"/>
       <c r="G402" s="13"/>
       <c r="H402" s="13"/>
     </row>
-    <row r="403" spans="1:17" s="13" customFormat="1">
-      <c r="A403" s="14"/>
-      <c r="B403" s="14"/>
-      <c r="D403" s="14"/>
-      <c r="E403" s="14"/>
+    <row r="403" spans="1:17" s="1" customFormat="1">
+      <c r="B403" s="9"/>
+      <c r="C403"/>
+      <c r="E403" s="9"/>
+      <c r="G403" s="13"/>
+      <c r="H403" s="13"/>
     </row>
     <row r="404" spans="1:17" s="1" customFormat="1">
       <c r="A404" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B404" s="8">
-        <v>5</v>
-      </c>
-      <c r="C404"/>
-      <c r="D404"/>
-      <c r="E404"/>
-      <c r="G404" s="14"/>
-      <c r="H404" s="14"/>
-      <c r="J404" s="3"/>
-      <c r="L404" s="3"/>
-      <c r="M404" s="3"/>
-      <c r="N404" s="3"/>
-      <c r="O404" s="3"/>
-      <c r="P404" s="3"/>
-      <c r="Q404" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E404" s="8"/>
+      <c r="G404" s="13"/>
+      <c r="H404" s="13"/>
     </row>
     <row r="405" spans="1:17" s="1" customFormat="1">
       <c r="A405" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B405" s="9"/>
-      <c r="C405"/>
+      <c r="B405" s="8"/>
       <c r="D405"/>
       <c r="E405"/>
-      <c r="G405" s="14"/>
-      <c r="H405" s="14"/>
-      <c r="J405" s="2"/>
-      <c r="L405" s="3"/>
-      <c r="M405" s="3"/>
-      <c r="N405" s="3"/>
-      <c r="O405" s="3"/>
-      <c r="P405" s="3"/>
-      <c r="Q405" s="3"/>
+      <c r="G405" s="13"/>
+      <c r="H405" s="13"/>
     </row>
     <row r="406" spans="1:17" s="1" customFormat="1">
       <c r="A406" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B406" s="8"/>
-      <c r="D406" s="1" t="s">
+      <c r="D406" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E406" s="8"/>
-      <c r="G406" s="14"/>
-      <c r="H406" s="14"/>
-      <c r="J406" s="2"/>
-      <c r="L406" s="3"/>
-      <c r="M406" s="3"/>
-      <c r="N406" s="3"/>
-      <c r="O406" s="3"/>
-      <c r="P406" s="3"/>
-      <c r="Q406" s="3"/>
-    </row>
-    <row r="407" spans="1:17" s="1" customFormat="1">
+      <c r="E406" s="3"/>
+      <c r="G406" s="13"/>
+      <c r="H406" s="13"/>
+    </row>
+    <row r="407" spans="1:17">
       <c r="A407" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B407" s="9"/>
-      <c r="C407"/>
-      <c r="D407" s="1" t="s">
+      <c r="B407" s="17"/>
+      <c r="C407" s="34"/>
+      <c r="D407" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E407" s="9"/>
-      <c r="G407" s="14"/>
-      <c r="H407" s="14"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="42"/>
+      <c r="H407" s="42"/>
+      <c r="I407" s="2"/>
       <c r="J407" s="2"/>
-      <c r="L407" s="3"/>
-      <c r="M407" s="3"/>
-      <c r="N407" s="3"/>
-      <c r="O407" s="3"/>
-      <c r="P407" s="3"/>
-      <c r="Q407" s="3"/>
-    </row>
-    <row r="408" spans="1:17">
+      <c r="K407" s="1"/>
+      <c r="L407" s="2"/>
+      <c r="M407" s="2"/>
+      <c r="N407" s="2"/>
+      <c r="O407" s="2"/>
+      <c r="P407" s="2"/>
+      <c r="Q407" s="2"/>
+    </row>
+    <row r="408" spans="1:17" s="1" customFormat="1">
       <c r="A408" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B408" s="9"/>
-      <c r="D408" s="1" t="s">
+      <c r="B408" s="17"/>
+      <c r="C408" s="34"/>
+      <c r="D408" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E408" s="9"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="33"/>
-      <c r="H408" s="33"/>
-      <c r="I408" s="1"/>
-      <c r="J408" s="3"/>
-    </row>
-    <row r="409" spans="1:17">
-      <c r="A409" s="1" t="s">
+      <c r="E408" s="2"/>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13"/>
+    </row>
+    <row r="409" spans="1:17" s="1" customFormat="1">
+      <c r="A409" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B409" s="9"/>
-      <c r="D409" s="1" t="s">
+      <c r="B409" s="17"/>
+      <c r="C409" s="34"/>
+      <c r="D409" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E409" s="9"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="42"/>
-      <c r="H409" s="42"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="2"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="2"/>
-      <c r="M409" s="2"/>
-      <c r="N409" s="2"/>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" s="2"/>
+      <c r="E409" s="34"/>
+      <c r="G409" s="13"/>
+      <c r="H409" s="13"/>
     </row>
     <row r="410" spans="1:17" s="1" customFormat="1">
       <c r="A410" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B410" s="9"/>
-      <c r="C410"/>
-      <c r="D410" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E410" s="9"/>
+      <c r="B410" s="8"/>
+      <c r="D410" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G410" s="13"/>
       <c r="H410" s="13"/>
-      <c r="J410" s="3"/>
-      <c r="L410" s="3"/>
-      <c r="M410" s="3"/>
-      <c r="N410" s="3"/>
-      <c r="O410" s="3"/>
-      <c r="P410" s="3"/>
-      <c r="Q410" s="3"/>
     </row>
     <row r="411" spans="1:17" s="1" customFormat="1">
-      <c r="B411" s="8"/>
-      <c r="E411" s="9"/>
-      <c r="F411" s="13"/>
+      <c r="B411" s="9"/>
+      <c r="C411"/>
       <c r="G411" s="13"/>
       <c r="H411" s="13"/>
-      <c r="I411" s="13"/>
-      <c r="J411" s="3"/>
-      <c r="L411" s="3"/>
-      <c r="M411" s="3"/>
-      <c r="N411" s="3"/>
-      <c r="O411" s="3"/>
-      <c r="P411" s="3"/>
-      <c r="Q411" s="3"/>
     </row>
     <row r="412" spans="1:17" s="1" customFormat="1">
       <c r="A412" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B412" s="8">
-        <v>6</v>
-      </c>
-      <c r="E412" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D412"/>
+      <c r="E412"/>
       <c r="G412" s="13"/>
       <c r="H412" s="13"/>
-      <c r="J412" s="3"/>
-      <c r="L412" s="3"/>
-      <c r="M412" s="3"/>
-      <c r="N412" s="3"/>
-      <c r="O412" s="3"/>
-      <c r="P412" s="3"/>
-      <c r="Q412" s="3"/>
-    </row>
-    <row r="413" spans="1:17">
+    </row>
+    <row r="413" spans="1:17" s="1" customFormat="1">
       <c r="A413" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B413" s="8"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="9"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="33"/>
-      <c r="H413" s="33"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="2"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="2"/>
-      <c r="M413" s="2"/>
-      <c r="N413" s="2"/>
-      <c r="O413" s="2"/>
-      <c r="P413" s="2"/>
-      <c r="Q413" s="2"/>
+      <c r="E413" s="3"/>
+      <c r="G413" s="13"/>
+      <c r="H413" s="13"/>
     </row>
     <row r="414" spans="1:17" s="1" customFormat="1">
       <c r="A414" s="1" t="s">
@@ -14167,9 +14776,11 @@
       <c r="D414" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E414" s="8"/>
-      <c r="G414" s="13"/>
-      <c r="H414" s="13"/>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="14"/>
+      <c r="H414" s="14"/>
+      <c r="I414" s="3"/>
       <c r="J414" s="3"/>
       <c r="L414" s="3"/>
       <c r="M414" s="3"/>
@@ -14182,109 +14793,88 @@
       <c r="A415" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B415" s="9"/>
-      <c r="C415"/>
-      <c r="D415" s="3" t="s">
+      <c r="B415" s="17"/>
+      <c r="C415" s="34"/>
+      <c r="D415" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E415" s="9"/>
+      <c r="E415" s="2"/>
       <c r="G415" s="13"/>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:17" s="34" customFormat="1">
-      <c r="A416" s="34" t="s">
+    <row r="416" spans="1:17" s="1" customFormat="1">
+      <c r="A416" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B416" s="17"/>
+      <c r="C416" s="34"/>
       <c r="D416" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E416" s="17"/>
-      <c r="G416" s="42"/>
-      <c r="H416" s="42"/>
-      <c r="J416" s="2"/>
-      <c r="L416" s="2"/>
-      <c r="M416" s="2"/>
-      <c r="N416" s="2"/>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
-      <c r="Q416" s="2"/>
+      <c r="E416" s="34"/>
+      <c r="G416" s="13"/>
+      <c r="H416" s="13"/>
     </row>
     <row r="417" spans="1:17" s="1" customFormat="1">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B417"/>
-      <c r="C417"/>
-      <c r="D417" s="3" t="s">
+      <c r="B417" s="17"/>
+      <c r="C417" s="34"/>
+      <c r="D417" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E417"/>
-      <c r="G417" s="14"/>
-      <c r="H417" s="14"/>
-      <c r="J417" s="3"/>
-      <c r="L417" s="3"/>
-      <c r="M417" s="3"/>
-      <c r="N417" s="3"/>
-      <c r="O417" s="3"/>
-      <c r="P417" s="3"/>
-      <c r="Q417" s="3"/>
+      <c r="E417" s="34"/>
+      <c r="G417" s="13"/>
+      <c r="H417" s="13"/>
     </row>
     <row r="418" spans="1:17" s="1" customFormat="1">
       <c r="A418" s="1" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="B418" s="8"/>
       <c r="D418" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E418" s="8"/>
-      <c r="G418" s="14"/>
-      <c r="H418" s="14"/>
-      <c r="J418" s="3"/>
-      <c r="L418" s="3"/>
-      <c r="M418" s="3"/>
-      <c r="N418" s="3"/>
-      <c r="O418" s="3"/>
-      <c r="P418" s="3"/>
-      <c r="Q418" s="3"/>
-    </row>
-    <row r="419" spans="1:17">
-      <c r="B419" s="9"/>
-      <c r="E419" s="8"/>
-      <c r="F419" s="1"/>
-      <c r="G419" s="33"/>
-      <c r="H419" s="33"/>
-      <c r="I419" s="1"/>
-    </row>
-    <row r="420" spans="1:17">
+      <c r="G418" s="13"/>
+      <c r="H418" s="13"/>
+    </row>
+    <row r="419" spans="1:17" s="1" customFormat="1">
+      <c r="B419" s="8"/>
+      <c r="D419"/>
+      <c r="E419"/>
+      <c r="G419" s="13"/>
+      <c r="H419" s="13"/>
+    </row>
+    <row r="420" spans="1:17" s="13" customFormat="1">
       <c r="A420" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B420" s="8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
-      <c r="E420" s="9"/>
-      <c r="F420" s="1"/>
-      <c r="G420" s="33"/>
-      <c r="H420" s="33"/>
-      <c r="I420" s="1"/>
-    </row>
-    <row r="421" spans="1:17" s="1" customFormat="1">
+      <c r="E420" s="3"/>
+    </row>
+    <row r="421" spans="1:17">
       <c r="A421" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B421" s="9"/>
-      <c r="C421"/>
-      <c r="D421" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E421" s="9"/>
-      <c r="G421" s="13"/>
-      <c r="H421" s="13"/>
-      <c r="J421" s="34"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="42"/>
+      <c r="H421" s="42"/>
+      <c r="I421" s="2"/>
+      <c r="J421" s="2"/>
+      <c r="K421" s="1"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="2"/>
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+      <c r="P421" s="2"/>
+      <c r="Q421" s="2"/>
     </row>
     <row r="422" spans="1:17" s="1" customFormat="1">
       <c r="A422" s="1" t="s">
@@ -14294,128 +14884,144 @@
       <c r="D422" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E422" s="8"/>
+      <c r="E422" s="3"/>
       <c r="G422" s="13"/>
       <c r="H422" s="13"/>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" s="1" customFormat="1">
       <c r="A423" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B423" s="17"/>
-      <c r="C423" s="34"/>
-      <c r="D423" s="2" t="s">
+      <c r="B423" s="9"/>
+      <c r="C423"/>
+      <c r="D423" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E423" s="17"/>
-      <c r="F423" s="1"/>
-      <c r="G423" s="42"/>
-      <c r="H423" s="42"/>
-      <c r="I423" s="1"/>
-      <c r="J423" s="2"/>
-      <c r="K423" s="1"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="2"/>
-      <c r="N423" s="2"/>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
-      <c r="Q423" s="2"/>
+      <c r="E423"/>
+      <c r="G423" s="13"/>
+      <c r="H423" s="13"/>
     </row>
     <row r="424" spans="1:17" s="1" customFormat="1">
       <c r="A424" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B424" s="34"/>
-      <c r="C424" s="34"/>
-      <c r="D424" s="2" t="s">
+      <c r="B424" s="9"/>
+      <c r="C424"/>
+      <c r="D424" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E424" s="34"/>
-      <c r="G424" s="14"/>
-      <c r="H424" s="14"/>
-      <c r="J424" s="3"/>
-      <c r="L424" s="3"/>
-      <c r="M424" s="3"/>
-      <c r="N424" s="3"/>
-      <c r="O424" s="3"/>
-      <c r="P424" s="3"/>
-      <c r="Q424" s="3"/>
+      <c r="E424"/>
+      <c r="G424" s="13"/>
+      <c r="H424" s="13"/>
     </row>
     <row r="425" spans="1:17" s="1" customFormat="1">
       <c r="A425" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B425" s="17"/>
-      <c r="C425" s="34"/>
-      <c r="D425" s="2" t="s">
+      <c r="B425" s="9"/>
+      <c r="C425"/>
+      <c r="D425" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E425" s="17"/>
-      <c r="G425" s="14"/>
-      <c r="H425" s="14"/>
-      <c r="J425" s="3"/>
-      <c r="L425" s="3"/>
-      <c r="M425" s="3"/>
-      <c r="N425" s="3"/>
-      <c r="O425" s="3"/>
-      <c r="P425" s="3"/>
-      <c r="Q425" s="3"/>
+      <c r="G425" s="13"/>
+      <c r="H425" s="13"/>
     </row>
     <row r="426" spans="1:17" s="1" customFormat="1">
       <c r="A426" s="1" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="B426" s="8"/>
       <c r="D426" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E426" s="8"/>
-      <c r="G426" s="13"/>
-      <c r="H426" s="13"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="3"/>
+      <c r="H426" s="3"/>
+      <c r="I426" s="3"/>
+      <c r="J426" s="3"/>
+      <c r="K426" s="3"/>
+      <c r="L426" s="3"/>
+      <c r="M426" s="3"/>
+      <c r="N426" s="3"/>
+      <c r="O426" s="3"/>
+      <c r="P426" s="3"/>
+      <c r="Q426" s="3"/>
     </row>
     <row r="427" spans="1:17">
+      <c r="A427" s="1"/>
       <c r="B427" s="8"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
-      <c r="E427" s="9"/>
-      <c r="F427" s="1"/>
-      <c r="G427" s="33"/>
-      <c r="H427" s="33"/>
-      <c r="I427" s="1"/>
+      <c r="E427" s="3"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="3"/>
+      <c r="H427" s="3"/>
+      <c r="I427" s="3"/>
+      <c r="J427" s="3"/>
+      <c r="K427" s="3"/>
+      <c r="L427" s="3"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="3"/>
+      <c r="O427" s="3"/>
+      <c r="P427" s="3"/>
+      <c r="Q427" s="3"/>
     </row>
     <row r="428" spans="1:17" s="1" customFormat="1">
       <c r="A428" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B428" s="8">
-        <v>8</v>
-      </c>
-      <c r="E428" s="8"/>
-      <c r="G428" s="13"/>
-      <c r="H428" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="E428" s="3"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="3"/>
+      <c r="H428" s="3"/>
+      <c r="I428" s="3"/>
+      <c r="J428" s="3"/>
+      <c r="K428" s="3"/>
+      <c r="L428" s="3"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="3"/>
+      <c r="O428" s="3"/>
+      <c r="P428" s="3"/>
+      <c r="Q428" s="3"/>
     </row>
     <row r="429" spans="1:17" s="1" customFormat="1">
       <c r="A429" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B429" s="9"/>
-      <c r="C429"/>
-      <c r="E429" s="9"/>
-      <c r="G429" s="13"/>
-      <c r="H429" s="13"/>
+      <c r="B429" s="16"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="3"/>
+      <c r="H429" s="3"/>
+      <c r="I429" s="3"/>
+      <c r="J429" s="3"/>
+      <c r="K429" s="3"/>
+      <c r="L429" s="3"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="3"/>
+      <c r="O429" s="3"/>
+      <c r="P429" s="3"/>
+      <c r="Q429" s="3"/>
     </row>
     <row r="430" spans="1:17" s="1" customFormat="1">
       <c r="A430" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B430" s="8"/>
+      <c r="B430" s="9"/>
+      <c r="C430"/>
       <c r="D430" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E430" s="8"/>
-      <c r="G430" s="14"/>
-      <c r="H430" s="14"/>
+      <c r="E430"/>
+      <c r="F430" s="3"/>
+      <c r="G430" s="3"/>
+      <c r="H430" s="3"/>
+      <c r="I430" s="3"/>
       <c r="J430" s="3"/>
+      <c r="K430" s="3"/>
       <c r="L430" s="3"/>
       <c r="M430" s="3"/>
       <c r="N430" s="3"/>
@@ -14423,19 +15029,20 @@
       <c r="P430" s="3"/>
       <c r="Q430" s="3"/>
     </row>
-    <row r="431" spans="1:17" s="1" customFormat="1">
+    <row r="431" spans="1:17">
       <c r="A431" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B431" s="17"/>
-      <c r="C431" s="34"/>
-      <c r="D431" s="2" t="s">
+      <c r="B431" s="9"/>
+      <c r="D431" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E431" s="17"/>
-      <c r="G431" s="14"/>
-      <c r="H431" s="14"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="3"/>
+      <c r="H431" s="3"/>
+      <c r="I431" s="3"/>
       <c r="J431" s="3"/>
+      <c r="K431" s="3"/>
       <c r="L431" s="3"/>
       <c r="M431" s="3"/>
       <c r="N431" s="3"/>
@@ -14443,19 +15050,21 @@
       <c r="P431" s="3"/>
       <c r="Q431" s="3"/>
     </row>
-    <row r="432" spans="1:17" s="1" customFormat="1">
+    <row r="432" spans="1:17">
       <c r="A432" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B432" s="17"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="2" t="s">
+      <c r="B432" s="9"/>
+      <c r="D432" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E432" s="17"/>
-      <c r="G432" s="14"/>
-      <c r="H432" s="14"/>
+      <c r="E432" s="1"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="I432" s="3"/>
       <c r="J432" s="3"/>
+      <c r="K432" s="3"/>
       <c r="L432" s="3"/>
       <c r="M432" s="3"/>
       <c r="N432" s="3"/>
@@ -14463,85 +15072,124 @@
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" s="1" customFormat="1">
       <c r="A433" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B433" s="17"/>
-      <c r="C433" s="34"/>
-      <c r="D433" s="2" t="s">
+      <c r="B433" s="8"/>
+      <c r="D433" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E433" s="17"/>
-      <c r="F433" s="1"/>
-      <c r="G433" s="33"/>
-      <c r="H433" s="33"/>
-      <c r="I433" s="1"/>
-    </row>
-    <row r="434" spans="1:17" s="1" customFormat="1">
+      <c r="E433"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="3"/>
+      <c r="H433" s="3"/>
+      <c r="I433" s="3"/>
+      <c r="J433" s="3"/>
+      <c r="K433" s="3"/>
+      <c r="L433" s="3"/>
+      <c r="M433" s="3"/>
+      <c r="N433" s="3"/>
+      <c r="O433" s="3"/>
+      <c r="P433" s="3"/>
+      <c r="Q433" s="3"/>
+    </row>
+    <row r="434" spans="1:17">
       <c r="A434" s="1" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="B434" s="8"/>
+      <c r="C434" s="1"/>
       <c r="D434" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E434" s="16"/>
-      <c r="G434" s="13"/>
-      <c r="H434" s="13"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+      <c r="K434" s="3"/>
+      <c r="L434" s="3"/>
+      <c r="M434" s="3"/>
+      <c r="N434" s="3"/>
+      <c r="O434" s="3"/>
+      <c r="P434" s="3"/>
+      <c r="Q434" s="3"/>
     </row>
     <row r="435" spans="1:17" s="1" customFormat="1">
-      <c r="B435" s="45"/>
-      <c r="C435" s="33"/>
-      <c r="D435" s="13"/>
-      <c r="E435" s="45"/>
-      <c r="G435" s="13"/>
-      <c r="H435" s="13"/>
+      <c r="B435" s="9"/>
+      <c r="C435"/>
+      <c r="D435"/>
+      <c r="E435" s="3"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
+      <c r="H435" s="2"/>
+      <c r="I435" s="2"/>
+      <c r="J435" s="2"/>
+      <c r="K435" s="3"/>
+      <c r="L435" s="2"/>
+      <c r="M435" s="2"/>
+      <c r="N435" s="2"/>
+      <c r="O435" s="2"/>
+      <c r="P435" s="2"/>
+      <c r="Q435" s="2"/>
     </row>
     <row r="436" spans="1:17" s="1" customFormat="1">
       <c r="A436" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B436" s="8">
-        <v>9</v>
-      </c>
-      <c r="D436" s="13"/>
-      <c r="E436" s="8"/>
-      <c r="G436" s="13"/>
-      <c r="H436" s="13"/>
-    </row>
-    <row r="437" spans="1:17">
+        <v>14</v>
+      </c>
+      <c r="E436" s="2"/>
+      <c r="F436" s="3"/>
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+      <c r="I436" s="3"/>
+      <c r="J436" s="3"/>
+      <c r="K436" s="3"/>
+      <c r="L436" s="3"/>
+      <c r="M436" s="3"/>
+      <c r="N436" s="3"/>
+      <c r="O436" s="3"/>
+      <c r="P436" s="3"/>
+      <c r="Q436" s="3"/>
+    </row>
+    <row r="437" spans="1:17" s="1" customFormat="1">
       <c r="A437" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B437" s="9"/>
-      <c r="D437" s="1"/>
-      <c r="E437" s="8"/>
-      <c r="F437" s="1"/>
-      <c r="G437" s="42"/>
-      <c r="H437" s="42"/>
-      <c r="I437" s="1"/>
-      <c r="J437" s="2"/>
-      <c r="K437" s="1"/>
-      <c r="L437" s="2"/>
-      <c r="M437" s="2"/>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-      <c r="P437" s="2"/>
-      <c r="Q437" s="2"/>
-    </row>
-    <row r="438" spans="1:17" s="1" customFormat="1">
-      <c r="A438" s="1" t="s">
+      <c r="C437"/>
+      <c r="E437"/>
+      <c r="F437" s="3"/>
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+      <c r="I437" s="3"/>
+      <c r="J437" s="3"/>
+      <c r="K437" s="3"/>
+      <c r="L437" s="3"/>
+      <c r="M437" s="3"/>
+      <c r="N437" s="3"/>
+      <c r="O437" s="3"/>
+      <c r="P437" s="3"/>
+      <c r="Q437" s="3"/>
+    </row>
+    <row r="438" spans="1:17">
+      <c r="A438" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B438" s="8"/>
+      <c r="B438" s="9"/>
       <c r="D438" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E438" s="8"/>
-      <c r="G438" s="14"/>
-      <c r="H438" s="14"/>
+      <c r="F438" s="3"/>
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+      <c r="I438" s="3"/>
       <c r="J438" s="3"/>
+      <c r="K438" s="3"/>
       <c r="L438" s="3"/>
       <c r="M438" s="3"/>
       <c r="N438" s="3"/>
@@ -14549,20 +15197,21 @@
       <c r="P438" s="3"/>
       <c r="Q438" s="3"/>
     </row>
-    <row r="439" spans="1:17" s="1" customFormat="1">
-      <c r="A439" s="13" t="s">
+    <row r="439" spans="1:17">
+      <c r="A439" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B439" s="17"/>
+      <c r="B439" s="9"/>
       <c r="D439" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E439" s="17"/>
-      <c r="F439" s="13"/>
-      <c r="G439" s="14"/>
-      <c r="H439" s="14"/>
-      <c r="I439" s="13"/>
-      <c r="J439" s="14"/>
+      <c r="E439" s="1"/>
+      <c r="F439" s="3"/>
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+      <c r="I439" s="3"/>
+      <c r="J439" s="3"/>
+      <c r="K439" s="3"/>
       <c r="L439" s="3"/>
       <c r="M439" s="3"/>
       <c r="N439" s="3"/>
@@ -14570,715 +15219,96 @@
       <c r="P439" s="3"/>
       <c r="Q439" s="3"/>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" s="1" customFormat="1">
       <c r="A440" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B440" s="17"/>
+      <c r="B440" s="8"/>
       <c r="D440" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E440" s="17"/>
-      <c r="F440" s="1"/>
-      <c r="G440" s="33"/>
-      <c r="H440" s="33"/>
-      <c r="I440" s="1"/>
-    </row>
-    <row r="441" spans="1:17">
-      <c r="A441" s="3" t="s">
+      <c r="E440" s="13"/>
+      <c r="F440" s="3"/>
+      <c r="G440" s="14"/>
+      <c r="H440" s="14"/>
+      <c r="I440" s="3"/>
+      <c r="J440" s="3"/>
+      <c r="L440" s="3"/>
+      <c r="M440" s="3"/>
+      <c r="N440" s="3"/>
+      <c r="O440" s="3"/>
+      <c r="P440" s="3"/>
+      <c r="Q440" s="3"/>
+    </row>
+    <row r="441" spans="1:17" s="13" customFormat="1">
+      <c r="A441" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B441" s="17"/>
-      <c r="C441" s="1"/>
       <c r="D441" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E441" s="17"/>
-      <c r="F441" s="1"/>
-      <c r="G441" s="33"/>
-      <c r="H441" s="33"/>
-      <c r="I441" s="1"/>
-    </row>
-    <row r="442" spans="1:17" s="1" customFormat="1">
+    </row>
+    <row r="442" spans="1:17" s="13" customFormat="1">
       <c r="A442" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B442" s="8"/>
+        <v>15</v>
+      </c>
       <c r="D442" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E442" s="8"/>
-      <c r="G442" s="13"/>
-      <c r="H442" s="13"/>
-    </row>
-    <row r="443" spans="1:17" s="1" customFormat="1">
-      <c r="B443" s="9"/>
-      <c r="C443"/>
-      <c r="E443" s="9"/>
-      <c r="G443" s="13"/>
-      <c r="H443" s="13"/>
+    </row>
+    <row r="443" spans="1:17">
+      <c r="A443" s="1"/>
     </row>
     <row r="444" spans="1:17" s="1" customFormat="1">
       <c r="A444" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B444" s="8">
-        <v>10</v>
-      </c>
-      <c r="E444" s="8"/>
-      <c r="G444" s="13"/>
-      <c r="H444" s="13"/>
+      <c r="B444" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="445" spans="1:17" s="1" customFormat="1">
       <c r="A445" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B445" s="8"/>
-      <c r="D445"/>
-      <c r="E445"/>
-      <c r="G445" s="13"/>
-      <c r="H445" s="13"/>
-    </row>
-    <row r="446" spans="1:17" s="1" customFormat="1">
+    </row>
+    <row r="446" spans="1:17">
       <c r="A446" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B446" s="8"/>
       <c r="D446" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E446" s="3"/>
-      <c r="G446" s="13"/>
-      <c r="H446" s="13"/>
     </row>
     <row r="447" spans="1:17">
       <c r="A447" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B447" s="17"/>
-      <c r="C447" s="34"/>
-      <c r="D447" s="2" t="s">
+      <c r="D447" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="42"/>
-      <c r="H447" s="42"/>
-      <c r="I447" s="2"/>
-      <c r="J447" s="2"/>
-      <c r="K447" s="1"/>
-      <c r="L447" s="2"/>
-      <c r="M447" s="2"/>
-      <c r="N447" s="2"/>
-      <c r="O447" s="2"/>
-      <c r="P447" s="2"/>
-      <c r="Q447" s="2"/>
-    </row>
-    <row r="448" spans="1:17" s="1" customFormat="1">
+    </row>
+    <row r="448" spans="1:17">
       <c r="A448" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B448" s="17"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="2" t="s">
+      <c r="D448" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E448" s="2"/>
-      <c r="G448" s="13"/>
-      <c r="H448" s="13"/>
-    </row>
-    <row r="449" spans="1:17" s="1" customFormat="1">
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B449" s="17"/>
-      <c r="C449" s="34"/>
-      <c r="D449" s="2" t="s">
+      <c r="D449" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E449" s="34"/>
-      <c r="G449" s="13"/>
-      <c r="H449" s="13"/>
-    </row>
-    <row r="450" spans="1:17" s="1" customFormat="1">
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B450" s="8"/>
       <c r="D450" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G450" s="13"/>
-      <c r="H450" s="13"/>
-    </row>
-    <row r="451" spans="1:17" s="1" customFormat="1">
-      <c r="B451" s="9"/>
-      <c r="C451"/>
-      <c r="G451" s="13"/>
-      <c r="H451" s="13"/>
-    </row>
-    <row r="452" spans="1:17" s="1" customFormat="1">
-      <c r="A452" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B452" s="8">
-        <v>11</v>
-      </c>
-      <c r="D452"/>
-      <c r="E452"/>
-      <c r="G452" s="13"/>
-      <c r="H452" s="13"/>
-    </row>
-    <row r="453" spans="1:17" s="1" customFormat="1">
-      <c r="A453" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B453" s="8"/>
-      <c r="E453" s="3"/>
-      <c r="G453" s="13"/>
-      <c r="H453" s="13"/>
-    </row>
-    <row r="454" spans="1:17" s="1" customFormat="1">
-      <c r="A454" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B454" s="8"/>
-      <c r="D454" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
-      <c r="G454" s="14"/>
-      <c r="H454" s="14"/>
-      <c r="I454" s="3"/>
-      <c r="J454" s="3"/>
-      <c r="L454" s="3"/>
-      <c r="M454" s="3"/>
-      <c r="N454" s="3"/>
-      <c r="O454" s="3"/>
-      <c r="P454" s="3"/>
-      <c r="Q454" s="3"/>
-    </row>
-    <row r="455" spans="1:17" s="1" customFormat="1">
-      <c r="A455" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B455" s="17"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E455" s="2"/>
-      <c r="G455" s="13"/>
-      <c r="H455" s="13"/>
-    </row>
-    <row r="456" spans="1:17" s="1" customFormat="1">
-      <c r="A456" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B456" s="17"/>
-      <c r="C456" s="34"/>
-      <c r="D456" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E456" s="34"/>
-      <c r="G456" s="13"/>
-      <c r="H456" s="13"/>
-    </row>
-    <row r="457" spans="1:17" s="1" customFormat="1">
-      <c r="A457" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B457" s="17"/>
-      <c r="C457" s="34"/>
-      <c r="D457" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E457" s="34"/>
-      <c r="G457" s="13"/>
-      <c r="H457" s="13"/>
-    </row>
-    <row r="458" spans="1:17" s="1" customFormat="1">
-      <c r="A458" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B458" s="8"/>
-      <c r="D458" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G458" s="13"/>
-      <c r="H458" s="13"/>
-    </row>
-    <row r="459" spans="1:17" s="1" customFormat="1">
-      <c r="B459" s="8"/>
-      <c r="D459"/>
-      <c r="E459"/>
-      <c r="G459" s="13"/>
-      <c r="H459" s="13"/>
-    </row>
-    <row r="460" spans="1:17" s="13" customFormat="1">
-      <c r="A460" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B460" s="8">
-        <v>12</v>
-      </c>
-      <c r="C460" s="1"/>
-      <c r="D460" s="1"/>
-      <c r="E460" s="3"/>
-    </row>
-    <row r="461" spans="1:17">
-      <c r="A461" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B461" s="9"/>
-      <c r="E461" s="3"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="42"/>
-      <c r="H461" s="42"/>
-      <c r="I461" s="2"/>
-      <c r="J461" s="2"/>
-      <c r="K461" s="1"/>
-      <c r="L461" s="2"/>
-      <c r="M461" s="2"/>
-      <c r="N461" s="2"/>
-      <c r="O461" s="2"/>
-      <c r="P461" s="2"/>
-      <c r="Q461" s="2"/>
-    </row>
-    <row r="462" spans="1:17" s="1" customFormat="1">
-      <c r="A462" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B462" s="8"/>
-      <c r="D462" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E462" s="3"/>
-      <c r="G462" s="13"/>
-      <c r="H462" s="13"/>
-    </row>
-    <row r="463" spans="1:17" s="1" customFormat="1">
-      <c r="A463" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B463" s="9"/>
-      <c r="C463"/>
-      <c r="D463" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E463"/>
-      <c r="G463" s="13"/>
-      <c r="H463" s="13"/>
-    </row>
-    <row r="464" spans="1:17" s="1" customFormat="1">
-      <c r="A464" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B464" s="9"/>
-      <c r="C464"/>
-      <c r="D464" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E464"/>
-      <c r="G464" s="13"/>
-      <c r="H464" s="13"/>
-    </row>
-    <row r="465" spans="1:17" s="1" customFormat="1">
-      <c r="A465" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B465" s="9"/>
-      <c r="C465"/>
-      <c r="D465" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G465" s="13"/>
-      <c r="H465" s="13"/>
-    </row>
-    <row r="466" spans="1:17" s="1" customFormat="1">
-      <c r="A466" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B466" s="8"/>
-      <c r="D466" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F466" s="3"/>
-      <c r="G466" s="3"/>
-      <c r="H466" s="3"/>
-      <c r="I466" s="3"/>
-      <c r="J466" s="3"/>
-      <c r="K466" s="3"/>
-      <c r="L466" s="3"/>
-      <c r="M466" s="3"/>
-      <c r="N466" s="3"/>
-      <c r="O466" s="3"/>
-      <c r="P466" s="3"/>
-      <c r="Q466" s="3"/>
-    </row>
-    <row r="467" spans="1:17">
-      <c r="A467" s="1"/>
-      <c r="B467" s="8"/>
-      <c r="C467" s="1"/>
-      <c r="D467" s="1"/>
-      <c r="E467" s="3"/>
-      <c r="F467" s="3"/>
-      <c r="G467" s="3"/>
-      <c r="H467" s="3"/>
-      <c r="I467" s="3"/>
-      <c r="J467" s="3"/>
-      <c r="K467" s="3"/>
-      <c r="L467" s="3"/>
-      <c r="M467" s="3"/>
-      <c r="N467" s="3"/>
-      <c r="O467" s="3"/>
-      <c r="P467" s="3"/>
-      <c r="Q467" s="3"/>
-    </row>
-    <row r="468" spans="1:17" s="1" customFormat="1">
-      <c r="A468" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B468" s="8">
-        <v>13</v>
-      </c>
-      <c r="E468" s="3"/>
-      <c r="F468" s="3"/>
-      <c r="G468" s="3"/>
-      <c r="H468" s="3"/>
-      <c r="I468" s="3"/>
-      <c r="J468" s="3"/>
-      <c r="K468" s="3"/>
-      <c r="L468" s="3"/>
-      <c r="M468" s="3"/>
-      <c r="N468" s="3"/>
-      <c r="O468" s="3"/>
-      <c r="P468" s="3"/>
-      <c r="Q468" s="3"/>
-    </row>
-    <row r="469" spans="1:17" s="1" customFormat="1">
-      <c r="A469" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B469" s="16"/>
-      <c r="E469" s="2"/>
-      <c r="F469" s="3"/>
-      <c r="G469" s="3"/>
-      <c r="H469" s="3"/>
-      <c r="I469" s="3"/>
-      <c r="J469" s="3"/>
-      <c r="K469" s="3"/>
-      <c r="L469" s="3"/>
-      <c r="M469" s="3"/>
-      <c r="N469" s="3"/>
-      <c r="O469" s="3"/>
-      <c r="P469" s="3"/>
-      <c r="Q469" s="3"/>
-    </row>
-    <row r="470" spans="1:17" s="1" customFormat="1">
-      <c r="A470" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B470" s="9"/>
-      <c r="C470"/>
-      <c r="D470" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E470"/>
-      <c r="F470" s="3"/>
-      <c r="G470" s="3"/>
-      <c r="H470" s="3"/>
-      <c r="I470" s="3"/>
-      <c r="J470" s="3"/>
-      <c r="K470" s="3"/>
-      <c r="L470" s="3"/>
-      <c r="M470" s="3"/>
-      <c r="N470" s="3"/>
-      <c r="O470" s="3"/>
-      <c r="P470" s="3"/>
-      <c r="Q470" s="3"/>
-    </row>
-    <row r="471" spans="1:17">
-      <c r="A471" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B471" s="9"/>
-      <c r="D471" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F471" s="3"/>
-      <c r="G471" s="3"/>
-      <c r="H471" s="3"/>
-      <c r="I471" s="3"/>
-      <c r="J471" s="3"/>
-      <c r="K471" s="3"/>
-      <c r="L471" s="3"/>
-      <c r="M471" s="3"/>
-      <c r="N471" s="3"/>
-      <c r="O471" s="3"/>
-      <c r="P471" s="3"/>
-      <c r="Q471" s="3"/>
-    </row>
-    <row r="472" spans="1:17">
-      <c r="A472" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B472" s="9"/>
-      <c r="D472" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E472" s="1"/>
-      <c r="F472" s="3"/>
-      <c r="G472" s="3"/>
-      <c r="H472" s="3"/>
-      <c r="I472" s="3"/>
-      <c r="J472" s="3"/>
-      <c r="K472" s="3"/>
-      <c r="L472" s="3"/>
-      <c r="M472" s="3"/>
-      <c r="N472" s="3"/>
-      <c r="O472" s="3"/>
-      <c r="P472" s="3"/>
-      <c r="Q472" s="3"/>
-    </row>
-    <row r="473" spans="1:17" s="1" customFormat="1">
-      <c r="A473" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B473" s="8"/>
-      <c r="D473" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E473"/>
-      <c r="F473" s="3"/>
-      <c r="G473" s="3"/>
-      <c r="H473" s="3"/>
-      <c r="I473" s="3"/>
-      <c r="J473" s="3"/>
-      <c r="K473" s="3"/>
-      <c r="L473" s="3"/>
-      <c r="M473" s="3"/>
-      <c r="N473" s="3"/>
-      <c r="O473" s="3"/>
-      <c r="P473" s="3"/>
-      <c r="Q473" s="3"/>
-    </row>
-    <row r="474" spans="1:17">
-      <c r="A474" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B474" s="8"/>
-      <c r="C474" s="1"/>
-      <c r="D474" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E474" s="3"/>
-      <c r="F474" s="3"/>
-      <c r="G474" s="3"/>
-      <c r="H474" s="3"/>
-      <c r="I474" s="3"/>
-      <c r="J474" s="3"/>
-      <c r="K474" s="3"/>
-      <c r="L474" s="3"/>
-      <c r="M474" s="3"/>
-      <c r="N474" s="3"/>
-      <c r="O474" s="3"/>
-      <c r="P474" s="3"/>
-      <c r="Q474" s="3"/>
-    </row>
-    <row r="475" spans="1:17" s="1" customFormat="1">
-      <c r="B475" s="9"/>
-      <c r="C475"/>
-      <c r="D475"/>
-      <c r="E475" s="3"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="2"/>
-      <c r="K475" s="3"/>
-      <c r="L475" s="2"/>
-      <c r="M475" s="2"/>
-      <c r="N475" s="2"/>
-      <c r="O475" s="2"/>
-      <c r="P475" s="2"/>
-      <c r="Q475" s="2"/>
-    </row>
-    <row r="476" spans="1:17" s="1" customFormat="1">
-      <c r="A476" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B476" s="8">
-        <v>14</v>
-      </c>
-      <c r="E476" s="2"/>
-      <c r="F476" s="3"/>
-      <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
-      <c r="I476" s="3"/>
-      <c r="J476" s="3"/>
-      <c r="K476" s="3"/>
-      <c r="L476" s="3"/>
-      <c r="M476" s="3"/>
-      <c r="N476" s="3"/>
-      <c r="O476" s="3"/>
-      <c r="P476" s="3"/>
-      <c r="Q476" s="3"/>
-    </row>
-    <row r="477" spans="1:17" s="1" customFormat="1">
-      <c r="A477" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B477" s="9"/>
-      <c r="C477"/>
-      <c r="E477"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="3"/>
-      <c r="H477" s="3"/>
-      <c r="I477" s="3"/>
-      <c r="J477" s="3"/>
-      <c r="K477" s="3"/>
-      <c r="L477" s="3"/>
-      <c r="M477" s="3"/>
-      <c r="N477" s="3"/>
-      <c r="O477" s="3"/>
-      <c r="P477" s="3"/>
-      <c r="Q477" s="3"/>
-    </row>
-    <row r="478" spans="1:17">
-      <c r="A478" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B478" s="9"/>
-      <c r="D478" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F478" s="3"/>
-      <c r="G478" s="3"/>
-      <c r="H478" s="3"/>
-      <c r="I478" s="3"/>
-      <c r="J478" s="3"/>
-      <c r="K478" s="3"/>
-      <c r="L478" s="3"/>
-      <c r="M478" s="3"/>
-      <c r="N478" s="3"/>
-      <c r="O478" s="3"/>
-      <c r="P478" s="3"/>
-      <c r="Q478" s="3"/>
-    </row>
-    <row r="479" spans="1:17">
-      <c r="A479" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B479" s="9"/>
-      <c r="D479" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E479" s="1"/>
-      <c r="F479" s="3"/>
-      <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
-      <c r="I479" s="3"/>
-      <c r="J479" s="3"/>
-      <c r="K479" s="3"/>
-      <c r="L479" s="3"/>
-      <c r="M479" s="3"/>
-      <c r="N479" s="3"/>
-      <c r="O479" s="3"/>
-      <c r="P479" s="3"/>
-      <c r="Q479" s="3"/>
-    </row>
-    <row r="480" spans="1:17" s="1" customFormat="1">
-      <c r="A480" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B480" s="8"/>
-      <c r="D480" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E480" s="13"/>
-      <c r="F480" s="3"/>
-      <c r="G480" s="14"/>
-      <c r="H480" s="14"/>
-      <c r="I480" s="3"/>
-      <c r="J480" s="3"/>
-      <c r="L480" s="3"/>
-      <c r="M480" s="3"/>
-      <c r="N480" s="3"/>
-      <c r="O480" s="3"/>
-      <c r="P480" s="3"/>
-      <c r="Q480" s="3"/>
-    </row>
-    <row r="481" spans="1:4" s="13" customFormat="1">
-      <c r="A481" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" s="13" customFormat="1">
-      <c r="A482" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" spans="1:4" s="1" customFormat="1">
-      <c r="A484" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B484" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" s="1" customFormat="1">
-      <c r="A485" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D490" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15297,7 +15327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q280"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A157" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A226" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
@@ -19038,7 +19068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S244"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A173" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A219" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I192" sqref="I192:I197"/>
     </sheetView>
   </sheetViews>
@@ -23316,8 +23346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView showRuler="0" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25323,13 +25353,18 @@
       <c r="A138" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B138" s="13"/>
+      <c r="B138" s="13">
+        <v>0.85677146835600004</v>
+      </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B139">
+        <v>0.83780585912100003</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="2"/>
@@ -25346,6 +25381,9 @@
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B140">
+        <v>0.87753153153200003</v>
+      </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
@@ -25358,6 +25396,9 @@
     <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B142">
+        <v>99</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="2"/>
@@ -25374,7 +25415,13 @@
       <c r="A143" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="B143">
+        <v>320838.67954300001</v>
+      </c>
+      <c r="D143" s="1">
+        <f>B143/(60*60)</f>
+        <v>89.121855428611113</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="1"/>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="0" windowWidth="22760" windowHeight="16360" tabRatio="657" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="7360" yWindow="0" windowWidth="21440" windowHeight="16360" tabRatio="657" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="439">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -1128,15 +1128,6 @@
     <t>Sample Threshold</t>
   </si>
   <si>
-    <t>Uniprot abstracts</t>
-  </si>
-  <si>
-    <t>PubMed abstracts w/ GO names</t>
-  </si>
-  <si>
-    <t>PubMed abstracts w/ gene names</t>
-  </si>
-  <si>
     <t>Type 0 predictions:  150</t>
   </si>
   <si>
@@ -1330,6 +1321,30 @@
   </si>
   <si>
     <t>Note: if only 1 ambiguous level remains, this becomes a Case 2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Classifiers</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>PubMed abstracts w/ GO names (P1)</t>
+  </si>
+  <si>
+    <t>PubMed abstracts w/ gene names (P2)</t>
+  </si>
+  <si>
+    <t>Uniprot abstracts (U)</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1486,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="643">
+  <cellStyleXfs count="655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2205,7 +2232,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="643">
+  <cellStyles count="655">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2527,6 +2554,12 @@
     <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2848,6 +2881,12 @@
     <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3177,15 +3216,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A130" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A151" sqref="A146:A151"/>
+    <sheetView showRuler="0" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" customWidth="1"/>
@@ -3196,7 +3237,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1">
@@ -4836,7 +4877,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
@@ -5309,7 +5350,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="1">
       <c r="A97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
@@ -5322,7 +5363,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="1">
       <c r="A98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="2"/>
@@ -5335,7 +5376,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -5356,7 +5397,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" s="1" customFormat="1">
+    <row r="100" spans="1:16" s="1" customFormat="1" hidden="1">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5416,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -5394,7 +5435,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -5413,7 +5454,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="1">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -5432,7 +5473,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="1">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -5455,7 +5496,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5520,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="1">
       <c r="A106" s="1"/>
       <c r="G106" s="1" t="s">
         <v>4</v>
@@ -5496,7 +5537,7 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="1">
       <c r="A107" s="20" t="s">
         <v>48</v>
       </c>
@@ -5517,7 +5558,7 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="1">
       <c r="A108" s="20" t="s">
         <v>50</v>
       </c>
@@ -5582,7 +5623,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
@@ -5670,7 +5711,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
@@ -5818,330 +5859,69 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="1:16">
-      <c r="J126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K126">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-    </row>
-    <row r="129" spans="1:16" s="1" customFormat="1">
-      <c r="A129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-    </row>
-    <row r="130" spans="1:16">
+    <row r="128" spans="1:16" s="4" customFormat="1">
+      <c r="A128" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="5" customFormat="1">
+      <c r="A129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-    </row>
-    <row r="131" spans="1:16">
+        <v>431</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.52921702962100003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-    </row>
-    <row r="132" spans="1:16">
+        <v>432</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.47908045058499998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-    </row>
-    <row r="133" spans="1:16">
+        <v>433</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="G133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-    </row>
-    <row r="134" spans="1:16">
+        <v>435</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-    </row>
-    <row r="135" spans="1:16">
-      <c r="A135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="A137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-    </row>
-    <row r="138" spans="1:16" s="1" customFormat="1">
-      <c r="A138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-    </row>
-    <row r="140" spans="1:16">
-      <c r="A140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-    </row>
-    <row r="141" spans="1:16">
-      <c r="A141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="A142" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="G142" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="12"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-    </row>
-    <row r="146" spans="2:2" s="4" customFormat="1">
-      <c r="B146" s="4" t="s">
-        <v>384</v>
+        <v>434</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6159,7 +5939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -6299,116 +6079,116 @@
     </row>
     <row r="28" spans="1:7" s="52" customFormat="1">
       <c r="A28" s="52" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" t="s">
         <v>415</v>
-      </c>
-      <c r="B29" t="s">
-        <v>416</v>
-      </c>
-      <c r="E29" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="F32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="E33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="E34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E35" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="E36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="F37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="F38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E39" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="E40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="F41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="F42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="E43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6424,10 +6204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6481,7 +6261,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -6506,7 +6286,10 @@
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f>(3777+3761+3759+3788+3810)/5</f>
+        <v>3779</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -6530,7 +6313,9 @@
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="29">
+        <v>0.244055308912</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -6554,7 +6339,9 @@
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.31207349225199998</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -6578,7 +6365,9 @@
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.20134757460200001</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -6602,12 +6391,22 @@
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>33</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>934374.95518299995</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
@@ -6891,63 +6690,247 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="28" spans="1:13" s="52" customFormat="1">
-      <c r="A28" s="4" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>6500</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>0.55572068054199997</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>0.565276246027</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>0.547110318682</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.6</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>49928.462757100002</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="36" spans="1:13" s="52" customFormat="1">
+      <c r="A36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1">
-      <c r="A29" s="5" t="s">
+      <c r="B36" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="5" customFormat="1">
+      <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1">
-      <c r="A30" s="5" t="s">
+    <row r="38" spans="1:13" s="5" customFormat="1">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
+    <row r="39" spans="1:13" s="1" customFormat="1">
+      <c r="A39" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.47793174329499999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.62128580493200003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1">
+      <c r="A41" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.38867023819699997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
+      <c r="D42" s="1">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1">
+      <c r="A43" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="D43" s="1">
+        <v>223993.96854999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1">
+      <c r="A45" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>406</v>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="52" customFormat="1">
+      <c r="A47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="5" customFormat="1">
+      <c r="A48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="5" customFormat="1">
+      <c r="A49" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7238,7 +7221,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7291,9 +7274,6 @@
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -7315,36 +7295,34 @@
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" s="22" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="22">
         <v>0.493747849016</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="22">
         <v>0.42260451296000001</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
@@ -7363,7 +7341,6 @@
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -7387,7 +7364,6 @@
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -7411,7 +7387,6 @@
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -7424,6 +7399,9 @@
       </c>
       <c r="E11">
         <v>583982.65520399995</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7578,6 +7556,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7816,132 +7795,132 @@
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C32" s="34"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>379</v>
-      </c>
-      <c r="B33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C34" s="34"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C36" s="34"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C38" s="34"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C40" s="34"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" t="s">
         <v>386</v>
       </c>
-      <c r="B41" t="s">
-        <v>389</v>
-      </c>
       <c r="C41" s="34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -7958,7 +7937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q450"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A311" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A327" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
@@ -13162,7 +13141,7 @@
         <v>0.81888780961300001</v>
       </c>
       <c r="G313" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H313" s="14"/>
       <c r="I313" s="3" t="s">
@@ -13190,11 +13169,11 @@
         <v>0.87537642702899998</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H314" s="14"/>
       <c r="I314" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J314" s="2"/>
       <c r="L314" s="3"/>
@@ -13218,11 +13197,11 @@
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H315" s="33"/>
       <c r="I315" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J315" s="3"/>
     </row>
@@ -13243,7 +13222,7 @@
       <c r="G316" s="42"/>
       <c r="H316" s="42"/>
       <c r="I316" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="1"/>
@@ -13270,7 +13249,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
       <c r="I317" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J317" s="3"/>
       <c r="L317" s="3"/>
@@ -13352,7 +13331,7 @@
         <v>0.87568483266599995</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H321" s="13"/>
       <c r="I321" s="1" t="s">
@@ -13381,11 +13360,11 @@
         <v>0.91527623504400002</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H322" s="13"/>
       <c r="I322" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="323" spans="1:17" s="34" customFormat="1">
@@ -13402,11 +13381,11 @@
         <v>0.83937656415999995</v>
       </c>
       <c r="G323" s="42" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H323" s="42"/>
       <c r="I323" s="34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J323" s="2"/>
       <c r="L323" s="2"/>
@@ -13429,7 +13408,7 @@
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J324" s="3"/>
       <c r="L324" s="3"/>
@@ -13455,7 +13434,7 @@
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
       <c r="I325" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J325" s="3"/>
       <c r="L325" s="3"/>
@@ -13654,7 +13633,7 @@
       </c>
       <c r="E337" s="8"/>
       <c r="G337" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H337" s="14"/>
       <c r="J337" s="3"/>
@@ -13678,7 +13657,7 @@
       </c>
       <c r="E338" s="17"/>
       <c r="G338" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H338" s="14"/>
       <c r="J338" s="3"/>
@@ -13702,7 +13681,7 @@
       </c>
       <c r="E339" s="17"/>
       <c r="G339" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H339" s="14"/>
       <c r="J339" s="3"/>
@@ -13725,7 +13704,7 @@
       <c r="E340" s="17"/>
       <c r="F340" s="1"/>
       <c r="G340" s="33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H340" s="33">
         <f>297021.813278/(60*60)</f>
@@ -15327,8 +15306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q280"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A226" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView showRuler="0" topLeftCell="A183" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18135,6 +18114,9 @@
       <c r="A198" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B198" s="1">
+        <v>0.92648455677800001</v>
+      </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="H198" s="3"/>
@@ -18147,6 +18129,9 @@
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B199">
+        <v>0.93395828650500001</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
@@ -18163,17 +18148,29 @@
       <c r="A200" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B200">
+        <v>0.91913841113799999</v>
+      </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>39</v>
+        <v>345</v>
+      </c>
+      <c r="B201">
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D202" s="1"/>
+      <c r="B202">
+        <v>279022.84447299998</v>
+      </c>
+      <c r="D202" s="1">
+        <f>B202/(60*60)</f>
+        <v>77.506345686944442</v>
+      </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="1"/>
@@ -23346,8 +23343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView showRuler="0" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25076,10 +25073,10 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="1" t="s">
-        <v>39</v>
+        <v>345</v>
       </c>
       <c r="B118">
-        <v>0.99</v>
+        <v>99</v>
       </c>
       <c r="C118"/>
       <c r="F118" s="3"/>
@@ -25144,7 +25141,9 @@
       <c r="A122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1">
+        <v>0.76060435487400002</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="F122" s="2"/>
@@ -25160,6 +25159,9 @@
       <c r="A123" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B123">
+        <v>0.66170842939899999</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -25175,7 +25177,9 @@
       <c r="A124" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B124"/>
+      <c r="B124">
+        <v>0.89515151515199998</v>
+      </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124" s="3"/>
@@ -25207,7 +25211,9 @@
       <c r="A126" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B126"/>
+      <c r="B126">
+        <v>99</v>
+      </c>
       <c r="C126"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -25222,7 +25228,13 @@
       <c r="A127" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="B127">
+        <v>265961.44295599998</v>
+      </c>
+      <c r="D127" s="1">
+        <f>B127/(60*60)</f>
+        <v>73.87817859888888</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="1"/>
@@ -25464,7 +25476,9 @@
       <c r="A146" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B146" s="13"/>
+      <c r="B146" s="13">
+        <v>0.886587312982</v>
+      </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="2"/>
@@ -25481,11 +25495,17 @@
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B147">
+        <v>0.88957512171499997</v>
+      </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B148">
+        <v>0.88376085176100005</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -25509,13 +25529,18 @@
       <c r="A150" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="B150">
+        <v>99</v>
+      </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:13" s="1" customFormat="1">
       <c r="A151" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B151"/>
+      <c r="B151">
+        <v>324816.926798</v>
+      </c>
       <c r="C151"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="0" windowWidth="21440" windowHeight="16360" tabRatio="657" activeTab="1"/>
+    <workbookView xWindow="5980" yWindow="0" windowWidth="22500" windowHeight="16360" tabRatio="657" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="449">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -444,12 +444,6 @@
     <t>Type 2 or 3 predictions:  38</t>
   </si>
   <si>
-    <t>Type 0 predictions:  262</t>
-  </si>
-  <si>
-    <t>Type 2 or 3 predictions:  45</t>
-  </si>
-  <si>
     <t>Type 0 predictions:  267</t>
   </si>
   <si>
@@ -738,27 +732,6 @@
     <t>max threshold%</t>
   </si>
   <si>
-    <t>Type 0 predictions:  599</t>
-  </si>
-  <si>
-    <t>Type 1 predictions:  270</t>
-  </si>
-  <si>
-    <t>Type 2 or 3 predictions:  1166</t>
-  </si>
-  <si>
-    <t>Creating classifiers:  423.151302814</t>
-  </si>
-  <si>
-    <t>Evaluating test set:  6747.66034603</t>
-  </si>
-  <si>
-    <t>Computing metrics per threshold:  1420.36753607</t>
-  </si>
-  <si>
-    <t>Total time:  8621.24221015</t>
-  </si>
-  <si>
     <t>Type 0 predictions:  952</t>
   </si>
   <si>
@@ -1029,18 +1002,6 @@
     <t>Total time:  1266.36442208</t>
   </si>
   <si>
-    <t>Creating classifiers:  132.441079855</t>
-  </si>
-  <si>
-    <t>Evaluating test set:  1906.47156501</t>
-  </si>
-  <si>
-    <t>Computing metrics per threshold:  123.891858101</t>
-  </si>
-  <si>
-    <t>Total time:  2195.0060761</t>
-  </si>
-  <si>
     <t>Creating classifiers:  925.928022861</t>
   </si>
   <si>
@@ -1345,6 +1306,75 @@
   </si>
   <si>
     <t>Uniprot abstracts (U)</t>
+  </si>
+  <si>
+    <t>Threshold%</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  310</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  0</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  120.968701124</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  2065.57955503</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  48.5581820011</t>
+  </si>
+  <si>
+    <t>Total time:  2272.06215382</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train: Uniprot </t>
+  </si>
+  <si>
+    <t>Test: Uniprot papers associated w/ human &amp; yeast proteins</t>
+  </si>
+  <si>
+    <t>Human dataset</t>
+  </si>
+  <si>
+    <t>13971 non-IEA human proteins w/ a Uniprot paper</t>
+  </si>
+  <si>
+    <t>0 non-IEA yeast proteins w/ a Uniprot paper</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  667</t>
+  </si>
+  <si>
+    <t>Type 1 predictions:  267</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  1101</t>
+  </si>
+  <si>
+    <t>Creating classifiers:  375.399500132</t>
+  </si>
+  <si>
+    <t>Evaluating test set:  7209.58086419</t>
+  </si>
+  <si>
+    <t>Computing metrics per threshold:  466.47697401</t>
+  </si>
+  <si>
+    <t>Total time:  8124.95054102</t>
+  </si>
+  <si>
+    <t>Avg Case 0 Predictions:  278.2</t>
+  </si>
+  <si>
+    <t>Avg Case 1 Predictions:  13115.6</t>
+  </si>
+  <si>
+    <t>Avg Case 2 or 3 Predictions:  14386.2</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="655">
+  <cellStyleXfs count="667">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2142,8 +2172,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2231,8 +2273,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="655">
+  <cellStyles count="667">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2560,6 +2610,12 @@
     <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2887,6 +2943,12 @@
     <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3216,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView showRuler="0" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3237,7 +3299,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1">
@@ -4877,7 +4939,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
@@ -5623,7 +5685,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
@@ -5655,7 +5717,7 @@
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
     </row>
-    <row r="115" spans="1:16" s="9" customFormat="1" ht="30">
+    <row r="115" spans="1:16" s="9" customFormat="1" ht="30" hidden="1">
       <c r="A115" s="8" t="s">
         <v>17</v>
       </c>
@@ -5674,7 +5736,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="1:16" s="9" customFormat="1" ht="30">
+    <row r="116" spans="1:16" s="9" customFormat="1" ht="30" hidden="1">
       <c r="A116" s="8" t="s">
         <v>22</v>
       </c>
@@ -5693,7 +5755,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="1:16" s="9" customFormat="1">
+    <row r="117" spans="1:16" s="9" customFormat="1" hidden="1">
       <c r="A117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="10"/>
@@ -5707,13 +5769,6 @@
       <c r="P117" s="10"/>
     </row>
     <row r="118" spans="1:16" s="13" customFormat="1">
-      <c r="A118" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="13">
-        <v>1</v>
-      </c>
-      <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
@@ -5843,8 +5898,14 @@
       <c r="A125" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B125" s="9">
+        <v>1</v>
+      </c>
       <c r="G125" s="8" t="s">
         <v>4</v>
+      </c>
+      <c r="H125" s="9">
+        <v>10</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="8" t="s">
@@ -5864,10 +5925,10 @@
         <v>56</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="5" customFormat="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="5" customFormat="1">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -5877,56 +5938,119 @@
       <c r="G129" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="J129" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B130" s="1">
         <v>0.52921702962100003</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B131" s="1">
         <v>0.47908045058499998</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B134" s="1">
         <v>3097</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="G134">
+        <v>7243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="137" spans="1:10" s="4" customFormat="1">
+      <c r="A137" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="5" customFormat="1">
+      <c r="A138" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6079,121 +6203,120 @@
     </row>
     <row r="28" spans="1:7" s="52" customFormat="1">
       <c r="A28" s="52" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E30" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="F32" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="E33" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="E34" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B35" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="E35" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="E36" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="F37" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="F38" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E39" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="E40" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="F41" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="F42" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="E43" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6206,8 +6329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6834,7 +6957,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1">
@@ -6855,7 +6978,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D39" s="1">
         <v>0.47793174329499999</v>
@@ -6863,7 +6986,7 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D40" s="1">
         <v>0.62128580493200003</v>
@@ -6871,7 +6994,7 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D41" s="1">
         <v>0.38867023819699997</v>
@@ -6879,7 +7002,7 @@
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D42" s="1">
         <v>64.8</v>
@@ -6887,7 +7010,7 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D43" s="1">
         <v>223993.96854999999</v>
@@ -6895,7 +7018,7 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -6903,7 +7026,7 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -6914,7 +7037,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1">
@@ -6935,7 +7058,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7556,7 +7678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7567,27 +7688,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView showRuler="0" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7595,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1">
         <v>16973</v>
@@ -7606,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1">
         <v>204303</v>
@@ -7617,7 +7738,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1">
         <v>267530</v>
@@ -7625,7 +7746,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1">
         <v>1207</v>
@@ -7637,7 +7758,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1">
         <v>3146</v>
@@ -7649,13 +7770,13 @@
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7663,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C10" s="1">
         <v>29070</v>
@@ -7674,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1">
         <v>204303</v>
@@ -7685,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C12" s="1">
         <v>267530</v>
@@ -7693,7 +7814,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C14" s="1">
         <v>2186</v>
@@ -7705,7 +7826,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C15" s="1">
         <v>5341</v>
@@ -7717,13 +7838,13 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7731,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C18" s="1">
         <v>30054</v>
@@ -7742,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C19" s="1">
         <v>204303</v>
@@ -7753,7 +7874,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C20" s="1">
         <v>267530</v>
@@ -7761,7 +7882,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1">
         <v>2197</v>
@@ -7773,7 +7894,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C23" s="1">
         <v>5285</v>
@@ -7785,43 +7906,43 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>379</v>
@@ -7830,97 +7951,132 @@
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="C32" s="34"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C34" s="34"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C36" s="34"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C38" s="34"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C40" s="34"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>387</v>
+        <v>374</v>
+      </c>
+      <c r="C42" s="34"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="57" customFormat="1">
+      <c r="A46" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7937,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q450"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A327" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E325" sqref="E325"/>
+    <sheetView showRuler="0" topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I238" sqref="I238:I242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8361,7 +8517,7 @@
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="9"/>
@@ -8388,7 +8544,7 @@
         <v>114</v>
       </c>
       <c r="H23" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
@@ -8412,7 +8568,7 @@
         <v>0.99904255817200005</v>
       </c>
       <c r="H24" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="9"/>
@@ -8436,7 +8592,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="9"/>
@@ -8558,16 +8714,12 @@
       <c r="A32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10">
-        <v>0.99858841706099999</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="10">
-        <v>0.99892317056000002</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
@@ -8703,14 +8855,14 @@
         <v>102</v>
       </c>
       <c r="B40" s="10">
-        <v>0.99231471510799996</v>
+        <v>8.0645161290299999E-2</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="10">
-        <v>0.99900276230200002</v>
+        <v>6.4516129032300001E-2</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -9489,7 +9641,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="9">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="2"/>
@@ -9510,17 +9662,17 @@
         <v>7</v>
       </c>
       <c r="B85" s="16">
-        <v>0.84610710852299997</v>
+        <v>0.85421632323600005</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="2">
-        <v>0.85020574803500004</v>
+        <v>0.84697729950900003</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>138</v>
+        <v>427</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3" t="s">
@@ -9539,21 +9691,21 @@
         <v>8</v>
       </c>
       <c r="B86" s="9">
-        <v>0.99295698924700004</v>
+        <v>0.99263440860200003</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E86">
-        <v>0.95053763440899997</v>
+        <v>0.99155913978499999</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="1"/>
@@ -9569,19 +9721,19 @@
         <v>9</v>
       </c>
       <c r="B87" s="9">
-        <v>0.73709677419399999</v>
+        <v>0.74967741935499999</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E87">
-        <v>0.76903225806499997</v>
+        <v>0.73919354838700002</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>428</v>
       </c>
       <c r="I87" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -9589,20 +9741,20 @@
         <v>102</v>
       </c>
       <c r="B88" s="10">
-        <v>0.99916896858500004</v>
+        <v>2.5806451612899999E-2</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E88" s="10">
-        <v>0.99914321831499997</v>
+        <v>2.5806451612899999E-2</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -9620,10 +9772,10 @@
         <v>15</v>
       </c>
       <c r="E89" s="1">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="1" customFormat="1">
@@ -9676,7 +9828,7 @@
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3" t="s">
@@ -9709,7 +9861,7 @@
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="1"/>
@@ -9737,7 +9889,7 @@
         <v>129</v>
       </c>
       <c r="I95" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -9758,7 +9910,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -9779,7 +9931,7 @@
         <v>98</v>
       </c>
       <c r="I97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="1" customFormat="1">
@@ -11426,7 +11578,7 @@
         <v>0.82598935762100001</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H214" s="14"/>
       <c r="I214" s="1" t="s">
@@ -11455,11 +11607,11 @@
         <v>0.85414414414399997</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H215" s="14"/>
       <c r="I215" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J215" s="2"/>
       <c r="L215" s="3"/>
@@ -11484,11 +11636,11 @@
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H216" s="33"/>
       <c r="I216" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J216" s="3"/>
     </row>
@@ -11509,7 +11661,7 @@
       <c r="G217" s="42"/>
       <c r="H217" s="42"/>
       <c r="I217" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J217" s="2"/>
       <c r="K217" s="1"/>
@@ -11522,7 +11674,7 @@
     </row>
     <row r="218" spans="1:17" s="1" customFormat="1">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B218" s="9">
         <v>14</v>
@@ -11537,7 +11689,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
       <c r="I218" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J218" s="3"/>
       <c r="L218" s="3"/>
@@ -11617,7 +11769,7 @@
         <v>0.941858264409</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H222" s="13"/>
       <c r="J222" s="3"/>
@@ -11643,7 +11795,7 @@
         <v>0.96341523341500002</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H223" s="13"/>
     </row>
@@ -11661,7 +11813,7 @@
         <v>0.92124488124500004</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H224" s="42"/>
       <c r="J224" s="2"/>
@@ -11698,7 +11850,7 @@
     </row>
     <row r="226" spans="1:17" s="1" customFormat="1">
       <c r="A226" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B226" s="8">
         <v>93</v>
@@ -11772,7 +11924,7 @@
         <v>0.94216496266299998</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H230" s="13"/>
     </row>
@@ -11792,7 +11944,7 @@
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H231" s="42"/>
       <c r="I231" s="1"/>
@@ -11820,7 +11972,7 @@
         <v>0.92691236691199996</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H232" s="14"/>
       <c r="J232" s="3"/>
@@ -11857,7 +12009,7 @@
     </row>
     <row r="234" spans="1:17" s="1" customFormat="1">
       <c r="A234" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234" s="8">
         <v>99</v>
@@ -11897,7 +12049,7 @@
         <v>6</v>
       </c>
       <c r="B237" s="9">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="C237"/>
       <c r="E237" s="9"/>
@@ -11909,16 +12061,16 @@
         <v>7</v>
       </c>
       <c r="B238" s="8">
-        <v>0.88858135628299995</v>
+        <v>0.88720888086799998</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E238" s="8">
-        <v>0.93458146294300004</v>
+        <v>0.93305494534400002</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="H238" s="14"/>
       <c r="I238" s="1" t="s">
@@ -11937,21 +12089,21 @@
         <v>8</v>
       </c>
       <c r="B239" s="49">
-        <v>0.84410802621000003</v>
+        <v>0.98824792324800004</v>
       </c>
       <c r="C239" s="50"/>
       <c r="D239" s="51" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="49">
-        <v>0.95013923013900004</v>
+        <v>0.95280917280900002</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>237</v>
+        <v>440</v>
       </c>
       <c r="H239" s="14"/>
       <c r="I239" s="1" t="s">
-        <v>239</v>
+        <v>442</v>
       </c>
       <c r="J239" s="3"/>
       <c r="L239" s="3"/>
@@ -11966,21 +12118,21 @@
         <v>9</v>
       </c>
       <c r="B240" s="17">
-        <v>0.93800163800199998</v>
+        <v>0.804914004914</v>
       </c>
       <c r="C240" s="34"/>
       <c r="D240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E240" s="17">
-        <v>0.91952497952500001</v>
+        <v>0.91410319410300001</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="H240" s="14"/>
       <c r="I240" s="1" t="s">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="J240" s="3"/>
       <c r="L240" s="3"/>
@@ -11995,39 +12147,39 @@
         <v>102</v>
       </c>
       <c r="B241" s="17">
-        <v>0.99892428313500004</v>
+        <v>0.51056511056499998</v>
       </c>
       <c r="C241" s="34"/>
       <c r="D241" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E241" s="17">
-        <v>0.99931740352800003</v>
+        <v>0.65405405405399997</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="33"/>
       <c r="H241" s="33"/>
       <c r="I241" s="1" t="s">
-        <v>241</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:17" s="1" customFormat="1">
       <c r="A242" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B242" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="16">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
       <c r="I242" s="1" t="s">
-        <v>242</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:17" s="1" customFormat="1">
@@ -12086,7 +12238,7 @@
         <v>0.92684168601000005</v>
       </c>
       <c r="G246" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H246" s="14"/>
       <c r="I246" s="1" t="s">
@@ -12115,11 +12267,11 @@
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H247" s="14"/>
       <c r="I247" s="13" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="J247" s="14"/>
       <c r="L247" s="3"/>
@@ -12144,11 +12296,11 @@
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="33" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H248" s="33"/>
       <c r="I248" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -12169,12 +12321,12 @@
       <c r="G249" s="33"/>
       <c r="H249" s="33"/>
       <c r="I249" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:17" s="1" customFormat="1">
       <c r="A250" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B250" s="8">
         <v>100</v>
@@ -12188,7 +12340,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
       <c r="I250" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" spans="1:17" s="1" customFormat="1">
@@ -12235,7 +12387,7 @@
         <v>0.937298792642</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H254" s="13"/>
     </row>
@@ -12255,7 +12407,7 @@
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="42" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H255" s="42"/>
       <c r="I255" s="2"/>
@@ -12283,7 +12435,7 @@
         <v>0.90877968878000004</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H256" s="13"/>
     </row>
@@ -12364,7 +12516,7 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H262" s="14"/>
       <c r="I262" s="3" t="s">
@@ -12393,11 +12545,11 @@
         <v>0.96933660933700005</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H263" s="13"/>
       <c r="I263" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="264" spans="1:17" s="1" customFormat="1">
@@ -12415,11 +12567,11 @@
         <v>0.906601146601</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H264" s="13"/>
       <c r="I264" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="265" spans="1:17" s="1" customFormat="1">
@@ -12439,7 +12591,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
       <c r="I265" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="266" spans="1:17" s="1" customFormat="1">
@@ -12458,7 +12610,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
       <c r="I266" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="1:17" s="1" customFormat="1">
@@ -12514,7 +12666,7 @@
         <v>0.93457249136300002</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H270" s="13"/>
       <c r="I270" s="1" t="s">
@@ -12536,11 +12688,11 @@
         <v>0.96522522522499998</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H271" s="13"/>
       <c r="I271" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="272" spans="1:17" s="1" customFormat="1">
@@ -12558,11 +12710,11 @@
         <v>0.90580671580700001</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H272" s="13"/>
       <c r="I272" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="273" spans="1:17" s="1" customFormat="1">
@@ -12582,7 +12734,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
       <c r="I273" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="274" spans="1:17" s="1" customFormat="1">
@@ -12602,7 +12754,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -12843,10 +12995,10 @@
       <c r="Q285" s="3"/>
     </row>
     <row r="286" spans="1:17" s="1" customFormat="1">
-      <c r="A286" s="13" t="s">
+      <c r="A286" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B286" s="8">
+      <c r="B286" s="19">
         <v>0.93456615488200001</v>
       </c>
       <c r="D286" s="3" t="s">
@@ -12964,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="H294" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12978,7 +13130,7 @@
         <v>8</v>
       </c>
       <c r="H295" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12992,7 +13144,7 @@
         <v>9</v>
       </c>
       <c r="H296" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13003,7 +13155,7 @@
         <v>102</v>
       </c>
       <c r="H297" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13062,7 +13214,7 @@
     <row r="306" spans="1:17" s="13" customFormat="1"/>
     <row r="307" spans="1:17" s="4" customFormat="1">
       <c r="A307" s="4" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B307" s="4">
         <v>10</v>
@@ -13141,7 +13293,7 @@
         <v>0.81888780961300001</v>
       </c>
       <c r="G313" s="14" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="H313" s="14"/>
       <c r="I313" s="3" t="s">
@@ -13169,11 +13321,11 @@
         <v>0.87537642702899998</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="H314" s="14"/>
       <c r="I314" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="J314" s="2"/>
       <c r="L314" s="3"/>
@@ -13197,11 +13349,11 @@
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="33" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H315" s="33"/>
       <c r="I315" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="J315" s="3"/>
     </row>
@@ -13222,7 +13374,7 @@
       <c r="G316" s="42"/>
       <c r="H316" s="42"/>
       <c r="I316" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="1"/>
@@ -13234,7 +13386,7 @@
     </row>
     <row r="317" spans="1:17" s="1" customFormat="1">
       <c r="A317" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B317" s="9">
         <v>29</v>
@@ -13249,7 +13401,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
       <c r="I317" s="3" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="J317" s="3"/>
       <c r="L317" s="3"/>
@@ -13331,7 +13483,7 @@
         <v>0.87568483266599995</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="H321" s="13"/>
       <c r="I321" s="1" t="s">
@@ -13360,11 +13512,11 @@
         <v>0.91527623504400002</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="H322" s="13"/>
       <c r="I322" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="323" spans="1:17" s="34" customFormat="1">
@@ -13381,11 +13533,11 @@
         <v>0.83937656415999995</v>
       </c>
       <c r="G323" s="42" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H323" s="42"/>
       <c r="I323" s="34" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J323" s="2"/>
       <c r="L323" s="2"/>
@@ -13408,7 +13560,7 @@
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="1" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="J324" s="3"/>
       <c r="L324" s="3"/>
@@ -13420,7 +13572,7 @@
     </row>
     <row r="325" spans="1:17" s="1" customFormat="1">
       <c r="A325" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B325" s="8">
         <v>99</v>
@@ -13434,7 +13586,7 @@
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
       <c r="I325" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J325" s="3"/>
       <c r="L325" s="3"/>
@@ -13481,7 +13633,7 @@
       </c>
       <c r="E328" s="9"/>
       <c r="I328" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J328" s="13"/>
     </row>
@@ -13497,7 +13649,7 @@
       </c>
       <c r="E329" s="8"/>
       <c r="I329" s="13" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J329" s="13"/>
     </row>
@@ -13515,7 +13667,7 @@
       <c r="E330" s="17"/>
       <c r="F330" s="1"/>
       <c r="I330" s="42" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="J330" s="42"/>
       <c r="K330" s="1"/>
@@ -13539,7 +13691,7 @@
       </c>
       <c r="E331" s="34"/>
       <c r="I331" s="14" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J331" s="14">
         <f>158036.651968/(60*60)</f>
@@ -13574,7 +13726,7 @@
     </row>
     <row r="333" spans="1:17" s="1" customFormat="1">
       <c r="A333" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B333" s="8">
         <v>100</v>
@@ -13633,7 +13785,7 @@
       </c>
       <c r="E337" s="8"/>
       <c r="G337" s="14" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H337" s="14"/>
       <c r="J337" s="3"/>
@@ -13657,7 +13809,7 @@
       </c>
       <c r="E338" s="17"/>
       <c r="G338" s="14" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="H338" s="14"/>
       <c r="J338" s="3"/>
@@ -13681,7 +13833,7 @@
       </c>
       <c r="E339" s="17"/>
       <c r="G339" s="14" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H339" s="14"/>
       <c r="J339" s="3"/>
@@ -13704,7 +13856,7 @@
       <c r="E340" s="17"/>
       <c r="F340" s="1"/>
       <c r="G340" s="33" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="H340" s="33">
         <f>297021.813278/(60*60)</f>
@@ -13714,7 +13866,7 @@
     </row>
     <row r="341" spans="1:17" s="1" customFormat="1">
       <c r="A341" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B341" s="8">
         <v>100</v>
@@ -13837,7 +13989,7 @@
     </row>
     <row r="349" spans="1:17" s="1" customFormat="1">
       <c r="A349" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B349" s="8"/>
       <c r="D349" s="3" t="s">
@@ -13955,7 +14107,7 @@
     </row>
     <row r="360" spans="1:17" s="4" customFormat="1">
       <c r="A360" s="4" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B360" s="4">
         <v>1</v>
@@ -14096,7 +14248,7 @@
     </row>
     <row r="370" spans="1:17" s="1" customFormat="1">
       <c r="A370" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370"/>
@@ -14241,7 +14393,7 @@
     </row>
     <row r="378" spans="1:17" s="1" customFormat="1">
       <c r="A378" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B378" s="8"/>
       <c r="D378" s="3" t="s">
@@ -14372,7 +14524,7 @@
     </row>
     <row r="386" spans="1:17" s="1" customFormat="1">
       <c r="A386" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B386" s="8"/>
       <c r="D386" s="3" t="s">
@@ -14489,7 +14641,7 @@
     </row>
     <row r="394" spans="1:17" s="1" customFormat="1">
       <c r="A394" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B394" s="8"/>
       <c r="D394" s="3" t="s">
@@ -14610,7 +14762,7 @@
     </row>
     <row r="402" spans="1:17" s="1" customFormat="1">
       <c r="A402" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B402" s="8"/>
       <c r="D402" s="3" t="s">
@@ -15293,7 +15445,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15306,8 +15457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q280"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A183" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A227" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15427,7 +15578,7 @@
         <v>0.762348721314</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -15450,7 +15601,7 @@
         <v>0.87095548317000004</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -15474,7 +15625,7 @@
         <v>0.67782844734000003</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -15486,13 +15637,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="9">
         <v>0.99447294147700005</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="34">
         <v>0.99867343031300004</v>
@@ -15584,7 +15735,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -15605,7 +15756,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -15626,12 +15777,12 @@
         <v>0.74779587405000003</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" s="9">
         <v>0.99893534036499998</v>
@@ -15718,7 +15869,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15739,7 +15890,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -15760,12 +15911,12 @@
         <v>0.75134636264900001</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="10">
         <v>0.99848054348699999</v>
@@ -15786,7 +15937,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B30">
         <v>99</v>
@@ -15814,10 +15965,10 @@
       <c r="M31" s="2"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="55">
         <v>8</v>
       </c>
       <c r="E33" s="3"/>
@@ -15842,7 +15993,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15864,7 +16015,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
@@ -15885,12 +16036,12 @@
         <v>0.76079261672099996</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B37" s="10">
         <v>0.99704382029399996</v>
@@ -15911,7 +16062,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38">
         <v>99</v>
@@ -15966,7 +16117,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -15987,7 +16138,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
@@ -16008,12 +16159,12 @@
         <v>0.76248642779599995</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B45" s="10">
         <v>0.99867437583600005</v>
@@ -16102,7 +16253,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -16123,7 +16274,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -16144,12 +16295,12 @@
         <v>0.76274701411500001</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B53" s="10">
         <v>0.99916983023100003</v>
@@ -16170,7 +16321,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54">
         <v>100</v>
@@ -16235,7 +16386,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16256,7 +16407,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -16277,12 +16428,12 @@
         <v>0.76567861020600003</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B61" s="10">
         <v>0.99905684015499996</v>
@@ -16303,7 +16454,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62">
         <v>100</v>
@@ -16372,7 +16523,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -16395,7 +16546,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="2"/>
@@ -16418,7 +16569,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -16430,7 +16581,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69" s="10">
         <v>0.99812549935499995</v>
@@ -16451,7 +16602,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -16532,7 +16683,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -16555,7 +16706,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="2"/>
@@ -16578,7 +16729,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -16590,7 +16741,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" s="10">
         <v>0.99918779518099998</v>
@@ -16611,7 +16762,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B78" s="2">
         <v>100</v>
@@ -16663,10 +16814,10 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="56">
         <v>14</v>
       </c>
       <c r="C81" s="3"/>
@@ -16694,7 +16845,7 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -16717,7 +16868,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="2"/>
@@ -16740,7 +16891,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -16752,7 +16903,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B85" s="10">
         <v>0.99914051899800005</v>
@@ -16773,7 +16924,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -16854,7 +17005,7 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -16877,7 +17028,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="2"/>
@@ -16900,7 +17051,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -16912,7 +17063,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B93" s="10">
         <v>0.99918117651500005</v>
@@ -17567,8 +17718,14 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="A154" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B154" s="46"/>
+      <c r="C154" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="29"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="1"/>
@@ -17598,7 +17755,9 @@
       <c r="A156" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B156" s="16"/>
+      <c r="B156" s="16">
+        <v>0.788466308078</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -17611,7 +17770,9 @@
       <c r="A157" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B157" s="9"/>
+      <c r="B157" s="9">
+        <v>0.85946066258300002</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="F157" s="2"/>
       <c r="G157" s="1"/>
@@ -17626,7 +17787,9 @@
       <c r="A158" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="9"/>
+      <c r="B158" s="9">
+        <v>0.72897297297300001</v>
+      </c>
       <c r="D158" s="1"/>
       <c r="F158" s="2"/>
       <c r="G158" s="1"/>
@@ -17639,9 +17802,11 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B159" s="9"/>
+        <v>332</v>
+      </c>
+      <c r="B159" s="9">
+        <v>17.399999999999999</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="F159" s="2"/>
       <c r="G159" s="1"/>
@@ -17655,6 +17820,9 @@
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B160">
+        <v>10630.04105</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
@@ -17728,7 +17896,7 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -17819,7 +17987,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B173">
         <v>99</v>
@@ -17903,7 +18071,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B180">
         <v>99.2</v>
@@ -17979,7 +18147,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -18057,7 +18225,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B194">
         <v>99</v>
@@ -18154,7 +18322,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B201">
         <v>99</v>
@@ -18578,8 +18746,14 @@
       <c r="M238" s="2"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="A239" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B239" s="46"/>
+      <c r="C239" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D239" s="29"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1"/>
@@ -18597,7 +18771,9 @@
       <c r="B240" s="8">
         <v>5</v>
       </c>
-      <c r="F240" s="3"/>
+      <c r="F240" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
@@ -18609,8 +18785,15 @@
       <c r="A241" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B241" s="8"/>
-      <c r="F241" s="3"/>
+      <c r="B241" s="8">
+        <v>0.78394581195199997</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0.81781952109900002</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -18622,9 +18805,15 @@
       <c r="A242" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B242" s="9"/>
-      <c r="D242" s="1"/>
-      <c r="F242" s="2"/>
+      <c r="B242" s="9">
+        <v>0.88928643651700001</v>
+      </c>
+      <c r="D242" s="1">
+        <v>0.87617503171199995</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="G242" s="1"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
@@ -18637,8 +18826,12 @@
       <c r="A243" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B243" s="9"/>
-      <c r="D243" s="1"/>
+      <c r="B243" s="9">
+        <v>0.70092312043600002</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0.76677354383100005</v>
+      </c>
       <c r="F243" s="2"/>
       <c r="G243" s="1"/>
       <c r="H243" s="2"/>
@@ -18652,7 +18845,9 @@
       <c r="A244" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B244" s="9"/>
+      <c r="B244" s="9">
+        <v>29.6</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1"/>
@@ -18666,6 +18861,9 @@
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B245">
+        <v>921984.35306800005</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
@@ -19053,6 +19251,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19281,7 +19480,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="2" t="s">
@@ -19312,7 +19511,7 @@
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -19334,10 +19533,10 @@
         <v>0.72241935483899999</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -19355,7 +19554,7 @@
         <v>0.99888337468999999</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -19376,7 +19575,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -19442,7 +19641,7 @@
         <v>0.70351597935900001</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I21" t="s">
         <v>43</v>
@@ -19463,11 +19662,11 @@
         <v>0.81284946236599998</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1">
@@ -19485,11 +19684,11 @@
         <v>0.62010752688199999</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -19507,7 +19706,7 @@
         <v>0.99821152675699998</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -19528,7 +19727,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -19594,7 +19793,7 @@
         <v>0.79328918598599996</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1">
@@ -19612,7 +19811,7 @@
         <v>0.894784946237</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H30" s="34"/>
     </row>
@@ -19631,7 +19830,7 @@
         <v>0.71247311828000004</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -19745,7 +19944,7 @@
         <v>0.68643678003200004</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1">
@@ -19763,7 +19962,7 @@
         <v>0.77274193548400005</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H38" s="34"/>
     </row>
@@ -19782,7 +19981,7 @@
         <v>0.61747311827999996</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H39" s="34"/>
     </row>
@@ -19897,7 +20096,7 @@
         <v>0.70872025649199999</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="1" customFormat="1">
@@ -19915,7 +20114,7 @@
         <v>0.85817204301100003</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H46" s="34"/>
     </row>
@@ -19934,7 +20133,7 @@
         <v>0.60360215053800004</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -20048,7 +20247,7 @@
         <v>0.70577023737800004</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I53" t="s">
         <v>43</v>
@@ -20069,11 +20268,11 @@
         <v>0.83349462365600002</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -20091,10 +20290,10 @@
         <v>0.611989247312</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -20115,7 +20314,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -20146,7 +20345,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -20212,7 +20411,7 @@
         <v>0.73476544246599995</v>
       </c>
       <c r="G61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -20237,7 +20436,7 @@
       </c>
       <c r="H62" s="34"/>
       <c r="I62" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1">
@@ -20255,11 +20454,11 @@
         <v>0.64962365591399995</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1">
@@ -20280,7 +20479,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -20311,7 +20510,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -20377,7 +20576,7 @@
         <v>0.72992986558899997</v>
       </c>
       <c r="G69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I69" t="s">
         <v>43</v>
@@ -20398,11 +20597,11 @@
         <v>0.81010752688200005</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="1" customFormat="1">
@@ -20420,11 +20619,11 @@
         <v>0.66419354838699995</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H71" s="34"/>
       <c r="I71" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="1" customFormat="1">
@@ -20445,7 +20644,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -20476,7 +20675,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -20542,7 +20741,7 @@
         <v>0.73057240074899998</v>
       </c>
       <c r="G77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I77" t="s">
         <v>43</v>
@@ -20563,11 +20762,11 @@
         <v>0.85301075268799997</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H78" s="34"/>
       <c r="I78" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1">
@@ -20585,11 +20784,11 @@
         <v>0.63887096774200003</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1">
@@ -20610,7 +20809,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -20641,7 +20840,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -20707,7 +20906,7 @@
         <v>0.73058234311600001</v>
       </c>
       <c r="G85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I85" t="s">
         <v>43</v>
@@ -20732,7 +20931,7 @@
       </c>
       <c r="H86" s="34"/>
       <c r="I86" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1">
@@ -20750,11 +20949,11 @@
         <v>0.624892473118</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1">
@@ -20775,7 +20974,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -20806,7 +21005,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -20872,7 +21071,7 @@
         <v>0.76402864737999998</v>
       </c>
       <c r="G93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I93" t="s">
         <v>43</v>
@@ -20897,7 +21096,7 @@
       </c>
       <c r="H94" s="34"/>
       <c r="I94" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -20911,10 +21110,10 @@
         <v>0.693064516129</v>
       </c>
       <c r="G95" t="s">
+        <v>184</v>
+      </c>
+      <c r="I95" t="s">
         <v>186</v>
-      </c>
-      <c r="I95" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="1" customFormat="1">
@@ -20935,7 +21134,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -20964,7 +21163,7 @@
       </c>
       <c r="H97" s="34"/>
       <c r="I97" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="4" customFormat="1" hidden="1">
@@ -21681,11 +21880,11 @@
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -21708,11 +21907,11 @@
       </c>
       <c r="F161" s="42"/>
       <c r="G161" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -21735,11 +21934,11 @@
       </c>
       <c r="F162" s="42"/>
       <c r="G162" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -21764,7 +21963,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="2"/>
       <c r="I163" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -21773,7 +21972,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B164" s="10">
         <v>97</v>
@@ -21862,7 +22061,7 @@
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -21887,7 +22086,7 @@
       </c>
       <c r="F169" s="42"/>
       <c r="G169" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -21912,7 +22111,7 @@
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="3"/>
@@ -22035,7 +22234,7 @@
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -22085,7 +22284,7 @@
       </c>
       <c r="F178" s="42"/>
       <c r="G178" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2"/>
@@ -22206,7 +22405,7 @@
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="3" t="s">
@@ -22233,11 +22432,11 @@
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -22260,11 +22459,11 @@
       </c>
       <c r="F186" s="42"/>
       <c r="G186" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -22288,7 +22487,7 @@
       <c r="F187" s="42"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -22313,7 +22512,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="2"/>
       <c r="I188" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -22388,7 +22587,7 @@
       </c>
       <c r="F192" s="14"/>
       <c r="G192" s="13" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3" t="s">
@@ -22415,11 +22614,11 @@
       </c>
       <c r="F193" s="42"/>
       <c r="G193" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -22442,11 +22641,11 @@
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -22471,7 +22670,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="2"/>
       <c r="I195" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -22495,7 +22694,7 @@
       <c r="F196" s="14"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -23343,7 +23542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A195" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
@@ -23462,7 +23661,7 @@
         <v>0.79832530043200001</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -23486,7 +23685,7 @@
         <v>0.91081433224800001</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -23510,7 +23709,7 @@
         <v>0.71082519001099997</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -23522,11 +23721,11 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="34">
         <v>0.99885166152100002</v>
@@ -23619,7 +23818,7 @@
         <v>0.77614671209099995</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
@@ -23640,7 +23839,7 @@
         <v>0.88819761129200003</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -23662,7 +23861,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
@@ -23674,7 +23873,7 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21"/>
@@ -23762,7 +23961,7 @@
         <v>0.76418100040100001</v>
       </c>
       <c r="F26" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -23777,7 +23976,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -23799,7 +23998,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
@@ -23811,7 +24010,7 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="2"/>
@@ -23829,7 +24028,7 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B30" s="34">
         <v>98.6</v>
@@ -23916,7 +24115,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="2"/>
@@ -23933,7 +24132,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
@@ -23983,7 +24182,7 @@
         <v>0.67871657641799998</v>
       </c>
       <c r="F42" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1">
@@ -23999,7 +24198,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -24021,7 +24220,7 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -24032,7 +24231,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="2"/>
@@ -24051,7 +24250,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B46">
         <v>40.4</v>
@@ -24104,7 +24303,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -24126,7 +24325,7 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -24147,7 +24346,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
@@ -24159,7 +24358,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="2"/>
@@ -24169,7 +24368,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54">
         <v>70</v>
@@ -24234,7 +24433,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -24255,7 +24454,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -24276,12 +24475,12 @@
         <v>0.650282301846</v>
       </c>
       <c r="F60" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="2"/>
@@ -24291,7 +24490,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62">
         <v>48.4</v>
@@ -24367,7 +24566,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="2"/>
@@ -24389,7 +24588,7 @@
         <v>0.81013029315999996</v>
       </c>
       <c r="F67" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -24404,12 +24603,12 @@
         <v>0.60877307274699999</v>
       </c>
       <c r="F68" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
@@ -24428,7 +24627,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B70" s="2">
         <v>62.8</v>
@@ -24508,7 +24707,7 @@
         <v>0.74706668075299998</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -24523,7 +24722,7 @@
         <v>0.85699239956600004</v>
       </c>
       <c r="F75" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -24539,7 +24738,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
@@ -24551,7 +24750,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
@@ -24570,7 +24769,7 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B78" s="2">
         <v>40.4</v>
@@ -24641,7 +24840,7 @@
         <v>0.74089741931499997</v>
       </c>
       <c r="F82" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -24657,7 +24856,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="2"/>
@@ -24680,7 +24879,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -24692,7 +24891,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D85">
         <v>0.99852592862199996</v>
@@ -24700,7 +24899,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B86">
         <v>55.4</v>
@@ -24736,7 +24935,7 @@
         <v>0.76558294442200003</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -24750,7 +24949,7 @@
         <v>0.86472312703599996</v>
       </c>
       <c r="F91" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -24764,12 +24963,12 @@
         <v>0.68718783930500005</v>
       </c>
       <c r="F92" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D93">
         <v>0.99864884669800003</v>
@@ -24777,7 +24976,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94">
         <v>40.4</v>
@@ -24930,11 +25129,11 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D109" s="34"/>
       <c r="F109" s="2"/>
@@ -25057,7 +25256,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B117" s="9"/>
       <c r="D117" s="1"/>
@@ -25073,7 +25272,7 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B118">
         <v>99</v>
@@ -25193,7 +25392,7 @@
     </row>
     <row r="125" spans="1:13" s="1" customFormat="1">
       <c r="A125" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="2"/>
@@ -25209,7 +25408,7 @@
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1">
       <c r="A126" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B126">
         <v>99</v>
@@ -25307,7 +25506,7 @@
     </row>
     <row r="133" spans="1:13" s="1" customFormat="1">
       <c r="A133" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="2"/>
@@ -25323,7 +25522,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
@@ -25399,7 +25598,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="2"/>
@@ -25510,7 +25709,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="2"/>
@@ -25527,7 +25726,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B150">
         <v>99</v>
@@ -25612,7 +25811,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="2"/>
@@ -25620,7 +25819,7 @@
     </row>
     <row r="158" spans="1:13" s="1" customFormat="1">
       <c r="A158" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B158"/>
       <c r="C158"/>
@@ -25696,7 +25895,7 @@
     </row>
     <row r="165" spans="1:13" s="1" customFormat="1">
       <c r="A165" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B165" s="8"/>
       <c r="E165" s="3"/>
@@ -25710,7 +25909,7 @@
     </row>
     <row r="166" spans="1:13" s="1" customFormat="1">
       <c r="A166" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -25783,7 +25982,7 @@
     </row>
     <row r="173" spans="1:13" s="1" customFormat="1">
       <c r="A173" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -25796,7 +25995,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
@@ -25852,7 +26051,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
@@ -25867,7 +26066,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -25933,12 +26132,12 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:13">

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="0" windowWidth="22500" windowHeight="16360" tabRatio="657" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="7600" yWindow="0" windowWidth="21200" windowHeight="16360" tabRatio="657"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="501">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -252,9 +252,6 @@
     <t>total time</t>
   </si>
   <si>
-    <t>folds</t>
-  </si>
-  <si>
     <t>samples labelled with "strain" are grouped under their species</t>
   </si>
   <si>
@@ -1137,9 +1134,6 @@
     <t>P5</t>
   </si>
   <si>
-    <t>k-fold validation only</t>
-  </si>
-  <si>
     <t>P6</t>
   </si>
   <si>
@@ -1167,9 +1161,6 @@
     <t>Train: Uniprot abstracts</t>
   </si>
   <si>
-    <t>80/20 testing AND k-fold</t>
-  </si>
-  <si>
     <t>Creating classifiers:  16074.9302411</t>
   </si>
   <si>
@@ -1375,6 +1366,171 @@
   </si>
   <si>
     <t>Avg Case 2 or 3 Predictions:  14386.2</t>
+  </si>
+  <si>
+    <t>only those that are in train set &gt;= 2 times</t>
+  </si>
+  <si>
+    <t>test set</t>
+  </si>
+  <si>
+    <t>max accuracy threshold%</t>
+  </si>
+  <si>
+    <t>max accuracy filtered</t>
+  </si>
+  <si>
+    <t>Max F1:  0.957120289481</t>
+  </si>
+  <si>
+    <t>Max Precision:  0.958116856032</t>
+  </si>
+  <si>
+    <t>Max Recall:  0.956125793895</t>
+  </si>
+  <si>
+    <t>Max Accuracy:  0.933038999264</t>
+  </si>
+  <si>
+    <t>Max Threshold:  99</t>
+  </si>
+  <si>
+    <t>Best Accuracy:  1.0</t>
+  </si>
+  <si>
+    <t>Best Accuracy Thresh:  0</t>
+  </si>
+  <si>
+    <t>Filtered Max F1:  0.963728818212</t>
+  </si>
+  <si>
+    <t>Filtered Max Precision:  0.982483097726</t>
+  </si>
+  <si>
+    <t>Filtered Max Recall:  0.945677115345</t>
+  </si>
+  <si>
+    <t>Filtered Max Accuracy:  0.922902494331</t>
+  </si>
+  <si>
+    <t>Filtered Max Threshold:  94</t>
+  </si>
+  <si>
+    <t>Filtered Best Accuracy:  0.978680203046</t>
+  </si>
+  <si>
+    <t>Filtered Best Accuracy Thresh:  100</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  1349</t>
+  </si>
+  <si>
+    <t>Type 1 predictions:  133</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  145</t>
+  </si>
+  <si>
+    <t>Total time:  41203.1916199</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  353</t>
+  </si>
+  <si>
+    <t>Type 1 predictions:  210</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  1126</t>
+  </si>
+  <si>
+    <t>Folds:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folds: </t>
+  </si>
+  <si>
+    <t>Excluded Annotations</t>
+  </si>
+  <si>
+    <t>GO:0005515</t>
+  </si>
+  <si>
+    <t>protein binding</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>GO:0008150</t>
+  </si>
+  <si>
+    <t>biological process</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>GO:0003674</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0005575</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>GO:0005829</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>extracellular region</t>
+  </si>
+  <si>
+    <t>GO:0005886</t>
+  </si>
+  <si>
+    <t>plasma membrane</t>
+  </si>
+  <si>
+    <t>remove from dataset</t>
+  </si>
+  <si>
+    <t>remove from results</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>ontology</t>
+  </si>
+  <si>
+    <t>n-fold validation</t>
   </si>
 </sst>
 </file>
@@ -1516,8 +1672,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="667">
+  <cellStyleXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2279,10 +2469,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="667">
+  <cellStyles count="701">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2616,6 +2808,23 @@
     <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2949,6 +3158,23 @@
     <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3278,10 +3504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A112" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3299,7 +3525,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1">
@@ -3529,7 +3755,7 @@
         <v>1731</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -3550,7 +3776,7 @@
         <v>0.49414030763799999</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
@@ -3571,7 +3797,7 @@
         <v>0.60215949929400003</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
@@ -3592,7 +3818,7 @@
         <v>0.41898086217000002</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
@@ -4939,7 +5165,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
@@ -5685,7 +5911,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
@@ -5925,7 +6151,7 @@
         <v>56</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="5" customFormat="1">
@@ -5944,37 +6170,49 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B130" s="1">
         <v>0.52921702962100003</v>
       </c>
+      <c r="G130">
+        <v>0.375860848139</v>
+      </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B131" s="1">
         <v>0.47908045058499998</v>
       </c>
+      <c r="G131">
+        <v>0.53430141247100005</v>
+      </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B132" s="1"/>
+      <c r="G132">
+        <v>0.28989578916499997</v>
+      </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
       </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B134" s="1">
         <v>3097</v>
@@ -5985,69 +6223,194 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" s="4" customFormat="1">
-      <c r="A137" s="4" t="s">
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="139" spans="1:10" s="4" customFormat="1">
+      <c r="A139" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="5" customFormat="1">
-      <c r="A138" s="5" t="s">
+      <c r="B139" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1">
+      <c r="A140" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G140" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J138" s="6" t="s">
+      <c r="J140" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="148" spans="1:10" s="4" customFormat="1">
+      <c r="A148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="5" customFormat="1">
+      <c r="A149" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B150">
+        <v>0.561597362963</v>
+      </c>
+      <c r="G150">
+        <v>0.55883992993800002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B151">
+        <v>0.569891685747</v>
+      </c>
+      <c r="G151">
+        <v>0.61279326091700004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B152">
+        <v>0.55354101131400002</v>
+      </c>
+      <c r="G152">
+        <v>0.51361843788899997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B154">
+        <v>1728</v>
+      </c>
+      <c r="G154">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156">
+        <v>20872</v>
+      </c>
+      <c r="G156">
+        <v>37480</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157">
+        <v>2443</v>
+      </c>
+      <c r="G157">
+        <v>4292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6076,7 +6439,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6089,28 +6452,28 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
         <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6118,43 +6481,43 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -6172,12 +6535,12 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6190,129 +6553,129 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="52" customFormat="1">
       <c r="A28" s="52" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E29" t="s">
         <v>399</v>
-      </c>
-      <c r="B29" t="s">
-        <v>400</v>
-      </c>
-      <c r="E29" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="F31" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="F32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="E34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E35" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="E36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="F37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="F38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B39" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="E40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="F41" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="F42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="E43" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6329,7 +6692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -6957,7 +7320,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1">
@@ -6978,7 +7341,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D39" s="1">
         <v>0.47793174329499999</v>
@@ -6986,7 +7349,7 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D40" s="1">
         <v>0.62128580493200003</v>
@@ -6994,7 +7357,7 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D41" s="1">
         <v>0.38867023819699997</v>
@@ -7002,7 +7365,7 @@
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D42" s="1">
         <v>64.8</v>
@@ -7010,7 +7373,7 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D43" s="1">
         <v>223993.96854999999</v>
@@ -7018,7 +7381,7 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -7026,7 +7389,7 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -7037,7 +7400,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1">
@@ -7071,7 +7434,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7119,8 +7482,8 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
+      <c r="H4">
+        <v>10</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -7145,7 +7508,9 @@
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5">
+        <v>3770</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -7169,7 +7534,9 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="22">
+        <v>0.27343718801</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -7193,7 +7560,9 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7">
+        <v>0.34013769505800001</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7217,7 +7586,9 @@
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8">
+        <v>0.22860757517700001</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -7241,12 +7612,22 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9">
+        <v>30</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>829387.72697700001</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" s="1" t="s">
@@ -7343,7 +7724,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H5" sqref="H5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7678,6 +8059,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7688,27 +8070,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7716,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1">
         <v>16973</v>
@@ -7727,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1">
         <v>204303</v>
@@ -7738,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1">
         <v>267530</v>
@@ -7746,7 +8129,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1">
         <v>1207</v>
@@ -7758,7 +8141,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1">
         <v>3146</v>
@@ -7770,13 +8153,13 @@
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7784,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="1">
         <v>29070</v>
@@ -7795,7 +8178,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1">
         <v>204303</v>
@@ -7806,7 +8189,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="1">
         <v>267530</v>
@@ -7814,7 +8197,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1">
         <v>2186</v>
@@ -7826,7 +8209,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1">
         <v>5341</v>
@@ -7838,13 +8221,13 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7852,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="1">
         <v>30054</v>
@@ -7863,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1">
         <v>204303</v>
@@ -7874,7 +8257,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="1">
         <v>267530</v>
@@ -7882,7 +8265,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="1">
         <v>2197</v>
@@ -7894,7 +8277,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1">
         <v>5285</v>
@@ -7906,181 +8289,338 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C32" s="34"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" t="s">
         <v>374</v>
       </c>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B35" t="s">
-        <v>376</v>
-      </c>
       <c r="C35" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C36" s="34"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C38" s="34"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B39" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C40" s="34"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C42" s="34"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="57" customFormat="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="57" customFormat="1">
       <c r="A46" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="4" customFormat="1">
+      <c r="A50" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1">
+      <c r="A51" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="B52" t="s">
+        <v>475</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="D52" s="34">
+        <v>83223</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="B53" t="s">
+        <v>481</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="34">
+        <v>6</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" s="34">
+        <v>7</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="B56" t="s">
+        <v>486</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1529</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B57" t="s">
+        <v>488</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D57" s="34">
+        <v>3332</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" t="s">
+        <v>490</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D58" s="34">
+        <v>1847</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="B59" t="s">
+        <v>492</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D59" s="34">
+        <v>3475</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8091,10 +8631,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q450"/>
+  <dimension ref="A1:Z450"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I238" sqref="I238:I242"/>
+    <sheetView showRuler="0" topLeftCell="A100" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8105,22 +8645,23 @@
     <col min="4" max="4" width="17" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="5.1640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1">
+    <row r="1" spans="1:17" s="4" customFormat="1" hidden="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1"/>
-    <row r="3" spans="1:17" s="1" customFormat="1">
+    <row r="2" spans="1:17" s="13" customFormat="1" hidden="1"/>
+    <row r="3" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -8128,7 +8669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -8136,7 +8677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -8157,7 +8698,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1">
+    <row r="6" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -8179,7 +8720,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1">
+    <row r="7" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -8200,7 +8741,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1">
+    <row r="8" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B8" s="8"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -8216,13 +8757,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1">
+    <row r="9" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A9" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="46"/>
       <c r="D9" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="3"/>
@@ -8237,7 +8778,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" s="13" customFormat="1">
+    <row r="10" spans="1:17" s="13" customFormat="1" hidden="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="D10" s="14"/>
@@ -8254,7 +8795,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -8274,7 +8815,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8294,7 +8835,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1">
+    <row r="13" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -8308,7 +8849,7 @@
         <v>0.77555220717899997</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>43</v>
@@ -8320,7 +8861,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -8334,10 +8875,10 @@
         <v>0.88924731182799999</v>
       </c>
       <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
         <v>104</v>
-      </c>
-      <c r="H14" t="s">
-        <v>105</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="9"/>
@@ -8347,7 +8888,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -8361,10 +8902,10 @@
         <v>0.68763440860199998</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="9"/>
@@ -8374,21 +8915,21 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="9">
         <v>0.99866332693500004</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="9">
         <v>0.99876398707799996</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9"/>
@@ -8398,7 +8939,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8412,7 +8953,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9"/>
@@ -8422,7 +8963,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
       <c r="D18" s="1"/>
@@ -8439,7 +8980,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1">
+    <row r="19" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -8454,7 +8995,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -8474,7 +9015,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1">
+    <row r="21" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -8488,7 +9029,7 @@
         <v>0.83192614384499997</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>43</v>
@@ -8500,7 +9041,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -8514,10 +9055,10 @@
         <v>0.93967741935500004</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="9"/>
@@ -8527,7 +9068,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -8541,10 +9082,10 @@
         <v>0.74634408602199998</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
@@ -8554,21 +9095,21 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="9">
         <v>0.99889039749099995</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="9">
         <v>0.99904255817200005</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="9"/>
@@ -8578,7 +9119,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -8592,7 +9133,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="9"/>
@@ -8602,7 +9143,8 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1">
+    <row r="26" spans="1:17" hidden="1"/>
+    <row r="27" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -8611,7 +9153,7 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -8631,7 +9173,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1">
+    <row r="29" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +9188,7 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>43</v>
@@ -8660,7 +9202,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -8675,10 +9217,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -8690,7 +9232,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -8704,26 +9246,26 @@
         <v>0.748548387097</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -8731,7 +9273,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -8745,10 +9287,11 @@
         <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1"/>
+    <row r="35" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -8757,7 +9300,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -8778,7 +9321,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1">
+    <row r="37" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -8793,7 +9336,7 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -8805,7 +9348,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -8820,7 +9363,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -8833,7 +9376,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -8847,19 +9390,19 @@
         <v>0.74612903225799998</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="10">
         <v>8.0645161290299999E-2</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="10">
         <v>6.4516129032300001E-2</v>
@@ -8873,7 +9416,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -8887,15 +9430,15 @@
         <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="1" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B42" s="8"/>
       <c r="D42"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1">
+    <row r="43" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -8904,7 +9447,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -8925,7 +9468,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1">
+    <row r="45" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8940,7 +9483,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -8952,7 +9495,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="33" customFormat="1">
+    <row r="46" spans="1:17" s="33" customFormat="1" hidden="1">
       <c r="A46" s="13" t="s">
         <v>8</v>
       </c>
@@ -8967,7 +9510,7 @@
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
@@ -8980,7 +9523,7 @@
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -8994,19 +9537,19 @@
         <v>0.76666666666700001</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="10">
         <v>0.99507701671399995</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="10">
         <v>0.99913619551499999</v>
@@ -9020,7 +9563,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -9034,12 +9577,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1">
+    <row r="50" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B50" s="8"/>
       <c r="D50"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:17" s="1" customFormat="1">
+    <row r="51" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -9048,7 +9591,7 @@
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -9069,7 +9612,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="1" customFormat="1">
+    <row r="53" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9627,7 @@
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
@@ -9098,7 +9641,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -9113,11 +9656,11 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -9128,7 +9671,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -9142,22 +9685,22 @@
         <v>0.76935483870999999</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="10">
         <v>0.99919705978700002</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="10">
         <v>0.99915960484999999</v>
@@ -9166,14 +9709,14 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
@@ -9187,15 +9730,15 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="1" customFormat="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B58" s="8"/>
       <c r="D58"/>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1">
+    <row r="59" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -9204,7 +9747,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -9225,7 +9768,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1">
+    <row r="61" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -9240,7 +9783,7 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -9252,7 +9795,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -9267,7 +9810,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -9280,7 +9823,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -9294,19 +9837,19 @@
         <v>0.767580645161</v>
       </c>
       <c r="G63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="10">
         <v>0.99916662765099995</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="10">
         <v>0.99914790018300004</v>
@@ -9320,7 +9863,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" s="1" t="s">
         <v>15</v>
       </c>
@@ -9334,12 +9877,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1">
+    <row r="66" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B66" s="8"/>
       <c r="D66"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:17" s="1" customFormat="1">
+    <row r="67" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -9348,7 +9891,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -9369,7 +9912,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" s="1" customFormat="1">
+    <row r="69" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -9384,7 +9927,7 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -9396,7 +9939,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -9411,7 +9954,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -9424,7 +9967,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -9438,19 +9981,19 @@
         <v>0.76779569892499999</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="10">
         <v>0.99919471885400002</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="10">
         <v>0.99914790018300004</v>
@@ -9464,7 +10007,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
@@ -9478,12 +10021,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="1" customFormat="1">
+    <row r="74" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B74" s="8"/>
       <c r="D74"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:17" s="1" customFormat="1">
+    <row r="75" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
@@ -9492,7 +10035,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -9513,7 +10056,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" s="1" customFormat="1">
+    <row r="77" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -9528,7 +10071,7 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -9540,7 +10083,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -9555,7 +10098,7 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -9568,7 +10111,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -9582,19 +10125,19 @@
         <v>0.76279569892499999</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" s="10">
         <v>0.99848775691699998</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E80" s="10">
         <v>0.99913853644799999</v>
@@ -9608,7 +10151,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" s="1" t="s">
         <v>15</v>
       </c>
@@ -9622,12 +10165,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="1" customFormat="1">
+    <row r="82" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B82" s="8"/>
       <c r="D82"/>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:17" s="1" customFormat="1">
+    <row r="83" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -9636,7 +10179,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -9657,7 +10200,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" s="1" customFormat="1">
+    <row r="85" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A85" s="13" t="s">
         <v>7</v>
       </c>
@@ -9672,7 +10215,7 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3" t="s">
@@ -9686,7 +10229,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -9701,11 +10244,11 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="1"/>
@@ -9716,7 +10259,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -9730,22 +10273,22 @@
         <v>0.73919354838700002</v>
       </c>
       <c r="G87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I87" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="10">
         <v>2.5806451612899999E-2</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="10">
         <v>2.5806451612899999E-2</v>
@@ -9754,14 +10297,14 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
@@ -9775,15 +10318,15 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="1" customFormat="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B90" s="8"/>
       <c r="D90"/>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:17" s="1" customFormat="1">
+    <row r="91" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
@@ -9792,7 +10335,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -9813,7 +10356,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" s="1" customFormat="1">
+    <row r="93" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -9828,7 +10371,7 @@
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3" t="s">
@@ -9842,7 +10385,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -9857,11 +10400,11 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="1"/>
@@ -9872,7 +10415,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -9886,22 +10429,22 @@
         <v>0.76860215053799996</v>
       </c>
       <c r="G95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="10">
         <v>0.999199400721</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E96" s="10">
         <v>0.99916428671799995</v>
@@ -9910,14 +10453,14 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" hidden="1">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -9931,15 +10474,15 @@
         <v>98</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="1" customFormat="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B98" s="8"/>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" hidden="1">
       <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:17">
@@ -11508,11 +12051,11 @@
     <row r="209" spans="1:17" s="13" customFormat="1"/>
     <row r="210" spans="1:17" s="1" customFormat="1">
       <c r="A210" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B210" s="46"/>
       <c r="D210" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E210" s="29"/>
       <c r="G210" s="13"/>
@@ -11578,7 +12121,7 @@
         <v>0.82598935762100001</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H214" s="14"/>
       <c r="I214" s="1" t="s">
@@ -11607,11 +12150,11 @@
         <v>0.85414414414399997</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H215" s="14"/>
       <c r="I215" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J215" s="2"/>
       <c r="L215" s="3"/>
@@ -11636,23 +12179,23 @@
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H216" s="33"/>
       <c r="I216" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B217" s="9">
         <v>0.98775368670100006</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E217" s="9">
         <v>0.99892983892999998</v>
@@ -11661,7 +12204,7 @@
       <c r="G217" s="42"/>
       <c r="H217" s="42"/>
       <c r="I217" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J217" s="2"/>
       <c r="K217" s="1"/>
@@ -11674,7 +12217,7 @@
     </row>
     <row r="218" spans="1:17" s="1" customFormat="1">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="9">
         <v>14</v>
@@ -11689,7 +12232,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
       <c r="I218" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J218" s="3"/>
       <c r="L218" s="3"/>
@@ -11769,7 +12312,7 @@
         <v>0.941858264409</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H222" s="13"/>
       <c r="J222" s="3"/>
@@ -11795,7 +12338,7 @@
         <v>0.96341523341500002</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H223" s="13"/>
     </row>
@@ -11813,7 +12356,7 @@
         <v>0.92124488124500004</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H224" s="42"/>
       <c r="J224" s="2"/>
@@ -11824,16 +12367,16 @@
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
     </row>
-    <row r="225" spans="1:17" s="1" customFormat="1">
+    <row r="225" spans="1:21" s="1" customFormat="1">
       <c r="A225" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B225">
         <v>0.99788630735999995</v>
       </c>
       <c r="C225"/>
       <c r="D225" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E225">
         <v>0.99935667725099997</v>
@@ -11848,9 +12391,9 @@
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
     </row>
-    <row r="226" spans="1:17" s="1" customFormat="1">
+    <row r="226" spans="1:21" s="1" customFormat="1">
       <c r="A226" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B226" s="8">
         <v>93</v>
@@ -11871,7 +12414,7 @@
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:21">
       <c r="B227" s="9"/>
       <c r="E227" s="8"/>
       <c r="F227" s="1"/>
@@ -11879,7 +12422,7 @@
       <c r="H227" s="33"/>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:21">
       <c r="A228" s="1" t="s">
         <v>32</v>
       </c>
@@ -11894,7 +12437,7 @@
       <c r="H228" s="33"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:17" s="1" customFormat="1">
+    <row r="229" spans="1:21" s="1" customFormat="1">
       <c r="A229" s="1" t="s">
         <v>6</v>
       </c>
@@ -11910,7 +12453,7 @@
       <c r="H229" s="13"/>
       <c r="J229" s="34"/>
     </row>
-    <row r="230" spans="1:17" s="1" customFormat="1">
+    <row r="230" spans="1:21" s="1" customFormat="1">
       <c r="A230" s="1" t="s">
         <v>7</v>
       </c>
@@ -11924,11 +12467,11 @@
         <v>0.94216496266299998</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H230" s="13"/>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:21">
       <c r="A231" s="1" t="s">
         <v>8</v>
       </c>
@@ -11944,7 +12487,7 @@
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H231" s="42"/>
       <c r="I231" s="1"/>
@@ -11957,7 +12500,7 @@
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
     </row>
-    <row r="232" spans="1:17" s="1" customFormat="1">
+    <row r="232" spans="1:21" s="1" customFormat="1">
       <c r="A232" s="1" t="s">
         <v>9</v>
       </c>
@@ -11972,7 +12515,7 @@
         <v>0.92691236691199996</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H232" s="14"/>
       <c r="J232" s="3"/>
@@ -11983,16 +12526,16 @@
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
     </row>
-    <row r="233" spans="1:17" s="1" customFormat="1">
+    <row r="233" spans="1:21" s="1" customFormat="1">
       <c r="A233" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B233" s="17">
         <v>0.99890780732899997</v>
       </c>
       <c r="C233" s="34"/>
       <c r="D233" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E233" s="17">
         <v>0.99935035514000004</v>
@@ -12007,9 +12550,9 @@
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
     </row>
-    <row r="234" spans="1:17" s="1" customFormat="1">
+    <row r="234" spans="1:21" s="1" customFormat="1">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="8">
         <v>99</v>
@@ -12023,7 +12566,7 @@
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:21">
       <c r="B235" s="8"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -12033,7 +12576,7 @@
       <c r="H235" s="33"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:17" s="1" customFormat="1">
+    <row r="236" spans="1:21" s="1" customFormat="1">
       <c r="A236" s="1" t="s">
         <v>32</v>
       </c>
@@ -12043,8 +12586,20 @@
       <c r="E236" s="8"/>
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
-    </row>
-    <row r="237" spans="1:17" s="1" customFormat="1">
+      <c r="Q236" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R236" s="1">
+        <v>8</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" s="1" customFormat="1">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -12055,8 +12610,17 @@
       <c r="E237" s="9"/>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
-    </row>
-    <row r="238" spans="1:17" s="1" customFormat="1">
+      <c r="Q237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T237" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" s="1" customFormat="1">
       <c r="A238" s="1" t="s">
         <v>7</v>
       </c>
@@ -12070,7 +12634,7 @@
         <v>0.93305494534400002</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H238" s="14"/>
       <c r="I238" s="1" t="s">
@@ -12082,9 +12646,17 @@
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
-      <c r="Q238" s="3"/>
-    </row>
-    <row r="239" spans="1:17" s="1" customFormat="1">
+      <c r="Q238" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R238" s="1">
+        <v>0.91527325527799996</v>
+      </c>
+      <c r="U238" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" s="1" customFormat="1">
       <c r="A239" s="43" t="s">
         <v>8</v>
       </c>
@@ -12099,11 +12671,11 @@
         <v>0.95280917280900002</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H239" s="14"/>
       <c r="I239" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J239" s="3"/>
       <c r="L239" s="3"/>
@@ -12111,9 +12683,17 @@
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
-      <c r="Q239" s="3"/>
-    </row>
-    <row r="240" spans="1:17" s="1" customFormat="1">
+      <c r="Q239" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R239" s="1">
+        <v>0.99164705927600005</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" s="1" customFormat="1">
       <c r="A240" s="1" t="s">
         <v>9</v>
       </c>
@@ -12128,11 +12708,11 @@
         <v>0.91410319410300001</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H240" s="14"/>
       <c r="I240" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J240" s="3"/>
       <c r="L240" s="3"/>
@@ -12140,18 +12720,26 @@
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
-      <c r="Q240" s="3"/>
-    </row>
-    <row r="241" spans="1:17">
+      <c r="Q240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R240" s="1">
+        <v>0.84982238010699995</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B241" s="17">
         <v>0.51056511056499998</v>
       </c>
       <c r="C241" s="34"/>
       <c r="D241" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E241" s="17">
         <v>0.65405405405399997</v>
@@ -12160,12 +12748,18 @@
       <c r="G241" s="33"/>
       <c r="H241" s="33"/>
       <c r="I241" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" s="1" customFormat="1">
+        <v>441</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R241" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" s="1" customFormat="1">
       <c r="A242" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" s="8">
         <v>100</v>
@@ -12179,18 +12773,34 @@
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
       <c r="I242" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" s="1" customFormat="1">
+        <v>442</v>
+      </c>
+      <c r="O242" s="1">
+        <f>8124.95054102/(60*60)</f>
+        <v>2.2569307058388888</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R242" s="1">
+        <v>0.96683417085400003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" s="1" customFormat="1">
       <c r="B243" s="45"/>
       <c r="C243" s="33"/>
       <c r="D243" s="13"/>
       <c r="E243" s="45"/>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
-    </row>
-    <row r="244" spans="1:17" s="1" customFormat="1">
+      <c r="Q243" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="R243" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" s="1" customFormat="1">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
@@ -12202,7 +12812,7 @@
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:18">
       <c r="A245" s="1" t="s">
         <v>6</v>
       </c>
@@ -12224,7 +12834,7 @@
       <c r="P245" s="2"/>
       <c r="Q245" s="2"/>
     </row>
-    <row r="246" spans="1:17" s="1" customFormat="1">
+    <row r="246" spans="1:18" s="1" customFormat="1">
       <c r="A246" s="1" t="s">
         <v>7</v>
       </c>
@@ -12238,7 +12848,7 @@
         <v>0.92684168601000005</v>
       </c>
       <c r="G246" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H246" s="14"/>
       <c r="I246" s="1" t="s">
@@ -12252,7 +12862,7 @@
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
     </row>
-    <row r="247" spans="1:17" s="1" customFormat="1">
+    <row r="247" spans="1:18" s="1" customFormat="1">
       <c r="A247" s="13" t="s">
         <v>8</v>
       </c>
@@ -12267,11 +12877,11 @@
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H247" s="14"/>
       <c r="I247" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J247" s="14"/>
       <c r="L247" s="3"/>
@@ -12281,7 +12891,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:18">
       <c r="A248" s="1" t="s">
         <v>9</v>
       </c>
@@ -12296,23 +12906,23 @@
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H248" s="33"/>
       <c r="I248" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B249" s="17">
         <v>0.99922257185399999</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E249" s="17">
         <v>0.99928234454599996</v>
@@ -12321,12 +12931,12 @@
       <c r="G249" s="33"/>
       <c r="H249" s="33"/>
       <c r="I249" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" s="1" customFormat="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" s="1" customFormat="1">
       <c r="A250" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B250" s="8">
         <v>100</v>
@@ -12340,17 +12950,17 @@
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
       <c r="I250" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" s="1" customFormat="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" s="1" customFormat="1">
       <c r="B251" s="9"/>
       <c r="C251"/>
       <c r="E251" s="9"/>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
     </row>
-    <row r="252" spans="1:17" s="1" customFormat="1">
+    <row r="252" spans="1:18" s="1" customFormat="1">
       <c r="A252" s="1" t="s">
         <v>32</v>
       </c>
@@ -12361,7 +12971,7 @@
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
     </row>
-    <row r="253" spans="1:17" s="1" customFormat="1">
+    <row r="253" spans="1:18" s="1" customFormat="1">
       <c r="A253" s="1" t="s">
         <v>6</v>
       </c>
@@ -12373,7 +12983,7 @@
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
     </row>
-    <row r="254" spans="1:17" s="1" customFormat="1">
+    <row r="254" spans="1:18" s="1" customFormat="1">
       <c r="A254" s="1" t="s">
         <v>7</v>
       </c>
@@ -12387,11 +12997,11 @@
         <v>0.937298792642</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H254" s="13"/>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:18">
       <c r="A255" s="1" t="s">
         <v>8</v>
       </c>
@@ -12407,7 +13017,7 @@
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H255" s="42"/>
       <c r="I255" s="2"/>
@@ -12420,7 +13030,7 @@
       <c r="P255" s="2"/>
       <c r="Q255" s="2"/>
     </row>
-    <row r="256" spans="1:17" s="1" customFormat="1">
+    <row r="256" spans="1:18" s="1" customFormat="1">
       <c r="A256" s="1" t="s">
         <v>9</v>
       </c>
@@ -12435,20 +13045,20 @@
         <v>0.90877968878000004</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H256" s="13"/>
     </row>
     <row r="257" spans="1:17" s="1" customFormat="1">
       <c r="A257" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B257" s="17">
         <v>0.99922851080700004</v>
       </c>
       <c r="C257" s="34"/>
       <c r="D257" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E257" s="34">
         <v>0.99933196354200005</v>
@@ -12516,7 +13126,7 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H262" s="14"/>
       <c r="I262" s="3" t="s">
@@ -12545,11 +13155,11 @@
         <v>0.96933660933700005</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H263" s="13"/>
       <c r="I263" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:17" s="1" customFormat="1">
@@ -12567,23 +13177,23 @@
         <v>0.906601146601</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H264" s="13"/>
       <c r="I264" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="265" spans="1:17" s="1" customFormat="1">
       <c r="A265" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B265" s="17">
         <v>0.998569861728</v>
       </c>
       <c r="C265" s="34"/>
       <c r="D265" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E265" s="34">
         <v>0.99933196354200005</v>
@@ -12591,7 +13201,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
       <c r="I265" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="266" spans="1:17" s="1" customFormat="1">
@@ -12610,7 +13220,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
       <c r="I266" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="267" spans="1:17" s="1" customFormat="1">
@@ -12666,7 +13276,7 @@
         <v>0.93457249136300002</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H270" s="13"/>
       <c r="I270" s="1" t="s">
@@ -12688,11 +13298,11 @@
         <v>0.96522522522499998</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H271" s="13"/>
       <c r="I271" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="272" spans="1:17" s="1" customFormat="1">
@@ -12710,23 +13320,23 @@
         <v>0.90580671580700001</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H272" s="13"/>
       <c r="I272" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="273" spans="1:17" s="1" customFormat="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" s="1" customFormat="1">
       <c r="A273" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B273" s="9">
         <v>0.99660004502099997</v>
       </c>
       <c r="C273"/>
       <c r="D273" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E273" s="1">
         <v>0.99932200142700001</v>
@@ -12734,10 +13344,10 @@
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
       <c r="I273" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="274" spans="1:17" s="1" customFormat="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" s="1" customFormat="1">
       <c r="A274" s="1" t="s">
         <v>15</v>
       </c>
@@ -12754,7 +13364,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -12765,7 +13375,7 @@
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:26">
       <c r="A275" s="1"/>
       <c r="B275" s="8"/>
       <c r="C275" s="1"/>
@@ -12784,7 +13394,7 @@
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
     </row>
-    <row r="276" spans="1:17" s="1" customFormat="1">
+    <row r="276" spans="1:26" s="1" customFormat="1">
       <c r="A276" s="1" t="s">
         <v>32</v>
       </c>
@@ -12805,7 +13415,7 @@
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
     </row>
-    <row r="277" spans="1:17" s="1" customFormat="1">
+    <row r="277" spans="1:26" s="1" customFormat="1">
       <c r="A277" s="1" t="s">
         <v>6</v>
       </c>
@@ -12824,7 +13434,7 @@
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
     </row>
-    <row r="278" spans="1:17" s="1" customFormat="1">
+    <row r="278" spans="1:26" s="1" customFormat="1">
       <c r="A278" s="1" t="s">
         <v>7</v>
       </c>
@@ -12847,7 +13457,7 @@
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:26">
       <c r="A279" s="1" t="s">
         <v>8</v>
       </c>
@@ -12868,7 +13478,7 @@
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:26">
       <c r="A280" s="1" t="s">
         <v>9</v>
       </c>
@@ -12890,13 +13500,13 @@
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
     </row>
-    <row r="281" spans="1:17" s="1" customFormat="1">
+    <row r="281" spans="1:26" s="1" customFormat="1">
       <c r="A281" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B281" s="8"/>
       <c r="D281" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E281"/>
       <c r="F281" s="3"/>
@@ -12912,7 +13522,7 @@
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:26">
       <c r="A282" s="1" t="s">
         <v>15</v>
       </c>
@@ -12935,7 +13545,7 @@
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
     </row>
-    <row r="283" spans="1:17" s="1" customFormat="1">
+    <row r="283" spans="1:26" s="1" customFormat="1">
       <c r="B283" s="9"/>
       <c r="C283"/>
       <c r="D283"/>
@@ -12953,7 +13563,7 @@
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
     </row>
-    <row r="284" spans="1:17" s="1" customFormat="1">
+    <row r="284" spans="1:26" s="1" customFormat="1">
       <c r="A284" s="1" t="s">
         <v>32</v>
       </c>
@@ -12972,9 +13582,29 @@
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
-      <c r="Q284" s="3"/>
-    </row>
-    <row r="285" spans="1:17" s="1" customFormat="1">
+      <c r="Q284" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R284" s="1">
+        <v>14</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T284" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U284" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="W284" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z284" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" s="1" customFormat="1">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -12992,9 +13622,29 @@
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
-      <c r="Q285" s="3"/>
-    </row>
-    <row r="286" spans="1:17" s="1" customFormat="1">
+      <c r="Q285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R285" s="1">
+        <v>1328</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T285" s="1">
+        <v>2</v>
+      </c>
+      <c r="U285" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="W285" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z285" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" s="1" customFormat="1">
       <c r="A286" s="18" t="s">
         <v>7</v>
       </c>
@@ -13015,9 +13665,23 @@
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
-      <c r="Q286" s="3"/>
-    </row>
-    <row r="287" spans="1:17">
+      <c r="Q286" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R286" s="1">
+        <v>0.95712028948100003</v>
+      </c>
+      <c r="U286" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W286" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z286" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26">
       <c r="A287" s="1" t="s">
         <v>8</v>
       </c>
@@ -13039,9 +13703,22 @@
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
-      <c r="Q287" s="3"/>
-    </row>
-    <row r="288" spans="1:17" s="1" customFormat="1">
+      <c r="Q287" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R287" s="1">
+        <v>0.95811685603200003</v>
+      </c>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+      <c r="U287" t="s">
+        <v>453</v>
+      </c>
+      <c r="W287" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" s="1" customFormat="1">
       <c r="A288" s="1" t="s">
         <v>9</v>
       </c>
@@ -13062,17 +13739,42 @@
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
-      <c r="Q288" s="3"/>
-    </row>
-    <row r="289" spans="1:8" s="13" customFormat="1">
+      <c r="Q288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R288" s="1">
+        <v>0.95612579389499996</v>
+      </c>
+      <c r="U288" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="W288" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" s="13" customFormat="1">
       <c r="A289" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" s="13" customFormat="1">
+        <v>101</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R289" s="1">
+        <v>99</v>
+      </c>
+      <c r="S289"/>
+      <c r="T289"/>
+      <c r="U289" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="W289" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" s="13" customFormat="1">
       <c r="A290" s="1" t="s">
         <v>15</v>
       </c>
@@ -13082,19 +13784,44 @@
       <c r="D290" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="Q290" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R290" s="1">
+        <v>0.97868020304600001</v>
+      </c>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="W290" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23">
       <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:8" s="1" customFormat="1">
+      <c r="Q291" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="R291" s="1">
+        <v>100</v>
+      </c>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+    </row>
+    <row r="292" spans="1:23" s="1" customFormat="1">
       <c r="A292" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B292" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" s="1" customFormat="1">
+      <c r="Q292" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" s="1" customFormat="1">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -13105,7 +13832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:23">
       <c r="A294" s="1" t="s">
         <v>7</v>
       </c>
@@ -13116,10 +13843,10 @@
         <v>7</v>
       </c>
       <c r="H294" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23">
       <c r="A295" s="1" t="s">
         <v>8</v>
       </c>
@@ -13130,10 +13857,10 @@
         <v>8</v>
       </c>
       <c r="H295" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23">
       <c r="A296" s="1" t="s">
         <v>9</v>
       </c>
@@ -13144,21 +13871,21 @@
         <v>9</v>
       </c>
       <c r="H296" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23">
+      <c r="A297" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H297" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H297" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:23">
       <c r="A298" s="1" t="s">
         <v>15</v>
       </c>
@@ -13169,13 +13896,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="4" customFormat="1">
+    <row r="301" spans="1:23" s="4" customFormat="1">
       <c r="A301" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B301" s="15"/>
     </row>
-    <row r="302" spans="1:8" s="22" customFormat="1">
+    <row r="302" spans="1:23" s="22" customFormat="1">
       <c r="A302" s="22" t="s">
         <v>56</v>
       </c>
@@ -13183,7 +13910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="13" customFormat="1">
+    <row r="303" spans="1:23" s="13" customFormat="1">
       <c r="A303" s="13" t="s">
         <v>67</v>
       </c>
@@ -13195,7 +13922,7 @@
         <v>138900</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="13" customFormat="1">
+    <row r="304" spans="1:23" s="13" customFormat="1">
       <c r="A304" s="13" t="s">
         <v>66</v>
       </c>
@@ -13214,7 +13941,7 @@
     <row r="306" spans="1:17" s="13" customFormat="1"/>
     <row r="307" spans="1:17" s="4" customFormat="1">
       <c r="A307" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B307" s="4">
         <v>10</v>
@@ -13223,11 +13950,11 @@
     <row r="308" spans="1:17" s="13" customFormat="1"/>
     <row r="309" spans="1:17" s="1" customFormat="1">
       <c r="A309" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B309" s="46"/>
       <c r="D309" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E309" s="29"/>
       <c r="G309" s="13"/>
@@ -13293,7 +14020,7 @@
         <v>0.81888780961300001</v>
       </c>
       <c r="G313" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H313" s="14"/>
       <c r="I313" s="3" t="s">
@@ -13321,11 +14048,11 @@
         <v>0.87537642702899998</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H314" s="14"/>
       <c r="I314" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J314" s="2"/>
       <c r="L314" s="3"/>
@@ -13349,32 +14076,28 @@
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H315" s="33"/>
       <c r="I315" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J315" s="3"/>
     </row>
     <row r="316" spans="1:17">
       <c r="A316" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B316" s="9">
-        <v>0.99982970135500004</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B316" s="9"/>
       <c r="D316" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E316" s="9">
-        <v>0.99997248330199995</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E316" s="9"/>
       <c r="F316" s="1"/>
       <c r="G316" s="42"/>
       <c r="H316" s="42"/>
       <c r="I316" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="1"/>
@@ -13386,7 +14109,7 @@
     </row>
     <row r="317" spans="1:17" s="1" customFormat="1">
       <c r="A317" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B317" s="9">
         <v>29</v>
@@ -13401,7 +14124,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
       <c r="I317" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J317" s="3"/>
       <c r="L317" s="3"/>
@@ -13483,7 +14206,7 @@
         <v>0.87568483266599995</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H321" s="13"/>
       <c r="I321" s="1" t="s">
@@ -13512,11 +14235,11 @@
         <v>0.91527623504400002</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H322" s="13"/>
       <c r="I322" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="323" spans="1:17" s="34" customFormat="1">
@@ -13533,11 +14256,11 @@
         <v>0.83937656415999995</v>
       </c>
       <c r="G323" s="42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H323" s="42"/>
       <c r="I323" s="34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J323" s="2"/>
       <c r="L323" s="2"/>
@@ -13549,18 +14272,18 @@
     </row>
     <row r="324" spans="1:17" s="1" customFormat="1">
       <c r="A324" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E324"/>
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J324" s="3"/>
       <c r="L324" s="3"/>
@@ -13572,7 +14295,7 @@
     </row>
     <row r="325" spans="1:17" s="1" customFormat="1">
       <c r="A325" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B325" s="8">
         <v>99</v>
@@ -13586,7 +14309,7 @@
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
       <c r="I325" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J325" s="3"/>
       <c r="L325" s="3"/>
@@ -13633,7 +14356,7 @@
       </c>
       <c r="E328" s="9"/>
       <c r="I328" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J328" s="13"/>
     </row>
@@ -13649,7 +14372,7 @@
       </c>
       <c r="E329" s="8"/>
       <c r="I329" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J329" s="13"/>
     </row>
@@ -13667,7 +14390,7 @@
       <c r="E330" s="17"/>
       <c r="F330" s="1"/>
       <c r="I330" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J330" s="42"/>
       <c r="K330" s="1"/>
@@ -13691,7 +14414,7 @@
       </c>
       <c r="E331" s="34"/>
       <c r="I331" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J331" s="14">
         <f>158036.651968/(60*60)</f>
@@ -13706,12 +14429,12 @@
     </row>
     <row r="332" spans="1:17" s="1" customFormat="1">
       <c r="A332" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B332" s="17"/>
       <c r="C332" s="34"/>
       <c r="D332" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E332" s="17"/>
       <c r="G332" s="14"/>
@@ -13726,7 +14449,7 @@
     </row>
     <row r="333" spans="1:17" s="1" customFormat="1">
       <c r="A333" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B333" s="8">
         <v>100</v>
@@ -13785,7 +14508,7 @@
       </c>
       <c r="E337" s="8"/>
       <c r="G337" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H337" s="14"/>
       <c r="J337" s="3"/>
@@ -13809,7 +14532,7 @@
       </c>
       <c r="E338" s="17"/>
       <c r="G338" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H338" s="14"/>
       <c r="J338" s="3"/>
@@ -13833,7 +14556,7 @@
       </c>
       <c r="E339" s="17"/>
       <c r="G339" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H339" s="14"/>
       <c r="J339" s="3"/>
@@ -13846,17 +14569,17 @@
     </row>
     <row r="340" spans="1:17">
       <c r="A340" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B340" s="17"/>
       <c r="C340" s="34"/>
       <c r="D340" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E340" s="17"/>
       <c r="F340" s="1"/>
       <c r="G340" s="33" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H340" s="33">
         <f>297021.813278/(60*60)</f>
@@ -13866,7 +14589,7 @@
     </row>
     <row r="341" spans="1:17" s="1" customFormat="1">
       <c r="A341" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B341" s="8">
         <v>100</v>
@@ -13974,12 +14697,12 @@
     </row>
     <row r="348" spans="1:17">
       <c r="A348" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B348" s="17"/>
       <c r="C348" s="1"/>
       <c r="D348" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="1"/>
@@ -13989,7 +14712,7 @@
     </row>
     <row r="349" spans="1:17" s="1" customFormat="1">
       <c r="A349" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B349" s="8"/>
       <c r="D349" s="3" t="s">
@@ -14077,12 +14800,12 @@
     </row>
     <row r="356" spans="1:17" s="1" customFormat="1">
       <c r="A356" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B356" s="17"/>
       <c r="C356" s="34"/>
       <c r="D356" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E356" s="34"/>
       <c r="G356" s="13"/>
@@ -14107,7 +14830,7 @@
     </row>
     <row r="360" spans="1:17" s="4" customFormat="1">
       <c r="A360" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B360" s="4">
         <v>1</v>
@@ -14116,11 +14839,11 @@
     <row r="361" spans="1:17" s="13" customFormat="1"/>
     <row r="362" spans="1:17" s="1" customFormat="1">
       <c r="A362" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B362" s="46"/>
       <c r="D362" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E362" s="29"/>
       <c r="G362" s="13"/>
@@ -14226,11 +14949,11 @@
     </row>
     <row r="369" spans="1:17">
       <c r="A369" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B369" s="9"/>
       <c r="D369" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E369" s="9"/>
       <c r="F369" s="1"/>
@@ -14248,7 +14971,7 @@
     </row>
     <row r="370" spans="1:17" s="1" customFormat="1">
       <c r="A370" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370"/>
@@ -14373,12 +15096,12 @@
     </row>
     <row r="377" spans="1:17" s="1" customFormat="1">
       <c r="A377" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E377"/>
       <c r="G377" s="14"/>
@@ -14393,7 +15116,7 @@
     </row>
     <row r="378" spans="1:17" s="1" customFormat="1">
       <c r="A378" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B378" s="8"/>
       <c r="D378" s="3" t="s">
@@ -14504,12 +15227,12 @@
     </row>
     <row r="385" spans="1:17" s="1" customFormat="1">
       <c r="A385" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B385" s="17"/>
       <c r="C385" s="34"/>
       <c r="D385" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E385" s="17"/>
       <c r="G385" s="14"/>
@@ -14524,7 +15247,7 @@
     </row>
     <row r="386" spans="1:17" s="1" customFormat="1">
       <c r="A386" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B386" s="8"/>
       <c r="D386" s="3" t="s">
@@ -14626,12 +15349,12 @@
     </row>
     <row r="393" spans="1:17">
       <c r="A393" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B393" s="17"/>
       <c r="C393" s="34"/>
       <c r="D393" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E393" s="17"/>
       <c r="F393" s="1"/>
@@ -14641,7 +15364,7 @@
     </row>
     <row r="394" spans="1:17" s="1" customFormat="1">
       <c r="A394" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B394" s="8"/>
       <c r="D394" s="3" t="s">
@@ -14747,12 +15470,12 @@
     </row>
     <row r="401" spans="1:17">
       <c r="A401" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B401" s="17"/>
       <c r="C401" s="1"/>
       <c r="D401" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E401" s="17"/>
       <c r="F401" s="1"/>
@@ -14762,7 +15485,7 @@
     </row>
     <row r="402" spans="1:17" s="1" customFormat="1">
       <c r="A402" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B402" s="8"/>
       <c r="D402" s="3" t="s">
@@ -14850,12 +15573,12 @@
     </row>
     <row r="409" spans="1:17" s="1" customFormat="1">
       <c r="A409" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B409" s="17"/>
       <c r="C409" s="34"/>
       <c r="D409" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E409" s="34"/>
       <c r="G409" s="13"/>
@@ -14948,12 +15671,12 @@
     </row>
     <row r="417" spans="1:17" s="1" customFormat="1">
       <c r="A417" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B417" s="17"/>
       <c r="C417" s="34"/>
       <c r="D417" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E417" s="34"/>
       <c r="G417" s="13"/>
@@ -15047,12 +15770,12 @@
     </row>
     <row r="425" spans="1:17" s="1" customFormat="1">
       <c r="A425" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B425" s="9"/>
       <c r="C425"/>
       <c r="D425" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G425" s="13"/>
       <c r="H425" s="13"/>
@@ -15205,11 +15928,11 @@
     </row>
     <row r="433" spans="1:17" s="1" customFormat="1">
       <c r="A433" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B433" s="8"/>
       <c r="D433" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E433"/>
       <c r="F433" s="3"/>
@@ -15373,10 +16096,10 @@
     </row>
     <row r="441" spans="1:17" s="13" customFormat="1">
       <c r="A441" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="442" spans="1:17" s="13" customFormat="1">
@@ -15429,10 +16152,10 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -15445,6 +16168,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15457,14 +16181,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q280"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A227" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
@@ -15473,19 +16197,28 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1">
+        <v>472</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" hidden="1">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:17" s="13" customFormat="1">
+    <row r="3" spans="1:17" s="13" customFormat="1" hidden="1">
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="45" hidden="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -15493,7 +16226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="30">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="45" hidden="1">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -15501,7 +16234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1">
+    <row r="6" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -15517,7 +16250,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1">
+    <row r="7" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="B7" s="8"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -15528,13 +16261,13 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1">
+    <row r="8" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A8" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="29"/>
       <c r="F8" s="3"/>
@@ -15549,7 +16282,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1">
+    <row r="9" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -15564,7 +16297,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1">
+    <row r="10" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -15578,7 +16311,7 @@
         <v>0.762348721314</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -15587,7 +16320,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -15601,7 +16334,7 @@
         <v>0.87095548317000004</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -15611,7 +16344,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -15625,7 +16358,7 @@
         <v>0.67782844734000003</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -15635,15 +16368,15 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="9">
         <v>0.99447294147700005</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="34">
         <v>0.99867343031300004</v>
@@ -15657,7 +16390,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -15679,7 +16412,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -15697,7 +16430,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1">
+    <row r="16" spans="1:17" s="1" customFormat="1" hidden="1">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" s="3"/>
@@ -15707,7 +16440,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1">
+    <row r="17" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -15723,7 +16456,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
+    <row r="18" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -15735,7 +16468,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -15744,7 +16477,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -15756,7 +16489,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -15766,7 +16499,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -15777,12 +16510,12 @@
         <v>0.74779587405000003</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="9">
         <v>0.99893534036499998</v>
@@ -15799,7 +16532,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -15810,7 +16543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -15828,7 +16561,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
@@ -15841,7 +16574,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1">
+    <row r="25" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -15857,7 +16590,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
+    <row r="26" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -15869,7 +16602,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15878,7 +16611,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -15890,7 +16623,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -15900,7 +16633,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -15911,12 +16644,12 @@
         <v>0.75134636264900001</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="10">
         <v>0.99848054348699999</v>
@@ -15935,9 +16668,9 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30">
         <v>99</v>
@@ -15946,7 +16679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -15964,7 +16697,8 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1">
+    <row r="32" spans="1:13" hidden="1"/>
+    <row r="33" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A33" s="43" t="s">
         <v>32</v>
       </c>
@@ -15980,7 +16714,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
+    <row r="34" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A34" s="43" t="s">
         <v>36</v>
       </c>
@@ -15993,7 +16727,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -16002,7 +16736,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="43" t="s">
         <v>37</v>
       </c>
@@ -16015,7 +16749,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
@@ -16025,7 +16759,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -16036,12 +16770,12 @@
         <v>0.76079261672099996</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="10">
         <v>0.99704382029399996</v>
@@ -16060,9 +16794,9 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38">
         <v>99</v>
@@ -16071,7 +16805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -16089,7 +16823,8 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1">
+    <row r="40" spans="1:13" hidden="1"/>
+    <row r="41" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -16105,7 +16840,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1">
+    <row r="42" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A42" s="13" t="s">
         <v>36</v>
       </c>
@@ -16117,7 +16852,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -16126,7 +16861,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -16138,7 +16873,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
@@ -16148,7 +16883,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -16159,12 +16894,12 @@
         <v>0.76248642779599995</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="10">
         <v>0.99867437583600005</v>
@@ -16183,7 +16918,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -16194,7 +16929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -16212,7 +16947,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -16225,7 +16960,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1">
+    <row r="49" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -16241,7 +16976,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1">
+    <row r="50" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A50" s="13" t="s">
         <v>36</v>
       </c>
@@ -16253,7 +16988,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -16262,7 +16997,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -16274,7 +17009,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -16284,7 +17019,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
@@ -16295,12 +17030,12 @@
         <v>0.76274701411500001</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="10">
         <v>0.99916983023100003</v>
@@ -16319,9 +17054,9 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54">
         <v>100</v>
@@ -16330,7 +17065,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -16345,7 +17080,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -16358,7 +17093,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1">
+    <row r="57" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -16374,7 +17109,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1">
+    <row r="58" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A58" s="13" t="s">
         <v>36</v>
       </c>
@@ -16386,7 +17121,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16395,7 +17130,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
@@ -16407,7 +17142,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -16417,7 +17152,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
@@ -16428,12 +17163,12 @@
         <v>0.76567861020600003</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="10">
         <v>0.99905684015499996</v>
@@ -16452,9 +17187,9 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62">
         <v>100</v>
@@ -16463,7 +17198,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -16478,7 +17213,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
@@ -16491,7 +17226,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="3" t="s">
         <v>32</v>
       </c>
@@ -16510,7 +17245,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
@@ -16523,7 +17258,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -16533,7 +17268,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -16546,7 +17281,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="2"/>
@@ -16556,7 +17291,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="3" t="s">
         <v>38</v>
       </c>
@@ -16569,7 +17304,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -16579,9 +17314,9 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="10">
         <v>0.99812549935499995</v>
@@ -16600,9 +17335,9 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -16621,7 +17356,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="3" t="s">
         <v>40</v>
       </c>
@@ -16638,7 +17373,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
@@ -16651,7 +17386,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
@@ -16670,7 +17405,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="14" t="s">
         <v>36</v>
       </c>
@@ -16683,7 +17418,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -16693,7 +17428,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="3" t="s">
         <v>37</v>
       </c>
@@ -16706,7 +17441,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="2"/>
@@ -16716,7 +17451,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
@@ -16729,7 +17464,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -16739,9 +17474,9 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" s="10">
         <v>0.99918779518099998</v>
@@ -16760,9 +17495,9 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="2">
         <v>100</v>
@@ -16781,7 +17516,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="3" t="s">
         <v>40</v>
       </c>
@@ -16798,7 +17533,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -16813,7 +17548,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="31" t="s">
         <v>32</v>
       </c>
@@ -16832,7 +17567,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="14" t="s">
         <v>36</v>
       </c>
@@ -16845,7 +17580,7 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -16855,7 +17590,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="3" t="s">
         <v>37</v>
       </c>
@@ -16868,7 +17603,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="2"/>
@@ -16878,7 +17613,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="3" t="s">
         <v>38</v>
       </c>
@@ -16891,7 +17626,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -16901,9 +17636,9 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B85" s="10">
         <v>0.99914051899800005</v>
@@ -16922,9 +17657,9 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -16943,7 +17678,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="3" t="s">
         <v>40</v>
       </c>
@@ -16959,7 +17694,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -16973,7 +17708,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="3" t="s">
         <v>32</v>
       </c>
@@ -16992,7 +17727,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="14" t="s">
         <v>36</v>
       </c>
@@ -17005,7 +17740,7 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -17015,7 +17750,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="3" t="s">
         <v>37</v>
       </c>
@@ -17028,7 +17763,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="2"/>
@@ -17038,7 +17773,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="3" t="s">
         <v>38</v>
       </c>
@@ -17051,7 +17786,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -17061,9 +17796,9 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="10">
         <v>0.99918117651500005</v>
@@ -17082,7 +17817,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="3" t="s">
         <v>39</v>
       </c>
@@ -17103,7 +17838,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="3" t="s">
         <v>40</v>
       </c>
@@ -17122,7 +17857,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
@@ -17136,6 +17871,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
+    <row r="97" spans="1:13" hidden="1"/>
     <row r="98" spans="1:13" s="4" customFormat="1" hidden="1">
       <c r="A98" s="4" t="s">
         <v>46</v>
@@ -17143,7 +17879,7 @@
       <c r="B98" s="15"/>
     </row>
     <row r="99" spans="1:13" hidden="1"/>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="45" hidden="1">
       <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
@@ -17151,7 +17887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="45" hidden="1">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -17652,6 +18388,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
+    <row r="146" spans="1:13" hidden="1"/>
     <row r="147" spans="1:13" s="4" customFormat="1">
       <c r="A147" s="4" t="s">
         <v>47</v>
@@ -17667,7 +18404,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" s="13" customFormat="1"/>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A150" s="1" t="s">
         <v>28</v>
       </c>
@@ -17675,7 +18412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A151" s="1" t="s">
         <v>27</v>
       </c>
@@ -17691,7 +18428,9 @@
         <v>1</v>
       </c>
       <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="3">
+        <v>2</v>
+      </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -17699,38 +18438,35 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B153" s="8">
-        <v>5</v>
-      </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
+    <row r="153" spans="1:13" s="1" customFormat="1">
+      <c r="B153" s="8"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B154" s="46"/>
       <c r="C154" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="F154" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G154" s="46"/>
+      <c r="H154" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154" s="29"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -17743,7 +18479,12 @@
       <c r="B155" s="8">
         <v>5</v>
       </c>
-      <c r="F155" s="3"/>
+      <c r="F155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155" s="1">
+        <v>8</v>
+      </c>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -17758,7 +18499,9 @@
       <c r="B156" s="16">
         <v>0.788466308078</v>
       </c>
-      <c r="F156" s="3"/>
+      <c r="F156" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -17774,7 +18517,9 @@
         <v>0.85946066258300002</v>
       </c>
       <c r="D157" s="1"/>
-      <c r="F157" s="2"/>
+      <c r="F157" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -17791,7 +18536,9 @@
         <v>0.72897297297300001</v>
       </c>
       <c r="D158" s="1"/>
-      <c r="F158" s="2"/>
+      <c r="F158" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G158" s="1"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -17802,13 +18549,15 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B159" s="9">
         <v>17.399999999999999</v>
       </c>
       <c r="D159" s="1"/>
-      <c r="F159" s="2"/>
+      <c r="F159" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -17826,7 +18575,9 @@
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+      <c r="F160" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -17865,6 +18616,9 @@
       <c r="A163" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B163" s="1">
+        <v>0.899513736545</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="H163" s="3"/>
@@ -17877,6 +18631,9 @@
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B164">
+        <v>0.91471951360100001</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="2"/>
@@ -17893,15 +18650,24 @@
       <c r="A165" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B165">
+        <v>0.88490253890299997</v>
+      </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="B166">
+        <v>91.2</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B167">
+        <v>14231.4327791</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
@@ -17987,7 +18753,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B173">
         <v>99</v>
@@ -18071,7 +18837,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B180">
         <v>99.2</v>
@@ -18147,7 +18913,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -18225,7 +18991,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B194">
         <v>99</v>
@@ -18322,7 +19088,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B201">
         <v>99</v>
@@ -18699,7 +19465,7 @@
       </c>
     </row>
     <row r="234" spans="1:13" s="13" customFormat="1"/>
-    <row r="235" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="235" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A235" s="1" t="s">
         <v>28</v>
       </c>
@@ -18707,7 +19473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="236" spans="1:13" s="1" customFormat="1" ht="45">
       <c r="A236" s="1" t="s">
         <v>27</v>
       </c>
@@ -18747,11 +19513,11 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B239" s="46"/>
       <c r="C239" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="2"/>
@@ -18772,7 +19538,7 @@
         <v>5</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -18792,7 +19558,7 @@
         <v>0.81781952109900002</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -18812,7 +19578,7 @@
         <v>0.87617503171199995</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="2"/>
@@ -19264,8 +20030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S244"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A219" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192:I197"/>
+    <sheetView showRuler="0" topLeftCell="A149" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A148" sqref="A1:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19280,18 +20046,18 @@
     <col min="8" max="8" width="16" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1">
+    <row r="1" spans="1:19" s="4" customFormat="1" hidden="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="15"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:19" s="13" customFormat="1">
+    <row r="2" spans="1:19" s="13" customFormat="1" hidden="1">
       <c r="B2" s="16"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="30">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="30" hidden="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -19300,7 +20066,7 @@
       </c>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="30" hidden="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -19309,7 +20075,7 @@
       </c>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -19332,7 +20098,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -19356,7 +20122,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1">
+    <row r="7" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -19379,7 +20145,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" hidden="1">
       <c r="A8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
@@ -19392,14 +20158,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="3"/>
       <c r="D9" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="2"/>
@@ -19411,7 +20177,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -19426,7 +20192,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -19445,7 +20211,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -19464,7 +20230,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" hidden="1">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -19480,7 +20246,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="2" t="s">
@@ -19491,7 +20257,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1">
+    <row r="14" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -19507,18 +20273,18 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -19533,31 +20299,31 @@
         <v>0.72241935483899999</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="10">
         <v>0.99886464722099999</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="10">
         <v>0.99888337468999999</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -19575,14 +20341,14 @@
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1">
+    <row r="18" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A18" s="3"/>
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
@@ -19596,7 +20362,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" hidden="1">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -19615,7 +20381,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" hidden="1">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -19626,7 +20392,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" hidden="1">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -19641,13 +20407,13 @@
         <v>0.70351597935900001</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -19662,14 +20428,14 @@
         <v>0.81284946236599998</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -19684,32 +20450,32 @@
         <v>0.62010752688199999</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1">
       <c r="A24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="10">
         <v>0.99229598764000004</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="10">
         <v>0.99821152675699998</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -19727,14 +20493,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1">
+    <row r="26" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -19748,7 +20514,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" hidden="1">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -19767,7 +20533,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" hidden="1">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -19778,7 +20544,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" hidden="1">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -19793,10 +20559,10 @@
         <v>0.79328918598599996</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="1" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -19811,11 +20577,11 @@
         <v>0.894784946237</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="34"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" hidden="1">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -19830,19 +20596,19 @@
         <v>0.71247311828000004</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="10">
         <v>0.99644178098199998</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="10">
         <v>0.99878973734700005</v>
@@ -19862,7 +20628,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -19885,7 +20651,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:19" s="1" customFormat="1">
+    <row r="34" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -19899,7 +20665,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" hidden="1">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -19918,7 +20684,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" hidden="1">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -19929,7 +20695,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="27"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" hidden="1">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -19944,10 +20710,10 @@
         <v>0.68643678003200004</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="1" customFormat="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -19962,11 +20728,11 @@
         <v>0.77274193548400005</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:19" s="1" customFormat="1">
+    <row r="39" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -19981,20 +20747,20 @@
         <v>0.61747311827999996</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1">
+    <row r="40" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="10">
         <v>0.99786038672199995</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="10">
         <v>0.99815066248399997</v>
@@ -20014,7 +20780,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" hidden="1">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -20037,7 +20803,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:19" s="1" customFormat="1">
+    <row r="42" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A42" s="3"/>
       <c r="B42" s="27"/>
       <c r="C42" s="3"/>
@@ -20051,7 +20817,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" hidden="1">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -20070,7 +20836,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
@@ -20081,7 +20847,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" hidden="1">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -20096,10 +20862,10 @@
         <v>0.70872025649199999</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="1" customFormat="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -20114,11 +20880,11 @@
         <v>0.85817204301100003</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -20133,19 +20899,19 @@
         <v>0.60360215053800004</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="10">
         <v>0.99809916194600001</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="10">
         <v>0.99837539210600001</v>
@@ -20165,7 +20931,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" hidden="1">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -20188,7 +20954,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:19" s="1" customFormat="1">
+    <row r="50" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A50" s="3"/>
       <c r="B50" s="27"/>
       <c r="C50" s="3"/>
@@ -20202,7 +20968,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" hidden="1">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -20221,7 +20987,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" hidden="1">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
@@ -20232,7 +20998,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="27"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" hidden="1">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -20247,13 +21013,13 @@
         <v>0.70577023737800004</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="1" customFormat="1">
+    <row r="54" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -20268,14 +21034,14 @@
         <v>0.83349462365600002</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -20290,22 +21056,22 @@
         <v>0.611989247312</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="10">
         <v>0.99792359192799995</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="10">
         <v>0.99833091436900001</v>
@@ -20314,7 +21080,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -20327,7 +21093,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" hidden="1">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -20345,14 +21111,14 @@
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:19" s="1" customFormat="1">
+    <row r="58" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A58" s="3"/>
       <c r="B58" s="27"/>
       <c r="C58" s="3"/>
@@ -20366,7 +21132,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" hidden="1">
       <c r="A59" s="3" t="s">
         <v>32</v>
       </c>
@@ -20385,7 +21151,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" hidden="1">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -20396,7 +21162,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" hidden="1">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -20411,13 +21177,13 @@
         <v>0.73476544246599995</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="1" customFormat="1">
+    <row r="62" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
@@ -20432,14 +21198,14 @@
         <v>0.84559139784899995</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H62" s="34"/>
       <c r="I62" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="1" customFormat="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -20454,23 +21220,23 @@
         <v>0.64962365591399995</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="1" customFormat="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="10">
         <v>0.99702701437300001</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="10">
         <v>0.99849009785099996</v>
@@ -20479,7 +21245,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -20492,7 +21258,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" hidden="1">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -20510,14 +21276,14 @@
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:19" s="1" customFormat="1">
+    <row r="66" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A66" s="3"/>
       <c r="B66" s="27"/>
       <c r="C66" s="3"/>
@@ -20531,7 +21297,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" hidden="1">
       <c r="A67" s="3" t="s">
         <v>32</v>
       </c>
@@ -20550,7 +21316,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" hidden="1">
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
@@ -20561,7 +21327,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" hidden="1">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -20576,13 +21342,13 @@
         <v>0.72992986558899997</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="1" customFormat="1">
+    <row r="70" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -20597,14 +21363,14 @@
         <v>0.81010752688200005</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" s="1" customFormat="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A71" s="3" t="s">
         <v>9</v>
       </c>
@@ -20619,23 +21385,23 @@
         <v>0.66419354838699995</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H71" s="34"/>
       <c r="I71" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="1" customFormat="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="10">
         <v>0.99852521185400001</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="10">
         <v>0.99843157451200004</v>
@@ -20644,7 +21410,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -20657,7 +21423,7 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" hidden="1">
       <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
@@ -20675,14 +21441,14 @@
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:19" s="1" customFormat="1">
+    <row r="74" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A74" s="3"/>
       <c r="B74" s="27"/>
       <c r="C74" s="3"/>
@@ -20696,7 +21462,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" hidden="1">
       <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
@@ -20715,7 +21481,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" hidden="1">
       <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
@@ -20726,7 +21492,7 @@
       <c r="D76" s="2"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" hidden="1">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -20741,13 +21507,13 @@
         <v>0.73057240074899998</v>
       </c>
       <c r="G77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="1" customFormat="1">
+    <row r="78" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
@@ -20762,14 +21528,14 @@
         <v>0.85301075268799997</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H78" s="34"/>
       <c r="I78" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" s="1" customFormat="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A79" s="3" t="s">
         <v>9</v>
       </c>
@@ -20784,23 +21550,23 @@
         <v>0.63887096774200003</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" s="1" customFormat="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" s="10">
         <v>0.99853223465499996</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E80" s="10">
         <v>0.99845264291400004</v>
@@ -20809,7 +21575,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -20822,7 +21588,7 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" hidden="1">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -20840,14 +21606,14 @@
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:19" s="1" customFormat="1">
+    <row r="82" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A82" s="3"/>
       <c r="B82" s="27"/>
       <c r="C82" s="3"/>
@@ -20861,7 +21627,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" hidden="1">
       <c r="A83" s="3" t="s">
         <v>32</v>
       </c>
@@ -20880,7 +21646,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" hidden="1">
       <c r="A84" s="3" t="s">
         <v>6</v>
       </c>
@@ -20891,7 +21657,7 @@
       <c r="D84" s="2"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" hidden="1">
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
@@ -20906,13 +21672,13 @@
         <v>0.73058234311600001</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I85" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="1" customFormat="1">
+    <row r="86" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A86" s="3" t="s">
         <v>8</v>
       </c>
@@ -20927,14 +21693,14 @@
         <v>0.87930107526900003</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H86" s="34"/>
       <c r="I86" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" s="1" customFormat="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
@@ -20949,23 +21715,23 @@
         <v>0.624892473118</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" s="1" customFormat="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="10">
         <v>0.99788379605800004</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="10">
         <v>0.998501802519</v>
@@ -20974,7 +21740,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -20987,7 +21753,7 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" hidden="1">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -21005,14 +21771,14 @@
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:19" s="1" customFormat="1">
+    <row r="90" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A90" s="3"/>
       <c r="B90" s="27"/>
       <c r="C90" s="3"/>
@@ -21026,7 +21792,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" hidden="1">
       <c r="A91" s="3" t="s">
         <v>32</v>
       </c>
@@ -21045,7 +21811,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" hidden="1">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -21056,7 +21822,7 @@
       <c r="D92" s="2"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" hidden="1">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -21071,13 +21837,13 @@
         <v>0.76402864737999998</v>
       </c>
       <c r="G93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I93" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="1" customFormat="1">
+    <row r="94" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A94" s="3" t="s">
         <v>8</v>
       </c>
@@ -21092,14 +21858,14 @@
         <v>0.85118279569900002</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H94" s="34"/>
       <c r="I94" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" hidden="1">
       <c r="A95" s="3" t="s">
         <v>9</v>
       </c>
@@ -21110,22 +21876,22 @@
         <v>0.693064516129</v>
       </c>
       <c r="G95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" s="1" customFormat="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="10">
         <v>0.99835900557099999</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E96" s="10">
         <v>0.99859075799399999</v>
@@ -21134,7 +21900,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -21147,7 +21913,7 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1">
+    <row r="97" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
@@ -21163,7 +21929,7 @@
       </c>
       <c r="H97" s="34"/>
       <c r="I97" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="4" customFormat="1" hidden="1">
@@ -21686,6 +22452,7 @@
     </row>
     <row r="146" spans="1:13" hidden="1"/>
     <row r="147" spans="1:13" hidden="1"/>
+    <row r="148" spans="1:13" hidden="1"/>
     <row r="150" spans="1:13" s="4" customFormat="1">
       <c r="A150" s="23" t="s">
         <v>41</v>
@@ -21794,12 +22561,12 @@
     </row>
     <row r="156" spans="1:13" s="1" customFormat="1">
       <c r="A156" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B156" s="47"/>
       <c r="C156" s="3"/>
       <c r="D156" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E156" s="25"/>
       <c r="F156" s="14"/>
@@ -21880,11 +22647,11 @@
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -21907,11 +22674,11 @@
       </c>
       <c r="F161" s="42"/>
       <c r="G161" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -21934,11 +22701,11 @@
       </c>
       <c r="F162" s="42"/>
       <c r="G162" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -21947,14 +22714,14 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B163" s="10">
         <v>0.99914977178099995</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E163" s="10">
         <v>0.99918387286800003</v>
@@ -21963,7 +22730,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="2"/>
       <c r="I163" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -21972,7 +22739,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B164" s="10">
         <v>97</v>
@@ -22061,7 +22828,7 @@
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -22086,7 +22853,7 @@
       </c>
       <c r="F169" s="42"/>
       <c r="G169" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -22111,7 +22878,7 @@
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="3"/>
@@ -22122,14 +22889,14 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B171" s="2">
         <v>0.99811696864300004</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E171" s="2">
         <v>0.99902026428299995</v>
@@ -22234,7 +23001,7 @@
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -22259,7 +23026,7 @@
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="3"/>
@@ -22284,7 +23051,7 @@
       </c>
       <c r="F178" s="42"/>
       <c r="G178" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2"/>
@@ -22295,14 +23062,14 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B179" s="10">
         <v>0.99713531713500003</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E179" s="10">
         <v>0.99882178829500001</v>
@@ -22405,7 +23172,7 @@
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="3" t="s">
@@ -22432,11 +23199,11 @@
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -22459,11 +23226,11 @@
       </c>
       <c r="F186" s="42"/>
       <c r="G186" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -22472,14 +23239,14 @@
     </row>
     <row r="187" spans="1:13" s="1" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B187" s="10">
         <v>0.99844073738799999</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E187" s="27">
         <v>0.99907486433799997</v>
@@ -22487,7 +23254,7 @@
       <c r="F187" s="42"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -22512,7 +23279,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="2"/>
       <c r="I188" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -22587,7 +23354,7 @@
       </c>
       <c r="F192" s="14"/>
       <c r="G192" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3" t="s">
@@ -22614,11 +23381,11 @@
       </c>
       <c r="F193" s="42"/>
       <c r="G193" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -22641,11 +23408,11 @@
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -22654,14 +23421,14 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B195" s="10">
         <v>0.99865683865699995</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E195" s="10">
         <v>0.99911567069499996</v>
@@ -22670,7 +23437,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="2"/>
       <c r="I195" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -22694,7 +23461,7 @@
       <c r="F196" s="14"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -22811,12 +23578,12 @@
     </row>
     <row r="203" spans="1:13" s="1" customFormat="1">
       <c r="A203" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -22957,12 +23724,12 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -23103,12 +23870,12 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="2"/>
@@ -23249,12 +24016,12 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B227" s="27"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -23391,12 +24158,12 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -23505,12 +24272,12 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -23542,8 +24309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A195" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView showRuler="0" topLeftCell="A97" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A96" sqref="A2:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23560,16 +24327,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1">
+    <row r="2" spans="1:13" s="4" customFormat="1" hidden="1">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
+    <row r="3" spans="1:13" s="13" customFormat="1" hidden="1">
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" hidden="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -23577,7 +24344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" hidden="1">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -23585,7 +24352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -23601,7 +24368,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="D7" s="1"/>
@@ -23615,13 +24382,13 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A8" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="29"/>
       <c r="F8" s="3"/>
@@ -23632,7 +24399,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1">
+    <row r="9" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -23647,7 +24414,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -23661,7 +24428,7 @@
         <v>0.79832530043200001</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -23671,7 +24438,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -23685,7 +24452,7 @@
         <v>0.91081433224800001</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -23695,7 +24462,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -23709,7 +24476,7 @@
         <v>0.71082519001099997</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -23719,13 +24486,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="34">
         <v>0.99885166152100002</v>
@@ -23740,7 +24507,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -23763,7 +24530,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1">
+    <row r="15" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -23779,7 +24546,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1">
+    <row r="16" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="F16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -23788,7 +24555,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -23806,7 +24573,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -23818,7 +24585,7 @@
         <v>0.77614671209099995</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
@@ -23828,7 +24595,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -23839,7 +24606,7 @@
         <v>0.88819761129200003</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -23849,7 +24616,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -23861,7 +24628,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
@@ -23871,9 +24638,9 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1">
+    <row r="21" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21"/>
@@ -23889,7 +24656,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
+    <row r="22" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -23909,7 +24676,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1">
+    <row r="23" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -23926,7 +24693,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
@@ -23939,7 +24706,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -23949,7 +24716,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -23961,10 +24728,10 @@
         <v>0.76418100040100001</v>
       </c>
       <c r="F26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -23976,7 +24743,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -23986,7 +24753,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -23998,7 +24765,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
@@ -24008,9 +24775,9 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+    <row r="29" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="2"/>
@@ -24026,9 +24793,9 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1">
+    <row r="30" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="34">
         <v>98.6</v>
@@ -24046,7 +24813,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -24064,7 +24831,8 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="32" spans="1:13" hidden="1"/>
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -24074,7 +24842,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:13" s="33" customFormat="1">
+    <row r="34" spans="1:13" s="33" customFormat="1" hidden="1">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -24091,13 +24859,13 @@
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
     </row>
-    <row r="35" spans="1:13" s="33" customFormat="1">
+    <row r="35" spans="1:13" s="33" customFormat="1" hidden="1">
       <c r="A35" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1">
+    <row r="36" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -24113,9 +24881,9 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="2"/>
@@ -24130,9 +24898,9 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
@@ -24145,13 +24913,14 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="40" spans="1:13" hidden="1"/>
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -24170,7 +24939,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="13" t="s">
         <v>36</v>
       </c>
@@ -24182,10 +24951,10 @@
         <v>0.67871657641799998</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -24198,7 +24967,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -24207,7 +24976,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
+    <row r="44" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -24220,7 +24989,7 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -24229,9 +24998,9 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="2"/>
@@ -24248,9 +25017,9 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46">
         <v>40.4</v>
@@ -24259,7 +25028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -24268,7 +25037,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -24281,7 +25050,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -24291,7 +25060,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1">
+    <row r="50" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A50" s="13" t="s">
         <v>36</v>
       </c>
@@ -24303,7 +25072,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -24312,7 +25081,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1">
+    <row r="51" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -24325,7 +25094,7 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -24334,7 +25103,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
@@ -24346,7 +25115,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
@@ -24356,9 +25125,9 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="2"/>
@@ -24366,9 +25135,9 @@
         <v>0.99830089399300004</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54">
         <v>70</v>
@@ -24377,7 +25146,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -24392,7 +25161,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -24405,7 +25174,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1">
+    <row r="57" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -24421,7 +25190,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1">
+    <row r="58" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A58" s="13" t="s">
         <v>36</v>
       </c>
@@ -24433,7 +25202,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -24442,7 +25211,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
@@ -24454,7 +25223,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -24464,7 +25233,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
@@ -24475,12 +25244,12 @@
         <v>0.650282301846</v>
       </c>
       <c r="F60" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="2"/>
@@ -24488,9 +25257,9 @@
         <v>0.99841435683099999</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62">
         <v>48.4</v>
@@ -24508,7 +25277,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -24523,7 +25292,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1">
+    <row r="64" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="B64"/>
       <c r="C64"/>
       <c r="E64" s="3"/>
@@ -24535,7 +25304,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1">
+    <row r="65" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A65" s="3" t="s">
         <v>32</v>
       </c>
@@ -24553,7 +25322,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
@@ -24566,7 +25335,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="2"/>
@@ -24576,7 +25345,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -24588,10 +25357,10 @@
         <v>0.81013029315999996</v>
       </c>
       <c r="F67" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="3" t="s">
         <v>38</v>
       </c>
@@ -24603,12 +25372,12 @@
         <v>0.60877307274699999</v>
       </c>
       <c r="F68" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
@@ -24625,9 +25394,9 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2">
         <v>62.8</v>
@@ -24646,7 +25415,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1">
+    <row r="71" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A71" s="3" t="s">
         <v>40</v>
       </c>
@@ -24664,7 +25433,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1">
+    <row r="72" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="B72"/>
       <c r="C72"/>
       <c r="E72" s="3"/>
@@ -24676,7 +25445,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
@@ -24695,7 +25464,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="14" t="s">
         <v>36</v>
       </c>
@@ -24707,10 +25476,10 @@
         <v>0.74706668075299998</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="3" t="s">
         <v>37</v>
       </c>
@@ -24722,10 +25491,10 @@
         <v>0.85699239956600004</v>
       </c>
       <c r="F75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
@@ -24738,7 +25507,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
@@ -24748,9 +25517,9 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
@@ -24767,9 +25536,9 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1">
+    <row r="78" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="2">
         <v>40.4</v>
@@ -24787,7 +25556,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1">
+    <row r="79" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A79" s="3" t="s">
         <v>40</v>
       </c>
@@ -24803,7 +25572,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -24818,7 +25587,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="3" t="s">
         <v>32</v>
       </c>
@@ -24828,7 +25597,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="14" t="s">
         <v>36</v>
       </c>
@@ -24840,10 +25609,10 @@
         <v>0.74089741931499997</v>
       </c>
       <c r="F82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="3" t="s">
         <v>37</v>
       </c>
@@ -24856,7 +25625,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="2"/>
@@ -24866,7 +25635,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="3" t="s">
         <v>38</v>
       </c>
@@ -24879,7 +25648,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -24889,17 +25658,17 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85">
         <v>0.99852592862199996</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86">
         <v>55.4</v>
@@ -24908,7 +25677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="3" t="s">
         <v>40</v>
       </c>
@@ -24916,7 +25685,8 @@
         <v>6510.6245169599997</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1">
+    <row r="88" spans="1:13" hidden="1"/>
+    <row r="89" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A89" s="3" t="s">
         <v>32</v>
       </c>
@@ -24924,7 +25694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1">
+    <row r="90" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A90" s="14" t="s">
         <v>36</v>
       </c>
@@ -24935,10 +25705,10 @@
         <v>0.76558294442200003</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="3" t="s">
         <v>37</v>
       </c>
@@ -24949,10 +25719,10 @@
         <v>0.86472312703599996</v>
       </c>
       <c r="F91" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="3" t="s">
         <v>38</v>
       </c>
@@ -24963,20 +25733,20 @@
         <v>0.68718783930500005</v>
       </c>
       <c r="F92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D93">
         <v>0.99864884669800003</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94">
         <v>40.4</v>
@@ -24985,7 +25755,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="3" t="s">
         <v>40</v>
       </c>
@@ -24993,7 +25763,7 @@
         <v>6918.3622798899996</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="3"/>
     </row>
     <row r="98" spans="1:13" s="4" customFormat="1">
@@ -25040,11 +25810,11 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="46"/>
       <c r="C104" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="2"/>
@@ -25129,11 +25899,11 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D109" s="34"/>
       <c r="F109" s="2"/>
@@ -25256,7 +26026,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B117" s="9"/>
       <c r="D117" s="1"/>
@@ -25272,7 +26042,7 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B118">
         <v>99</v>
@@ -25392,7 +26162,7 @@
     </row>
     <row r="125" spans="1:13" s="1" customFormat="1">
       <c r="A125" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="2"/>
@@ -25408,7 +26178,7 @@
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1">
       <c r="A126" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126">
         <v>99</v>
@@ -25506,7 +26276,7 @@
     </row>
     <row r="133" spans="1:13" s="1" customFormat="1">
       <c r="A133" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="2"/>
@@ -25522,7 +26292,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
@@ -25598,7 +26368,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="2"/>
@@ -25709,7 +26479,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="2"/>
@@ -25726,7 +26496,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150">
         <v>99</v>
@@ -25811,7 +26581,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="2"/>
@@ -25819,7 +26589,7 @@
     </row>
     <row r="158" spans="1:13" s="1" customFormat="1">
       <c r="A158" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158"/>
       <c r="C158"/>
@@ -25895,7 +26665,7 @@
     </row>
     <row r="165" spans="1:13" s="1" customFormat="1">
       <c r="A165" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B165" s="8"/>
       <c r="E165" s="3"/>
@@ -25909,7 +26679,7 @@
     </row>
     <row r="166" spans="1:13" s="1" customFormat="1">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -25982,7 +26752,7 @@
     </row>
     <row r="173" spans="1:13" s="1" customFormat="1">
       <c r="A173" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -25995,7 +26765,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
@@ -26051,7 +26821,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
@@ -26066,7 +26836,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -26132,12 +26902,12 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:13">

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="0" windowWidth="21200" windowHeight="16360" tabRatio="657"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="16360" tabRatio="657" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="taxonomy-SVM" sheetId="6" r:id="rId8"/>
     <sheet name="taxonomy-SVM x-val" sheetId="7" r:id="rId9"/>
     <sheet name="taxonomy-notes" sheetId="9" r:id="rId10"/>
+    <sheet name="unclassified" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="594">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -1125,9 +1126,6 @@
     <t>P4</t>
   </si>
   <si>
-    <t>80/20 testing only</t>
-  </si>
-  <si>
     <t>Test: Uniprot</t>
   </si>
   <si>
@@ -1218,9 +1216,6 @@
     <t>Handling Ambiguous Predictions</t>
   </si>
   <si>
-    <t>Case 1</t>
-  </si>
-  <si>
     <t>No ambiguous prediction at the leaf level.</t>
   </si>
   <si>
@@ -1245,9 +1240,6 @@
     <t>3) repeat 1 and 2 until the tie is broken or we reach the root</t>
   </si>
   <si>
-    <t>Case 2</t>
-  </si>
-  <si>
     <t>Ambiguous prediction is at the leaf level only</t>
   </si>
   <si>
@@ -1260,12 +1252,6 @@
     <t xml:space="preserve">b) if all nodes are equal, propagate LCA </t>
   </si>
   <si>
-    <t>Case 3</t>
-  </si>
-  <si>
-    <t>Ambiguoud prediction is at the leaf level and 1 or more higher levels</t>
-  </si>
-  <si>
     <t>b) if all nodes are equal, go to step 2</t>
   </si>
   <si>
@@ -1531,13 +1517,307 @@
   </si>
   <si>
     <t>n-fold validation</t>
+  </si>
+  <si>
+    <t>1 test set only</t>
+  </si>
+  <si>
+    <t>SILVA dataset has the entries as the dataset in http://www.mothur.org/wiki/Silva_reference_files</t>
+  </si>
+  <si>
+    <t>avg accuracy thresh%</t>
+  </si>
+  <si>
+    <t>Avg Case 0 Predictions:  350.4</t>
+  </si>
+  <si>
+    <t>Avg Case 1 Predictions:  155.1</t>
+  </si>
+  <si>
+    <t>Avg Case 2 or 3 Predictions:  339.6</t>
+  </si>
+  <si>
+    <t>Avg Case 0 Predictions:  198.9</t>
+  </si>
+  <si>
+    <t>Avg Case 1 Predictions:  109.0</t>
+  </si>
+  <si>
+    <t>Avg Case 2 or 3 Predictions:  538.9</t>
+  </si>
+  <si>
+    <t>Avg Case 0 Predictions:  638.3</t>
+  </si>
+  <si>
+    <t>Avg Case 1 Predictions:  88.6</t>
+  </si>
+  <si>
+    <t>Avg Case 2 or 3 Predictions:  119.0</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  1670</t>
+  </si>
+  <si>
+    <t>Type 1 predictions:  1156</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  9425</t>
+  </si>
+  <si>
+    <t>Type 0 predictions:  1568</t>
+  </si>
+  <si>
+    <t>Type 1 predictions:  1090</t>
+  </si>
+  <si>
+    <t>Type 2 or 3 predictions:  9560</t>
+  </si>
+  <si>
+    <t>Avg Case 0 Predictions:  5944.2</t>
+  </si>
+  <si>
+    <t>Avg Case 1 Predictions:  4336.8</t>
+  </si>
+  <si>
+    <t>Avg Case 2 or 3 Predictions:  17499.0</t>
+  </si>
+  <si>
+    <t>Type 0</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Bacilli Bacillales Bacillaceae_1 Bacillus</t>
+  </si>
+  <si>
+    <t>Ambiguous prediction is at the leaf level and 1 or more higher levels</t>
+  </si>
+  <si>
+    <t>Samples not found in complete SILVA dataset</t>
+  </si>
+  <si>
+    <t>AXCV01000101</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Bacilli Lactobacillales Leuconostocaceae Oenococcus Oenococcus alcoholitolerans</t>
+  </si>
+  <si>
+    <t>AXDY01000024</t>
+  </si>
+  <si>
+    <t>Staphylococcus simulans UMC-CNS-990</t>
+  </si>
+  <si>
+    <t>ABAI02000368</t>
+  </si>
+  <si>
+    <t>Coccidioides posadasii str. Silveira</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Eukaryota</t>
+  </si>
+  <si>
+    <t>Archaea</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Clostridia Clostridiales Lachnospiraceae Clostridium_XlVa</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Micrococcaceae Arthrobacter</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Enterobacteriales Enterobacteriaceae Serratia</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Enterobacteriales Enterobacteriaceae Brenneria</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Intrasporangiaceae Terrabacter</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Intrasporangiaceae Intrasporangium</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Enterobacteriales Enterobacteriaceae Pantoea</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Enterobacteriales Enterobacteriaceae Lonsdalea</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Enterobacteriales Enterobacteriaceae Raoultella</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhodobacterales Rhodobacteraceae Roseovarius</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhodobacterales Rhodobacteraceae Thalassobius</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Bacilli Bacillales Staphylococcaceae Salinicoccus</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Bacilli Bacillales Staphylococcaceae Jeotgalicoccus</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhodobacterales Rhodobacteraceae Paracoccus</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhodobacterales Rhodobacteraceae Amaricoccus</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Sanguibacteraceae Sanguibacter</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Streptosporangiaceae Nonomuraea</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Streptosporangiaceae Planomonospora</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Pseudonocardiaceae Amycolatopsis</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Pseudonocardiaceae Saccharomonospora</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Streptosporangiaceae Sphaerisporangium</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Nocardiaceae Nocardia</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Nocardiaceae Williamsia</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Actinomycetaceae Actinomyces</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Actinomycetaceae Arcanobacterium</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Xanthomonadales Xanthomonadaceae Lysobacter</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Xanthomonadales Xanthomonadaceae Thermomonas</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Betaproteobacteria Burkholderiales Oxalobacteraceae Massilia</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Betaproteobacteria Burkholderiales Oxalobacteraceae Naxibacter</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Pseudonocardiaceae Pseudonocardia</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Pseudonocardiaceae Kibdelosporangium</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhodobacterales Rhodobacteraceae Marivita</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Dermacoccaceae Dermacoccus</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Pseudonocardiaceae Actinophytocola</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Microbacteriaceae Microbacterium</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Microbacteriaceae Agrococcus</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Cellulomonadaceae Cellulomonas</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Oceanospirillales Halomonadaceae Halomonas</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Oceanospirillales Halomonadaceae Kushneria</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Clostridia Clostridiales Ruminococcaceae Ruminococcus</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Alteromonadales Idiomarinaceae Idiomarina</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Alteromonadales Idiomarinaceae Aliidiomarina</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhizobiales Rhizobiaceae Rhizobium</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Alphaproteobacteria Rhizobiales Beijerinckiaceae Beijerinckia</t>
+  </si>
+  <si>
+    <t>Misclassifications (Predicted vs True)</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Alteromonadales Alteromonadaceae Marinimicrobium</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Oceanospirillales Oceanospirillaceae Reinekea</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Gammaproteobacteria Oceanospirillales Oceanospirillaceae Neptunomonas</t>
+  </si>
+  <si>
+    <t>Unclassified classes (cannot be classified at the leaf)</t>
+  </si>
+  <si>
+    <t>Bacteria Bacteroidetes Sphingobacteriia Sphingobacteriales Sphingobacteriaceae Sphingobacterium</t>
+  </si>
+  <si>
+    <t>Bacteria Bacteroidetes Flavobacteriia Flavobacteriales Flavobacteriaceae Flavobacterium</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Clostridia Clostridiales Peptostreptococcaceae Clostridium_XI</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Clostridia Clostridiales Eubacteriaceae Eubacterium</t>
+  </si>
+  <si>
+    <t>Bacteria Firmicutes Bacilli Bacillales Bacillaceae_2 Pontibacillus</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Nocardiaceae Gordonia</t>
+  </si>
+  <si>
+    <t>Bacteria BRC1</t>
+  </si>
+  <si>
+    <t>Bacteria Poribacteria</t>
+  </si>
+  <si>
+    <t>Bacteria Latescibacteria</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Betaproteobacteria Burkholderiales Oxalobacteraceae Herbaspirillum</t>
+  </si>
+  <si>
+    <t>Bacteria Proteobacteria Betaproteobacteria Burkholderiales Oxalobacteraceae Noviherbaspirillum</t>
+  </si>
+  <si>
+    <t>Bacteria Actinobacteria Actinobacteria Actinomycetales Pseudonocardiaceae Prauserella</t>
+  </si>
+  <si>
+    <t>Predicted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1592,6 +1872,14 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1672,7 +1960,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="701">
+  <cellStyleXfs count="941">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2374,8 +2662,248 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2473,8 +3001,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="701">
+  <cellStyles count="941">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2825,6 +3361,126 @@
     <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3175,6 +3831,126 @@
     <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3506,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A112" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView showRuler="0" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3525,7 +4301,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1">
@@ -5165,7 +5941,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
@@ -5911,7 +6687,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
@@ -6170,7 +6946,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B130" s="1">
         <v>0.52921702962100003</v>
@@ -6181,7 +6957,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B131" s="1">
         <v>0.47908045058499998</v>
@@ -6192,7 +6968,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B132" s="1"/>
       <c r="G132">
@@ -6201,7 +6977,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -6212,7 +6988,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B134" s="1">
         <v>3097</v>
@@ -6268,31 +7044,31 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B145" s="1"/>
     </row>
@@ -6307,7 +7083,7 @@
         <v>56</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1">
@@ -6326,7 +7102,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B150">
         <v>0.561597362963</v>
@@ -6337,7 +7113,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B151">
         <v>0.569891685747</v>
@@ -6348,7 +7124,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B152">
         <v>0.55354101131400002</v>
@@ -6359,7 +7135,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -6370,7 +7146,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B154">
         <v>1728</v>
@@ -6424,17 +7200,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
@@ -6520,162 +7296,617 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="4" t="s">
-        <v>57</v>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17">
+        <v>138900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B18">
+        <v>44104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>91</v>
+        <v>531</v>
+      </c>
+      <c r="B19">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
         <v>95</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="52" customFormat="1">
-      <c r="A28" s="52" t="s">
+    <row r="32" spans="1:7" s="52" customFormat="1">
+      <c r="A32" s="52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B33" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E33" t="s">
         <v>397</v>
-      </c>
-      <c r="E29" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
-        <v>398</v>
-      </c>
-      <c r="E30" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1"/>
-      <c r="F31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1"/>
-      <c r="F32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="E33" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>396</v>
+      </c>
       <c r="E34" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" t="s">
-        <v>406</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="A35" s="1"/>
+      <c r="F35" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
-      <c r="E36" t="s">
-        <v>407</v>
+      <c r="F36" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
-      <c r="F37" t="s">
-        <v>408</v>
+      <c r="E37" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
-      <c r="F38" t="s">
-        <v>409</v>
+      <c r="E38" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>410</v>
+        <v>518</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
       <c r="E40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="F41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="F42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="E44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="F45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="F46" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="F41" t="s">
+    <row r="47" spans="1:6">
+      <c r="E47" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="F42" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="E43" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="F44" t="s">
-        <v>414</v>
+    <row r="48" spans="1:6">
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="52" customFormat="1">
+      <c r="A50" s="52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1">
+      <c r="A51" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>536</v>
+      </c>
+      <c r="E52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>566</v>
+      </c>
+      <c r="E53" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>550</v>
+      </c>
+      <c r="E54" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>533</v>
+      </c>
+      <c r="E55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>561</v>
+      </c>
+      <c r="E56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>555</v>
+      </c>
+      <c r="E57" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>553</v>
+      </c>
+      <c r="E58" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>548</v>
+      </c>
+      <c r="E59" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>550</v>
+      </c>
+      <c r="E60" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>548</v>
+      </c>
+      <c r="E61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>568</v>
+      </c>
+      <c r="E62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>548</v>
+      </c>
+      <c r="E63" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>561</v>
+      </c>
+      <c r="E64" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>533</v>
+      </c>
+      <c r="E65" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>568</v>
+      </c>
+      <c r="E66" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>586</v>
+      </c>
+      <c r="E67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>550</v>
+      </c>
+      <c r="E68" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>550</v>
+      </c>
+      <c r="E69" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>538</v>
+      </c>
+      <c r="E71" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>538</v>
+      </c>
+      <c r="E72" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>534</v>
+      </c>
+      <c r="E73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>534</v>
+      </c>
+      <c r="E74" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>570</v>
+      </c>
+      <c r="E75" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>569</v>
+      </c>
+      <c r="E77" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>569</v>
+      </c>
+      <c r="E78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>572</v>
+      </c>
+      <c r="E79" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>557</v>
+      </c>
+      <c r="E80" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>534</v>
+      </c>
+      <c r="E81" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>545</v>
+      </c>
+      <c r="E83" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>541</v>
+      </c>
+      <c r="E84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>545</v>
+      </c>
+      <c r="E85" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>574</v>
+      </c>
+      <c r="E86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>541</v>
+      </c>
+      <c r="E87" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>590</v>
+      </c>
+      <c r="E90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>520</v>
+      </c>
+      <c r="E92" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>543</v>
+      </c>
+      <c r="E93" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>532</v>
+      </c>
+      <c r="E94" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>583</v>
+      </c>
+      <c r="E95" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>581</v>
+      </c>
+      <c r="E97" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="52" customFormat="1">
+      <c r="A123" s="52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="B124" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>525</v>
+      </c>
+      <c r="B125" s="60" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="61" customFormat="1">
+      <c r="A126" s="61" t="s">
+        <v>527</v>
+      </c>
+      <c r="B126" s="62" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6692,8 +7923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showRuler="0" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7320,7 +8551,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1">
@@ -7341,7 +8572,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D39" s="1">
         <v>0.47793174329499999</v>
@@ -7349,7 +8580,7 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D40" s="1">
         <v>0.62128580493200003</v>
@@ -7357,7 +8588,7 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="1">
         <v>0.38867023819699997</v>
@@ -7365,7 +8596,7 @@
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D42" s="1">
         <v>64.8</v>
@@ -7373,7 +8604,7 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D43" s="1">
         <v>223993.96854999999</v>
@@ -7381,7 +8612,7 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -7389,7 +8620,7 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -7400,7 +8631,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1">
@@ -8072,8 +9303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD36"/>
+    <sheetView showRuler="0" topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8307,70 +9538,70 @@
         <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C32" s="34"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="34"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C36" s="34"/>
     </row>
@@ -8379,16 +9610,16 @@
         <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C38" s="34"/>
     </row>
@@ -8397,225 +9628,225 @@
         <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C40" s="34"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="34"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="57" customFormat="1">
       <c r="A46" s="57" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1">
       <c r="A50" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="34" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D52" s="34">
         <v>83223</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="34" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B53" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D53" s="34">
         <v>6</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="58" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D54" s="34">
         <v>7</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="34" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D55" s="34">
         <v>0</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="58" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D56" s="34">
         <v>1529</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="34" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D57" s="34">
         <v>3332</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="58" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D58" s="34">
         <v>1847</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="58" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D59" s="34">
         <v>3475</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -8633,8 +9864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z450"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A100" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView showRuler="0" topLeftCell="A321" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10215,7 +11446,7 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3" t="s">
@@ -10248,7 +11479,7 @@
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="1"/>
@@ -10273,10 +11504,10 @@
         <v>0.73919354838700002</v>
       </c>
       <c r="G87" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I87" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1">
@@ -10297,7 +11528,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -10318,7 +11549,7 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="1" customFormat="1" hidden="1">
@@ -12593,10 +13824,10 @@
         <v>8</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="T236" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="237" spans="1:21" s="1" customFormat="1">
@@ -12634,7 +13865,7 @@
         <v>0.93305494534400002</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H238" s="14"/>
       <c r="I238" s="1" t="s">
@@ -12653,7 +13884,7 @@
         <v>0.91527325527799996</v>
       </c>
       <c r="U238" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:21" s="1" customFormat="1">
@@ -12671,11 +13902,11 @@
         <v>0.95280917280900002</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H239" s="14"/>
       <c r="I239" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J239" s="3"/>
       <c r="L239" s="3"/>
@@ -12690,7 +13921,7 @@
         <v>0.99164705927600005</v>
       </c>
       <c r="U239" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="240" spans="1:21" s="1" customFormat="1">
@@ -12708,11 +13939,11 @@
         <v>0.91410319410300001</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H240" s="14"/>
       <c r="I240" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J240" s="3"/>
       <c r="L240" s="3"/>
@@ -12727,7 +13958,7 @@
         <v>0.84982238010699995</v>
       </c>
       <c r="U240" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -12748,7 +13979,7 @@
       <c r="G241" s="33"/>
       <c r="H241" s="33"/>
       <c r="I241" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q241" s="1" t="s">
         <v>232</v>
@@ -12773,14 +14004,14 @@
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
       <c r="I242" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O242" s="1">
         <f>8124.95054102/(60*60)</f>
         <v>2.2569307058388888</v>
       </c>
       <c r="Q242" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="R242" s="1">
         <v>0.96683417085400003</v>
@@ -12794,7 +14025,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
       <c r="Q243" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="R243" s="1">
         <v>100</v>
@@ -13589,19 +14820,19 @@
         <v>14</v>
       </c>
       <c r="S284" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="T284" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="U284" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="W284" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Z284" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="285" spans="1:26" s="1" customFormat="1">
@@ -13635,13 +14866,13 @@
         <v>2</v>
       </c>
       <c r="U285" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="W285" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Z285" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:26" s="1" customFormat="1">
@@ -13672,13 +14903,13 @@
         <v>0.95712028948100003</v>
       </c>
       <c r="U286" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="W286" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Z286" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="287" spans="1:26">
@@ -13712,10 +14943,10 @@
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
       <c r="U287" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="W287" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="288" spans="1:26" s="1" customFormat="1">
@@ -13746,10 +14977,10 @@
         <v>0.95612579389499996</v>
       </c>
       <c r="U288" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="W288" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="289" spans="1:23" s="13" customFormat="1">
@@ -13768,10 +14999,10 @@
       <c r="S289"/>
       <c r="T289"/>
       <c r="U289" s="13" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="W289" s="13" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="290" spans="1:23" s="13" customFormat="1">
@@ -13785,7 +15016,7 @@
         <v>15</v>
       </c>
       <c r="Q290" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="R290" s="1">
         <v>0.97868020304600001</v>
@@ -13793,16 +15024,16 @@
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
       <c r="U290" s="13" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="W290" s="13" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="291" spans="1:23">
       <c r="A291" s="1"/>
       <c r="Q291" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="R291" s="1">
         <v>100</v>
@@ -13818,7 +15049,7 @@
         <v>15</v>
       </c>
       <c r="Q292" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="293" spans="1:23" s="1" customFormat="1">
@@ -14206,7 +15437,7 @@
         <v>0.87568483266599995</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H321" s="13"/>
       <c r="I321" s="1" t="s">
@@ -14235,11 +15466,11 @@
         <v>0.91527623504400002</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H322" s="13"/>
       <c r="I322" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="323" spans="1:17" s="34" customFormat="1">
@@ -14256,11 +15487,11 @@
         <v>0.83937656415999995</v>
       </c>
       <c r="G323" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H323" s="42"/>
       <c r="I323" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J323" s="2"/>
       <c r="L323" s="2"/>
@@ -14283,7 +15514,7 @@
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J324" s="3"/>
       <c r="L324" s="3"/>
@@ -14309,7 +15540,7 @@
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
       <c r="I325" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J325" s="3"/>
       <c r="L325" s="3"/>
@@ -14348,7 +15579,7 @@
         <v>6</v>
       </c>
       <c r="B328" s="9">
-        <v>2286</v>
+        <v>2293</v>
       </c>
       <c r="C328"/>
       <c r="D328" s="1" t="s">
@@ -14364,13 +15595,18 @@
       <c r="A329" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B329" s="8">
-        <v>0.82331569741900001</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E329" s="8"/>
+      <c r="B329" s="1">
+        <v>0.86207635464599996</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0.90258579423899998</v>
+      </c>
+      <c r="E329" s="3">
+        <v>0.90258579423899998</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>508</v>
+      </c>
       <c r="I329" s="13" t="s">
         <v>266</v>
       </c>
@@ -14380,15 +15616,20 @@
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B330" s="17">
-        <v>0.95858800768700003</v>
+      <c r="B330" s="34">
+        <v>0.95289186276000004</v>
       </c>
       <c r="C330" s="34"/>
-      <c r="D330" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E330" s="17"/>
-      <c r="F330" s="1"/>
+      <c r="D330" s="34">
+        <v>0.92237640464699999</v>
+      </c>
+      <c r="E330" s="2">
+        <v>0.92237640464699999</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G330" s="1"/>
       <c r="I330" s="42" t="s">
         <v>267</v>
       </c>
@@ -14406,13 +15647,19 @@
         <v>9</v>
       </c>
       <c r="B331" s="34">
-        <v>0.72150030596400005</v>
+        <v>0.78706500149699998</v>
       </c>
       <c r="C331" s="34"/>
-      <c r="D331" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E331" s="34"/>
+      <c r="D331" s="34">
+        <v>0.88362660385400005</v>
+      </c>
+      <c r="E331">
+        <v>0.88362660385400005</v>
+      </c>
+      <c r="F331" t="s">
+        <v>510</v>
+      </c>
+      <c r="G331"/>
       <c r="I331" s="14" t="s">
         <v>268</v>
       </c>
@@ -14431,13 +15678,14 @@
       <c r="A332" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B332" s="17"/>
+      <c r="B332" s="34"/>
       <c r="C332" s="34"/>
-      <c r="D332" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E332" s="17"/>
-      <c r="G332" s="14"/>
+      <c r="D332" s="34">
+        <v>26</v>
+      </c>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332"/>
       <c r="H332" s="14"/>
       <c r="J332" s="3"/>
       <c r="L332" s="3"/>
@@ -14457,7 +15705,9 @@
       <c r="D333" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E333" s="8"/>
+      <c r="E333" s="8">
+        <v>26</v>
+      </c>
       <c r="G333" s="13"/>
       <c r="H333" s="13"/>
     </row>
@@ -14487,7 +15737,7 @@
         <v>6</v>
       </c>
       <c r="B336" s="9">
-        <v>2305</v>
+        <v>2294</v>
       </c>
       <c r="C336"/>
       <c r="E336" s="9"/>
@@ -14501,14 +15751,19 @@
         <v>7</v>
       </c>
       <c r="B337" s="8">
-        <v>0.86187464395699998</v>
+        <v>0.88340392968500003</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E337" s="8"/>
+      <c r="E337" s="8">
+        <v>0.89633082353899995</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="G337" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H337" s="14"/>
       <c r="J337" s="3"/>
@@ -14524,15 +15779,20 @@
         <v>8</v>
       </c>
       <c r="B338" s="17">
-        <v>0.90463201605499999</v>
+        <v>0.89414834168400004</v>
       </c>
       <c r="C338" s="34"/>
       <c r="D338" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E338" s="17"/>
+      <c r="E338" s="17">
+        <v>0.92129664273599998</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="G338" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H338" s="14"/>
       <c r="J338" s="3"/>
@@ -14548,15 +15808,20 @@
         <v>9</v>
       </c>
       <c r="B339" s="17">
-        <v>0.82297670472100004</v>
+        <v>0.87291466922299998</v>
       </c>
       <c r="C339" s="34"/>
       <c r="D339" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E339" s="17"/>
+      <c r="E339" s="17">
+        <v>0.87268238118599994</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="G339" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H339" s="14"/>
       <c r="J339" s="3"/>
@@ -14579,7 +15844,7 @@
       <c r="E340" s="17"/>
       <c r="F340" s="1"/>
       <c r="G340" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H340" s="33">
         <f>297021.813278/(60*60)</f>
@@ -14597,7 +15862,9 @@
       <c r="D341" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E341" s="16"/>
+      <c r="E341" s="16">
+        <v>94</v>
+      </c>
       <c r="G341" s="13"/>
       <c r="H341" s="13"/>
     </row>
@@ -16179,10 +17446,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q280"/>
+  <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView showRuler="0" topLeftCell="A259" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16197,13 +17464,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1" s="1">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
@@ -18502,8 +19769,15 @@
       <c r="F156" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
+      <c r="G156" s="1">
+        <v>0.92309676203400004</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0.96503323940300001</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -18520,9 +19794,15 @@
       <c r="F157" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="G157" s="34">
+        <v>0.98933206601400003</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0.97179867988099999</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -18539,9 +19819,15 @@
       <c r="F158" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
+      <c r="G158" s="34">
+        <v>0.86520680029899999</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.95836882594100004</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -18558,8 +19844,12 @@
       <c r="F159" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="2"/>
+      <c r="G159" s="34">
+        <v>100</v>
+      </c>
+      <c r="H159" s="2">
+        <v>4</v>
+      </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -18576,10 +19866,12 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
       <c r="F160" s="1" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="G160" s="1"/>
-      <c r="H160" s="2"/>
+      <c r="H160" s="3">
+        <v>0.96236269088500004</v>
+      </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -18588,8 +19880,12 @@
     </row>
     <row r="161" spans="1:13" s="1" customFormat="1">
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="F161" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H161" s="3">
+        <v>100</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -18620,7 +19916,12 @@
         <v>0.899513736545</v>
       </c>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" s="1">
+        <v>9</v>
+      </c>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -18637,10 +19938,18 @@
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
+      <c r="F164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0.938300978472</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.956609255007</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -18653,6 +19962,18 @@
       <c r="B165">
         <v>0.88490253890299997</v>
       </c>
+      <c r="F165" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G165" s="34">
+        <v>0.99027009182299996</v>
+      </c>
+      <c r="H165">
+        <v>0.96911111817399997</v>
+      </c>
+      <c r="I165" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
@@ -18661,6 +19982,18 @@
       <c r="B166">
         <v>91.2</v>
       </c>
+      <c r="F166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" s="34">
+        <v>0.89153242952900003</v>
+      </c>
+      <c r="H166">
+        <v>0.944443627886</v>
+      </c>
+      <c r="I166" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
@@ -18671,9 +20004,15 @@
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="2"/>
+      <c r="F167" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G167" s="1">
+        <v>100</v>
+      </c>
+      <c r="H167" s="2">
+        <v>40.200000000000003</v>
+      </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
@@ -18684,9 +20023,13 @@
       <c r="A168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="F168" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G168" s="1"/>
-      <c r="H168" s="2"/>
+      <c r="H168" s="2">
+        <v>0.96398010554199998</v>
+      </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -18701,8 +20044,12 @@
         <v>7</v>
       </c>
       <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="H169" s="3"/>
+      <c r="F169" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H169" s="3">
+        <v>100</v>
+      </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -18734,8 +20081,12 @@
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="1">
+        <v>14</v>
+      </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -18750,6 +20101,18 @@
       <c r="B172">
         <v>0.92392956592999997</v>
       </c>
+      <c r="F172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G172">
+        <v>0.95670749321000004</v>
+      </c>
+      <c r="H172">
+        <v>0.96485013801200004</v>
+      </c>
+      <c r="I172" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
@@ -18758,6 +20121,18 @@
       <c r="B173">
         <v>99</v>
       </c>
+      <c r="F173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173">
+        <v>0.95975388381600002</v>
+      </c>
+      <c r="H173">
+        <v>0.98057922606600001</v>
+      </c>
+      <c r="I173" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
@@ -18768,15 +20143,34 @@
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
+      <c r="F174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0.95403060312599997</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0.94962892771600005</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
+    <row r="175" spans="1:13">
+      <c r="F175" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G175" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="H175">
+        <v>46.4</v>
+      </c>
+    </row>
     <row r="176" spans="1:13" s="1" customFormat="1">
       <c r="A176" s="1" t="s">
         <v>32</v>
@@ -18785,8 +20179,12 @@
         <v>8</v>
       </c>
       <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="F176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H176" s="3">
+        <v>0.97822176230000002</v>
+      </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -18801,8 +20199,12 @@
         <v>0.88656616439799996</v>
       </c>
       <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="F177" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H177" s="3">
+        <v>100</v>
+      </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -19538,7 +20940,7 @@
         <v>5</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -19558,7 +20960,7 @@
         <v>0.81781952109900002</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -19574,11 +20976,11 @@
       <c r="B242" s="9">
         <v>0.88928643651700001</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="34">
         <v>0.87617503171199995</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="2"/>
@@ -19595,7 +20997,7 @@
       <c r="B243" s="9">
         <v>0.70092312043600002</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="34">
         <v>0.76677354383100005</v>
       </c>
       <c r="F243" s="2"/>
@@ -19672,8 +21074,16 @@
       <c r="A248" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B248" s="1">
+        <v>0.81658695577100004</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0.87600684663799999</v>
+      </c>
       <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
+      <c r="F248" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
@@ -19685,9 +21095,16 @@
       <c r="A249" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D249" s="1"/>
+      <c r="B249">
+        <v>0.80864528463100005</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0.91476229901600004</v>
+      </c>
       <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
+      <c r="F249" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="G249" s="1"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
@@ -19700,10 +21117,25 @@
       <c r="A250" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B250">
+        <v>0.82468943055999999</v>
+      </c>
+      <c r="D250">
+        <v>0.84040215639899996</v>
+      </c>
+      <c r="F250" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B251">
+        <v>99</v>
+      </c>
+      <c r="D251" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -19754,8 +21186,6 @@
       <c r="A255" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
@@ -19767,10 +21197,6 @@
       <c r="A256" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="1"/>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
@@ -20014,6 +21440,520 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
+    </row>
+    <row r="283" spans="1:13" s="22" customFormat="1">
+      <c r="A283" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B283" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" s="13" customFormat="1"/>
+    <row r="285" spans="1:13" s="1" customFormat="1">
+      <c r="A285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" s="8">
+        <v>2</v>
+      </c>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="A286" s="1"/>
+      <c r="B286" s="9"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+      <c r="M286" s="2"/>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B287" s="46"/>
+      <c r="C287" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D287" s="29"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+      <c r="M287" s="2"/>
+    </row>
+    <row r="288" spans="1:13" s="1" customFormat="1">
+      <c r="A288" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B288" s="8">
+        <v>5</v>
+      </c>
+      <c r="F288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+    </row>
+    <row r="289" spans="1:13" s="1" customFormat="1">
+      <c r="A289" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B289" s="8"/>
+      <c r="F289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3"/>
+      <c r="L289" s="3"/>
+      <c r="M289" s="3"/>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B290" s="9"/>
+      <c r="D290" s="34"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+      <c r="M290" s="2"/>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="A291" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B291" s="9"/>
+      <c r="D291" s="34"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
+      <c r="L291" s="2"/>
+      <c r="M291" s="2"/>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B292" s="9"/>
+      <c r="D292" s="1"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+      <c r="M292" s="2"/>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293" s="1"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
+    </row>
+    <row r="294" spans="1:13" s="1" customFormat="1">
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+    </row>
+    <row r="295" spans="1:13" s="1" customFormat="1">
+      <c r="A295" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B295" s="8">
+        <v>6</v>
+      </c>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+    </row>
+    <row r="296" spans="1:13" s="1" customFormat="1">
+      <c r="A296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+      <c r="M297" s="2"/>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D300" s="1"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+      <c r="M300" s="2"/>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="2"/>
+    </row>
+    <row r="302" spans="1:13" s="1" customFormat="1">
+      <c r="A302" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B302" s="8">
+        <v>7</v>
+      </c>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+      <c r="L302" s="3"/>
+      <c r="M302" s="3"/>
+    </row>
+    <row r="303" spans="1:13" s="1" customFormat="1">
+      <c r="A303" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+      <c r="M304" s="2"/>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C307">
+        <f>B307/60</f>
+        <v>0</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="2"/>
+    </row>
+    <row r="309" spans="1:13" s="1" customFormat="1">
+      <c r="A309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" s="8">
+        <v>8</v>
+      </c>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3"/>
+      <c r="L309" s="3"/>
+      <c r="M309" s="3"/>
+    </row>
+    <row r="310" spans="1:13" s="1" customFormat="1">
+      <c r="A310" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
+      <c r="L310" s="3"/>
+      <c r="M310" s="3"/>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+      <c r="M311" s="2"/>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="A312" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+      <c r="M314" s="2"/>
+    </row>
+    <row r="316" spans="1:13" s="1" customFormat="1">
+      <c r="A316" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B316" s="8">
+        <v>9</v>
+      </c>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+      <c r="L316" s="3"/>
+      <c r="M316" s="3"/>
+    </row>
+    <row r="317" spans="1:13" s="1" customFormat="1">
+      <c r="A317" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" s="13"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+      <c r="L317" s="3"/>
+      <c r="M317" s="3"/>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D318" s="1"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="2"/>
+      <c r="M318" s="2"/>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="A319" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="A320" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
+      <c r="A321" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D321" s="1"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
+      <c r="J321" s="2"/>
+      <c r="K321" s="2"/>
+      <c r="L321" s="2"/>
+      <c r="M321" s="2"/>
+    </row>
+    <row r="323" spans="1:13" s="1" customFormat="1">
+      <c r="A323" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B323" s="8">
+        <v>10</v>
+      </c>
+      <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+    </row>
+    <row r="324" spans="1:13" s="1" customFormat="1">
+      <c r="A324" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+    </row>
+    <row r="325" spans="1:13">
+      <c r="A325" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D325" s="1"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+      <c r="J325" s="2"/>
+      <c r="K325" s="2"/>
+      <c r="L325" s="2"/>
+      <c r="M325" s="2"/>
+    </row>
+    <row r="326" spans="1:13">
+      <c r="A326" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
+      <c r="A327" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
+      <c r="A328" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D328" s="1"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="2"/>
+      <c r="L328" s="2"/>
+      <c r="M328" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24309,7 +26249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A97" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A96" sqref="A2:XFD96"/>
     </sheetView>
   </sheetViews>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="16360" tabRatio="657" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="4420" yWindow="0" windowWidth="24380" windowHeight="16360" tabRatio="657" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="634">
   <si>
     <t>Cellular Component</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Removed "metagenome" or "metagenomic" classes</t>
   </si>
   <si>
-    <t>SILVA Taxonomy 99% non-redundant</t>
-  </si>
-  <si>
     <t>69 samples found</t>
   </si>
   <si>
@@ -1135,21 +1132,9 @@
     <t>P6</t>
   </si>
   <si>
-    <t>Train: P1 - intersection w/ Uniprot</t>
-  </si>
-  <si>
-    <t>Train: P1 AND Uniprot</t>
-  </si>
-  <si>
-    <t>Train: P2 and Uniprot</t>
-  </si>
-  <si>
     <t>Test: Uniprot only</t>
   </si>
   <si>
-    <t>Train: P2 - intersection w/ Uniprot</t>
-  </si>
-  <si>
     <t>Train: PubMed papers w/ gene names</t>
   </si>
   <si>
@@ -1315,15 +1300,6 @@
     <t>Test: Uniprot papers associated w/ human &amp; yeast proteins</t>
   </si>
   <si>
-    <t>Human dataset</t>
-  </si>
-  <si>
-    <t>13971 non-IEA human proteins w/ a Uniprot paper</t>
-  </si>
-  <si>
-    <t>0 non-IEA yeast proteins w/ a Uniprot paper</t>
-  </si>
-  <si>
     <t>Type 0 predictions:  667</t>
   </si>
   <si>
@@ -1811,13 +1787,157 @@
   </si>
   <si>
     <t>Predicted</t>
+  </si>
+  <si>
+    <t>Removed "unknown" classes</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Original Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA Taxonomy (Full dataset) </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Train: Uniprot papers associated w/ human &amp; yeast proteins</t>
+  </si>
+  <si>
+    <t>Train: Pubmed w/ GO names - intersection w/ Uniprot</t>
+  </si>
+  <si>
+    <t>Train: Pubmed w/ gene names - intersection w/ Uniprot</t>
+  </si>
+  <si>
+    <t>Train: Pubmed w/ GO names AND Uniprot</t>
+  </si>
+  <si>
+    <t>Train: Pubmed w/ gene names AND Uniprot</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3: 833, 4: 802, 5: 442, 2: 197, 6: 126, 7: 18, 1: 11, 8: 3, 0: 1, 9: 1</t>
+  </si>
+  <si>
+    <t>Cellular Component GO terms w/ Uniprot Papers</t>
+  </si>
+  <si>
+    <t>Counts of GO terms vs distance from root</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>CC - U</t>
+  </si>
+  <si>
+    <t>CC - H1</t>
+  </si>
+  <si>
+    <t>CC - H2</t>
+  </si>
+  <si>
+    <t>CC - P1</t>
+  </si>
+  <si>
+    <t>CC - P2</t>
+  </si>
+  <si>
+    <t>CC - P3</t>
+  </si>
+  <si>
+    <t>CC - P4</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>PageRank</t>
+  </si>
+  <si>
+    <t>Centrality</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Network Analysis</t>
+  </si>
+  <si>
+    <t>Ontology - Dataset</t>
+  </si>
+  <si>
+    <t>MF - U</t>
+  </si>
+  <si>
+    <t>MF - H1</t>
+  </si>
+  <si>
+    <t>MF - H2</t>
+  </si>
+  <si>
+    <t>MF - P1</t>
+  </si>
+  <si>
+    <t>MF - P2</t>
+  </si>
+  <si>
+    <t>MF - P3</t>
+  </si>
+  <si>
+    <t>MF - P4</t>
+  </si>
+  <si>
+    <t>BP - U</t>
+  </si>
+  <si>
+    <t>BP - H1</t>
+  </si>
+  <si>
+    <t>BP - H2</t>
+  </si>
+  <si>
+    <t>BP - P1</t>
+  </si>
+  <si>
+    <t>BP - P2</t>
+  </si>
+  <si>
+    <t>BP - P3</t>
+  </si>
+  <si>
+    <t>BP - P4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1882,8 +2002,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1950,8 +2077,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1959,8 +2104,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="941">
+  <cellStyleXfs count="963">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2902,8 +3205,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2997,7 +3322,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3009,8 +3333,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="941">
+  <cellStyles count="963">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3481,6 +3845,17 @@
     <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3951,6 +4326,17 @@
     <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4282,7 +4668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
@@ -4301,7 +4687,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1">
@@ -5941,7 +6327,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
@@ -6687,7 +7073,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
@@ -6927,7 +7313,7 @@
         <v>56</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="5" customFormat="1">
@@ -6946,7 +7332,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B130" s="1">
         <v>0.52921702962100003</v>
@@ -6957,7 +7343,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B131" s="1">
         <v>0.47908045058499998</v>
@@ -6968,7 +7354,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B132" s="1"/>
       <c r="G132">
@@ -6977,7 +7363,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -6988,7 +7374,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B134" s="1">
         <v>3097</v>
@@ -6999,7 +7385,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
@@ -7025,7 +7411,7 @@
         <v>56</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" spans="1:10" s="5" customFormat="1">
@@ -7044,37 +7430,37 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B146" s="1"/>
     </row>
@@ -7083,7 +7469,7 @@
         <v>56</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1">
@@ -7102,7 +7488,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B150">
         <v>0.561597362963</v>
@@ -7113,7 +7499,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B151">
         <v>0.569891685747</v>
@@ -7124,7 +7510,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B152">
         <v>0.55354101131400002</v>
@@ -7135,7 +7521,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -7146,7 +7532,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B154">
         <v>1728</v>
@@ -7157,7 +7543,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7200,11 +7586,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView showRuler="0" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -7213,12 +7597,12 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7226,7 +7610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -7234,7 +7618,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>88</v>
       </c>
@@ -7242,620 +7626,657 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8">
+        <v>168765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B9">
+        <v>118150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B10">
+        <v>50615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="C10" t="s">
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>529</v>
-      </c>
-      <c r="B17">
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21">
         <v>138900</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>530</v>
-      </c>
-      <c r="B18">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22">
         <v>44104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>531</v>
-      </c>
-      <c r="B19">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1">
-      <c r="A21" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B21:B23)</f>
+        <v>185429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="52" customFormat="1">
-      <c r="A32" s="52" t="s">
+    <row r="37" spans="1:7" s="52" customFormat="1">
+      <c r="A37" s="52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+      <c r="E38" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>391</v>
+      </c>
+      <c r="E39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="F40" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B33" t="s">
-        <v>395</v>
-      </c>
-      <c r="E33" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" t="s">
-        <v>396</v>
-      </c>
-      <c r="E34" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="F35" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="F36" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="E37" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="E38" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B39" t="s">
-        <v>403</v>
-      </c>
-      <c r="E39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="E40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="F41" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
-      <c r="F42" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B43" t="s">
-        <v>521</v>
-      </c>
+      <c r="E42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1"/>
       <c r="E43" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B44" t="s">
+        <v>398</v>
+      </c>
       <c r="E44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="E45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1"/>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1"/>
+      <c r="F47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B48" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="E49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="E52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="F53" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="F45" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="F46" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="E47" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="F48" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="52" customFormat="1">
-      <c r="A50" s="52" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="1" customFormat="1">
-      <c r="A51" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E51" s="1" t="b">
+    <row r="55" spans="1:6" s="52" customFormat="1">
+      <c r="A55" s="52" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E56" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>536</v>
-      </c>
-      <c r="E52" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>566</v>
-      </c>
-      <c r="E53" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>550</v>
-      </c>
-      <c r="E54" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>533</v>
-      </c>
-      <c r="E55" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>561</v>
-      </c>
-      <c r="E56" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="E57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>558</v>
+      </c>
+      <c r="E58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E59" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>553</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E61" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>547</v>
+      </c>
+      <c r="E62" t="s">
         <v>548</v>
       </c>
-      <c r="E59" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>550</v>
-      </c>
-      <c r="E60" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>548</v>
-      </c>
-      <c r="E61" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>568</v>
-      </c>
-      <c r="E62" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E63" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="E64" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E65" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="E66" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="E67" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E68" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E69" t="s">
-        <v>592</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>525</v>
+      </c>
+      <c r="E70" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="E71" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="E72" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E73" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E74" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>570</v>
-      </c>
-      <c r="E75" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E76" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="E77" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="E78" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="E79" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E80" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E81" t="s">
-        <v>535</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>561</v>
+      </c>
+      <c r="E82" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="E83" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="E84" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E85" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="E86" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>541</v>
-      </c>
-      <c r="E87" t="s">
-        <v>542</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>537</v>
+      </c>
+      <c r="E88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>533</v>
+      </c>
+      <c r="E89" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="E90" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E91" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="E92" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>543</v>
-      </c>
-      <c r="E93" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>532</v>
-      </c>
-      <c r="E94" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>582</v>
+      </c>
+      <c r="E95" t="s">
         <v>583</v>
       </c>
-      <c r="E95" t="s">
-        <v>584</v>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>551</v>
+      </c>
+      <c r="E96" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="E97" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="52" customFormat="1">
-      <c r="A123" s="52" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="B124" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>535</v>
+      </c>
+      <c r="E98" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>525</v>
-      </c>
-      <c r="B125" s="60" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" s="61" customFormat="1">
-      <c r="A126" s="61" t="s">
-        <v>527</v>
-      </c>
-      <c r="B126" s="62" t="s">
-        <v>528</v>
+      <c r="E99" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>575</v>
+      </c>
+      <c r="E100" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>573</v>
+      </c>
+      <c r="E102" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="52" customFormat="1">
+      <c r="A128" s="52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="B129" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>517</v>
+      </c>
+      <c r="B130" s="59" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="60" customFormat="1">
+      <c r="A131" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131" s="61" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7876,37 +8297,37 @@
   <sheetData>
     <row r="1" spans="1:1" s="52" customFormat="1">
       <c r="A1" s="52" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -7923,7 +8344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -8551,7 +8972,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1">
@@ -8572,7 +8993,7 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D39" s="1">
         <v>0.47793174329499999</v>
@@ -8580,7 +9001,7 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D40" s="1">
         <v>0.62128580493200003</v>
@@ -8588,7 +9009,7 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D41" s="1">
         <v>0.38867023819699997</v>
@@ -8596,7 +9017,7 @@
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D42" s="1">
         <v>64.8</v>
@@ -8604,7 +9025,7 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D43" s="1">
         <v>223993.96854999999</v>
@@ -8612,7 +9033,7 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -8620,7 +9041,7 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -8631,7 +9052,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1">
@@ -9290,7 +9711,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9301,28 +9721,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9330,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1">
         <v>16973</v>
@@ -9341,7 +9762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1">
         <v>204303</v>
@@ -9352,7 +9773,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1">
         <v>267530</v>
@@ -9360,7 +9781,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1">
         <v>1207</v>
@@ -9372,7 +9793,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1">
         <v>3146</v>
@@ -9384,13 +9805,13 @@
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9398,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1">
         <v>29070</v>
@@ -9409,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1">
         <v>204303</v>
@@ -9420,7 +9841,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="1">
         <v>267530</v>
@@ -9428,7 +9849,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="1">
         <v>2186</v>
@@ -9440,7 +9861,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="1">
         <v>5341</v>
@@ -9452,13 +9873,13 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9466,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1">
         <v>30054</v>
@@ -9477,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="1">
         <v>204303</v>
@@ -9488,7 +9909,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="1">
         <v>267530</v>
@@ -9496,7 +9917,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="1">
         <v>2197</v>
@@ -9508,7 +9929,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="1">
         <v>5285</v>
@@ -9520,334 +9941,760 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1">
       <c r="A28" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="84" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="85"/>
+      <c r="B30" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="90"/>
+      <c r="D30" s="79"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="84" t="s">
+        <v>592</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="85"/>
+      <c r="B32" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="79"/>
+    </row>
+    <row r="33" spans="1:4" hidden="1">
+      <c r="A33" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B29" t="s">
-        <v>426</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C30" s="34"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>427</v>
-      </c>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" hidden="1">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>488</v>
+      </c>
+      <c r="D33" s="92"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+    </row>
+    <row r="35" spans="1:4" hidden="1">
+      <c r="A35" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="B33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1">
-      <c r="A34" s="1"/>
-      <c r="B34" t="s">
-        <v>371</v>
-      </c>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:3" hidden="1">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>488</v>
+      </c>
+      <c r="D35" s="92"/>
+    </row>
+    <row r="36" spans="1:4" hidden="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="84" t="s">
+        <v>593</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D37" s="76"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="85"/>
+      <c r="B38" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="79"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="D39" s="71"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="88"/>
+      <c r="B40" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="94"/>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="87" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="D41" s="71"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="88"/>
+      <c r="B42" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="94"/>
+      <c r="D42" s="73"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="B35" t="s">
-        <v>373</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1">
-      <c r="A36" s="1"/>
-      <c r="B36" t="s">
-        <v>371</v>
-      </c>
-      <c r="C36" s="34"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="B43" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D43" s="76"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="85"/>
+      <c r="B44" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="79"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="B37" t="s">
-        <v>368</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
-      <c r="B38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C38" s="34"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B39" t="s">
-        <v>372</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>371</v>
-      </c>
-      <c r="C40" s="34"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B41" t="s">
-        <v>369</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C42" s="34"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="B45" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D45" s="76"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="85"/>
+      <c r="B46" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="B43" t="s">
-        <v>370</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="57" customFormat="1">
-      <c r="A46" s="57" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="4" customFormat="1">
-      <c r="A50" s="4" t="s">
+      <c r="C46" s="77"/>
+      <c r="D46" s="79"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" s="52" customFormat="1">
+      <c r="B48" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:9" s="1" customFormat="1">
+      <c r="B49" s="95" t="s">
+        <v>604</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>592</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="G49" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="H49" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="F50" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="G50" s="81"/>
+      <c r="H50" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="I50" s="83"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="C51" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="F51" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="G51" s="81"/>
+      <c r="H51" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="I51" s="83"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="96"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="62" t="s">
+        <v>618</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="D54" s="99"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="98" t="s">
+        <v>617</v>
+      </c>
+      <c r="G54" s="101"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C55" s="97" t="s">
+        <v>612</v>
+      </c>
+      <c r="D55" s="97" t="s">
+        <v>613</v>
+      </c>
+      <c r="E55" s="97" t="s">
+        <v>614</v>
+      </c>
+      <c r="F55" s="97" t="s">
+        <v>615</v>
+      </c>
+      <c r="G55" s="65"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="62" t="s">
+        <v>605</v>
+      </c>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="62" t="s">
+        <v>606</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="62" t="s">
+        <v>608</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="62" t="s">
+        <v>609</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="62" t="s">
+        <v>610</v>
+      </c>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="62" t="s">
+        <v>611</v>
+      </c>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="B65" s="62" t="s">
+        <v>622</v>
+      </c>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" s="62" t="s">
+        <v>623</v>
+      </c>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1"/>
+      <c r="B67" s="62" t="s">
+        <v>624</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1"/>
+      <c r="B68" s="64" t="s">
+        <v>625</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1"/>
+      <c r="B69" s="64" t="s">
+        <v>626</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1"/>
+      <c r="B70" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1"/>
+      <c r="B71" s="62" t="s">
+        <v>628</v>
+      </c>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1"/>
+      <c r="B72" s="62" t="s">
+        <v>629</v>
+      </c>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1"/>
+      <c r="B73" s="62" t="s">
+        <v>630</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1"/>
+      <c r="B74" s="62" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1"/>
+      <c r="B75" s="62" t="s">
+        <v>632</v>
+      </c>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1"/>
+      <c r="B76" s="62" t="s">
+        <v>633</v>
+      </c>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+    </row>
+    <row r="78" spans="1:9" s="4" customFormat="1">
+      <c r="A78" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="4" customFormat="1">
+      <c r="A79" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" s="4" customFormat="1">
-      <c r="A51" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="34" t="s">
+      <c r="C81" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="B82" t="s">
+        <v>465</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B83" t="s">
         <v>470</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C83" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="D52" s="34">
-        <v>83223</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="34" t="s">
+      <c r="D83" s="34"/>
+      <c r="E83" s="34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84" t="s">
+        <v>473</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="B85" t="s">
         <v>475</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C85" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="B86" t="s">
+        <v>477</v>
+      </c>
+      <c r="C86" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="D53" s="34">
-        <v>6</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="B54" t="s">
-        <v>473</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="D54" s="34">
-        <v>7</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="B87" t="s">
         <v>479</v>
       </c>
-      <c r="D55" s="34">
-        <v>0</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C87" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="D56" s="34">
-        <v>1529</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="B57" t="s">
-        <v>483</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="D57" s="34">
-        <v>3332</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="58" t="s">
-        <v>484</v>
-      </c>
-      <c r="B58" t="s">
-        <v>485</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="D58" s="34">
-        <v>1847</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="58" t="s">
-        <v>486</v>
-      </c>
-      <c r="B59" t="s">
-        <v>487</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="D59" s="34">
-        <v>3475</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>489</v>
-      </c>
+    </row>
+    <row r="90" spans="1:8" s="69" customFormat="1">
+      <c r="A90" s="69" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="66" customFormat="1">
+      <c r="A91" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="B91" s="67"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+    </row>
+    <row r="92" spans="1:8" s="66" customFormat="1">
+      <c r="A92" s="66" t="s">
+        <v>601</v>
+      </c>
+      <c r="B92" s="67"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+    </row>
+    <row r="93" spans="1:8" s="66" customFormat="1">
+      <c r="B93" s="67"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9864,8 +10711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z450"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A321" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E343" sqref="E343"/>
+    <sheetView showRuler="0" topLeftCell="A232" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F241" sqref="F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10080,7 +10927,7 @@
         <v>0.77555220717899997</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>43</v>
@@ -10106,10 +10953,10 @@
         <v>0.88924731182799999</v>
       </c>
       <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
         <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="9"/>
@@ -10136,7 +10983,7 @@
         <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="9"/>
@@ -10148,19 +10995,19 @@
     </row>
     <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="9">
         <v>0.99866332693500004</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="9">
         <v>0.99876398707799996</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9"/>
@@ -10184,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9"/>
@@ -10260,7 +11107,7 @@
         <v>0.83192614384499997</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>43</v>
@@ -10286,10 +11133,10 @@
         <v>0.93967741935500004</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="9"/>
@@ -10313,10 +11160,10 @@
         <v>0.74634408602199998</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
@@ -10328,19 +11175,19 @@
     </row>
     <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="9">
         <v>0.99889039749099995</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="9">
         <v>0.99904255817200005</v>
       </c>
       <c r="H24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="9"/>
@@ -10364,7 +11211,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="9"/>
@@ -10419,7 +11266,7 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>43</v>
@@ -10448,10 +11295,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -10477,26 +11324,26 @@
         <v>0.748548387097</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -10518,7 +11365,7 @@
         <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:17" hidden="1"/>
@@ -10567,7 +11414,7 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -10594,7 +11441,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -10621,19 +11468,19 @@
         <v>0.74612903225799998</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="10">
         <v>8.0645161290299999E-2</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="10">
         <v>6.4516129032300001E-2</v>
@@ -10661,7 +11508,7 @@
         <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" hidden="1">
@@ -10714,7 +11561,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -10741,7 +11588,7 @@
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
@@ -10768,19 +11615,19 @@
         <v>0.76666666666700001</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:17" hidden="1">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="10">
         <v>0.99507701671399995</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="10">
         <v>0.99913619551499999</v>
@@ -10858,7 +11705,7 @@
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
@@ -10887,11 +11734,11 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -10916,22 +11763,22 @@
         <v>0.76935483870999999</v>
       </c>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:17" hidden="1">
       <c r="A56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="10">
         <v>0.99919705978700002</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="10">
         <v>0.99915960484999999</v>
@@ -10940,7 +11787,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -10961,7 +11808,7 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" hidden="1">
@@ -11014,7 +11861,7 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -11041,7 +11888,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -11068,19 +11915,19 @@
         <v>0.767580645161</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:17" hidden="1">
       <c r="A64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="10">
         <v>0.99916662765099995</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="10">
         <v>0.99914790018300004</v>
@@ -11158,7 +12005,7 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -11185,7 +12032,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -11212,19 +12059,19 @@
         <v>0.76779569892499999</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:17" hidden="1">
       <c r="A72" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="10">
         <v>0.99919471885400002</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" s="10">
         <v>0.99914790018300004</v>
@@ -11302,7 +12149,7 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -11329,7 +12176,7 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -11356,19 +12203,19 @@
         <v>0.76279569892499999</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:17" hidden="1">
       <c r="A80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="10">
         <v>0.99848775691699998</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E80" s="10">
         <v>0.99913853644799999</v>
@@ -11446,7 +12293,7 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3" t="s">
@@ -11475,11 +12322,11 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="1"/>
@@ -11504,22 +12351,22 @@
         <v>0.73919354838700002</v>
       </c>
       <c r="G87" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I87" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1">
       <c r="A88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="10">
         <v>2.5806451612899999E-2</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88" s="10">
         <v>2.5806451612899999E-2</v>
@@ -11528,7 +12375,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -11549,7 +12396,7 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="1" customFormat="1" hidden="1">
@@ -11602,7 +12449,7 @@
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3" t="s">
@@ -11631,11 +12478,11 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="1"/>
@@ -11660,22 +12507,22 @@
         <v>0.76860215053799996</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:17" hidden="1">
       <c r="A96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10">
         <v>0.999199400721</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" s="10">
         <v>0.99916428671799995</v>
@@ -11684,7 +12531,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -11705,7 +12552,7 @@
         <v>98</v>
       </c>
       <c r="I97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="1" customFormat="1" hidden="1">
@@ -13352,7 +14199,7 @@
         <v>0.82598935762100001</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H214" s="14"/>
       <c r="I214" s="1" t="s">
@@ -13381,11 +14228,11 @@
         <v>0.85414414414399997</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H215" s="14"/>
       <c r="I215" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J215" s="2"/>
       <c r="L215" s="3"/>
@@ -13410,23 +14257,23 @@
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H216" s="33"/>
       <c r="I216" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B217" s="9">
         <v>0.98775368670100006</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E217" s="9">
         <v>0.99892983892999998</v>
@@ -13435,7 +14282,7 @@
       <c r="G217" s="42"/>
       <c r="H217" s="42"/>
       <c r="I217" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J217" s="2"/>
       <c r="K217" s="1"/>
@@ -13448,7 +14295,7 @@
     </row>
     <row r="218" spans="1:17" s="1" customFormat="1">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="9">
         <v>14</v>
@@ -13463,7 +14310,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
       <c r="I218" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J218" s="3"/>
       <c r="L218" s="3"/>
@@ -13543,7 +14390,7 @@
         <v>0.941858264409</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H222" s="13"/>
       <c r="J222" s="3"/>
@@ -13569,7 +14416,7 @@
         <v>0.96341523341500002</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H223" s="13"/>
     </row>
@@ -13587,7 +14434,7 @@
         <v>0.92124488124500004</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H224" s="42"/>
       <c r="J224" s="2"/>
@@ -13600,14 +14447,14 @@
     </row>
     <row r="225" spans="1:21" s="1" customFormat="1">
       <c r="A225" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B225">
         <v>0.99788630735999995</v>
       </c>
       <c r="C225"/>
       <c r="D225" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E225">
         <v>0.99935667725099997</v>
@@ -13624,7 +14471,7 @@
     </row>
     <row r="226" spans="1:21" s="1" customFormat="1">
       <c r="A226" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B226" s="8">
         <v>93</v>
@@ -13698,7 +14545,7 @@
         <v>0.94216496266299998</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H230" s="13"/>
     </row>
@@ -13718,7 +14565,7 @@
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H231" s="42"/>
       <c r="I231" s="1"/>
@@ -13746,7 +14593,7 @@
         <v>0.92691236691199996</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H232" s="14"/>
       <c r="J232" s="3"/>
@@ -13759,14 +14606,14 @@
     </row>
     <row r="233" spans="1:21" s="1" customFormat="1">
       <c r="A233" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B233" s="17">
         <v>0.99890780732899997</v>
       </c>
       <c r="C233" s="34"/>
       <c r="D233" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E233" s="17">
         <v>0.99935035514000004</v>
@@ -13783,7 +14630,7 @@
     </row>
     <row r="234" spans="1:21" s="1" customFormat="1">
       <c r="A234" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234" s="8">
         <v>99</v>
@@ -13824,10 +14671,10 @@
         <v>8</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="T236" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="237" spans="1:21" s="1" customFormat="1">
@@ -13865,7 +14712,7 @@
         <v>0.93305494534400002</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H238" s="14"/>
       <c r="I238" s="1" t="s">
@@ -13884,7 +14731,7 @@
         <v>0.91527325527799996</v>
       </c>
       <c r="U238" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:21" s="1" customFormat="1">
@@ -13902,11 +14749,11 @@
         <v>0.95280917280900002</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H239" s="14"/>
       <c r="I239" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="J239" s="3"/>
       <c r="L239" s="3"/>
@@ -13921,7 +14768,7 @@
         <v>0.99164705927600005</v>
       </c>
       <c r="U239" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:21" s="1" customFormat="1">
@@ -13939,11 +14786,11 @@
         <v>0.91410319410300001</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H240" s="14"/>
       <c r="I240" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="J240" s="3"/>
       <c r="L240" s="3"/>
@@ -13958,19 +14805,19 @@
         <v>0.84982238010699995</v>
       </c>
       <c r="U240" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="241" spans="1:18">
       <c r="A241" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B241" s="17">
         <v>0.51056511056499998</v>
       </c>
       <c r="C241" s="34"/>
       <c r="D241" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E241" s="17">
         <v>0.65405405405399997</v>
@@ -13979,10 +14826,10 @@
       <c r="G241" s="33"/>
       <c r="H241" s="33"/>
       <c r="I241" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Q241" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R241" s="1">
         <v>100</v>
@@ -13990,7 +14837,7 @@
     </row>
     <row r="242" spans="1:18" s="1" customFormat="1">
       <c r="A242" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B242" s="8">
         <v>100</v>
@@ -14004,14 +14851,14 @@
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
       <c r="I242" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="O242" s="1">
         <f>8124.95054102/(60*60)</f>
         <v>2.2569307058388888</v>
       </c>
       <c r="Q242" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="R242" s="1">
         <v>0.96683417085400003</v>
@@ -14025,7 +14872,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
       <c r="Q243" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="R243" s="1">
         <v>100</v>
@@ -14079,7 +14926,7 @@
         <v>0.92684168601000005</v>
       </c>
       <c r="G246" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H246" s="14"/>
       <c r="I246" s="1" t="s">
@@ -14108,11 +14955,11 @@
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H247" s="14"/>
       <c r="I247" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J247" s="14"/>
       <c r="L247" s="3"/>
@@ -14137,23 +14984,23 @@
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H248" s="33"/>
       <c r="I248" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="1:18">
       <c r="A249" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B249" s="17">
         <v>0.99922257185399999</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E249" s="17">
         <v>0.99928234454599996</v>
@@ -14162,12 +15009,12 @@
       <c r="G249" s="33"/>
       <c r="H249" s="33"/>
       <c r="I249" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" spans="1:18" s="1" customFormat="1">
       <c r="A250" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B250" s="8">
         <v>100</v>
@@ -14181,7 +15028,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
       <c r="I250" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:18" s="1" customFormat="1">
@@ -14228,7 +15075,7 @@
         <v>0.937298792642</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H254" s="13"/>
     </row>
@@ -14248,7 +15095,7 @@
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H255" s="42"/>
       <c r="I255" s="2"/>
@@ -14276,20 +15123,20 @@
         <v>0.90877968878000004</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H256" s="13"/>
     </row>
     <row r="257" spans="1:17" s="1" customFormat="1">
       <c r="A257" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B257" s="17">
         <v>0.99922851080700004</v>
       </c>
       <c r="C257" s="34"/>
       <c r="D257" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E257" s="34">
         <v>0.99933196354200005</v>
@@ -14357,7 +15204,7 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H262" s="14"/>
       <c r="I262" s="3" t="s">
@@ -14386,11 +15233,11 @@
         <v>0.96933660933700005</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H263" s="13"/>
       <c r="I263" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264" spans="1:17" s="1" customFormat="1">
@@ -14408,23 +15255,23 @@
         <v>0.906601146601</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H264" s="13"/>
       <c r="I264" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="265" spans="1:17" s="1" customFormat="1">
       <c r="A265" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B265" s="17">
         <v>0.998569861728</v>
       </c>
       <c r="C265" s="34"/>
       <c r="D265" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E265" s="34">
         <v>0.99933196354200005</v>
@@ -14432,7 +15279,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
       <c r="I265" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:17" s="1" customFormat="1">
@@ -14451,7 +15298,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
       <c r="I266" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="1:17" s="1" customFormat="1">
@@ -14507,7 +15354,7 @@
         <v>0.93457249136300002</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H270" s="13"/>
       <c r="I270" s="1" t="s">
@@ -14529,11 +15376,11 @@
         <v>0.96522522522499998</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H271" s="13"/>
       <c r="I271" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="272" spans="1:17" s="1" customFormat="1">
@@ -14551,23 +15398,23 @@
         <v>0.90580671580700001</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H272" s="13"/>
       <c r="I272" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="1:26" s="1" customFormat="1">
       <c r="A273" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B273" s="9">
         <v>0.99660004502099997</v>
       </c>
       <c r="C273"/>
       <c r="D273" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E273" s="1">
         <v>0.99932200142700001</v>
@@ -14575,7 +15422,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
       <c r="I273" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="274" spans="1:26" s="1" customFormat="1">
@@ -14595,7 +15442,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -14733,11 +15580,11 @@
     </row>
     <row r="281" spans="1:26" s="1" customFormat="1">
       <c r="A281" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B281" s="8"/>
       <c r="D281" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E281"/>
       <c r="F281" s="3"/>
@@ -14820,19 +15667,19 @@
         <v>14</v>
       </c>
       <c r="S284" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="T284" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="U284" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="W284" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Z284" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="285" spans="1:26" s="1" customFormat="1">
@@ -14866,13 +15713,13 @@
         <v>2</v>
       </c>
       <c r="U285" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="W285" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Z285" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="286" spans="1:26" s="1" customFormat="1">
@@ -14903,13 +15750,13 @@
         <v>0.95712028948100003</v>
       </c>
       <c r="U286" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="W286" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Z286" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="287" spans="1:26">
@@ -14943,10 +15790,10 @@
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
       <c r="U287" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="W287" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="288" spans="1:26" s="1" customFormat="1">
@@ -14977,21 +15824,21 @@
         <v>0.95612579389499996</v>
       </c>
       <c r="U288" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="W288" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="289" spans="1:23" s="13" customFormat="1">
       <c r="A289" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q289" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R289" s="1">
         <v>99</v>
@@ -14999,10 +15846,10 @@
       <c r="S289"/>
       <c r="T289"/>
       <c r="U289" s="13" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="W289" s="13" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="290" spans="1:23" s="13" customFormat="1">
@@ -15016,7 +15863,7 @@
         <v>15</v>
       </c>
       <c r="Q290" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="R290" s="1">
         <v>0.97868020304600001</v>
@@ -15024,16 +15871,16 @@
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
       <c r="U290" s="13" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="W290" s="13" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="291" spans="1:23">
       <c r="A291" s="1"/>
       <c r="Q291" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="R291" s="1">
         <v>100</v>
@@ -15049,7 +15896,7 @@
         <v>15</v>
       </c>
       <c r="Q292" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="1:23" s="1" customFormat="1">
@@ -15074,7 +15921,7 @@
         <v>7</v>
       </c>
       <c r="H294" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -15088,7 +15935,7 @@
         <v>8</v>
       </c>
       <c r="H295" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -15102,18 +15949,18 @@
         <v>9</v>
       </c>
       <c r="H296" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="297" spans="1:23">
       <c r="A297" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H297" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -15172,7 +16019,7 @@
     <row r="306" spans="1:17" s="13" customFormat="1"/>
     <row r="307" spans="1:17" s="4" customFormat="1">
       <c r="A307" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B307" s="4">
         <v>10</v>
@@ -15251,7 +16098,7 @@
         <v>0.81888780961300001</v>
       </c>
       <c r="G313" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H313" s="14"/>
       <c r="I313" s="3" t="s">
@@ -15279,11 +16126,11 @@
         <v>0.87537642702899998</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H314" s="14"/>
       <c r="I314" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J314" s="2"/>
       <c r="L314" s="3"/>
@@ -15307,28 +16154,28 @@
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H315" s="33"/>
       <c r="I315" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J315" s="3"/>
     </row>
     <row r="316" spans="1:17">
       <c r="A316" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B316" s="9"/>
       <c r="D316" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E316" s="9"/>
       <c r="F316" s="1"/>
       <c r="G316" s="42"/>
       <c r="H316" s="42"/>
       <c r="I316" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="1"/>
@@ -15340,7 +16187,7 @@
     </row>
     <row r="317" spans="1:17" s="1" customFormat="1">
       <c r="A317" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B317" s="9">
         <v>29</v>
@@ -15355,7 +16202,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
       <c r="I317" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J317" s="3"/>
       <c r="L317" s="3"/>
@@ -15437,7 +16284,7 @@
         <v>0.87568483266599995</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H321" s="13"/>
       <c r="I321" s="1" t="s">
@@ -15466,11 +16313,11 @@
         <v>0.91527623504400002</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H322" s="13"/>
       <c r="I322" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="323" spans="1:17" s="34" customFormat="1">
@@ -15487,11 +16334,11 @@
         <v>0.83937656415999995</v>
       </c>
       <c r="G323" s="42" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H323" s="42"/>
       <c r="I323" s="34" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J323" s="2"/>
       <c r="L323" s="2"/>
@@ -15503,18 +16350,18 @@
     </row>
     <row r="324" spans="1:17" s="1" customFormat="1">
       <c r="A324" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E324"/>
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J324" s="3"/>
       <c r="L324" s="3"/>
@@ -15526,7 +16373,7 @@
     </row>
     <row r="325" spans="1:17" s="1" customFormat="1">
       <c r="A325" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B325" s="8">
         <v>99</v>
@@ -15540,7 +16387,7 @@
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
       <c r="I325" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J325" s="3"/>
       <c r="L325" s="3"/>
@@ -15587,7 +16434,7 @@
       </c>
       <c r="E328" s="9"/>
       <c r="I328" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J328" s="13"/>
     </row>
@@ -15605,10 +16452,10 @@
         <v>0.90258579423899998</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J329" s="13"/>
     </row>
@@ -15627,11 +16474,11 @@
         <v>0.92237640464699999</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G330" s="1"/>
       <c r="I330" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J330" s="42"/>
       <c r="K330" s="1"/>
@@ -15657,11 +16504,11 @@
         <v>0.88362660385400005</v>
       </c>
       <c r="F331" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G331"/>
       <c r="I331" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J331" s="14">
         <f>158036.651968/(60*60)</f>
@@ -15676,7 +16523,7 @@
     </row>
     <row r="332" spans="1:17" s="1" customFormat="1">
       <c r="A332" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B332" s="34"/>
       <c r="C332" s="34"/>
@@ -15697,7 +16544,7 @@
     </row>
     <row r="333" spans="1:17" s="1" customFormat="1">
       <c r="A333" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B333" s="8">
         <v>100</v>
@@ -15760,10 +16607,10 @@
         <v>0.89633082353899995</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G337" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H337" s="14"/>
       <c r="J337" s="3"/>
@@ -15789,10 +16636,10 @@
         <v>0.92129664273599998</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G338" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H338" s="14"/>
       <c r="J338" s="3"/>
@@ -15818,10 +16665,10 @@
         <v>0.87268238118599994</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G339" s="14" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H339" s="14"/>
       <c r="J339" s="3"/>
@@ -15834,17 +16681,17 @@
     </row>
     <row r="340" spans="1:17">
       <c r="A340" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B340" s="17"/>
       <c r="C340" s="34"/>
       <c r="D340" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E340" s="17"/>
       <c r="F340" s="1"/>
       <c r="G340" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H340" s="33">
         <f>297021.813278/(60*60)</f>
@@ -15854,7 +16701,7 @@
     </row>
     <row r="341" spans="1:17" s="1" customFormat="1">
       <c r="A341" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B341" s="8">
         <v>100</v>
@@ -15964,12 +16811,12 @@
     </row>
     <row r="348" spans="1:17">
       <c r="A348" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B348" s="17"/>
       <c r="C348" s="1"/>
       <c r="D348" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="1"/>
@@ -15979,7 +16826,7 @@
     </row>
     <row r="349" spans="1:17" s="1" customFormat="1">
       <c r="A349" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B349" s="8"/>
       <c r="D349" s="3" t="s">
@@ -16067,12 +16914,12 @@
     </row>
     <row r="356" spans="1:17" s="1" customFormat="1">
       <c r="A356" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B356" s="17"/>
       <c r="C356" s="34"/>
       <c r="D356" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E356" s="34"/>
       <c r="G356" s="13"/>
@@ -16097,7 +16944,7 @@
     </row>
     <row r="360" spans="1:17" s="4" customFormat="1">
       <c r="A360" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B360" s="4">
         <v>1</v>
@@ -16216,11 +17063,11 @@
     </row>
     <row r="369" spans="1:17">
       <c r="A369" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B369" s="9"/>
       <c r="D369" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E369" s="9"/>
       <c r="F369" s="1"/>
@@ -16238,7 +17085,7 @@
     </row>
     <row r="370" spans="1:17" s="1" customFormat="1">
       <c r="A370" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370"/>
@@ -16363,12 +17210,12 @@
     </row>
     <row r="377" spans="1:17" s="1" customFormat="1">
       <c r="A377" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E377"/>
       <c r="G377" s="14"/>
@@ -16383,7 +17230,7 @@
     </row>
     <row r="378" spans="1:17" s="1" customFormat="1">
       <c r="A378" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B378" s="8"/>
       <c r="D378" s="3" t="s">
@@ -16494,12 +17341,12 @@
     </row>
     <row r="385" spans="1:17" s="1" customFormat="1">
       <c r="A385" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B385" s="17"/>
       <c r="C385" s="34"/>
       <c r="D385" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E385" s="17"/>
       <c r="G385" s="14"/>
@@ -16514,7 +17361,7 @@
     </row>
     <row r="386" spans="1:17" s="1" customFormat="1">
       <c r="A386" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B386" s="8"/>
       <c r="D386" s="3" t="s">
@@ -16616,12 +17463,12 @@
     </row>
     <row r="393" spans="1:17">
       <c r="A393" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B393" s="17"/>
       <c r="C393" s="34"/>
       <c r="D393" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E393" s="17"/>
       <c r="F393" s="1"/>
@@ -16631,7 +17478,7 @@
     </row>
     <row r="394" spans="1:17" s="1" customFormat="1">
       <c r="A394" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B394" s="8"/>
       <c r="D394" s="3" t="s">
@@ -16737,12 +17584,12 @@
     </row>
     <row r="401" spans="1:17">
       <c r="A401" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B401" s="17"/>
       <c r="C401" s="1"/>
       <c r="D401" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E401" s="17"/>
       <c r="F401" s="1"/>
@@ -16752,7 +17599,7 @@
     </row>
     <row r="402" spans="1:17" s="1" customFormat="1">
       <c r="A402" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B402" s="8"/>
       <c r="D402" s="3" t="s">
@@ -16840,12 +17687,12 @@
     </row>
     <row r="409" spans="1:17" s="1" customFormat="1">
       <c r="A409" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B409" s="17"/>
       <c r="C409" s="34"/>
       <c r="D409" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E409" s="34"/>
       <c r="G409" s="13"/>
@@ -16938,12 +17785,12 @@
     </row>
     <row r="417" spans="1:17" s="1" customFormat="1">
       <c r="A417" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B417" s="17"/>
       <c r="C417" s="34"/>
       <c r="D417" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E417" s="34"/>
       <c r="G417" s="13"/>
@@ -17037,12 +17884,12 @@
     </row>
     <row r="425" spans="1:17" s="1" customFormat="1">
       <c r="A425" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B425" s="9"/>
       <c r="C425"/>
       <c r="D425" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G425" s="13"/>
       <c r="H425" s="13"/>
@@ -17195,11 +18042,11 @@
     </row>
     <row r="433" spans="1:17" s="1" customFormat="1">
       <c r="A433" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B433" s="8"/>
       <c r="D433" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E433"/>
       <c r="F433" s="3"/>
@@ -17363,10 +18210,10 @@
     </row>
     <row r="441" spans="1:17" s="13" customFormat="1">
       <c r="A441" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="1:17" s="13" customFormat="1">
@@ -17419,10 +18266,10 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -17435,7 +18282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17448,8 +18294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A259" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView showRuler="0" topLeftCell="A161" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17464,13 +18310,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B1" s="1">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
@@ -17578,7 +18424,7 @@
         <v>0.762348721314</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -17601,7 +18447,7 @@
         <v>0.87095548317000004</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -17625,7 +18471,7 @@
         <v>0.67782844734000003</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -17637,13 +18483,13 @@
     </row>
     <row r="13" spans="1:17" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9">
         <v>0.99447294147700005</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="34">
         <v>0.99867343031300004</v>
@@ -17735,7 +18581,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -17756,7 +18602,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -17777,12 +18623,12 @@
         <v>0.74779587405000003</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="9">
         <v>0.99893534036499998</v>
@@ -17869,7 +18715,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -17890,7 +18736,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -17911,12 +18757,12 @@
         <v>0.75134636264900001</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="10">
         <v>0.99848054348699999</v>
@@ -17937,7 +18783,7 @@
     </row>
     <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30">
         <v>99</v>
@@ -17994,7 +18840,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -18016,7 +18862,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
@@ -18037,12 +18883,12 @@
         <v>0.76079261672099996</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="10">
         <v>0.99704382029399996</v>
@@ -18063,7 +18909,7 @@
     </row>
     <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38">
         <v>99</v>
@@ -18119,7 +18965,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -18140,7 +18986,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
@@ -18161,12 +19007,12 @@
         <v>0.76248642779599995</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B45" s="10">
         <v>0.99867437583600005</v>
@@ -18255,7 +19101,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -18276,7 +19122,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -18297,12 +19143,12 @@
         <v>0.76274701411500001</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" s="10">
         <v>0.99916983023100003</v>
@@ -18323,7 +19169,7 @@
     </row>
     <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54">
         <v>100</v>
@@ -18388,7 +19234,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -18409,7 +19255,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -18430,12 +19276,12 @@
         <v>0.76567861020600003</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="10">
         <v>0.99905684015499996</v>
@@ -18456,7 +19302,7 @@
     </row>
     <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62">
         <v>100</v>
@@ -18525,7 +19371,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -18548,7 +19394,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="2"/>
@@ -18571,7 +19417,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -18583,7 +19429,7 @@
     </row>
     <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B69" s="10">
         <v>0.99812549935499995</v>
@@ -18604,7 +19450,7 @@
     </row>
     <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -18685,7 +19531,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -18708,7 +19554,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="2"/>
@@ -18731,7 +19577,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -18743,7 +19589,7 @@
     </row>
     <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="10">
         <v>0.99918779518099998</v>
@@ -18764,7 +19610,7 @@
     </row>
     <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2">
         <v>100</v>
@@ -18847,7 +19693,7 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -18870,7 +19716,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="2"/>
@@ -18893,7 +19739,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -18905,7 +19751,7 @@
     </row>
     <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B85" s="10">
         <v>0.99914051899800005</v>
@@ -18926,7 +19772,7 @@
     </row>
     <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -19007,7 +19853,7 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -19030,7 +19876,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="2"/>
@@ -19053,7 +19899,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -19065,7 +19911,7 @@
     </row>
     <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" s="10">
         <v>0.99918117651500005</v>
@@ -19776,7 +20622,7 @@
         <v>0.96503323940300001</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -19801,7 +20647,7 @@
         <v>0.97179867988099999</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -19826,7 +20672,7 @@
         <v>0.95836882594100004</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -19835,14 +20681,14 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B159" s="9">
         <v>17.399999999999999</v>
       </c>
       <c r="D159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G159" s="34">
         <v>100</v>
@@ -19866,7 +20712,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
       <c r="F160" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="3">
@@ -19881,7 +20727,7 @@
     <row r="161" spans="1:13" s="1" customFormat="1">
       <c r="E161" s="3"/>
       <c r="F161" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H161" s="3">
         <v>100</v>
@@ -19948,7 +20794,7 @@
         <v>0.956609255007</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -19972,12 +20818,12 @@
         <v>0.96911111817399997</v>
       </c>
       <c r="I165" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B166">
         <v>91.2</v>
@@ -19992,7 +20838,7 @@
         <v>0.944443627886</v>
       </c>
       <c r="I166" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -20005,7 +20851,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
       <c r="F167" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G167" s="1">
         <v>100</v>
@@ -20024,7 +20870,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
       <c r="F168" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="2">
@@ -20045,7 +20891,7 @@
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H169" s="3">
         <v>100</v>
@@ -20111,12 +20957,12 @@
         <v>0.96485013801200004</v>
       </c>
       <c r="I172" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B173">
         <v>99</v>
@@ -20131,7 +20977,7 @@
         <v>0.98057922606600001</v>
       </c>
       <c r="I173" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -20153,7 +20999,7 @@
         <v>0.94962892771600005</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -20162,7 +21008,7 @@
     </row>
     <row r="175" spans="1:13">
       <c r="F175" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G175" s="1">
         <v>98.8</v>
@@ -20180,7 +21026,7 @@
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H176" s="3">
         <v>0.97822176230000002</v>
@@ -20200,7 +21046,7 @@
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H177" s="3">
         <v>100</v>
@@ -20239,7 +21085,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B180">
         <v>99.2</v>
@@ -20315,7 +21161,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -20393,7 +21239,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B194">
         <v>99</v>
@@ -20490,7 +21336,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B201">
         <v>99</v>
@@ -20940,7 +21786,7 @@
         <v>5</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -20960,7 +21806,7 @@
         <v>0.81781952109900002</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -20980,7 +21826,7 @@
         <v>0.87617503171199995</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="2"/>
@@ -21082,7 +21928,7 @@
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -21103,7 +21949,7 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="2"/>
@@ -21124,7 +21970,7 @@
         <v>0.84040215639899996</v>
       </c>
       <c r="F250" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -21957,7 +22803,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -22186,7 +23031,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="2" t="s">
@@ -22213,11 +23058,11 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -22239,28 +23084,28 @@
         <v>0.72241935483899999</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:19" hidden="1">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="10">
         <v>0.99886464722099999</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="10">
         <v>0.99888337468999999</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:19" hidden="1">
@@ -22281,7 +23126,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -22347,7 +23192,7 @@
         <v>0.70351597935900001</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
         <v>43</v>
@@ -22368,11 +23213,11 @@
         <v>0.81284946236599998</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -22390,29 +23235,29 @@
         <v>0.62010752688199999</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:19" hidden="1">
       <c r="A24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="10">
         <v>0.99229598764000004</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="10">
         <v>0.99821152675699998</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:19" hidden="1">
@@ -22433,7 +23278,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -22499,7 +23344,7 @@
         <v>0.79328918598599996</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -22517,7 +23362,7 @@
         <v>0.894784946237</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H30" s="34"/>
     </row>
@@ -22536,19 +23381,19 @@
         <v>0.71247311828000004</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:19" hidden="1">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="10">
         <v>0.99644178098199998</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="10">
         <v>0.99878973734700005</v>
@@ -22650,7 +23495,7 @@
         <v>0.68643678003200004</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -22668,7 +23513,7 @@
         <v>0.77274193548400005</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H38" s="34"/>
     </row>
@@ -22687,20 +23532,20 @@
         <v>0.61747311827999996</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="10">
         <v>0.99786038672199995</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="10">
         <v>0.99815066248399997</v>
@@ -22802,7 +23647,7 @@
         <v>0.70872025649199999</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -22820,7 +23665,7 @@
         <v>0.85817204301100003</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H46" s="34"/>
     </row>
@@ -22839,19 +23684,19 @@
         <v>0.60360215053800004</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:19" hidden="1">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="10">
         <v>0.99809916194600001</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="10">
         <v>0.99837539210600001</v>
@@ -22953,7 +23798,7 @@
         <v>0.70577023737800004</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" t="s">
         <v>43</v>
@@ -22974,11 +23819,11 @@
         <v>0.83349462365600002</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:19" hidden="1">
@@ -22996,22 +23841,22 @@
         <v>0.611989247312</v>
       </c>
       <c r="G55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:19" hidden="1">
       <c r="A56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="10">
         <v>0.99792359192799995</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="10">
         <v>0.99833091436900001</v>
@@ -23020,7 +23865,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -23051,7 +23896,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -23117,7 +23962,7 @@
         <v>0.73476544246599995</v>
       </c>
       <c r="G61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
         <v>43</v>
@@ -23138,11 +23983,11 @@
         <v>0.84559139784899995</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H62" s="34"/>
       <c r="I62" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -23160,23 +24005,23 @@
         <v>0.64962365591399995</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="10">
         <v>0.99702701437300001</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="10">
         <v>0.99849009785099996</v>
@@ -23185,7 +24030,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -23216,7 +24061,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -23282,7 +24127,7 @@
         <v>0.72992986558899997</v>
       </c>
       <c r="G69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I69" t="s">
         <v>43</v>
@@ -23303,11 +24148,11 @@
         <v>0.81010752688200005</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -23325,23 +24170,23 @@
         <v>0.66419354838699995</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H71" s="34"/>
       <c r="I71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A72" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="10">
         <v>0.99852521185400001</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" s="10">
         <v>0.99843157451200004</v>
@@ -23350,7 +24195,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -23381,7 +24226,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -23447,7 +24292,7 @@
         <v>0.73057240074899998</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I77" t="s">
         <v>43</v>
@@ -23468,11 +24313,11 @@
         <v>0.85301075268799997</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H78" s="34"/>
       <c r="I78" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -23490,23 +24335,23 @@
         <v>0.63887096774200003</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="10">
         <v>0.99853223465499996</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E80" s="10">
         <v>0.99845264291400004</v>
@@ -23515,7 +24360,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -23546,7 +24391,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -23612,7 +24457,7 @@
         <v>0.73058234311600001</v>
       </c>
       <c r="G85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I85" t="s">
         <v>43</v>
@@ -23633,11 +24478,11 @@
         <v>0.87930107526900003</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H86" s="34"/>
       <c r="I86" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" hidden="1">
@@ -23655,23 +24500,23 @@
         <v>0.624892473118</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="10">
         <v>0.99788379605800004</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88" s="10">
         <v>0.998501802519</v>
@@ -23680,7 +24525,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -23711,7 +24556,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -23777,7 +24622,7 @@
         <v>0.76402864737999998</v>
       </c>
       <c r="G93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I93" t="s">
         <v>43</v>
@@ -23798,11 +24643,11 @@
         <v>0.85118279569900002</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H94" s="34"/>
       <c r="I94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:19" hidden="1">
@@ -23816,22 +24661,22 @@
         <v>0.693064516129</v>
       </c>
       <c r="G95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="1" customFormat="1" hidden="1">
       <c r="A96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10">
         <v>0.99835900557099999</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" s="10">
         <v>0.99859075799399999</v>
@@ -23840,7 +24685,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -23869,7 +24714,7 @@
       </c>
       <c r="H97" s="34"/>
       <c r="I97" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="4" customFormat="1" hidden="1">
@@ -24587,11 +25432,11 @@
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -24614,11 +25459,11 @@
       </c>
       <c r="F161" s="42"/>
       <c r="G161" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -24641,11 +25486,11 @@
       </c>
       <c r="F162" s="42"/>
       <c r="G162" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -24654,14 +25499,14 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B163" s="10">
         <v>0.99914977178099995</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E163" s="10">
         <v>0.99918387286800003</v>
@@ -24670,7 +25515,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="2"/>
       <c r="I163" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -24679,7 +25524,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B164" s="10">
         <v>97</v>
@@ -24768,7 +25613,7 @@
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -24793,7 +25638,7 @@
       </c>
       <c r="F169" s="42"/>
       <c r="G169" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -24818,7 +25663,7 @@
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="3"/>
@@ -24829,14 +25674,14 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B171" s="2">
         <v>0.99811696864300004</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E171" s="2">
         <v>0.99902026428299995</v>
@@ -24941,7 +25786,7 @@
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -24966,7 +25811,7 @@
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="3"/>
@@ -24991,7 +25836,7 @@
       </c>
       <c r="F178" s="42"/>
       <c r="G178" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2"/>
@@ -25002,14 +25847,14 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B179" s="10">
         <v>0.99713531713500003</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E179" s="10">
         <v>0.99882178829500001</v>
@@ -25112,7 +25957,7 @@
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="3" t="s">
@@ -25139,11 +25984,11 @@
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -25166,11 +26011,11 @@
       </c>
       <c r="F186" s="42"/>
       <c r="G186" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -25179,14 +26024,14 @@
     </row>
     <row r="187" spans="1:13" s="1" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B187" s="10">
         <v>0.99844073738799999</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E187" s="27">
         <v>0.99907486433799997</v>
@@ -25194,7 +26039,7 @@
       <c r="F187" s="42"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -25219,7 +26064,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="2"/>
       <c r="I188" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -25294,7 +26139,7 @@
       </c>
       <c r="F192" s="14"/>
       <c r="G192" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3" t="s">
@@ -25321,11 +26166,11 @@
       </c>
       <c r="F193" s="42"/>
       <c r="G193" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -25348,11 +26193,11 @@
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -25361,14 +26206,14 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B195" s="10">
         <v>0.99865683865699995</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E195" s="10">
         <v>0.99911567069499996</v>
@@ -25377,7 +26222,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="2"/>
       <c r="I195" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -25401,7 +26246,7 @@
       <c r="F196" s="14"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -25518,12 +26363,12 @@
     </row>
     <row r="203" spans="1:13" s="1" customFormat="1">
       <c r="A203" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -25664,12 +26509,12 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -25810,12 +26655,12 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="2"/>
@@ -25956,12 +26801,12 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B227" s="27"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -26098,12 +26943,12 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -26212,12 +27057,12 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -26249,7 +27094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A96" sqref="A2:XFD96"/>
     </sheetView>
   </sheetViews>
@@ -26368,7 +27213,7 @@
         <v>0.79832530043200001</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -26392,7 +27237,7 @@
         <v>0.91081433224800001</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -26416,7 +27261,7 @@
         <v>0.71082519001099997</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -26428,11 +27273,11 @@
     </row>
     <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="34">
         <v>0.99885166152100002</v>
@@ -26525,7 +27370,7 @@
         <v>0.77614671209099995</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
@@ -26546,7 +27391,7 @@
         <v>0.88819761129200003</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -26568,7 +27413,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
@@ -26580,7 +27425,7 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21"/>
@@ -26668,7 +27513,7 @@
         <v>0.76418100040100001</v>
       </c>
       <c r="F26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1">
@@ -26683,7 +27528,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -26705,7 +27550,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
@@ -26717,7 +27562,7 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="2"/>
@@ -26735,7 +27580,7 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="34">
         <v>98.6</v>
@@ -26823,7 +27668,7 @@
     </row>
     <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="2"/>
@@ -26840,7 +27685,7 @@
     </row>
     <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
@@ -26891,7 +27736,7 @@
         <v>0.67871657641799998</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" hidden="1">
@@ -26907,7 +27752,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -26929,7 +27774,7 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -26940,7 +27785,7 @@
     </row>
     <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="2"/>
@@ -26959,7 +27804,7 @@
     </row>
     <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46">
         <v>40.4</v>
@@ -27012,7 +27857,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -27034,7 +27879,7 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -27055,7 +27900,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
@@ -27067,7 +27912,7 @@
     </row>
     <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="2"/>
@@ -27077,7 +27922,7 @@
     </row>
     <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54">
         <v>70</v>
@@ -27142,7 +27987,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -27163,7 +28008,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -27184,12 +28029,12 @@
         <v>0.650282301846</v>
       </c>
       <c r="F60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="2"/>
@@ -27199,7 +28044,7 @@
     </row>
     <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62">
         <v>48.4</v>
@@ -27275,7 +28120,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="2"/>
@@ -27297,7 +28142,7 @@
         <v>0.81013029315999996</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:13" hidden="1">
@@ -27312,12 +28157,12 @@
         <v>0.60877307274699999</v>
       </c>
       <c r="F68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
@@ -27336,7 +28181,7 @@
     </row>
     <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2">
         <v>62.8</v>
@@ -27416,7 +28261,7 @@
         <v>0.74706668075299998</v>
       </c>
       <c r="F74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1">
@@ -27431,7 +28276,7 @@
         <v>0.85699239956600004</v>
       </c>
       <c r="F75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:13" hidden="1">
@@ -27447,7 +28292,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
@@ -27459,7 +28304,7 @@
     </row>
     <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
@@ -27478,7 +28323,7 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A78" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2">
         <v>40.4</v>
@@ -27549,7 +28394,7 @@
         <v>0.74089741931499997</v>
       </c>
       <c r="F82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:13" hidden="1">
@@ -27565,7 +28410,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="2"/>
@@ -27588,7 +28433,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -27600,7 +28445,7 @@
     </row>
     <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D85">
         <v>0.99852592862199996</v>
@@ -27608,7 +28453,7 @@
     </row>
     <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86">
         <v>55.4</v>
@@ -27645,7 +28490,7 @@
         <v>0.76558294442200003</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:13" hidden="1">
@@ -27659,7 +28504,7 @@
         <v>0.86472312703599996</v>
       </c>
       <c r="F91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:13" hidden="1">
@@ -27673,12 +28518,12 @@
         <v>0.68718783930500005</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D93">
         <v>0.99864884669800003</v>
@@ -27686,7 +28531,7 @@
     </row>
     <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B94">
         <v>40.4</v>
@@ -27839,11 +28684,11 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D109" s="34"/>
       <c r="F109" s="2"/>
@@ -27966,7 +28811,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B117" s="9"/>
       <c r="D117" s="1"/>
@@ -27982,7 +28827,7 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B118">
         <v>99</v>
@@ -28102,7 +28947,7 @@
     </row>
     <row r="125" spans="1:13" s="1" customFormat="1">
       <c r="A125" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="2"/>
@@ -28118,7 +28963,7 @@
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1">
       <c r="A126" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B126">
         <v>99</v>
@@ -28216,7 +29061,7 @@
     </row>
     <row r="133" spans="1:13" s="1" customFormat="1">
       <c r="A133" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="2"/>
@@ -28232,7 +29077,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
@@ -28308,7 +29153,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="2"/>
@@ -28419,7 +29264,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="2"/>
@@ -28436,7 +29281,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B150">
         <v>99</v>
@@ -28521,7 +29366,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="2"/>
@@ -28529,7 +29374,7 @@
     </row>
     <row r="158" spans="1:13" s="1" customFormat="1">
       <c r="A158" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158"/>
       <c r="C158"/>
@@ -28605,7 +29450,7 @@
     </row>
     <row r="165" spans="1:13" s="1" customFormat="1">
       <c r="A165" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165" s="8"/>
       <c r="E165" s="3"/>
@@ -28619,7 +29464,7 @@
     </row>
     <row r="166" spans="1:13" s="1" customFormat="1">
       <c r="A166" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -28692,7 +29537,7 @@
     </row>
     <row r="173" spans="1:13" s="1" customFormat="1">
       <c r="A173" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -28705,7 +29550,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
@@ -28761,7 +29606,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
@@ -28776,7 +29621,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -28842,12 +29687,12 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:13">

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="24720" windowHeight="16360" tabRatio="657" activeTab="1"/>
+    <workbookView xWindow="6580" yWindow="0" windowWidth="22220" windowHeight="16360" tabRatio="657" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="531">
   <si>
     <t>Molecular Function</t>
   </si>
@@ -1557,6 +1557,66 @@
   </si>
   <si>
     <t>Best F1 (F-max)</t>
+  </si>
+  <si>
+    <t>H1/Train: Uniprot</t>
+  </si>
+  <si>
+    <t>Test: human proteins</t>
+  </si>
+  <si>
+    <t>YP1/ Train: PubMed GO Test: Yeast proteins</t>
+  </si>
+  <si>
+    <t>Max F1 prune</t>
+  </si>
+  <si>
+    <t>Max Precision prune</t>
+  </si>
+  <si>
+    <t>Max Recall prune</t>
+  </si>
+  <si>
+    <t>Best Thresh % prune</t>
+  </si>
+  <si>
+    <t>YP2/ Train: PubMed Gene Test: Yeast proteins</t>
+  </si>
+  <si>
+    <t>Avg F1 prune</t>
+  </si>
+  <si>
+    <t>Avg Precision prune</t>
+  </si>
+  <si>
+    <t>Avg Recall prune</t>
+  </si>
+  <si>
+    <t>Avg Best Thresh % prune</t>
+  </si>
+  <si>
+    <t>Y1/Train: Uniprot</t>
+  </si>
+  <si>
+    <t>Test: yeast proteins</t>
+  </si>
+  <si>
+    <t>Y2/Train: Uniprot yeast only</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>In Uniprot dataset, there are only 77/6815 cases where more than 1 parent is predicted but the child is never predicted</t>
+  </si>
+  <si>
+    <t>H1/Train: Uniprot human</t>
+  </si>
+  <si>
+    <t>Pubmed GO + Uniprot</t>
+  </si>
+  <si>
+    <t>Pubmed Gene + Uniprot</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +1913,132 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1201">
+  <cellStyleXfs count="1325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3195,13 +3379,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1201">
+  <cellStyles count="1325">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3802,6 +3986,68 @@
     <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4402,6 +4648,68 @@
     <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4731,10 +5039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A87" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView showRuler="0" topLeftCell="A169" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4840,8 +5148,12 @@
       <c r="B7" s="1">
         <v>0.57232841863100004</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.37404382107400003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.221841076118</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -4859,8 +5171,12 @@
       <c r="B8" s="1">
         <v>0.60534428895900005</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>0.51190817936800004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.25200624512099901</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -4878,8 +5194,12 @@
       <c r="B9" s="1">
         <v>0.54296284867900002</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>0.294687157719</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19817603953066601</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -4897,8 +5217,12 @@
       <c r="B10" s="1">
         <v>9.1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>34.6</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -4916,7 +5240,9 @@
       <c r="B11" s="1">
         <v>0.57284340380099996</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.40000483500799999</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4935,7 +5261,9 @@
       <c r="B12" s="1">
         <v>0.60534428895900005</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.47671588843200002</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4954,7 +5282,9 @@
       <c r="B13" s="1">
         <v>0.543889753325</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0.34467395561600001</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4973,7 +5303,9 @@
       <c r="B14" s="1">
         <v>9.1</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>2.1</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4992,8 +5324,12 @@
       <c r="B15" s="102">
         <v>1</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="102">
+        <v>1</v>
+      </c>
+      <c r="D15" s="102">
+        <v>1</v>
+      </c>
       <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:13">
@@ -5004,7 +5340,10 @@
         <f>102766.184485/(60*60)</f>
         <v>28.546162356944446</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <f>307623.181039/(60*60)</f>
+        <v>85.450883621944442</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5030,55 +5369,60 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="5" customFormat="1">
-      <c r="B20" s="5" t="s">
+    <row r="18" spans="1:13" s="4" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="5" customFormat="1">
+      <c r="B19" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>299</v>
       </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="26">
-        <v>3</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -5086,60 +5430,58 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B22" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1">
+        <v>482</v>
+      </c>
+      <c r="B22" s="81">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B23" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="108">
+        <v>65918</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="108">
+        <v>8351</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -5148,19 +5490,12 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.54123569231599999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.332173751485</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -5170,18 +5505,18 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B26" s="1">
-        <v>0.69026655235699996</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.56665696099100005</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>0.54334475660899995</v>
+      </c>
+      <c r="C26">
+        <v>0.36154761508099997</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -5191,18 +5526,18 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44513052206300002</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.234950855629</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>0.60286606219600003</v>
+      </c>
+      <c r="C27">
+        <v>0.50670366055600002</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -5212,18 +5547,18 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B28" s="1">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>0.49452047210400002</v>
+      </c>
+      <c r="C28">
+        <v>0.28105462600800002</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5233,18 +5568,18 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B29" s="1">
+        <v>13</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -5252,372 +5587,357 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.55433625440699996</v>
+      </c>
+      <c r="C30">
+        <v>0.39842475725499998</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.58418873646400005</v>
+      </c>
+      <c r="C31">
+        <v>0.49287125225700001</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.52955716715900003</v>
+      </c>
+      <c r="C32">
+        <v>0.33478607116800002</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C33">
+        <v>2.4</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="102" t="s">
+        <v>474</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B30" s="1">
-        <f>19974.843426/(60*60)</f>
-        <v>5.5485676183333332</v>
-      </c>
-      <c r="C30" s="1">
-        <f>67321.9787359/(60*60)</f>
-        <v>18.700549648861113</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="1">
+        <f>38269.5294571/(60*60)</f>
+        <v>10.630424849194444</v>
+      </c>
+      <c r="C35">
+        <f>82249.328444/(60*60)</f>
+        <v>22.84703567888889</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1">
+      <c r="B38" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B40" s="1"/>
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B33" s="82">
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42">
+        <v>19252</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43">
+        <v>2229</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45">
+        <v>0.36403529024100001</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46">
+        <v>0.53418588580299997</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47">
+        <v>0.27610331008299999</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="C33" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B34" s="82">
-        <v>1</v>
-      </c>
-      <c r="C34" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="1">
-        <v>15611</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B36" s="80">
-        <v>15560</v>
-      </c>
-      <c r="C36" s="1">
-        <v>16479</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1">
-      <c r="B37" s="26"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1">
-      <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.53949972234200005</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.32936155917600002</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1">
-      <c r="A39" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.62910681138699998</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.57406045536899997</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1">
-      <c r="A40" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.47223651840199998</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.23092676289</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1">
-      <c r="A41" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B41" s="1">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1">
-      <c r="A42" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.54205124155100004</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1">
-      <c r="A43" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.62910681138699998</v>
-      </c>
-      <c r="C43" s="1">
-        <f>117478.644801/(60*60)</f>
-        <v>32.632956889166664</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
-      <c r="A44" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.47616034732000001</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1">
-      <c r="A45" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B45" s="1">
-        <v>25</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" s="1" customFormat="1">
-      <c r="A46" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1">
-      <c r="A47" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B47" s="1">
-        <f>35573.6815958/(60*60)</f>
-        <v>9.8815782210555554</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="B49" s="1"/>
+      <c r="C49">
+        <v>0.40556372286999998</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5629,38 +5949,53 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1">
-      <c r="A50" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="5" customFormat="1">
-      <c r="B51" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>299</v>
-      </c>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50">
+        <v>0.50018986494899997</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51">
+        <v>0.34179689241299999</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B52" s="26">
-        <v>3</v>
-      </c>
-      <c r="C52" s="26">
-        <v>3</v>
-      </c>
-      <c r="D52" s="26">
-        <v>3</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52">
+        <v>1.6</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
@@ -5672,18 +6007,14 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B53" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C53" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D53" s="79">
-        <v>0.2</v>
-      </c>
+      <c r="A53" s="102" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
@@ -5696,17 +6027,14 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B54" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D54" s="80">
-        <v>0.1</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54">
+        <f>21890.6608701/(60*60)</f>
+        <v>6.0807391305833338</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
@@ -5731,88 +6059,50 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1">
-      <c r="A56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0.58701127993400004</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.37201945201999997</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.303088379751</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0.63869553760599995</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.51737629308599997</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.32761940948000001</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.54306555258800004</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.29042465982600002</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.28197504514600003</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1">
+      <c r="A57" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="5" customFormat="1">
+      <c r="B58" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>469</v>
+        <v>291</v>
       </c>
       <c r="B59" s="1">
-        <v>13</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
@@ -5825,12 +6115,14 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5844,15 +6136,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="B61" s="1">
-        <f>48495.66765/(60*60)</f>
-        <v>13.471018791666667</v>
-      </c>
-      <c r="C61" s="1">
-        <f>55646.4552431/(60*60)</f>
-        <v>15.457348678638889</v>
+        <v>62240</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
@@ -5866,8 +6153,12 @@
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7308</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5880,15 +6171,8 @@
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B63" s="1">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5902,15 +6186,15 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B64" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C64" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.64805276266599998</v>
+      </c>
+      <c r="C64">
+        <v>0.37767025855899999</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
@@ -5923,15 +6207,15 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B65" s="81">
-        <v>1</v>
-      </c>
-      <c r="C65" s="81">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.70243964447999996</v>
+      </c>
+      <c r="C65">
+        <v>0.52676407527799995</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
@@ -5943,9 +6227,16 @@
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.60204252691399995</v>
+      </c>
+      <c r="C66">
+        <v>0.294501958003</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
@@ -5958,13 +6249,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="B67" s="1">
-        <v>0.58411354119000003</v>
+        <v>6.8</v>
       </c>
       <c r="C67">
-        <v>0.37247357138499998</v>
+        <v>1.2</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
@@ -5977,36 +6268,36 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1">
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B68" s="1">
-        <v>0.62570359615399995</v>
+        <v>0.64962673023600004</v>
       </c>
       <c r="C68">
-        <v>0.52278472510899998</v>
+        <v>0.40246566695699998</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B69" s="1">
-        <v>0.54770780850800005</v>
+        <v>0.71565352077599997</v>
       </c>
       <c r="C69">
-        <v>0.28929532886800002</v>
+        <v>0.463761201638</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
@@ -6021,13 +6312,13 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B70" s="1">
-        <v>10</v>
+        <v>0.59529483547299999</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.35601713587</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
@@ -6042,13 +6333,13 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B71" s="1">
-        <v>0.58480186572199999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C71">
-        <v>0.40163892943099999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
@@ -6062,14 +6353,14 @@
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="1" t="s">
-        <v>487</v>
+      <c r="A72" s="102" t="s">
+        <v>474</v>
       </c>
       <c r="B72" s="1">
-        <v>0.62570359615399995</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0.50742618513100002</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
@@ -6084,13 +6375,15 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B73" s="1">
-        <v>0.54891945177500001</v>
+        <f>15342.5640671/(60*60)</f>
+        <v>4.2618233519722226</v>
       </c>
       <c r="C73">
-        <v>0.33235101547200002</v>
+        <f>39076.0317781/(60*60)</f>
+        <v>10.854453271694444</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
@@ -6104,15 +6397,8 @@
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B74" s="1">
-        <v>10</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6124,52 +6410,38 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B76" s="1">
-        <f>62705.809418/(60*60)</f>
-        <v>17.418280393888889</v>
-      </c>
-      <c r="C76">
-        <f>86001.47382/(60*60)</f>
-        <v>23.889298283333332</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+    <row r="75" spans="1:13" s="4" customFormat="1">
+      <c r="A75" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="5" customFormat="1">
+      <c r="B76" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="D77" s="3"/>
+      <c r="A77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" s="1">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
@@ -6184,10 +6456,15 @@
       <c r="A78" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="1">
+        <v>5</v>
+      </c>
+      <c r="C78">
         <v>3</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
@@ -6200,13 +6477,17 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B79" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4583</v>
+      </c>
+      <c r="C79">
+        <v>4616</v>
+      </c>
+      <c r="D79" s="3">
+        <v>8649</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
@@ -6219,13 +6500,17 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B80" s="82">
-        <v>1</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="3"/>
+        <v>484</v>
+      </c>
+      <c r="B80" s="1">
+        <v>636</v>
+      </c>
+      <c r="C80">
+        <v>796</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1200</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
@@ -6237,12 +6522,8 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B81" s="85">
-        <v>152574</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6256,12 +6537,17 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B82" s="85">
-        <v>15560</v>
-      </c>
-      <c r="D82" s="3"/>
+        <v>462</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.64969930593000003</v>
+      </c>
+      <c r="C82">
+        <v>0.37692168634200002</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.33053819339099999</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
@@ -6273,8 +6559,18 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="1"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.70583675124599998</v>
+      </c>
+      <c r="C83">
+        <v>0.54919246156299995</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.34849253161900001</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
@@ -6287,12 +6583,17 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>29</v>
+        <v>464</v>
       </c>
       <c r="B84" s="1">
-        <v>0.58328682582000002</v>
-      </c>
-      <c r="D84" s="3"/>
+        <v>0.602202921951</v>
+      </c>
+      <c r="C84">
+        <v>0.28713442019000002</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.31436486208100001</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
@@ -6305,12 +6606,17 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B85" s="1">
-        <v>0.632411026928</v>
-      </c>
-      <c r="D85" s="3"/>
+        <v>12.2</v>
+      </c>
+      <c r="C85">
+        <v>1.2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="3"/>
@@ -6323,12 +6629,17 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B86" s="1">
-        <v>0.54124424583800002</v>
-      </c>
-      <c r="D86" s="3"/>
+        <v>0.65499221150700004</v>
+      </c>
+      <c r="C86">
+        <v>0.41682058483599999</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.335492816059</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
@@ -6341,12 +6652,17 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B87" s="1">
-        <v>17</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>0.70853610610499995</v>
+      </c>
+      <c r="C87">
+        <v>0.473330008887</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.34849253161900001</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="3"/>
@@ -6359,12 +6675,17 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B88" s="1">
-        <v>0.58355527655299999</v>
-      </c>
-      <c r="D88" s="3"/>
+        <v>0.609533856767</v>
+      </c>
+      <c r="C88">
+        <v>0.37308812155299997</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.32345259782300001</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="3"/>
@@ -6377,20 +6698,40 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B89" s="1">
-        <v>0.632411026928</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>1.8</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="1" t="s">
-        <v>486</v>
+      <c r="A90" s="102" t="s">
+        <v>474</v>
       </c>
       <c r="B90" s="1">
-        <v>0.54170672049400004</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="3"/>
@@ -6403,19 +6744,33 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B91" s="1">
-        <v>17</v>
-      </c>
+        <f>2973.51055908/(60*60)</f>
+        <v>0.82597515529999999</v>
+      </c>
+      <c r="C91">
+        <f>3786.9177022/(60*60)</f>
+        <v>1.0519215839444445</v>
+      </c>
+      <c r="D91" s="3">
+        <f>17027.715533/(60*60)</f>
+        <v>4.7299209813888883</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -6428,13 +6783,8 @@
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B93" s="1">
-        <f>80494.262604/(60*60)</f>
-        <v>22.359517390000001</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -6449,29 +6799,49 @@
     <row r="94" spans="1:13">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" s="4" customFormat="1">
+      <c r="A95" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="5" customFormat="1">
+      <c r="B96" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="D97" s="3"/>
+      <c r="A97" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B97" s="26">
+        <v>3</v>
+      </c>
+      <c r="C97" s="26">
+        <v>3</v>
+      </c>
+      <c r="D97" s="26">
+        <v>3</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="3"/>
@@ -6482,54 +6852,57 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:13" s="35" customFormat="1">
-      <c r="A98" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D98" s="96"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="97"/>
-      <c r="I98" s="97"/>
-      <c r="J98" s="97"/>
-      <c r="K98" s="97"/>
-      <c r="L98" s="97"/>
-      <c r="M98" s="97"/>
-    </row>
-    <row r="99" spans="1:13" s="100" customFormat="1">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="98"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="99"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="99"/>
-      <c r="M99" s="99"/>
+    <row r="98" spans="1:13" s="1" customFormat="1">
+      <c r="A98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B98" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="C98" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D98" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="1:13" s="1" customFormat="1">
+      <c r="A99" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B99" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C99" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D99" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B100" s="1">
-        <v>3</v>
-      </c>
-      <c r="D100" s="3"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="3"/>
@@ -6542,12 +6915,17 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B101" s="81">
-        <v>1</v>
-      </c>
-      <c r="D101" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.54123569231599999</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.332173751485</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.28263653123400001</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="3"/>
@@ -6560,12 +6938,17 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B102" s="81">
-        <v>1</v>
-      </c>
-      <c r="D102" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.69026655235699996</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.56665696099100005</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.448743637054</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="3"/>
@@ -6578,12 +6961,17 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B103" s="86">
-        <v>13584</v>
-      </c>
-      <c r="D103" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.44513052206300002</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.234950855629</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.20627989225099999</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="3"/>
@@ -6596,12 +6984,17 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B104" s="86">
-        <v>20823</v>
-      </c>
-      <c r="D104" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="B104" s="1">
+        <v>41</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="3"/>
@@ -6613,9 +7006,18 @@
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="D105" s="3"/>
+      <c r="A105" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="3"/>
@@ -6626,380 +7028,463 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B106" s="1">
+        <f>19974.843426/(60*60)</f>
+        <v>5.5485676183333332</v>
+      </c>
+      <c r="C106" s="1">
+        <f>67321.9787359/(60*60)</f>
+        <v>18.700549648861113</v>
+      </c>
+      <c r="D106" s="3">
+        <f>327632.954097/(60*60)</f>
+        <v>91.009153915833338</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" spans="1:13" s="1" customFormat="1">
+      <c r="A108" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B108" s="26">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="1:13" s="1" customFormat="1">
+      <c r="A109" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B109" s="82">
+        <v>1</v>
+      </c>
+      <c r="C109" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1">
+      <c r="A110" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B110" s="82">
+        <v>1</v>
+      </c>
+      <c r="C110" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1">
+      <c r="A111" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B111" s="85"/>
+      <c r="C111" s="1">
+        <v>15611</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1">
+      <c r="A112" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B112" s="85">
+        <v>15560</v>
+      </c>
+      <c r="C112" s="1">
+        <v>16479</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="1:13" s="1" customFormat="1">
+      <c r="B113" s="26"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1">
+      <c r="A114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="1">
-        <v>0.54444648013200003</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1" t="s">
+      <c r="B114" s="1">
+        <v>0.53949972234200005</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.32936155917600002</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="1:13" s="1" customFormat="1">
+      <c r="A115" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B107" s="1">
-        <v>0.51564172049599999</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1" t="s">
+      <c r="B115" s="1">
+        <v>0.62910681138699998</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.57406045536899997</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+    </row>
+    <row r="116" spans="1:13" s="1" customFormat="1">
+      <c r="A116" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B108" s="1">
-        <v>0.57665983132599996</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1" t="s">
+      <c r="B116" s="1">
+        <v>0.47223651840199998</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.23092676289</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1">
+      <c r="A117" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B117" s="1">
+        <v>25</v>
+      </c>
+      <c r="C117" s="1">
         <v>1</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:13" s="12" customFormat="1">
-      <c r="A110" s="12" t="s">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1">
+      <c r="A118" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.54205124155100004</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="1:13" s="1" customFormat="1">
+      <c r="A119" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.62910681138699998</v>
+      </c>
+      <c r="C119" s="1">
+        <f>117478.644801/(60*60)</f>
+        <v>32.632956889166664</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1">
+      <c r="A120" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.47616034732000001</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1">
+      <c r="A121" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B121" s="1">
+        <v>25</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="1:13" s="1" customFormat="1">
+      <c r="A122" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B110" s="12">
-        <v>1</v>
-      </c>
-      <c r="C110" s="25"/>
-    </row>
-    <row r="111" spans="1:13" s="12" customFormat="1">
-      <c r="A111" s="12" t="s">
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1">
+      <c r="A123" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B111" s="12">
-        <f>71257.057503/(60*60)</f>
-        <v>19.793627084166669</v>
-      </c>
-      <c r="C111" s="25"/>
-    </row>
-    <row r="112" spans="1:13" s="12" customFormat="1">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-    </row>
-    <row r="113" spans="1:13" s="4" customFormat="1">
-      <c r="A113" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="100" customFormat="1">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5" t="s">
+      <c r="B123" s="1">
+        <f>35573.6815958/(60*60)</f>
+        <v>9.8815782210555554</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="1:13" s="1" customFormat="1">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" s="4" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="5" customFormat="1">
+      <c r="B127" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D114" s="98" t="s">
+      <c r="D127" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="98"/>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
-      <c r="L114" s="99"/>
-      <c r="M114" s="99"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1" t="s">
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B128" s="26">
         <v>3</v>
       </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1" t="s">
+      <c r="C128" s="26">
+        <v>3</v>
+      </c>
+      <c r="D128" s="26">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B116" s="81">
+      <c r="B129" s="79">
         <v>0.2</v>
       </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B117" s="81">
-        <v>1</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B118" s="86">
-        <v>61029</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B119" s="86">
-        <v>20823</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0.57622570056800004</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.589396971115</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.56363023988299998</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B124" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" s="12" customFormat="1">
-      <c r="A125" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B125" s="12">
-        <v>1</v>
-      </c>
-      <c r="C125" s="25"/>
-    </row>
-    <row r="126" spans="1:13" s="12" customFormat="1">
-      <c r="A126" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B126" s="12">
-        <f>59078.7621992/(60*60)</f>
-        <v>16.410767277555554</v>
-      </c>
-      <c r="C126" s="25"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:13" s="35" customFormat="1">
-      <c r="A128" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="96"/>
-      <c r="E128" s="97"/>
-      <c r="F128" s="97"/>
-      <c r="G128" s="96"/>
-      <c r="H128" s="97"/>
-      <c r="I128" s="97"/>
-      <c r="J128" s="97"/>
-      <c r="K128" s="97"/>
-      <c r="L128" s="97"/>
-      <c r="M128" s="97"/>
-    </row>
-    <row r="129" spans="1:13" s="100" customFormat="1">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D129" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E129" s="99"/>
-      <c r="F129" s="99"/>
-      <c r="G129" s="98"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="99"/>
-      <c r="K129" s="99"/>
-      <c r="L129" s="99"/>
-      <c r="M129" s="99"/>
+      <c r="C129" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D129" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B130" s="26">
-        <v>10</v>
-      </c>
-      <c r="C130" s="26">
-        <v>10</v>
-      </c>
-      <c r="D130" s="26">
-        <v>10</v>
+        <v>473</v>
+      </c>
+      <c r="B130" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C130" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D130" s="80">
+        <v>0.1</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -7012,18 +7497,9 @@
       <c r="M130" s="2"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B131" s="26">
-        <v>3</v>
-      </c>
-      <c r="C131" s="26">
-        <v>3</v>
-      </c>
-      <c r="D131" s="26">
-        <v>3</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="D131" s="3"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
@@ -7034,41 +7510,41 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" s="1" customFormat="1">
       <c r="A132" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B132" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="C132" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="D132" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.58701127993400004</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.37201945201999997</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.303088379751</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B133" s="82">
-        <v>1</v>
-      </c>
-      <c r="C133" s="82">
-        <v>1</v>
-      </c>
-      <c r="D133" s="82">
-        <v>0.5</v>
+        <v>467</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.63869553760599995</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.51737629308599997</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.32761940948000001</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -7081,10 +7557,18 @@
       <c r="M133" s="2"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="3"/>
+      <c r="A134" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.54306555258800004</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.29042465982600002</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.28197504514600003</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
@@ -7097,12 +7581,17 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B135" s="1">
-        <v>0.50165249455399996</v>
-      </c>
-      <c r="D135" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
@@ -7115,11 +7604,12 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B136" s="1">
-        <v>0.52525057706699996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C136" s="1"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -7133,10 +7623,15 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B137" s="1">
-        <v>0.48030851514099998</v>
+        <f>48495.66765/(60*60)</f>
+        <v>13.471018791666667</v>
+      </c>
+      <c r="C137" s="1">
+        <f>55646.4552431/(60*60)</f>
+        <v>15.457348678638889</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
@@ -7150,12 +7645,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B138" s="1">
-        <v>36.4</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -7169,10 +7660,13 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B139" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
@@ -7185,34 +7679,76 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="1:13" s="12" customFormat="1">
-      <c r="A140" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B140" s="12">
-        <f>316654.886956/(60*60)</f>
-        <v>87.95969082111111</v>
-      </c>
-      <c r="C140" s="25"/>
-    </row>
-    <row r="141" spans="1:13" s="12" customFormat="1">
-      <c r="C141" s="25"/>
-    </row>
-    <row r="142" spans="1:13" s="1" customFormat="1">
-      <c r="C142"/>
-      <c r="D142" s="26"/>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B140" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C140" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B141" s="81">
+        <v>1</v>
+      </c>
+      <c r="C141" s="81">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B143" s="26">
-        <v>10</v>
-      </c>
-      <c r="D143" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.58411354119000003</v>
+      </c>
+      <c r="C143">
+        <v>0.37247357138499998</v>
+      </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="1"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -7220,35 +7756,41 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" s="1" customFormat="1">
       <c r="A144" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B144" s="26">
-        <v>3</v>
-      </c>
-      <c r="D144" s="82"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.62570359615399995</v>
+      </c>
+      <c r="C144">
+        <v>0.52278472510899998</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B145" s="82">
-        <v>1</v>
-      </c>
-      <c r="D145" s="82"/>
+        <v>468</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.54770780850800005</v>
+      </c>
+      <c r="C145">
+        <v>0.28929532886800002</v>
+      </c>
+      <c r="D145" s="3"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="1"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -7256,30 +7798,41 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1">
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B146" s="82">
+        <v>469</v>
+      </c>
+      <c r="B146" s="1">
+        <v>10</v>
+      </c>
+      <c r="C146">
         <v>1</v>
       </c>
-      <c r="C146"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0.58480186572199999</v>
+      </c>
+      <c r="C147">
+        <v>0.40163892943099999</v>
+      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="1"/>
+      <c r="G147" s="3"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -7289,15 +7842,18 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B148" s="1">
-        <v>0.568054526575</v>
-      </c>
-      <c r="D148" s="1"/>
+        <v>0.62570359615399995</v>
+      </c>
+      <c r="C148">
+        <v>0.50742618513100002</v>
+      </c>
+      <c r="D148" s="3"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="1"/>
+      <c r="G148" s="3"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -7307,15 +7863,18 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="B149" s="1">
-        <v>0.59659852084599996</v>
-      </c>
-      <c r="D149" s="1"/>
+        <v>0.54891945177500001</v>
+      </c>
+      <c r="C149">
+        <v>0.33235101547200002</v>
+      </c>
+      <c r="D149" s="3"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="1"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -7325,15 +7884,18 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="B150" s="1">
-        <v>0.54316311400899997</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -7343,15 +7905,18 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B151" s="1">
-        <v>10</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -7361,15 +7926,20 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B152" s="1">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1"/>
+        <f>62705.809418/(60*60)</f>
+        <v>17.418280393888889</v>
+      </c>
+      <c r="C152">
+        <f>86001.47382/(60*60)</f>
+        <v>23.889298283333332</v>
+      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="1"/>
+      <c r="G152" s="3"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -7378,17 +7948,10 @@
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B153" s="1">
-        <f>58888.9330211/(60*60)</f>
-        <v>16.358036950305554</v>
-      </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="1"/>
+      <c r="G153" s="3"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -7397,12 +7960,19 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B154" s="26">
+        <v>3</v>
+      </c>
+      <c r="C154" s="26">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="1"/>
+      <c r="G154" s="3"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -7411,12 +7981,19 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B155" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="C155" s="82">
+        <v>1</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="1"/>
+      <c r="G155" s="3"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -7425,12 +8002,19 @@
       <c r="M155" s="2"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B156" s="82">
+        <v>1</v>
+      </c>
+      <c r="C156" s="82">
+        <v>1</v>
+      </c>
+      <c r="D156" s="3"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="1"/>
+      <c r="G156" s="3"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -7439,12 +8023,17 @@
       <c r="M156" s="2"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B157" s="85">
+        <v>152574</v>
+      </c>
+      <c r="C157" s="85"/>
+      <c r="D157" s="3"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="1"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -7452,60 +8041,49 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="1:13" s="35" customFormat="1">
-      <c r="A158" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="97"/>
-      <c r="F158" s="97"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="97"/>
-      <c r="I158" s="97"/>
-      <c r="J158" s="97"/>
-      <c r="K158" s="97"/>
-      <c r="L158" s="97"/>
-      <c r="M158" s="97"/>
-    </row>
-    <row r="159" spans="1:13" s="100" customFormat="1">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E159" s="99"/>
-      <c r="F159" s="99"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="99"/>
-      <c r="I159" s="99"/>
-      <c r="J159" s="99"/>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="99"/>
+    <row r="158" spans="1:13">
+      <c r="A158" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B158" s="85">
+        <v>15560</v>
+      </c>
+      <c r="C158" s="85"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="1"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B160" s="26">
-        <v>10</v>
-      </c>
-      <c r="C160" s="26">
-        <v>10</v>
-      </c>
-      <c r="D160" s="1">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0.58328682582000002</v>
+      </c>
+      <c r="D160" s="3"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-      <c r="G160" s="1"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -7515,20 +8093,15 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B161" s="26">
-        <v>3</v>
-      </c>
-      <c r="C161" s="26">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1">
-        <v>3</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.632411026928</v>
+      </c>
+      <c r="D161" s="3"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="1"/>
+      <c r="G161" s="3"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -7538,16 +8111,15 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B162" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="C162" s="26"/>
-      <c r="D162" s="1"/>
+        <v>468</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0.54124424583800002</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="1"/>
+      <c r="G162" s="3"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -7556,13 +8128,16 @@
       <c r="M162" s="2"/>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="1"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B163" s="1">
+        <v>17</v>
+      </c>
+      <c r="D163" s="3"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="G163" s="1"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -7571,13 +8146,16 @@
       <c r="M163" s="2"/>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.58355527655299999</v>
+      </c>
+      <c r="D164" s="3"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="1"/>
+      <c r="G164" s="3"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -7587,33 +8165,23 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B165" s="1">
-        <v>0.52060678879</v>
-      </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
+        <v>0.632411026928</v>
+      </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="B166" s="1">
-        <v>0.559170285953</v>
-      </c>
-      <c r="D166" s="1"/>
+        <v>0.54170672049400004</v>
+      </c>
+      <c r="D166" s="3"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-      <c r="G166" s="1"/>
+      <c r="G166" s="3"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -7623,33 +8191,23 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="B167" s="1">
-        <v>0.48717736361699998</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B168" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="D168" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D168" s="3"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-      <c r="G168" s="1"/>
+      <c r="G168" s="3"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -7659,10 +8217,11 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B169" s="1">
-        <v>1</v>
+        <f>80494.262604/(60*60)</f>
+        <v>22.359517390000001</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
@@ -7675,30 +8234,35 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="1:13" s="12" customFormat="1">
-      <c r="A170" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B170" s="12">
-        <f>437953.239453/(60*60)</f>
-        <v>121.65367762583334</v>
-      </c>
-      <c r="C170" s="25"/>
-    </row>
-    <row r="171" spans="1:13" s="12" customFormat="1">
-      <c r="C171" s="101"/>
-    </row>
-    <row r="172" spans="1:13" s="1" customFormat="1">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="26"/>
+    <row r="170" spans="1:13">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
     </row>
     <row r="173" spans="1:13">
-      <c r="D173" s="26"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="D173" s="3"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="1"/>
+      <c r="G173" s="3"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -7706,51 +8270,75 @@
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="1:13">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="1:13">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-    </row>
-    <row r="176" spans="1:13" s="1" customFormat="1">
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
+    <row r="174" spans="1:13" s="35" customFormat="1">
+      <c r="A174" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D174" s="96"/>
+      <c r="E174" s="97"/>
+      <c r="F174" s="97"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="97"/>
+      <c r="I174" s="97"/>
+      <c r="J174" s="97"/>
+      <c r="K174" s="97"/>
+      <c r="L174" s="97"/>
+      <c r="M174" s="97"/>
+    </row>
+    <row r="175" spans="1:13" s="100" customFormat="1">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D175" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E175" s="99"/>
+      <c r="F175" s="99"/>
+      <c r="G175" s="98"/>
+      <c r="H175" s="99"/>
+      <c r="I175" s="99"/>
+      <c r="J175" s="99"/>
+      <c r="K175" s="99"/>
+      <c r="L175" s="99"/>
+      <c r="M175" s="99"/>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B176" s="1">
+        <v>3</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B177" s="81">
+        <v>1</v>
+      </c>
+      <c r="D177" s="3"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-      <c r="G177" s="1"/>
+      <c r="G177" s="3"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7759,12 +8347,16 @@
       <c r="M177" s="2"/>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B178" s="81">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="G178" s="1"/>
+      <c r="G178" s="3"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -7773,12 +8365,16 @@
       <c r="M178" s="2"/>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B179" s="86">
+        <v>13584</v>
+      </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="G179" s="1"/>
+      <c r="G179" s="3"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -7787,13 +8383,16 @@
       <c r="M179" s="2"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B180" s="86">
+        <v>20823</v>
+      </c>
+      <c r="D180" s="3"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-      <c r="G180" s="1"/>
+      <c r="G180" s="3"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -7804,10 +8403,10 @@
     <row r="181" spans="1:13">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="3"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="G181" s="1"/>
+      <c r="G181" s="3"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -7816,12 +8415,16 @@
       <c r="M181" s="2"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.54444648013200003</v>
+      </c>
+      <c r="D182" s="3"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="G182" s="1"/>
+      <c r="G182" s="3"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -7830,12 +8433,16 @@
       <c r="M182" s="2"/>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="10"/>
+      <c r="A183" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0.51564172049599999</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="1"/>
+      <c r="G183" s="3"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -7843,33 +8450,51 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" s="8" customFormat="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184"/>
-      <c r="D184" s="7"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9"/>
-      <c r="J184" s="9"/>
-      <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
-      <c r="M184" s="9"/>
+    <row r="184" spans="1:13">
+      <c r="A184" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0.57665983132599996</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="B186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="3"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="1"/>
+      <c r="G186" s="3"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -7878,12 +8503,14 @@
       <c r="M186" s="2"/>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="B187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="D187" s="3"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="G187" s="1"/>
+      <c r="G187" s="3"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -7891,25 +8518,31 @@
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" s="1" customFormat="1">
-      <c r="C188"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
+    <row r="188" spans="1:13">
+      <c r="A188" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="B189" s="1"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="1"/>
+      <c r="D189" s="3"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
-      <c r="G189" s="1"/>
+      <c r="G189" s="3"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -7917,99 +8550,74 @@
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192" s="83"/>
-      <c r="B192" s="83"/>
-      <c r="C192" s="84"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="83"/>
-      <c r="B193" s="83"/>
-      <c r="C193" s="84"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
+    <row r="190" spans="1:13" s="12" customFormat="1">
+      <c r="A190" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B190" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" s="12" customFormat="1">
+      <c r="A191" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B191" s="12">
+        <f>71257.057503/(60*60)</f>
+        <v>19.793627084166669</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" s="12" customFormat="1">
+      <c r="C192" s="25"/>
+    </row>
+    <row r="193" spans="1:13" s="12" customFormat="1">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+    </row>
+    <row r="194" spans="1:13" s="4" customFormat="1">
+      <c r="A194" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" s="100" customFormat="1">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D195" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E195" s="99"/>
+      <c r="F195" s="99"/>
+      <c r="G195" s="98"/>
+      <c r="H195" s="99"/>
+      <c r="I195" s="99"/>
+      <c r="J195" s="99"/>
+      <c r="K195" s="99"/>
+      <c r="L195" s="99"/>
+      <c r="M195" s="99"/>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B196" s="1">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" s="3"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-      <c r="G196" s="1"/>
+      <c r="G196" s="3"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -8017,27 +8625,41 @@
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="1:13" s="1" customFormat="1">
-      <c r="A197"/>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
+    <row r="197" spans="1:13">
+      <c r="A197" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B197" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C197" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B198" s="81">
+        <v>1</v>
+      </c>
+      <c r="C198" s="10">
+        <v>1</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
-      <c r="G198" s="1"/>
+      <c r="G198" s="3"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -8046,13 +8668,19 @@
       <c r="M198" s="2"/>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B199" s="86">
+        <v>61029</v>
+      </c>
+      <c r="C199">
+        <v>110922</v>
+      </c>
+      <c r="D199" s="3"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
-      <c r="G199" s="1"/>
+      <c r="G199" s="3"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -8061,13 +8689,19 @@
       <c r="M199" s="2"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B200" s="86">
+        <v>20823</v>
+      </c>
+      <c r="C200">
+        <v>24064</v>
+      </c>
+      <c r="D200" s="3"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
-      <c r="G200" s="1"/>
+      <c r="G200" s="3"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -8076,13 +8710,12 @@
       <c r="M200" s="2"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="11"/>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="1"/>
+      <c r="G201" s="3"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -8091,13 +8724,19 @@
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0.57622570056800004</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.34365936343100001</v>
+      </c>
+      <c r="D202" s="3"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
-      <c r="G202" s="1"/>
+      <c r="G202" s="3"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -8106,13 +8745,19 @@
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0.589396971115</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0.52669084960599999</v>
+      </c>
+      <c r="D203" s="3"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-      <c r="G203" s="1"/>
+      <c r="G203" s="3"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
@@ -8120,375 +8765,2283 @@
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="1:13" s="25" customFormat="1">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="27"/>
-      <c r="M204" s="27"/>
-    </row>
-    <row r="205" spans="1:13" s="25" customFormat="1">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="12"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="27"/>
-      <c r="M205" s="27"/>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="10"/>
-    </row>
-    <row r="210" spans="1:13" s="12" customFormat="1">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
-      <c r="L210" s="13"/>
-      <c r="M210" s="13"/>
-    </row>
-    <row r="211" spans="1:13" s="12" customFormat="1">
-      <c r="A211"/>
-      <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
-      <c r="K211" s="13"/>
-      <c r="L211" s="13"/>
-      <c r="M211" s="13"/>
-    </row>
-    <row r="212" spans="1:13" s="8" customFormat="1">
-      <c r="A212"/>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="9"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
-      <c r="L212" s="9"/>
-      <c r="M212" s="9"/>
-    </row>
-    <row r="213" spans="1:13" s="8" customFormat="1">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="9"/>
-    </row>
-    <row r="214" spans="1:13" s="8" customFormat="1">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="9"/>
-    </row>
-    <row r="215" spans="1:13" s="12" customFormat="1">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="13"/>
-      <c r="K215" s="13"/>
-      <c r="L215" s="13"/>
-      <c r="M215" s="13"/>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-    </row>
-    <row r="217" spans="1:13" s="1" customFormat="1">
-      <c r="F217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-    </row>
-    <row r="218" spans="1:13">
+    <row r="204" spans="1:13">
+      <c r="A204" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0.56363023988299998</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0.25503247252599998</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B205" s="1">
+        <v>3</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" s="12" customFormat="1">
+      <c r="A206" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0.38357532447199999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" s="12" customFormat="1">
+      <c r="A207" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0.51365541473300003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" s="12" customFormat="1">
+      <c r="A208" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0.30606598648799999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="12" customFormat="1">
+      <c r="A209" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C209" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="12" customFormat="1">
+      <c r="A210" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B210" s="12">
+        <v>1</v>
+      </c>
+      <c r="C210" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="12" customFormat="1">
+      <c r="A211" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B211" s="12">
+        <f>59078.7621992/(60*60)</f>
+        <v>16.410767277555554</v>
+      </c>
+      <c r="C211" s="12">
+        <f>153526.70817/(60*60)</f>
+        <v>42.646307825000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" s="12" customFormat="1"/>
+    <row r="213" spans="1:3" s="12" customFormat="1">
+      <c r="A213" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B213" s="12">
+        <v>3</v>
+      </c>
+      <c r="C213" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="12" customFormat="1">
+      <c r="A214" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B214" s="107">
+        <v>1</v>
+      </c>
+      <c r="C214" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="12" customFormat="1">
+      <c r="A215" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B215" s="107">
+        <v>1</v>
+      </c>
+      <c r="C215" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="12" customFormat="1">
+      <c r="A216" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B216" s="12">
+        <v>305148</v>
+      </c>
+      <c r="C216" s="12">
+        <v>221845</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="12" customFormat="1">
+      <c r="A217" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B217" s="12">
+        <v>20823</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="12" customFormat="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-    </row>
-    <row r="222" spans="1:13" s="8" customFormat="1">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="7"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="9"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-    </row>
-    <row r="225" spans="1:7" s="12" customFormat="1"/>
-    <row r="226" spans="1:7" s="12" customFormat="1">
-      <c r="G226" s="13"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="25"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:7" s="12" customFormat="1">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236"/>
-    </row>
-    <row r="237" spans="1:7" s="12" customFormat="1">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237"/>
-      <c r="G237" s="13"/>
-    </row>
-    <row r="238" spans="1:7" s="25" customFormat="1">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238"/>
-    </row>
-    <row r="239" spans="1:7" s="25" customFormat="1">
+    </row>
+    <row r="219" spans="1:3" s="12" customFormat="1">
+      <c r="A219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219" s="12">
+        <v>0.56615836214600002</v>
+      </c>
+      <c r="C219" s="12">
+        <v>0.36469801495562099</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="12" customFormat="1">
+      <c r="A220" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B220" s="12">
+        <v>0.57224914217900003</v>
+      </c>
+      <c r="C220" s="12">
+        <v>0.48342461575064599</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="12" customFormat="1">
+      <c r="A221" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B221" s="12">
+        <v>0.56019587206800003</v>
+      </c>
+      <c r="C221" s="12">
+        <v>0.29279023756912498</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="12" customFormat="1">
+      <c r="A222" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B222" s="12">
+        <v>9</v>
+      </c>
+      <c r="C222" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="12" customFormat="1">
+      <c r="A223" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B223" s="12">
+        <v>0.56618173750900003</v>
+      </c>
+      <c r="C223" s="12">
+        <v>0.38849284401799999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="12" customFormat="1">
+      <c r="A224" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B224" s="12">
+        <v>0.57224914217900003</v>
+      </c>
+      <c r="C224" s="12">
+        <v>0.45432970324100003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="12" customFormat="1">
+      <c r="A225" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B225" s="12">
+        <v>0.56024164512200003</v>
+      </c>
+      <c r="C225" s="12">
+        <v>0.33932176973799999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" s="12" customFormat="1">
+      <c r="A226" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B226" s="12">
+        <v>9</v>
+      </c>
+      <c r="C226" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" s="12" customFormat="1">
+      <c r="A227" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B227" s="12">
+        <v>1</v>
+      </c>
+      <c r="C227" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="12" customFormat="1">
+      <c r="A228" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B228" s="12">
+        <f>113330.489251/(60*60)</f>
+        <v>31.480691458611112</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="12" customFormat="1"/>
+    <row r="230" spans="1:13" s="12" customFormat="1"/>
+    <row r="231" spans="1:13" s="12" customFormat="1">
+      <c r="C231" s="25"/>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+    </row>
+    <row r="233" spans="1:13" s="35" customFormat="1">
+      <c r="A233" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="96"/>
+      <c r="E233" s="97"/>
+      <c r="F233" s="97"/>
+      <c r="G233" s="96"/>
+      <c r="H233" s="97"/>
+      <c r="I233" s="97"/>
+      <c r="J233" s="97"/>
+      <c r="K233" s="97"/>
+      <c r="L233" s="97"/>
+      <c r="M233" s="97"/>
+    </row>
+    <row r="234" spans="1:13" s="100" customFormat="1">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D234" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E234" s="99"/>
+      <c r="F234" s="99"/>
+      <c r="G234" s="98"/>
+      <c r="H234" s="99"/>
+      <c r="I234" s="99"/>
+      <c r="J234" s="99"/>
+      <c r="K234" s="99"/>
+      <c r="L234" s="99"/>
+      <c r="M234" s="99"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B235" s="26">
+        <v>10</v>
+      </c>
+      <c r="C235" s="26">
+        <v>10</v>
+      </c>
+      <c r="D235" s="26">
+        <v>10</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B236" s="26">
+        <v>3</v>
+      </c>
+      <c r="C236" s="26">
+        <v>3</v>
+      </c>
+      <c r="D236" s="26">
+        <v>3</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="C237" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="D237" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B238" s="82">
+        <v>1</v>
+      </c>
+      <c r="C238" s="82">
+        <v>1</v>
+      </c>
+      <c r="D238" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239"/>
-    </row>
-    <row r="240" spans="1:7" s="25" customFormat="1">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240"/>
-    </row>
-    <row r="241" spans="1:7" s="25" customFormat="1">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241"/>
-    </row>
-    <row r="242" spans="1:7" s="25" customFormat="1">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242"/>
-    </row>
-    <row r="243" spans="1:7" s="25" customFormat="1">
-      <c r="A243"/>
-      <c r="B243"/>
-      <c r="C243"/>
-    </row>
-    <row r="244" spans="1:7" s="25" customFormat="1">
-      <c r="A244"/>
-      <c r="B244"/>
-      <c r="C244"/>
-    </row>
-    <row r="245" spans="1:7" s="12" customFormat="1">
-      <c r="A245"/>
-      <c r="B245"/>
-      <c r="C245"/>
-    </row>
-    <row r="246" spans="1:7" s="12" customFormat="1">
-      <c r="A246"/>
-      <c r="B246"/>
-      <c r="C246"/>
-      <c r="G246" s="13"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0.50165249455399996</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0.52525057706699996</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0.48030851514099998</v>
+      </c>
+      <c r="D242" s="3"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B243" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="D243" s="3"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+    </row>
+    <row r="245" spans="1:13" s="12" customFormat="1">
+      <c r="A245" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B245" s="12">
+        <f>316654.886956/(60*60)</f>
+        <v>87.95969082111111</v>
+      </c>
+      <c r="C245" s="25"/>
+    </row>
+    <row r="246" spans="1:13" s="12" customFormat="1">
+      <c r="C246" s="25"/>
+    </row>
+    <row r="247" spans="1:13" s="1" customFormat="1">
+      <c r="C247"/>
+      <c r="D247" s="26"/>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B248" s="26">
+        <v>10</v>
+      </c>
+      <c r="D248" s="26"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="2"/>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B249" s="26">
+        <v>3</v>
+      </c>
+      <c r="D249" s="82"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B250" s="82">
+        <v>1</v>
+      </c>
+      <c r="D250" s="82"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+    </row>
+    <row r="251" spans="1:13" s="1" customFormat="1">
+      <c r="A251" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B251" s="82">
+        <v>1</v>
+      </c>
+      <c r="C251"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0.568054526575</v>
+      </c>
+      <c r="D253" s="1"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0.59659852084599996</v>
+      </c>
+      <c r="D254" s="1"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+    </row>
+    <row r="255" spans="1:13">
+      <c r="A255" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0.54316311400899997</v>
+      </c>
+      <c r="D255" s="1"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
+    </row>
+    <row r="256" spans="1:13">
+      <c r="A256" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B256" s="1">
+        <v>10</v>
+      </c>
+      <c r="D256" s="1"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="2"/>
+    </row>
+    <row r="257" spans="1:13">
+      <c r="A257" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="2"/>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B258" s="1">
+        <f>58888.9330211/(60*60)</f>
+        <v>16.358036950305554</v>
+      </c>
+      <c r="D258" s="1"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="2"/>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2"/>
+    </row>
+    <row r="263" spans="1:13" s="35" customFormat="1">
+      <c r="A263" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="97"/>
+      <c r="F263" s="97"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="97"/>
+      <c r="I263" s="97"/>
+      <c r="J263" s="97"/>
+      <c r="K263" s="97"/>
+      <c r="L263" s="97"/>
+      <c r="M263" s="97"/>
+    </row>
+    <row r="264" spans="1:13" s="100" customFormat="1">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E264" s="99"/>
+      <c r="F264" s="99"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="99"/>
+      <c r="I264" s="99"/>
+      <c r="J264" s="99"/>
+      <c r="K264" s="99"/>
+      <c r="L264" s="99"/>
+      <c r="M264" s="99"/>
+    </row>
+    <row r="265" spans="1:13">
+      <c r="A265" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B265" s="26">
+        <v>10</v>
+      </c>
+      <c r="C265" s="26">
+        <v>10</v>
+      </c>
+      <c r="D265" s="1">
+        <v>10</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2"/>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="A266" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B266" s="26">
+        <v>3</v>
+      </c>
+      <c r="C266" s="26">
+        <v>3</v>
+      </c>
+      <c r="D266" s="1">
+        <v>3</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
+    </row>
+    <row r="267" spans="1:13">
+      <c r="A267" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B267" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="C267" s="26"/>
+      <c r="D267" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="A268" s="1"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2"/>
+    </row>
+    <row r="269" spans="1:13">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="2"/>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0.52060678879</v>
+      </c>
+      <c r="C270">
+        <v>0.30193325091200002</v>
+      </c>
+      <c r="D270" s="1">
+        <v>0.296636620016</v>
+      </c>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0.559170285953</v>
+      </c>
+      <c r="C271">
+        <v>0.35826661275499999</v>
+      </c>
+      <c r="D271" s="1">
+        <v>0.32957350139499902</v>
+      </c>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2"/>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0.48717736361699998</v>
+      </c>
+      <c r="C272">
+        <v>0.26106096036999998</v>
+      </c>
+      <c r="D272" s="1">
+        <v>0.26968855537000003</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2"/>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B273" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="C273">
+        <v>22</v>
+      </c>
+      <c r="D273" s="1">
+        <v>3</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="A274" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="D274" s="1">
+        <v>0.30136508638350001</v>
+      </c>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+      <c r="L274" s="2"/>
+      <c r="M274" s="2"/>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="A275" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="D275" s="1">
+        <v>0.32957350139499902</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="M275" s="2"/>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="A276" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="D276" s="1">
+        <v>0.27760804910949999</v>
+      </c>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="2"/>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="A277" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="D277" s="1">
+        <v>3</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+      <c r="M277" s="2"/>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="A278" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278" s="3">
+        <v>1</v>
+      </c>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+      <c r="M278" s="2"/>
+    </row>
+    <row r="279" spans="1:13" s="12" customFormat="1">
+      <c r="A279" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B279" s="12">
+        <f>437953.239453/(60*60)</f>
+        <v>121.65367762583334</v>
+      </c>
+      <c r="C279" s="25">
+        <f>929461.724412/(60*60)</f>
+        <v>258.18381233666668</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" s="12" customFormat="1">
+      <c r="C280" s="101"/>
+    </row>
+    <row r="281" spans="1:13" s="35" customFormat="1">
+      <c r="A281" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="97"/>
+      <c r="F281" s="97"/>
+      <c r="G281" s="4"/>
+      <c r="H281" s="97"/>
+      <c r="I281" s="97"/>
+      <c r="J281" s="97"/>
+      <c r="K281" s="97"/>
+      <c r="L281" s="97"/>
+      <c r="M281" s="97"/>
+    </row>
+    <row r="282" spans="1:13" s="100" customFormat="1">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E282" s="99"/>
+      <c r="F282" s="99"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="99"/>
+      <c r="I282" s="99"/>
+      <c r="J282" s="99"/>
+      <c r="K282" s="99"/>
+      <c r="L282" s="99"/>
+      <c r="M282" s="99"/>
+    </row>
+    <row r="283" spans="1:13" s="25" customFormat="1">
+      <c r="A283" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B283" s="12">
+        <v>3</v>
+      </c>
+      <c r="C283" s="12">
+        <v>10</v>
+      </c>
+      <c r="D283" s="12">
+        <v>10</v>
+      </c>
+      <c r="E283" s="27"/>
+      <c r="F283" s="27"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="27"/>
+      <c r="I283" s="27"/>
+      <c r="J283" s="27"/>
+      <c r="K283" s="27"/>
+      <c r="L283" s="27"/>
+      <c r="M283" s="27"/>
+    </row>
+    <row r="284" spans="1:13" s="25" customFormat="1">
+      <c r="A284" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B284" s="107">
+        <v>1</v>
+      </c>
+      <c r="C284" s="107">
+        <v>1</v>
+      </c>
+      <c r="D284" s="107">
+        <v>0.2</v>
+      </c>
+      <c r="E284" s="27"/>
+      <c r="F284" s="27"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="27"/>
+      <c r="I284" s="27"/>
+      <c r="J284" s="27"/>
+      <c r="K284" s="27"/>
+      <c r="L284" s="27"/>
+      <c r="M284" s="27"/>
+    </row>
+    <row r="285" spans="1:13" s="25" customFormat="1">
+      <c r="A285" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B285" s="107">
+        <v>1</v>
+      </c>
+      <c r="C285" s="107">
+        <v>1</v>
+      </c>
+      <c r="D285" s="107">
+        <v>1</v>
+      </c>
+      <c r="E285" s="27"/>
+      <c r="F285" s="27"/>
+      <c r="G285" s="12"/>
+      <c r="H285" s="27"/>
+      <c r="I285" s="27"/>
+      <c r="J285" s="27"/>
+      <c r="K285" s="27"/>
+      <c r="L285" s="27"/>
+      <c r="M285" s="27"/>
+    </row>
+    <row r="286" spans="1:13" s="25" customFormat="1">
+      <c r="A286" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B286" s="12">
+        <v>13584</v>
+      </c>
+      <c r="C286" s="12">
+        <v>31223</v>
+      </c>
+      <c r="D286" s="12">
+        <v>19700</v>
+      </c>
+      <c r="E286" s="27"/>
+      <c r="F286" s="27"/>
+      <c r="G286" s="12"/>
+      <c r="H286" s="27"/>
+      <c r="I286" s="27"/>
+      <c r="J286" s="27"/>
+      <c r="K286" s="27"/>
+      <c r="L286" s="27"/>
+      <c r="M286" s="27"/>
+    </row>
+    <row r="287" spans="1:13" s="25" customFormat="1">
+      <c r="A287" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B287" s="12">
+        <v>5728</v>
+      </c>
+      <c r="C287" s="12">
+        <v>5769</v>
+      </c>
+      <c r="D287" s="12">
+        <v>10811</v>
+      </c>
+      <c r="E287" s="27"/>
+      <c r="F287" s="27"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="27"/>
+      <c r="I287" s="27"/>
+      <c r="J287" s="27"/>
+      <c r="K287" s="27"/>
+      <c r="L287" s="27"/>
+      <c r="M287" s="27"/>
+    </row>
+    <row r="288" spans="1:13" s="25" customFormat="1">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="27"/>
+      <c r="G288" s="12"/>
+      <c r="H288" s="27"/>
+      <c r="I288" s="27"/>
+      <c r="J288" s="27"/>
+      <c r="K288" s="27"/>
+      <c r="L288" s="27"/>
+      <c r="M288" s="27"/>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" s="1">
+        <v>0.64221370962400004</v>
+      </c>
+      <c r="C289">
+        <v>0.34279795373900002</v>
+      </c>
+      <c r="D289" s="26">
+        <v>0.25807520653799998</v>
+      </c>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="2"/>
+      <c r="K289" s="2"/>
+      <c r="L289" s="2"/>
+      <c r="M289" s="2"/>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B290" s="1">
+        <v>0.65446452418599999</v>
+      </c>
+      <c r="C290">
+        <v>0.65725368524600003</v>
+      </c>
+      <c r="D290" s="26">
+        <v>0.51539162061499999</v>
+      </c>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+      <c r="M290" s="2"/>
+    </row>
+    <row r="291" spans="1:13" s="1" customFormat="1">
+      <c r="A291" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B291" s="1">
+        <v>0.63041310956399998</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0.231864809073</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0.172134613549</v>
+      </c>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D292" s="1">
+        <v>1</v>
+      </c>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+      <c r="M292" s="2"/>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B293" s="1">
+        <v>0.64486091308399995</v>
+      </c>
+      <c r="C293">
+        <v>0.40575044208299998</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0.28072078551000001</v>
+      </c>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="A294" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B294" s="1">
+        <v>0.65446452418599999</v>
+      </c>
+      <c r="C294">
+        <v>0.53151276265799996</v>
+      </c>
+      <c r="D294" s="1">
+        <v>0.51539162061499999</v>
+      </c>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+      <c r="L294" s="2"/>
+      <c r="M294" s="2"/>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B295" s="1">
+        <v>0.63553507271499998</v>
+      </c>
+      <c r="C295" s="108">
+        <v>0.32811458082400002</v>
+      </c>
+      <c r="D295" s="1">
+        <v>0.19289212449000001</v>
+      </c>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="2"/>
+      <c r="J295" s="2"/>
+      <c r="K295" s="2"/>
+      <c r="L295" s="2"/>
+      <c r="M295" s="2"/>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" s="1">
+        <v>1</v>
+      </c>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+      <c r="L296" s="2"/>
+      <c r="M296" s="2"/>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1</v>
+      </c>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+      <c r="M297" s="2"/>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B298" s="1">
+        <f>34790.2647679/(60*60)</f>
+        <v>9.6639624355277771</v>
+      </c>
+      <c r="C298">
+        <f>27695.3879449/(60*60)</f>
+        <v>7.6931633180277785</v>
+      </c>
+      <c r="D298" s="1">
+        <f>79529.694277/(60*60)</f>
+        <v>22.091581743611112</v>
+      </c>
+      <c r="E298" s="10"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+      <c r="M298" s="2"/>
+    </row>
+    <row r="299" spans="1:13" s="8" customFormat="1">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299"/>
+      <c r="D299" s="7"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="7"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
+      <c r="L299" s="9"/>
+      <c r="M299" s="9"/>
+    </row>
+    <row r="300" spans="1:13" s="35" customFormat="1">
+      <c r="A300" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="97"/>
+      <c r="F300" s="97"/>
+      <c r="G300" s="4"/>
+      <c r="H300" s="97"/>
+      <c r="I300" s="97"/>
+      <c r="J300" s="97"/>
+      <c r="K300" s="97"/>
+      <c r="L300" s="97"/>
+      <c r="M300" s="97"/>
+    </row>
+    <row r="301" spans="1:13" s="100" customFormat="1">
+      <c r="A301" s="5"/>
+      <c r="B301" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E301" s="99"/>
+      <c r="F301" s="99"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="99"/>
+      <c r="I301" s="99"/>
+      <c r="J301" s="99"/>
+      <c r="K301" s="99"/>
+      <c r="L301" s="99"/>
+      <c r="M301" s="99"/>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B302" s="1">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>10</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2"/>
+    </row>
+    <row r="303" spans="1:13" s="1" customFormat="1">
+      <c r="A303" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B303" s="81">
+        <v>1</v>
+      </c>
+      <c r="C303" s="10">
+        <v>1</v>
+      </c>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B304" s="81">
+        <v>1</v>
+      </c>
+      <c r="C304" s="10">
+        <v>1</v>
+      </c>
+      <c r="D304" s="1"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+      <c r="M304" s="2"/>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B305" s="1">
+        <v>305148</v>
+      </c>
+      <c r="C305">
+        <v>221845</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B306" s="1">
+        <v>5728</v>
+      </c>
+      <c r="C306">
+        <v>5769</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+      <c r="M306" s="2"/>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" s="12"/>
+      <c r="B307" s="83"/>
+      <c r="C307" s="84"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="2"/>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="A308" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" s="83">
+        <v>0.64362824113799999</v>
+      </c>
+      <c r="C308" s="84">
+        <v>0.36440334223300003</v>
+      </c>
+      <c r="D308" s="1"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+      <c r="L308" s="2"/>
+      <c r="M308" s="2"/>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="A309" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B309" s="1">
+        <v>0.69987417616699998</v>
+      </c>
+      <c r="C309">
+        <v>0.48080575343199999</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+      <c r="L309" s="2"/>
+      <c r="M309" s="2"/>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0.59575030256899997</v>
+      </c>
+      <c r="C310">
+        <v>0.29337714032000001</v>
+      </c>
+      <c r="D310" s="1"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="2"/>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B311" s="1">
+        <v>18</v>
+      </c>
+      <c r="C311">
+        <v>4</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+      <c r="M311" s="2"/>
+    </row>
+    <row r="312" spans="1:13" s="1" customFormat="1">
+      <c r="A312" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B312">
+        <v>0.64378633739500002</v>
+      </c>
+      <c r="C312">
+        <v>0.39031871412800001</v>
+      </c>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+      <c r="L312" s="3"/>
+      <c r="M312" s="3"/>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B313" s="12">
+        <v>0.69987417616699998</v>
+      </c>
+      <c r="C313" s="12">
+        <v>0.46005774679599998</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+      <c r="L313" s="2"/>
+      <c r="M313" s="2"/>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B314" s="12">
+        <v>0.59602125980999998</v>
+      </c>
+      <c r="C314" s="12">
+        <v>0.338939674824</v>
+      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+      <c r="M314" s="2"/>
+    </row>
+    <row r="315" spans="1:13">
+      <c r="A315" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B315" s="7">
+        <v>18</v>
+      </c>
+      <c r="C315" s="8">
+        <v>9</v>
+      </c>
+      <c r="D315" s="1"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+      <c r="L315" s="2"/>
+      <c r="M315" s="2"/>
+    </row>
+    <row r="316" spans="1:13">
+      <c r="A316" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B316" s="7">
+        <v>1</v>
+      </c>
+      <c r="C316" s="8">
+        <v>1</v>
+      </c>
+      <c r="D316" s="1"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+      <c r="L316" s="2"/>
+      <c r="M316" s="2"/>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="A317" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B317" s="7">
+        <f>62226.8335788/(60*60)</f>
+        <v>17.285231549666666</v>
+      </c>
+      <c r="C317" s="8">
+        <f>63279.076081/(60*60)</f>
+        <v>17.577521133611111</v>
+      </c>
+      <c r="D317" s="1"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+      <c r="M317" s="2"/>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="2"/>
+      <c r="M318" s="2"/>
+    </row>
+    <row r="319" spans="1:13" s="25" customFormat="1">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="27"/>
+      <c r="F319" s="27"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="27"/>
+      <c r="I319" s="27"/>
+      <c r="J319" s="27"/>
+      <c r="K319" s="27"/>
+      <c r="L319" s="27"/>
+      <c r="M319" s="27"/>
+    </row>
+    <row r="320" spans="1:13" s="25" customFormat="1">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="27"/>
+      <c r="F320" s="27"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="27"/>
+      <c r="I320" s="27"/>
+      <c r="J320" s="27"/>
+      <c r="K320" s="27"/>
+      <c r="L320" s="27"/>
+      <c r="M320" s="27"/>
+    </row>
+    <row r="321" spans="1:13">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
+      <c r="J321" s="2"/>
+      <c r="K321" s="2"/>
+      <c r="L321" s="2"/>
+      <c r="M321" s="2"/>
+    </row>
+    <row r="322" spans="1:13">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="2"/>
+      <c r="I322" s="2"/>
+      <c r="J322" s="2"/>
+      <c r="K322" s="2"/>
+      <c r="L322" s="2"/>
+      <c r="M322" s="2"/>
+    </row>
+    <row r="323" spans="1:13">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="2"/>
+      <c r="I323" s="2"/>
+      <c r="J323" s="2"/>
+      <c r="K323" s="2"/>
+      <c r="L323" s="2"/>
+      <c r="M323" s="2"/>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="10"/>
+    </row>
+    <row r="325" spans="1:13" s="12" customFormat="1">
+      <c r="A325" s="7"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="8"/>
+      <c r="D325" s="13"/>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
+      <c r="H325" s="13"/>
+      <c r="I325" s="13"/>
+      <c r="J325" s="13"/>
+      <c r="K325" s="13"/>
+      <c r="L325" s="13"/>
+      <c r="M325" s="13"/>
+    </row>
+    <row r="326" spans="1:13" s="12" customFormat="1">
+      <c r="A326"/>
+      <c r="B326"/>
+      <c r="C326"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="13"/>
+      <c r="H326" s="13"/>
+      <c r="I326" s="13"/>
+      <c r="J326" s="13"/>
+      <c r="K326" s="13"/>
+      <c r="L326" s="13"/>
+      <c r="M326" s="13"/>
+    </row>
+    <row r="327" spans="1:13" s="8" customFormat="1">
+      <c r="A327"/>
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="7"/>
+      <c r="H327" s="9"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="9"/>
+      <c r="K327" s="9"/>
+      <c r="L327" s="9"/>
+      <c r="M327" s="9"/>
+    </row>
+    <row r="328" spans="1:13" s="8" customFormat="1">
+      <c r="A328" s="12"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="7"/>
+      <c r="H328" s="9"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="9"/>
+      <c r="L328" s="9"/>
+      <c r="M328" s="9"/>
+    </row>
+    <row r="329" spans="1:13" s="8" customFormat="1">
+      <c r="A329" s="12"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="7"/>
+      <c r="H329" s="9"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="9"/>
+      <c r="L329" s="9"/>
+      <c r="M329" s="9"/>
+    </row>
+    <row r="330" spans="1:13" s="12" customFormat="1">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
+      <c r="H330" s="13"/>
+      <c r="I330" s="13"/>
+      <c r="J330" s="13"/>
+      <c r="K330" s="13"/>
+      <c r="L330" s="13"/>
+      <c r="M330" s="13"/>
+    </row>
+    <row r="331" spans="1:13">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+      <c r="L331" s="2"/>
+      <c r="M331" s="2"/>
+    </row>
+    <row r="332" spans="1:13" s="1" customFormat="1">
+      <c r="F332" s="3"/>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+    </row>
+    <row r="333" spans="1:13">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="2"/>
+      <c r="L333" s="2"/>
+      <c r="M333" s="2"/>
+    </row>
+    <row r="334" spans="1:13">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="2"/>
+      <c r="L334" s="2"/>
+      <c r="M334" s="2"/>
+    </row>
+    <row r="335" spans="1:13">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+      <c r="J335" s="2"/>
+      <c r="K335" s="2"/>
+      <c r="L335" s="2"/>
+      <c r="M335" s="2"/>
+    </row>
+    <row r="336" spans="1:13">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="10"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+      <c r="J336" s="2"/>
+      <c r="K336" s="2"/>
+      <c r="L336" s="2"/>
+      <c r="M336" s="2"/>
+    </row>
+    <row r="337" spans="1:13" s="8" customFormat="1">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="7"/>
+      <c r="F337" s="9"/>
+      <c r="G337" s="7"/>
+      <c r="H337" s="9"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="9"/>
+      <c r="K337" s="9"/>
+      <c r="L337" s="9"/>
+      <c r="M337" s="9"/>
+    </row>
+    <row r="339" spans="1:13">
+      <c r="A339" s="12"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="12"/>
+    </row>
+    <row r="340" spans="1:13" s="12" customFormat="1"/>
+    <row r="341" spans="1:13" s="12" customFormat="1">
+      <c r="G341" s="13"/>
+    </row>
+    <row r="342" spans="1:13">
+      <c r="A342" s="12"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="12"/>
+    </row>
+    <row r="343" spans="1:13">
+      <c r="A343" s="12"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="12"/>
+    </row>
+    <row r="344" spans="1:13">
+      <c r="A344" s="12"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
+    </row>
+    <row r="345" spans="1:13">
+      <c r="A345" s="12"/>
+      <c r="B345" s="12"/>
+      <c r="C345" s="12"/>
+    </row>
+    <row r="346" spans="1:13">
+      <c r="A346" s="12"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+    </row>
+    <row r="347" spans="1:13">
+      <c r="A347" s="25"/>
+      <c r="B347" s="25"/>
+      <c r="C347" s="25"/>
+    </row>
+    <row r="348" spans="1:13">
+      <c r="A348" s="12"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="12"/>
+    </row>
+    <row r="349" spans="1:13">
+      <c r="A349" s="12"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
+    </row>
+    <row r="350" spans="1:13">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="1:13" s="12" customFormat="1">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351"/>
+    </row>
+    <row r="352" spans="1:13" s="12" customFormat="1">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352"/>
+      <c r="G352" s="13"/>
+    </row>
+    <row r="353" spans="1:7" s="25" customFormat="1">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353"/>
+    </row>
+    <row r="354" spans="1:7" s="25" customFormat="1">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354"/>
+    </row>
+    <row r="355" spans="1:7" s="25" customFormat="1">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355"/>
+    </row>
+    <row r="356" spans="1:7" s="25" customFormat="1">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356"/>
+    </row>
+    <row r="357" spans="1:7" s="25" customFormat="1">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357"/>
+    </row>
+    <row r="358" spans="1:7" s="25" customFormat="1">
+      <c r="A358"/>
+      <c r="B358"/>
+      <c r="C358"/>
+    </row>
+    <row r="359" spans="1:7" s="25" customFormat="1">
+      <c r="A359"/>
+      <c r="B359"/>
+      <c r="C359"/>
+    </row>
+    <row r="360" spans="1:7" s="12" customFormat="1">
+      <c r="A360"/>
+      <c r="B360"/>
+      <c r="C360"/>
+    </row>
+    <row r="361" spans="1:7" s="12" customFormat="1">
+      <c r="A361"/>
+      <c r="B361"/>
+      <c r="C361"/>
+      <c r="G361" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8503,220 +11056,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="94" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C4" s="94" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D4" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E4" s="94" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F4" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="93" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="95" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C5" s="93">
         <v>0.57232841863100004</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D5" s="93">
         <v>0.53949972234200005</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E5" s="93">
         <v>0.58328682582000002</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F5" s="93">
+        <v>0.568054526575</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="95" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93">
+      <c r="C6" s="93">
+        <v>0.40000483500799999</v>
+      </c>
+      <c r="D6" s="93">
+        <v>0.39842475725499998</v>
+      </c>
+      <c r="E6" s="93">
         <v>0.37247357138499998</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="104" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105" t="s">
+      <c r="C7" s="93">
+        <v>0.221841076118</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="106" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="107" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="94" t="s">
+      <c r="C10" s="105" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C11" s="94" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D11" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E11" s="94" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F11" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>530</v>
+      </c>
+      <c r="H11" s="93" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="95" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93">
+      <c r="C12" s="93">
+        <v>0.55433625440699996</v>
+      </c>
+      <c r="D12" s="93">
         <v>0.54444648013200003</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E12" s="93">
         <v>0.57622570056800004</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93">
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="95" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93">
+      <c r="C13" s="93">
+        <v>0.40556372286999998</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93">
+        <v>0.38849284401799999</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93">
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="104" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93">
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="106" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="107" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="94" t="s">
+      <c r="C17" s="105" t="s">
+        <v>505</v>
+      </c>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C18" s="94" t="s">
         <v>496</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D18" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E18" s="94" t="s">
         <v>499</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F18" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>530</v>
+      </c>
+      <c r="H18" s="93" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="95" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93">
+      <c r="C19" s="93">
+        <v>0.65499221150700004</v>
+      </c>
+      <c r="D19" s="93">
+        <v>0.64486091308399995</v>
+      </c>
+      <c r="E19" s="93">
+        <v>0.64378633739500002</v>
+      </c>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="95" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93">
+      <c r="C20" s="93">
+        <v>0.41682058483599999</v>
+      </c>
+      <c r="D20" s="93">
+        <v>0.40575044208299998</v>
+      </c>
+      <c r="E20" s="93">
+        <v>0.39031871412800001</v>
+      </c>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93">
         <v>0.629</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="104" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105">
+      <c r="C21" s="93">
+        <v>0.33671500231899998</v>
+      </c>
+      <c r="D21" s="93">
+        <v>0.28072078551000001</v>
+      </c>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>505</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8731,10 +11358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView showRuler="0" topLeftCell="A81" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9755,6 +12382,18 @@
     <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="35" customFormat="1">
+      <c r="A99" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="0" windowWidth="22220" windowHeight="16360" tabRatio="657" activeTab="1"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="26400" windowHeight="16360" tabRatio="657" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
     <sheet name="GO-summary" sheetId="13" r:id="rId2"/>
     <sheet name="GO dataset-notes" sheetId="12" r:id="rId3"/>
-    <sheet name="taxonomy-Bayes" sheetId="3" r:id="rId4"/>
-    <sheet name="taxonomy-Bayes x-val" sheetId="8" r:id="rId5"/>
-    <sheet name="taxonomy-notes" sheetId="9" r:id="rId6"/>
+    <sheet name="PubmedGO-comp" sheetId="14" r:id="rId4"/>
+    <sheet name="taxonomy-Bayes" sheetId="3" r:id="rId5"/>
+    <sheet name="taxonomy-Bayes x-val" sheetId="8" r:id="rId6"/>
+    <sheet name="taxonomy-notes" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="544">
   <si>
     <t>Molecular Function</t>
   </si>
@@ -1451,9 +1452,6 @@
     <t>alpha</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha </t>
-  </si>
-  <si>
     <t>Avg F1 pruned</t>
   </si>
   <si>
@@ -1607,16 +1605,58 @@
     <t>Others</t>
   </si>
   <si>
-    <t>In Uniprot dataset, there are only 77/6815 cases where more than 1 parent is predicted but the child is never predicted</t>
-  </si>
-  <si>
-    <t>H1/Train: Uniprot human</t>
-  </si>
-  <si>
     <t>Pubmed GO + Uniprot</t>
   </si>
   <si>
     <t>Pubmed Gene + Uniprot</t>
+  </si>
+  <si>
+    <t>H2/Train: Uniprot human</t>
+  </si>
+  <si>
+    <t>No. of classes</t>
+  </si>
+  <si>
+    <t>GOstruct classes</t>
+  </si>
+  <si>
+    <t>Limited prediction targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of classes </t>
+  </si>
+  <si>
+    <t>In Uniprot Cellular Component dataset, there are only 77/6815 cases where more than 1 parent is predicted but the child is never predicted</t>
+  </si>
+  <si>
+    <t>For Molecular Function, it is 0/7826 cases</t>
+  </si>
+  <si>
+    <t>Fraction train data</t>
+  </si>
+  <si>
+    <t>Fraction test data</t>
+  </si>
+  <si>
+    <t>PubMed GO datasets</t>
+  </si>
+  <si>
+    <t>Human proteins</t>
+  </si>
+  <si>
+    <t>leaves only (L)</t>
+  </si>
+  <si>
+    <t>leaves repeated (LR)</t>
+  </si>
+  <si>
+    <t>nodes only (N)</t>
+  </si>
+  <si>
+    <t>nodes+synonyms (S)</t>
+  </si>
+  <si>
+    <t>leaves + synonyms (LS)</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1912,8 +1952,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1325">
+  <cellStyleXfs count="1379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3239,8 +3299,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3377,15 +3491,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1325">
+  <cellStyles count="1379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4048,6 +4168,33 @@
     <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4710,6 +4857,33 @@
     <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5039,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M361"/>
+  <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A169" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView showRuler="0" topLeftCell="A166" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5055,7 +5229,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>219</v>
@@ -5111,7 +5285,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -5235,7 +5409,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" s="1">
         <v>0.57284340380099996</v>
@@ -5256,7 +5430,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B12" s="1">
         <v>0.60534428895900005</v>
@@ -5277,7 +5451,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B13" s="1">
         <v>0.543889753325</v>
@@ -5298,7 +5472,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B14" s="1">
         <v>9.1</v>
@@ -5317,33 +5491,32 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" s="103" customFormat="1">
-      <c r="A15" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="B15" s="102">
-        <v>1</v>
-      </c>
-      <c r="C15" s="102">
-        <v>1</v>
-      </c>
-      <c r="D15" s="102">
-        <v>1</v>
-      </c>
-      <c r="G15" s="102"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B15" s="1">
         <f>102766.184485/(60*60)</f>
         <v>28.546162356944446</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C15" s="1">
         <f>307623.181039/(60*60)</f>
         <v>85.450883621944442</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5355,53 +5528,80 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1">
-      <c r="A18" s="4" t="s">
+    <row r="17" spans="1:13" s="4" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="5" customFormat="1">
-      <c r="B19" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="5" customFormat="1">
+      <c r="B18" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="B20" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -5411,18 +5611,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
+        <v>481</v>
+      </c>
+      <c r="B21" s="81">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="81">
+        <v>1</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -5434,16 +5638,18 @@
       <c r="A22" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B22" s="81">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
+      <c r="B22" s="86"/>
+      <c r="C22" s="108">
+        <v>65918</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="2">
+        <v>62240</v>
+      </c>
+      <c r="G22" s="1">
+        <v>65918</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -5457,12 +5663,16 @@
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="108">
-        <v>65918</v>
+        <v>8351</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="2">
+        <v>7264</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8331</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -5472,15 +5682,15 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="B24" s="86"/>
-      <c r="C24" s="108">
-        <v>8351</v>
-      </c>
+      <c r="C24" s="108"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>561</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -5515,8 +5725,12 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="2">
+        <v>0.56146399021600002</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.290758383979</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -5536,8 +5750,12 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="2">
+        <v>0.57214231228800005</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.50163302141400001</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -5557,8 +5775,12 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="2">
+        <v>0.55137818229299995</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.20471348891999999</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5578,8 +5800,12 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -5589,7 +5815,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B30" s="1">
         <v>0.55433625440699996</v>
@@ -5599,8 +5825,12 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="2">
+        <v>0.56434440035300004</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.405733097381</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -5610,7 +5840,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B31" s="1">
         <v>0.58418873646400005</v>
@@ -5620,8 +5850,12 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="2">
+        <v>0.57163226351999996</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.41892052403300001</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -5631,7 +5865,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B32" s="1">
         <v>0.52955716715900003</v>
@@ -5641,8 +5875,12 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="2">
+        <v>0.55744445698900003</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.39337968651299998</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5652,7 +5890,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B33" s="1">
         <v>8.5</v>
@@ -5662,8 +5900,12 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5672,19 +5914,27 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="102" t="s">
-        <v>474</v>
+      <c r="A34" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <f>38269.5294571/(60*60)</f>
+        <v>10.630424849194444</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1"/>
+        <f>82249.328444/(60*60)</f>
+        <v>22.84703567888889</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="2">
+        <f>11725.006268/(60*60)</f>
+        <v>3.2569461855555555</v>
+      </c>
+      <c r="G34" s="3">
+        <f>23749.9245069/(60*60)</f>
+        <v>6.5972012519166663</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5693,17 +5943,8 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B35" s="1">
-        <f>38269.5294571/(60*60)</f>
-        <v>10.630424849194444</v>
-      </c>
-      <c r="C35">
-        <f>82249.328444/(60*60)</f>
-        <v>22.84703567888889</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -5715,50 +5956,71 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
+    <row r="36" spans="1:13" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1">
-      <c r="B38" s="5" t="s">
+      <c r="C36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="5" customFormat="1">
+      <c r="B37" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="F37" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -5769,15 +6031,17 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40">
-        <v>3</v>
+        <v>19252</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2">
+        <v>16659</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -5788,12 +6052,17 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B41" s="1"/>
+      <c r="C41">
+        <v>2229</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>1877</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -5803,13 +6072,8 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>483</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42">
-        <v>19252</v>
-      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -5823,15 +6087,17 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43">
-        <v>2229</v>
+        <v>0.36403529024100001</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2">
+        <v>0.56102639635999996</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -5841,11 +6107,18 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="B44" s="1"/>
+      <c r="C44">
+        <v>0.53418588580299997</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>0.56557965266300003</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -5856,15 +6129,17 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45">
-        <v>0.36403529024100001</v>
+        <v>0.27610331008299999</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2">
+        <v>0.55656463304299997</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5875,15 +6150,17 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46">
-        <v>0.53418588580299997</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -5894,15 +6171,17 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47">
-        <v>0.27610331008299999</v>
+        <v>0.40556372286999998</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>0.56433691725099999</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -5913,15 +6192,17 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48">
-        <v>1</v>
+        <v>0.50018986494899997</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2">
+        <v>0.56500988200299995</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -5932,15 +6213,17 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49">
-        <v>0.40556372286999998</v>
+        <v>0.34179689241299999</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2">
+        <v>0.56369053583700002</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5951,15 +6234,17 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50">
-        <v>0.50018986494899997</v>
+        <v>1.6</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -5970,15 +6255,19 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51">
-        <v>0.34179689241299999</v>
+        <f>21890.6608701/(60*60)</f>
+        <v>6.0807391305833338</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <f>5441.92880583/(60*60)</f>
+        <v>1.5116468905083333</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -5988,13 +6277,8 @@
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52">
-        <v>1.6</v>
-      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -6007,13 +6291,8 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="102" t="s">
-        <v>474</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53">
-        <v>1</v>
-      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -6025,88 +6304,133 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54">
-        <f>21890.6608701/(60*60)</f>
-        <v>6.0807391305833338</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+    <row r="54" spans="1:13" s="4" customFormat="1">
+      <c r="A54" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="2"/>
+      <c r="F56" s="2">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="5" customFormat="1">
-      <c r="B58" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>299</v>
-      </c>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B58" s="81">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="11">
+        <v>1</v>
+      </c>
+      <c r="G58" s="109">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" s="1">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
+        <v>536</v>
+      </c>
+      <c r="B59" s="81">
+        <v>1</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
+      <c r="F59" s="11">
+        <v>1</v>
+      </c>
+      <c r="G59" s="109">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1</v>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6115,19 +6439,22 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
+        <v>62240</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="2"/>
+      <c r="F60" s="2">
+        <v>62240</v>
+      </c>
+      <c r="G60" s="3">
+        <v>65918</v>
+      </c>
+      <c r="H60" s="2">
+        <v>157915</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6139,13 +6466,17 @@
         <v>483</v>
       </c>
       <c r="B61" s="1">
-        <v>62240</v>
+        <v>7308</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="3">
+        <v>8277</v>
+      </c>
+      <c r="H61" s="2">
+        <v>12815</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6154,16 +6485,18 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B62" s="1">
-        <v>7308</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
+      <c r="G62" s="3">
+        <v>919</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2184</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -6196,9 +6529,15 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="2"/>
+      <c r="F64" s="2">
+        <v>0.63573908025000003</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.34992037744799998</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.21206398451399999</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -6217,9 +6556,15 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="2"/>
+      <c r="F65" s="2">
+        <v>0.76505994170900005</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.58526797581000001</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.473384271307</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6238,9 +6583,15 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="2"/>
+      <c r="F66" s="2">
+        <v>0.54398941004099999</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.24959638262100001</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.13665614137400001</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -6259,9 +6610,15 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="2"/>
+      <c r="F67" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -6270,7 +6627,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B68" s="1">
         <v>0.64962673023600004</v>
@@ -6280,9 +6637,15 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="2"/>
+      <c r="F68" s="2">
+        <v>0.64303784106499995</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.39633771103799997</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.244086671753</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -6291,7 +6654,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B69" s="1">
         <v>0.71565352077599997</v>
@@ -6301,9 +6664,15 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="2">
+        <v>0.76374796069399997</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.58461875423300003</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.47152976045700001</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -6312,7 +6681,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" s="1">
         <v>0.59529483547299999</v>
@@ -6322,9 +6691,15 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="2">
+        <v>0.55544619074900003</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.29984709613600002</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.16469226863700001</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -6333,7 +6708,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B71" s="1">
         <v>8.8000000000000007</v>
@@ -6343,9 +6718,15 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -6353,20 +6734,31 @@
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="102" t="s">
-        <v>474</v>
+      <c r="A72" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
+        <f>15342.5640671/(60*60)</f>
+        <v>4.2618233519722226</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <f>39076.0317781/(60*60)</f>
+        <v>10.854453271694444</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="2"/>
+      <c r="F72" s="2">
+        <f>8110.09684682/(60*60)</f>
+        <v>2.2528046796722223</v>
+      </c>
+      <c r="G72" s="3">
+        <f>12288.5697439/(60*60)</f>
+        <v>3.4134915955277778</v>
+      </c>
+      <c r="H72" s="2">
+        <f>57639.935349/(60*60)</f>
+        <v>16.011093152499999</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -6374,17 +6766,8 @@
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B73" s="1">
-        <f>15342.5640671/(60*60)</f>
-        <v>4.2618233519722226</v>
-      </c>
-      <c r="C73">
-        <f>39076.0317781/(60*60)</f>
-        <v>10.854453271694444</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6396,48 +6779,69 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" s="4" customFormat="1">
-      <c r="A75" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C75" s="4" t="s">
+    <row r="74" spans="1:13" s="4" customFormat="1">
+      <c r="A74" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" s="5" customFormat="1">
-      <c r="B76" s="5" t="s">
+      <c r="C74" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="5" customFormat="1">
+      <c r="B75" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="F75" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="B77" s="1">
         <v>5</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="3">
         <v>5</v>
@@ -6454,16 +6858,16 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B78" s="1">
-        <v>5</v>
+        <v>4583</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>4616</v>
       </c>
       <c r="D78" s="3">
-        <v>5</v>
+        <v>8649</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -6480,13 +6884,13 @@
         <v>483</v>
       </c>
       <c r="B79" s="1">
-        <v>4583</v>
+        <v>636</v>
       </c>
       <c r="C79">
-        <v>4616</v>
+        <v>796</v>
       </c>
       <c r="D79" s="3">
-        <v>8649</v>
+        <v>1200</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -6499,18 +6903,9 @@
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B80" s="1">
-        <v>636</v>
-      </c>
-      <c r="C80">
-        <v>796</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1200</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
@@ -6522,9 +6917,18 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.64969930593000003</v>
+      </c>
+      <c r="C81">
+        <v>0.37692168634200002</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.33053819339099999</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
@@ -6537,16 +6941,16 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B82" s="1">
-        <v>0.64969930593000003</v>
+        <v>0.70583675124599998</v>
       </c>
       <c r="C82">
-        <v>0.37692168634200002</v>
+        <v>0.54919246156299995</v>
       </c>
       <c r="D82" s="3">
-        <v>0.33053819339099999</v>
+        <v>0.34849253161900001</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -6560,16 +6964,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B83" s="1">
-        <v>0.70583675124599998</v>
+        <v>0.602202921951</v>
       </c>
       <c r="C83">
-        <v>0.54919246156299995</v>
+        <v>0.28713442019000002</v>
       </c>
       <c r="D83" s="3">
-        <v>0.34849253161900001</v>
+        <v>0.31436486208100001</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -6583,16 +6987,16 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B84" s="1">
-        <v>0.602202921951</v>
+        <v>12.2</v>
       </c>
       <c r="C84">
-        <v>0.28713442019000002</v>
+        <v>1.2</v>
       </c>
       <c r="D84" s="3">
-        <v>0.31436486208100001</v>
+        <v>1</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -6606,16 +7010,16 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B85" s="1">
-        <v>12.2</v>
+        <v>0.65499221150700004</v>
       </c>
       <c r="C85">
-        <v>1.2</v>
+        <v>0.41682058483599999</v>
       </c>
       <c r="D85" s="3">
-        <v>1</v>
+        <v>0.335492816059</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -6632,13 +7036,13 @@
         <v>476</v>
       </c>
       <c r="B86" s="1">
-        <v>0.65499221150700004</v>
+        <v>0.70853610610499995</v>
       </c>
       <c r="C86">
-        <v>0.41682058483599999</v>
+        <v>0.473330008887</v>
       </c>
       <c r="D86" s="3">
-        <v>0.335492816059</v>
+        <v>0.34849253161900001</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -6655,13 +7059,13 @@
         <v>477</v>
       </c>
       <c r="B87" s="1">
-        <v>0.70853610610499995</v>
+        <v>0.609533856767</v>
       </c>
       <c r="C87">
-        <v>0.473330008887</v>
+        <v>0.37308812155299997</v>
       </c>
       <c r="D87" s="3">
-        <v>0.34849253161900001</v>
+        <v>0.32345259782300001</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -6678,13 +7082,13 @@
         <v>478</v>
       </c>
       <c r="B88" s="1">
-        <v>0.609533856767</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>0.37308812155299997</v>
+        <v>1.8</v>
       </c>
       <c r="D88" s="3">
-        <v>0.32345259782300001</v>
+        <v>1</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -6698,16 +7102,19 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B89" s="1">
-        <v>13</v>
+        <f>2973.51055908/(60*60)</f>
+        <v>0.82597515529999999</v>
       </c>
       <c r="C89">
-        <v>1.8</v>
+        <f>3786.9177022/(60*60)</f>
+        <v>1.0519215839444445</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <f>17027.715533/(60*60)</f>
+        <v>4.7299209813888883</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -6720,18 +7127,9 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="B90" s="1">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="3"/>
@@ -6743,21 +7141,9 @@
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B91" s="1">
-        <f>2973.51055908/(60*60)</f>
-        <v>0.82597515529999999</v>
-      </c>
-      <c r="C91">
-        <f>3786.9177022/(60*60)</f>
-        <v>1.0519215839444445</v>
-      </c>
-      <c r="D91" s="3">
-        <f>17027.715533/(60*60)</f>
-        <v>4.7299209813888883</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="3"/>
@@ -6782,127 +7168,145 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" s="4" customFormat="1">
-      <c r="A95" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C95" s="4" t="s">
+    <row r="93" spans="1:13" s="4" customFormat="1">
+      <c r="A93" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="5" customFormat="1">
-      <c r="B96" s="5" t="s">
+    <row r="94" spans="1:13" s="5" customFormat="1">
+      <c r="B94" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B95" s="26">
+        <v>3</v>
+      </c>
+      <c r="C95" s="26">
+        <v>3</v>
+      </c>
+      <c r="D95" s="26">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" s="1" customFormat="1">
+      <c r="A96" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="C96" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D96" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="1:13" s="1" customFormat="1">
       <c r="A97" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B97" s="26">
-        <v>3</v>
-      </c>
-      <c r="C97" s="26">
-        <v>3</v>
-      </c>
-      <c r="D97" s="26">
-        <v>3</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" s="1" customFormat="1">
-      <c r="A98" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B98" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C98" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D98" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" s="1" customFormat="1">
+        <v>473</v>
+      </c>
+      <c r="B97" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C97" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D97" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B99" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C99" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D99" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.54123569231599999</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.332173751485</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.28263653123400001</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="1"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="2"/>
+      <c r="A100" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.69026655235699996</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.56665696099100005</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.448743637054</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="3"/>
@@ -6915,16 +7319,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B101" s="1">
-        <v>0.54123569231599999</v>
+        <v>0.44513052206300002</v>
       </c>
       <c r="C101" s="1">
-        <v>0.332173751485</v>
+        <v>0.234950855629</v>
       </c>
       <c r="D101" s="3">
-        <v>0.28263653123400001</v>
+        <v>0.20627989225099999</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -6938,16 +7342,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B102" s="1">
-        <v>0.69026655235699996</v>
+        <v>41</v>
       </c>
       <c r="C102" s="1">
-        <v>0.56665696099100005</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>0.448743637054</v>
+        <v>1</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -6961,16 +7365,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B103" s="1">
-        <v>0.44513052206300002</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>0.234950855629</v>
+        <v>1</v>
       </c>
       <c r="D103" s="3">
-        <v>0.20627989225099999</v>
+        <v>1</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -6982,68 +7386,55 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B104" s="1">
-        <v>41</v>
+        <f>19974.843426/(60*60)</f>
+        <v>5.5485676183333332</v>
       </c>
       <c r="C104" s="1">
-        <v>1</v>
+        <f>67321.9787359/(60*60)</f>
+        <v>18.700549648861113</v>
       </c>
       <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B105" s="1">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="D105" s="3">
-        <v>1</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+        <f>327632.954097/(60*60)</f>
+        <v>91.009153915833338</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="1:13" s="1" customFormat="1">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
     </row>
     <row r="106" spans="1:13" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B106" s="1">
-        <f>19974.843426/(60*60)</f>
-        <v>5.5485676183333332</v>
+        <v>461</v>
+      </c>
+      <c r="B106" s="26">
+        <v>3</v>
       </c>
       <c r="C106" s="1">
-        <f>67321.9787359/(60*60)</f>
-        <v>18.700549648861113</v>
-      </c>
-      <c r="D106" s="3">
-        <f>327632.954097/(60*60)</f>
-        <v>91.009153915833338</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="6"/>
@@ -7055,6 +7446,15 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1">
+      <c r="A107" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B107" s="82">
+        <v>1</v>
+      </c>
+      <c r="C107" s="81">
+        <v>0.5</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -7068,13 +7468,13 @@
     </row>
     <row r="108" spans="1:13" s="1" customFormat="1">
       <c r="A108" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B108" s="26">
-        <v>3</v>
-      </c>
-      <c r="C108" s="1">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B108" s="82">
+        <v>1</v>
+      </c>
+      <c r="C108" s="81">
+        <v>0.1</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7089,13 +7489,11 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B109" s="82">
-        <v>1</v>
-      </c>
-      <c r="C109" s="81">
-        <v>0.5</v>
+        <v>482</v>
+      </c>
+      <c r="B109" s="85"/>
+      <c r="C109" s="1">
+        <v>15611</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7110,13 +7508,13 @@
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1">
       <c r="A110" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B110" s="82">
-        <v>1</v>
-      </c>
-      <c r="C110" s="81">
-        <v>0.1</v>
+        <v>483</v>
+      </c>
+      <c r="B110" s="85">
+        <v>15560</v>
+      </c>
+      <c r="C110" s="1">
+        <v>16479</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7130,13 +7528,7 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1">
-      <c r="A111" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B111" s="85"/>
-      <c r="C111" s="1">
-        <v>15611</v>
-      </c>
+      <c r="B111" s="26"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -7150,13 +7542,13 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B112" s="85">
-        <v>15560</v>
+        <v>29</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.53949972234200005</v>
       </c>
       <c r="C112" s="1">
-        <v>16479</v>
+        <v>0.32936155917600002</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7170,7 +7562,15 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1">
-      <c r="B113" s="26"/>
+      <c r="A113" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.62910681138699998</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.57406045536899997</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -7184,13 +7584,13 @@
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1">
       <c r="A114" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B114" s="1">
-        <v>0.53949972234200005</v>
+        <v>0.47223651840199998</v>
       </c>
       <c r="C114" s="1">
-        <v>0.32936155917600002</v>
+        <v>0.23092676289</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7205,13 +7605,13 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1">
       <c r="A115" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B115" s="1">
-        <v>0.62910681138699998</v>
+        <v>25</v>
       </c>
       <c r="C115" s="1">
-        <v>0.57406045536899997</v>
+        <v>1</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7226,13 +7626,13 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="1" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="B116" s="1">
-        <v>0.47223651840199998</v>
+        <v>0.54205124155100004</v>
       </c>
       <c r="C116" s="1">
-        <v>0.23092676289</v>
+        <v>1</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7247,13 +7647,14 @@
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1">
       <c r="A117" s="1" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="B117" s="1">
-        <v>25</v>
+        <v>0.62910681138699998</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <f>117478.644801/(60*60)</f>
+        <v>32.632956889166664</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7268,13 +7669,10 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B118" s="1">
-        <v>0.54205124155100004</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1</v>
+        <v>0.47616034732000001</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7289,14 +7687,10 @@
     </row>
     <row r="119" spans="1:13" s="1" customFormat="1">
       <c r="A119" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B119" s="1">
-        <v>0.62910681138699998</v>
-      </c>
-      <c r="C119" s="1">
-        <f>117478.644801/(60*60)</f>
-        <v>32.632956889166664</v>
+        <v>25</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7311,10 +7705,10 @@
     </row>
     <row r="120" spans="1:13" s="1" customFormat="1">
       <c r="A120" s="1" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B120" s="1">
-        <v>0.47616034732000001</v>
+        <v>2</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7329,10 +7723,11 @@
     </row>
     <row r="121" spans="1:13" s="1" customFormat="1">
       <c r="A121" s="1" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="B121" s="1">
-        <v>25</v>
+        <f>35573.6815958/(60*60)</f>
+        <v>9.8815782210555554</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7346,12 +7741,6 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="1:13" s="1" customFormat="1">
-      <c r="A122" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B122" s="1">
-        <v>2</v>
-      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -7363,82 +7752,97 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1">
-      <c r="A123" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B123" s="1">
-        <f>35573.6815958/(60*60)</f>
-        <v>9.8815782210555554</v>
-      </c>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="1:13" s="1" customFormat="1">
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" s="4" customFormat="1">
-      <c r="A126" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C126" s="4" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" s="4" customFormat="1">
+      <c r="A124" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="5" customFormat="1">
-      <c r="B127" s="5" t="s">
+    <row r="125" spans="1:13" s="5" customFormat="1">
+      <c r="B125" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>299</v>
       </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B126" s="26">
+        <v>3</v>
+      </c>
+      <c r="C126" s="26">
+        <v>3</v>
+      </c>
+      <c r="D126" s="26">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B127" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="C127" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D127" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B128" s="26">
-        <v>3</v>
-      </c>
-      <c r="C128" s="26">
-        <v>3</v>
-      </c>
-      <c r="D128" s="26">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B128" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C128" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D128" s="80">
+        <v>0.1</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -7451,18 +7855,9 @@
       <c r="M128" s="2"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B129" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C129" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D129" s="79">
-        <v>0.2</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="D129" s="3"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
@@ -7473,33 +7868,42 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" s="1" customFormat="1">
       <c r="A130" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B130" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C130" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D130" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.58701127993400004</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.37201945201999997</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.303088379751</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="D131" s="3"/>
+      <c r="A131" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.63869553760599995</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.51737629308599997</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.32761940948000001</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
@@ -7510,41 +7914,41 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1">
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B132" s="1">
-        <v>0.58701127993400004</v>
+        <v>0.54306555258800004</v>
       </c>
       <c r="C132" s="1">
-        <v>0.37201945201999997</v>
+        <v>0.29042465982600002</v>
       </c>
       <c r="D132" s="3">
-        <v>0.303088379751</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
+        <v>0.28197504514600003</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B133" s="1">
-        <v>0.63869553760599995</v>
+        <v>13</v>
       </c>
       <c r="C133" s="1">
-        <v>0.51737629308599997</v>
+        <v>1</v>
       </c>
       <c r="D133" s="3">
-        <v>0.32761940948000001</v>
+        <v>3</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -7558,17 +7962,13 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B134" s="1">
-        <v>0.54306555258800004</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.29042465982600002</v>
-      </c>
-      <c r="D134" s="3">
-        <v>0.28197504514600003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
@@ -7581,17 +7981,17 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B135" s="1">
-        <v>13</v>
+        <f>48495.66765/(60*60)</f>
+        <v>13.471018791666667</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
-      </c>
-      <c r="D135" s="3">
-        <v>3</v>
-      </c>
+        <f>55646.4552431/(60*60)</f>
+        <v>15.457348678638889</v>
+      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
@@ -7603,13 +8003,8 @@
       <c r="M135" s="2"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B136" s="1">
-        <v>1</v>
-      </c>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -7623,15 +8018,13 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B137" s="1">
-        <f>48495.66765/(60*60)</f>
-        <v>13.471018791666667</v>
-      </c>
-      <c r="C137" s="1">
-        <f>55646.4552431/(60*60)</f>
-        <v>15.457348678638889</v>
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
@@ -7645,9 +8038,16 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="D138" s="3"/>
+      <c r="A138" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B138" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C138" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
@@ -7660,15 +8060,15 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B139" s="1">
-        <v>3</v>
-      </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="B139" s="81">
+        <v>1</v>
+      </c>
+      <c r="C139" s="81">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
@@ -7680,15 +8080,8 @@
       <c r="M139" s="2"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B140" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C140" s="81">
-        <v>0.2</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -7702,15 +8095,15 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B141" s="81">
-        <v>1</v>
-      </c>
-      <c r="C141" s="81">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.58411354119000003</v>
+      </c>
+      <c r="C141">
+        <v>0.37247357138499998</v>
+      </c>
+      <c r="D141" s="3"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
@@ -7721,29 +8114,36 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
+    <row r="142" spans="1:13" s="1" customFormat="1">
+      <c r="A142" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.62570359615399995</v>
+      </c>
+      <c r="C142">
+        <v>0.52278472510899998</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B143" s="1">
-        <v>0.58411354119000003</v>
+        <v>0.54770780850800005</v>
       </c>
       <c r="C143">
-        <v>0.37247357138499998</v>
+        <v>0.28929532886800002</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
@@ -7756,36 +8156,36 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1">
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B144" s="1">
-        <v>0.62570359615399995</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>0.52278472510899998</v>
+        <v>1</v>
       </c>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B145" s="1">
-        <v>0.54770780850800005</v>
+        <v>0.58480186572199999</v>
       </c>
       <c r="C145">
-        <v>0.28929532886800002</v>
+        <v>0.40163892943099999</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
@@ -7800,13 +8200,13 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B146" s="1">
-        <v>10</v>
+        <v>0.62570359615399995</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0.50742618513100002</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
@@ -7821,13 +8221,13 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B147" s="1">
-        <v>0.58480186572199999</v>
+        <v>0.54891945177500001</v>
       </c>
       <c r="C147">
-        <v>0.40163892943099999</v>
+        <v>0.33235101547200002</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
@@ -7842,13 +8242,13 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B148" s="1">
-        <v>0.62570359615399995</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>0.50742618513100002</v>
+        <v>3</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
@@ -7863,13 +8263,13 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B149" s="1">
-        <v>0.54891945177500001</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>0.33235101547200002</v>
+        <v>1</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
@@ -7884,13 +8284,15 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B150" s="1">
-        <v>10</v>
+        <f>62705.809418/(60*60)</f>
+        <v>17.418280393888889</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <f>86001.47382/(60*60)</f>
+        <v>23.889298283333332</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
@@ -7904,15 +8306,6 @@
       <c r="M150" s="2"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B151" s="1">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -7926,15 +8319,13 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B152" s="1">
-        <f>62705.809418/(60*60)</f>
-        <v>17.418280393888889</v>
-      </c>
-      <c r="C152">
-        <f>86001.47382/(60*60)</f>
-        <v>23.889298283333332</v>
+        <v>461</v>
+      </c>
+      <c r="B152" s="26">
+        <v>3</v>
+      </c>
+      <c r="C152" s="26">
+        <v>3</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
@@ -7948,6 +8339,15 @@
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:13">
+      <c r="A153" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B153" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="C153" s="82">
+        <v>1</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -7961,13 +8361,13 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B154" s="26">
-        <v>3</v>
-      </c>
-      <c r="C154" s="26">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B154" s="82">
+        <v>1</v>
+      </c>
+      <c r="C154" s="82">
+        <v>1</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
@@ -7982,13 +8382,13 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B155" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="C155" s="82">
-        <v>1</v>
+        <v>482</v>
+      </c>
+      <c r="B155" s="85">
+        <v>152574</v>
+      </c>
+      <c r="C155" s="85">
+        <v>110922</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
@@ -8003,13 +8403,13 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B156" s="82">
-        <v>1</v>
-      </c>
-      <c r="C156" s="82">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B156" s="85">
+        <v>15560</v>
+      </c>
+      <c r="C156" s="85">
+        <v>82397</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
@@ -8023,13 +8423,7 @@
       <c r="M156" s="2"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B157" s="85">
-        <v>152574</v>
-      </c>
-      <c r="C157" s="85"/>
+      <c r="A157" s="1"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -8043,12 +8437,14 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B158" s="85">
-        <v>15560</v>
-      </c>
-      <c r="C158" s="85"/>
+        <v>29</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0.58328682582000002</v>
+      </c>
+      <c r="C158">
+        <v>0.360502147976</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -8061,7 +8457,15 @@
       <c r="M158" s="2"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0.632411026928</v>
+      </c>
+      <c r="C159">
+        <v>0.48775433765199999</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -8075,10 +8479,13 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B160" s="1">
-        <v>0.58328682582000002</v>
+        <v>0.54124424583800002</v>
+      </c>
+      <c r="C160">
+        <v>0.28590995151300003</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
@@ -8093,10 +8500,13 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B161" s="1">
-        <v>0.632411026928</v>
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
@@ -8111,10 +8521,13 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B162" s="1">
-        <v>0.54124424583800002</v>
+        <v>0.58355527655299999</v>
+      </c>
+      <c r="C162">
+        <v>0.38865855884099998</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
@@ -8129,28 +8542,24 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B163" s="1">
-        <v>17</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
+        <v>0.632411026928</v>
+      </c>
+      <c r="C163">
+        <v>0.489216710251</v>
+      </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B164" s="1">
-        <v>0.58355527655299999</v>
+        <v>0.54170672049400004</v>
+      </c>
+      <c r="C164">
+        <v>0.32239126135599999</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
@@ -8165,18 +8574,24 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B165" s="1">
-        <v>0.632411026928</v>
+        <v>17</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B166" s="1">
-        <v>0.54170672049400004</v>
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
@@ -8191,137 +8606,180 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B167" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B168" s="1">
-        <v>1</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B169" s="1">
         <f>80494.262604/(60*60)</f>
         <v>22.359517390000001</v>
       </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
+      <c r="C167">
+        <f>469755.182134/(60*60)</f>
+        <v>130.48755059277778</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:13">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-    </row>
-    <row r="173" spans="1:13">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-    </row>
-    <row r="174" spans="1:13" s="35" customFormat="1">
-      <c r="A174" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D174" s="96"/>
-      <c r="E174" s="97"/>
-      <c r="F174" s="97"/>
-      <c r="G174" s="96"/>
-      <c r="H174" s="97"/>
-      <c r="I174" s="97"/>
-      <c r="J174" s="97"/>
-      <c r="K174" s="97"/>
-      <c r="L174" s="97"/>
-      <c r="M174" s="97"/>
-    </row>
-    <row r="175" spans="1:13" s="100" customFormat="1">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5" t="s">
+      <c r="D171" s="3"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" spans="1:13" s="4" customFormat="1">
+      <c r="A172" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D172" s="96"/>
+      <c r="E172" s="96"/>
+      <c r="F172" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="G172" s="96"/>
+      <c r="H172" s="96"/>
+      <c r="I172" s="96"/>
+      <c r="J172" s="96"/>
+      <c r="K172" s="96"/>
+      <c r="L172" s="96"/>
+      <c r="M172" s="96"/>
+    </row>
+    <row r="173" spans="1:13" s="100" customFormat="1">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D175" s="98" t="s">
+      <c r="D173" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E175" s="99"/>
-      <c r="F175" s="99"/>
-      <c r="G175" s="98"/>
-      <c r="H175" s="99"/>
-      <c r="I175" s="99"/>
-      <c r="J175" s="99"/>
-      <c r="K175" s="99"/>
-      <c r="L175" s="99"/>
-      <c r="M175" s="99"/>
+      <c r="E173" s="99"/>
+      <c r="F173" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H173" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I173" s="99"/>
+      <c r="J173" s="99"/>
+      <c r="K173" s="99"/>
+      <c r="L173" s="99"/>
+      <c r="M173" s="99"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B174" s="1">
+        <v>3</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="3">
+        <v>3</v>
+      </c>
+      <c r="H174" s="2">
+        <v>5</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B175" s="81">
+        <v>1</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="11">
+        <v>1</v>
+      </c>
+      <c r="G175" s="109">
+        <v>1</v>
+      </c>
+      <c r="H175" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B176" s="1">
-        <v>3</v>
-      </c>
-      <c r="D176" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="B176" s="81">
+        <v>1</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="109">
+        <v>1</v>
+      </c>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="2"/>
+      <c r="F176" s="11">
+        <v>1</v>
+      </c>
+      <c r="G176" s="109">
+        <v>1</v>
+      </c>
+      <c r="H176" s="11">
+        <v>1</v>
+      </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -8330,16 +8788,24 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B177" s="81">
-        <v>1</v>
-      </c>
-      <c r="D177" s="3"/>
+        <v>482</v>
+      </c>
+      <c r="B177" s="86">
+        <v>13584</v>
+      </c>
+      <c r="D177" s="3">
+        <v>19700</v>
+      </c>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="2"/>
+      <c r="F177" s="2">
+        <v>13584</v>
+      </c>
+      <c r="G177" s="3">
+        <v>31223</v>
+      </c>
+      <c r="H177" s="2">
+        <v>49250</v>
+      </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -8348,16 +8814,24 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B178" s="81">
-        <v>1</v>
-      </c>
-      <c r="D178" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="B178" s="86">
+        <v>20823</v>
+      </c>
+      <c r="D178" s="3">
+        <v>46694</v>
+      </c>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="2"/>
+      <c r="F178" s="2">
+        <v>20823</v>
+      </c>
+      <c r="G178" s="3">
+        <v>24064</v>
+      </c>
+      <c r="H178" s="2">
+        <v>46694</v>
+      </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
@@ -8366,16 +8840,20 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B179" s="86">
-        <v>13584</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B179" s="86"/>
       <c r="D179" s="3"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="2"/>
+      <c r="F179" s="2">
+        <v>410</v>
+      </c>
+      <c r="G179" s="3">
+        <v>629</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1185</v>
+      </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
@@ -8383,12 +8861,8 @@
       <c r="M179" s="2"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B180" s="86">
-        <v>20823</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
       <c r="D180" s="3"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -8401,13 +8875,25 @@
       <c r="M180" s="2"/>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="D181" s="3"/>
+      <c r="A181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0.544435373768</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.27648899426599999</v>
+      </c>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="2"/>
+      <c r="F181" s="2">
+        <v>0.55206751971199997</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0.27513703684800001</v>
+      </c>
+      <c r="H181" s="2">
+        <v>3.5037999856700003E-2</v>
+      </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -8416,16 +8902,24 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>29</v>
+        <v>467</v>
       </c>
       <c r="B182" s="1">
-        <v>0.54444648013200003</v>
-      </c>
-      <c r="D182" s="3"/>
+        <v>0.51530898957399995</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.58535094510100005</v>
+      </c>
       <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="2"/>
+      <c r="F182" s="2">
+        <v>0.570019669517</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0.59337554345700005</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.16008180621699999</v>
+      </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -8434,16 +8928,24 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B183" s="1">
-        <v>0.51564172049599999</v>
-      </c>
-      <c r="D183" s="3"/>
+        <v>0.57705158358200004</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.18098944316099999</v>
+      </c>
       <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="2"/>
+      <c r="F183" s="2">
+        <v>0.53521161184199995</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0.17908849556799999</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1.9671843061000002E-2</v>
+      </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -8452,16 +8954,24 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B184" s="1">
-        <v>0.57665983132599996</v>
-      </c>
-      <c r="D184" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
       <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="2"/>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1</v>
+      </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -8470,16 +8980,24 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="B185" s="1">
-        <v>1</v>
-      </c>
-      <c r="D185" s="3"/>
+        <v>0.54520244163800002</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.29245777091199998</v>
+      </c>
       <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="2"/>
+      <c r="F185" s="2">
+        <v>0.55831624720999995</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0.32509258224299997</v>
+      </c>
+      <c r="H185" s="2">
+        <v>4.6929596022299999E-2</v>
+      </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -8490,12 +9008,22 @@
       <c r="A186" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B186" s="1"/>
-      <c r="D186" s="3"/>
+      <c r="B186" s="1">
+        <v>0.51530898957399995</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.58535094510100005</v>
+      </c>
       <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="2"/>
+      <c r="F186" s="2">
+        <v>0.56942978753200002</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0.59625797977899997</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.15988548227999999</v>
+      </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -8506,12 +9034,22 @@
       <c r="A187" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B187" s="1"/>
-      <c r="D187" s="3"/>
+      <c r="B187" s="1">
+        <v>0.57877776380000001</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.194923517101</v>
+      </c>
       <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="2"/>
+      <c r="F187" s="2">
+        <v>0.54762820752700003</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0.22346532431400001</v>
+      </c>
+      <c r="H187" s="2">
+        <v>2.7500819005E-2</v>
+      </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -8522,103 +9060,180 @@
       <c r="A188" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B188" s="1"/>
-      <c r="D188" s="3"/>
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
       <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="2"/>
+      <c r="F188" s="2">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>2</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1</v>
+      </c>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13">
-      <c r="A189" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
+    <row r="189" spans="1:13" s="12" customFormat="1">
+      <c r="A189" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B189" s="12">
+        <f>75998.92347/(60*60)</f>
+        <v>21.110812074999998</v>
+      </c>
+      <c r="D189" s="12">
+        <f>190149.622466/(60*60)</f>
+        <v>52.81933957388889</v>
+      </c>
+      <c r="F189" s="12">
+        <f>9091.90804005/(60*60)</f>
+        <v>2.5255300111250003</v>
+      </c>
+      <c r="G189" s="12">
+        <f>34827.5274389/(60*60)</f>
+        <v>9.6743131774722215</v>
+      </c>
+      <c r="H189" s="12">
+        <f>112109.865358/(60*60)</f>
+        <v>31.14162926611111</v>
+      </c>
     </row>
     <row r="190" spans="1:13" s="12" customFormat="1">
-      <c r="A190" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B190" s="12">
+      <c r="C190" s="25"/>
+    </row>
+    <row r="191" spans="1:13" s="12" customFormat="1">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+    </row>
+    <row r="192" spans="1:13" s="4" customFormat="1">
+      <c r="A192" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F192" s="96" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" s="100" customFormat="1">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D193" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E193" s="99"/>
+      <c r="F193" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H193" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I193" s="99"/>
+      <c r="J193" s="99"/>
+      <c r="K193" s="99"/>
+      <c r="L193" s="99"/>
+      <c r="M193" s="99"/>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" s="3">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2">
+        <v>3</v>
+      </c>
+      <c r="G194" s="3">
+        <v>3</v>
+      </c>
+      <c r="H194" s="2">
+        <v>3</v>
+      </c>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B195" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C195" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D195" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" s="12" customFormat="1">
-      <c r="A191" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B191" s="12">
-        <f>71257.057503/(60*60)</f>
-        <v>19.793627084166669</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" s="12" customFormat="1">
-      <c r="C192" s="25"/>
-    </row>
-    <row r="193" spans="1:13" s="12" customFormat="1">
-      <c r="A193" s="25"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="25"/>
-    </row>
-    <row r="194" spans="1:13" s="4" customFormat="1">
-      <c r="A194" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" s="100" customFormat="1">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D195" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E195" s="99"/>
-      <c r="F195" s="99"/>
-      <c r="G195" s="98"/>
-      <c r="H195" s="99"/>
-      <c r="I195" s="99"/>
-      <c r="J195" s="99"/>
-      <c r="K195" s="99"/>
-      <c r="L195" s="99"/>
-      <c r="M195" s="99"/>
+      <c r="G195" s="109">
+        <v>1</v>
+      </c>
+      <c r="H195" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B196" s="1">
-        <v>3</v>
-      </c>
-      <c r="C196">
-        <v>3</v>
-      </c>
-      <c r="D196" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="B196" s="81">
+        <v>1</v>
+      </c>
+      <c r="C196" s="10">
+        <v>1</v>
+      </c>
+      <c r="D196" s="109">
+        <v>1</v>
+      </c>
       <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="2"/>
+      <c r="F196" s="11">
+        <v>1</v>
+      </c>
+      <c r="G196" s="109">
+        <v>1</v>
+      </c>
+      <c r="H196" s="11">
+        <v>1</v>
+      </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
@@ -8627,19 +9242,27 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B197" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C197" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D197" s="3"/>
+        <v>482</v>
+      </c>
+      <c r="B197" s="86">
+        <v>61029</v>
+      </c>
+      <c r="C197">
+        <v>110922</v>
+      </c>
+      <c r="D197" s="3">
+        <v>131753</v>
+      </c>
       <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="2"/>
+      <c r="F197" s="2">
+        <v>482297</v>
+      </c>
+      <c r="G197" s="3">
+        <v>352665</v>
+      </c>
+      <c r="H197" s="2">
+        <v>526529</v>
+      </c>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
@@ -8648,19 +9271,27 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B198" s="81">
-        <v>1</v>
-      </c>
-      <c r="C198" s="10">
-        <v>1</v>
-      </c>
-      <c r="D198" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="B198" s="86">
+        <v>20823</v>
+      </c>
+      <c r="C198">
+        <v>24064</v>
+      </c>
+      <c r="D198" s="3">
+        <v>46694</v>
+      </c>
       <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="2"/>
+      <c r="F198" s="2">
+        <v>20823</v>
+      </c>
+      <c r="G198" s="3">
+        <v>24064</v>
+      </c>
+      <c r="H198" s="2">
+        <v>46694</v>
+      </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
@@ -8669,19 +9300,22 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B199" s="86">
-        <v>61029</v>
-      </c>
-      <c r="C199">
-        <v>110922</v>
-      </c>
-      <c r="D199" s="3"/>
+        <v>529</v>
+      </c>
+      <c r="B199" s="86"/>
+      <c r="D199" s="3">
+        <v>7008</v>
+      </c>
       <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="2"/>
+      <c r="F199" s="2">
+        <v>444</v>
+      </c>
+      <c r="G199" s="3">
+        <v>749</v>
+      </c>
+      <c r="H199" s="2">
+        <v>1812</v>
+      </c>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
@@ -8689,15 +9323,8 @@
       <c r="M199" s="2"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B200" s="86">
-        <v>20823</v>
-      </c>
-      <c r="C200">
-        <v>24064</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
       <c r="D200" s="3"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -8710,13 +9337,28 @@
       <c r="M200" s="2"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="D201" s="3"/>
+      <c r="A201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.57622570056800004</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0.34365936343100001</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.29917800974699998</v>
+      </c>
       <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="2"/>
+      <c r="F201" s="2">
+        <v>0.56539082063400004</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0.315856022136</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0.23097233601600001</v>
+      </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
@@ -8725,19 +9367,27 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
-        <v>29</v>
+        <v>467</v>
       </c>
       <c r="B202" s="1">
-        <v>0.57622570056800004</v>
+        <v>0.589396971115</v>
       </c>
       <c r="C202" s="1">
-        <v>0.34365936343100001</v>
-      </c>
-      <c r="D202" s="3"/>
+        <v>0.52669084960599999</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.32954939875099998</v>
+      </c>
       <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="2"/>
+      <c r="F202" s="2">
+        <v>0.59725853896299996</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0.40649828947599997</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0.26231347069900002</v>
+      </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
@@ -8746,19 +9396,27 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B203" s="1">
-        <v>0.589396971115</v>
+        <v>0.56363023988299998</v>
       </c>
       <c r="C203" s="1">
-        <v>0.52669084960599999</v>
-      </c>
-      <c r="D203" s="3"/>
+        <v>0.25503247252599998</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.27393231118099998</v>
+      </c>
       <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="2"/>
+      <c r="F203" s="2">
+        <v>0.53675155274599995</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0.258266864288</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0.20632114731100001</v>
+      </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
@@ -8767,34 +9425,45 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B204" s="1">
-        <v>0.56363023988299998</v>
+        <v>3</v>
       </c>
       <c r="C204" s="1">
-        <v>0.25503247252599998</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-    </row>
-    <row r="205" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" s="2">
+        <v>5</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="12" customFormat="1">
       <c r="A205" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B205" s="1">
-        <v>3</v>
+        <v>513</v>
       </c>
       <c r="C205" s="1">
-        <v>2</v>
+        <v>0.38357532447199999</v>
+      </c>
+      <c r="D205" s="12">
+        <v>0.30138543316299998</v>
+      </c>
+      <c r="F205" s="12">
+        <v>0.57083508647199999</v>
+      </c>
+      <c r="G205" s="12">
+        <v>0.34283486704600002</v>
+      </c>
+      <c r="H205" s="12">
+        <v>0.24590209516200001</v>
       </c>
     </row>
     <row r="206" spans="1:13" s="12" customFormat="1">
@@ -8802,7 +9471,19 @@
         <v>514</v>
       </c>
       <c r="C206" s="1">
-        <v>0.38357532447199999</v>
+        <v>0.51365541473300003</v>
+      </c>
+      <c r="D206" s="12">
+        <v>0.32954939875099998</v>
+      </c>
+      <c r="F206" s="12">
+        <v>0.59669108244400004</v>
+      </c>
+      <c r="G206" s="12">
+        <v>0.40546338021400002</v>
+      </c>
+      <c r="H206" s="12">
+        <v>0.25659870620000003</v>
       </c>
     </row>
     <row r="207" spans="1:13" s="12" customFormat="1">
@@ -8810,7 +9491,19 @@
         <v>515</v>
       </c>
       <c r="C207" s="1">
-        <v>0.51365541473300003</v>
+        <v>0.30606598648799999</v>
+      </c>
+      <c r="D207" s="12">
+        <v>0.27765635336099997</v>
+      </c>
+      <c r="F207" s="12">
+        <v>0.54712682374199995</v>
+      </c>
+      <c r="G207" s="12">
+        <v>0.29696516007399998</v>
+      </c>
+      <c r="H207" s="12">
+        <v>0.236061597048</v>
       </c>
     </row>
     <row r="208" spans="1:13" s="12" customFormat="1">
@@ -8818,278 +9511,336 @@
         <v>516</v>
       </c>
       <c r="C208" s="1">
-        <v>0.30606598648799999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" s="12" customFormat="1">
-      <c r="A209" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C209" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" s="12" customFormat="1">
-      <c r="A210" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B210" s="12">
+      <c r="D208" s="12">
         <v>1</v>
       </c>
-      <c r="C210" s="12">
+      <c r="F208" s="12">
+        <v>5</v>
+      </c>
+      <c r="G208" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" s="12" customFormat="1">
-      <c r="A211" s="12" t="s">
+      <c r="H208" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="12" customFormat="1">
+      <c r="A209" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B211" s="12">
+      <c r="B209" s="12">
         <f>59078.7621992/(60*60)</f>
         <v>16.410767277555554</v>
       </c>
-      <c r="C211" s="12">
+      <c r="C209" s="12">
         <f>153526.70817/(60*60)</f>
         <v>42.646307825000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" s="12" customFormat="1"/>
-    <row r="213" spans="1:3" s="12" customFormat="1">
+      <c r="D209" s="12">
+        <f>349362.91562/(60*60)</f>
+        <v>97.045254338888881</v>
+      </c>
+      <c r="F209" s="12">
+        <f>55922.479008/(60*60)</f>
+        <v>15.534021946666668</v>
+      </c>
+      <c r="G209" s="12">
+        <f>60103.0951519/(60*60)</f>
+        <v>16.69530420886111</v>
+      </c>
+      <c r="H209" s="12">
+        <f>200646.565432/(60*60)</f>
+        <v>55.735157064444444</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="12" customFormat="1"/>
+    <row r="211" spans="1:8" s="12" customFormat="1">
+      <c r="A211" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B211" s="12">
+        <v>3</v>
+      </c>
+      <c r="C211" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" s="12" customFormat="1">
+      <c r="A212" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B212" s="107">
+        <v>1</v>
+      </c>
+      <c r="C212" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="12" customFormat="1">
       <c r="A213" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B213" s="12">
+        <v>473</v>
+      </c>
+      <c r="B213" s="107">
+        <v>1</v>
+      </c>
+      <c r="C213" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="12" customFormat="1">
+      <c r="A214" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B214" s="12">
+        <v>305148</v>
+      </c>
+      <c r="C214" s="12">
+        <v>221845</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="12" customFormat="1">
+      <c r="A215" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B215" s="12">
+        <v>20823</v>
+      </c>
+      <c r="C215" s="12">
+        <v>24064</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="12" customFormat="1">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" s="12" customFormat="1">
+      <c r="A217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B217" s="12">
+        <v>0.56615836214600002</v>
+      </c>
+      <c r="C217" s="12">
+        <v>0.36469801495562099</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" s="12" customFormat="1">
+      <c r="A218" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218" s="12">
+        <v>0.57224914217900003</v>
+      </c>
+      <c r="C218" s="12">
+        <v>0.48342461575064599</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" s="12" customFormat="1">
+      <c r="A219" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B219" s="12">
+        <v>0.56019587206800003</v>
+      </c>
+      <c r="C219" s="12">
+        <v>0.29279023756912498</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" s="12" customFormat="1">
+      <c r="A220" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B220" s="12">
+        <v>9</v>
+      </c>
+      <c r="C220" s="12">
         <v>3</v>
       </c>
-      <c r="C213" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" s="12" customFormat="1">
-      <c r="A214" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B214" s="107">
+    </row>
+    <row r="221" spans="1:8" s="12" customFormat="1">
+      <c r="A221" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B221" s="12">
+        <v>0.56618173750900003</v>
+      </c>
+      <c r="C221" s="12">
+        <v>0.38849284401799999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" s="12" customFormat="1">
+      <c r="A222" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B222" s="12">
+        <v>0.57224914217900003</v>
+      </c>
+      <c r="C222" s="12">
+        <v>0.45432970324100003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="12" customFormat="1">
+      <c r="A223" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B223" s="12">
+        <v>0.56024164512200003</v>
+      </c>
+      <c r="C223" s="12">
+        <v>0.33932176973799999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" s="12" customFormat="1">
+      <c r="A224" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B224" s="12">
+        <v>9</v>
+      </c>
+      <c r="C224" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="12" customFormat="1">
+      <c r="A225" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B225" s="12">
         <v>1</v>
       </c>
-      <c r="C214" s="107">
+      <c r="C225" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="12" customFormat="1">
-      <c r="A215" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B215" s="107">
-        <v>1</v>
-      </c>
-      <c r="C215" s="107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" s="12" customFormat="1">
-      <c r="A216" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B216" s="12">
-        <v>305148</v>
-      </c>
-      <c r="C216" s="12">
-        <v>221845</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" s="12" customFormat="1">
-      <c r="A217" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B217" s="12">
-        <v>20823</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="12" customFormat="1">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:3" s="12" customFormat="1">
-      <c r="A219" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B219" s="12">
-        <v>0.56615836214600002</v>
-      </c>
-      <c r="C219" s="12">
-        <v>0.36469801495562099</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="12" customFormat="1">
-      <c r="A220" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B220" s="12">
-        <v>0.57224914217900003</v>
-      </c>
-      <c r="C220" s="12">
-        <v>0.48342461575064599</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" s="12" customFormat="1">
-      <c r="A221" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B221" s="12">
-        <v>0.56019587206800003</v>
-      </c>
-      <c r="C221" s="12">
-        <v>0.29279023756912498</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" s="12" customFormat="1">
-      <c r="A222" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B222" s="12">
-        <v>9</v>
-      </c>
-      <c r="C222" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" s="12" customFormat="1">
-      <c r="A223" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B223" s="12">
-        <v>0.56618173750900003</v>
-      </c>
-      <c r="C223" s="12">
-        <v>0.38849284401799999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" s="12" customFormat="1">
-      <c r="A224" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B224" s="12">
-        <v>0.57224914217900003</v>
-      </c>
-      <c r="C224" s="12">
-        <v>0.45432970324100003</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" s="12" customFormat="1">
-      <c r="A225" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B225" s="12">
-        <v>0.56024164512200003</v>
-      </c>
-      <c r="C225" s="12">
-        <v>0.33932176973799999</v>
-      </c>
-    </row>
     <row r="226" spans="1:13" s="12" customFormat="1">
-      <c r="A226" s="1" t="s">
-        <v>517</v>
+      <c r="A226" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="B226" s="12">
-        <v>9</v>
-      </c>
-      <c r="C226" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" s="12" customFormat="1">
-      <c r="A227" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B227" s="12">
-        <v>1</v>
-      </c>
-      <c r="C227" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" s="12" customFormat="1">
-      <c r="A228" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B228" s="12">
         <f>113330.489251/(60*60)</f>
         <v>31.480691458611112</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="12" customFormat="1"/>
-    <row r="230" spans="1:13" s="12" customFormat="1"/>
-    <row r="231" spans="1:13" s="12" customFormat="1">
-      <c r="C231" s="25"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-    </row>
-    <row r="233" spans="1:13" s="35" customFormat="1">
-      <c r="A233" s="4" t="s">
+    <row r="227" spans="1:13" s="12" customFormat="1"/>
+    <row r="228" spans="1:13" s="12" customFormat="1"/>
+    <row r="229" spans="1:13" s="12" customFormat="1">
+      <c r="C229" s="25"/>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+    </row>
+    <row r="231" spans="1:13" s="35" customFormat="1">
+      <c r="A231" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="96"/>
-      <c r="E233" s="97"/>
-      <c r="F233" s="97"/>
-      <c r="G233" s="96"/>
-      <c r="H233" s="97"/>
-      <c r="I233" s="97"/>
-      <c r="J233" s="97"/>
-      <c r="K233" s="97"/>
-      <c r="L233" s="97"/>
-      <c r="M233" s="97"/>
-    </row>
-    <row r="234" spans="1:13" s="100" customFormat="1">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5" t="s">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="96"/>
+      <c r="E231" s="97"/>
+      <c r="F231" s="96"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="97"/>
+      <c r="J231" s="97"/>
+      <c r="K231" s="97"/>
+      <c r="L231" s="97"/>
+      <c r="M231" s="97"/>
+    </row>
+    <row r="232" spans="1:13" s="100" customFormat="1">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D234" s="98" t="s">
+      <c r="D232" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E234" s="99"/>
-      <c r="F234" s="99"/>
-      <c r="G234" s="98"/>
-      <c r="H234" s="99"/>
-      <c r="I234" s="99"/>
-      <c r="J234" s="99"/>
-      <c r="K234" s="99"/>
-      <c r="L234" s="99"/>
-      <c r="M234" s="99"/>
+      <c r="E232" s="99"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="98"/>
+      <c r="I232" s="99"/>
+      <c r="J232" s="99"/>
+      <c r="K232" s="99"/>
+      <c r="L232" s="99"/>
+      <c r="M232" s="99"/>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B233" s="26">
+        <v>10</v>
+      </c>
+      <c r="C233" s="26">
+        <v>10</v>
+      </c>
+      <c r="D233" s="26">
+        <v>10</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B234" s="26">
+        <v>3</v>
+      </c>
+      <c r="C234" s="26">
+        <v>3</v>
+      </c>
+      <c r="D234" s="26">
+        <v>10</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B235" s="26">
-        <v>10</v>
-      </c>
-      <c r="C235" s="26">
-        <v>10</v>
-      </c>
-      <c r="D235" s="26">
-        <v>10</v>
+        <v>472</v>
+      </c>
+      <c r="B235" s="82">
+        <v>1</v>
+      </c>
+      <c r="C235" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="D235" s="82">
+        <v>0.5</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
-      <c r="G235" s="3"/>
+      <c r="G235" s="109"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
@@ -9099,20 +9850,20 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B236" s="26">
-        <v>3</v>
-      </c>
-      <c r="C236" s="26">
-        <v>3</v>
-      </c>
-      <c r="D236" s="26">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B236" s="82">
+        <v>1</v>
+      </c>
+      <c r="C236" s="82">
+        <v>1</v>
+      </c>
+      <c r="D236" s="82">
+        <v>0.2</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
-      <c r="G236" s="3"/>
+      <c r="G236" s="109"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -9121,18 +9872,10 @@
       <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13">
-      <c r="A237" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B237" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="C237" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="D237" s="82">
-        <v>0.2</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="3"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="3"/>
@@ -9145,17 +9888,15 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B238" s="82">
-        <v>1</v>
-      </c>
-      <c r="C238" s="82">
-        <v>1</v>
-      </c>
-      <c r="D238" s="82">
-        <v>0.5</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0.56444653526800004</v>
+      </c>
+      <c r="C238">
+        <v>0.37142344429500002</v>
+      </c>
+      <c r="D238" s="3"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="3"/>
@@ -9167,9 +9908,15 @@
       <c r="M238" s="2"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="A239" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0.60010196679500005</v>
+      </c>
+      <c r="C239">
+        <v>0.57106867546499995</v>
+      </c>
       <c r="D239" s="3"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -9183,10 +9930,13 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B240" s="1">
-        <v>0.50165249455399996</v>
+        <v>0.53306287161900001</v>
+      </c>
+      <c r="C240">
+        <v>0.27521142308699997</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="2"/>
@@ -9201,10 +9951,13 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B241" s="1">
-        <v>0.52525057706699996</v>
+        <v>14.2</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="2"/>
@@ -9219,10 +9972,13 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="B242" s="1">
-        <v>0.48030851514099998</v>
+        <v>0.56446533663099996</v>
+      </c>
+      <c r="C242">
+        <v>0.40468879936800001</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="2"/>
@@ -9237,10 +9993,13 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="B243" s="1">
-        <v>36.4</v>
+        <v>0.60010196679500005</v>
+      </c>
+      <c r="C243">
+        <v>0.49009585211200002</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="2"/>
@@ -9255,10 +10014,13 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="B244" s="1">
-        <v>1</v>
+        <v>0.53309637348899996</v>
+      </c>
+      <c r="C244">
+        <v>0.34463209886399998</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="2"/>
@@ -9271,31 +10033,47 @@
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:13" s="12" customFormat="1">
-      <c r="A245" s="12" t="s">
+    <row r="245" spans="1:13">
+      <c r="A245" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B245" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+    </row>
+    <row r="246" spans="1:13" s="12" customFormat="1">
+      <c r="A246" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B245" s="12">
-        <f>316654.886956/(60*60)</f>
-        <v>87.95969082111111</v>
-      </c>
-      <c r="C245" s="25"/>
-    </row>
-    <row r="246" spans="1:13" s="12" customFormat="1">
-      <c r="C246" s="25"/>
-    </row>
-    <row r="247" spans="1:13" s="1" customFormat="1">
-      <c r="C247"/>
-      <c r="D247" s="26"/>
+      <c r="B246" s="1">
+        <f>61101.6695879/(60*60)</f>
+        <v>16.972685996638891</v>
+      </c>
+      <c r="C246" s="25">
+        <f>467806.127903/(60*60)</f>
+        <v>129.94614663972223</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" s="12" customFormat="1">
+      <c r="C247" s="25"/>
     </row>
     <row r="248" spans="1:13">
-      <c r="A248" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B248" s="26">
-        <v>10</v>
-      </c>
-      <c r="D248" s="26"/>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="D248" s="1"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1"/>
@@ -9306,63 +10084,80 @@
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" spans="1:13">
-      <c r="A249" s="1" t="s">
+    <row r="249" spans="1:13" s="35" customFormat="1">
+      <c r="A249" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="97"/>
+      <c r="F249" s="97"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="97"/>
+      <c r="I249" s="97"/>
+      <c r="J249" s="97"/>
+      <c r="K249" s="97"/>
+      <c r="L249" s="97"/>
+      <c r="M249" s="97"/>
+    </row>
+    <row r="250" spans="1:13" s="100" customFormat="1">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E250" s="99"/>
+      <c r="F250" s="99"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="99"/>
+      <c r="I250" s="99"/>
+      <c r="J250" s="99"/>
+      <c r="K250" s="99"/>
+      <c r="L250" s="99"/>
+      <c r="M250" s="99"/>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B251" s="26">
+        <v>10</v>
+      </c>
+      <c r="C251" s="26">
+        <v>10</v>
+      </c>
+      <c r="D251" s="1">
+        <v>10</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B249" s="26">
+      <c r="B252" s="26">
         <v>3</v>
       </c>
-      <c r="D249" s="82"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-    </row>
-    <row r="250" spans="1:13">
-      <c r="A250" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B250" s="82">
-        <v>1</v>
-      </c>
-      <c r="D250" s="82"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-    </row>
-    <row r="251" spans="1:13" s="1" customFormat="1">
-      <c r="A251" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B251" s="82">
-        <v>1</v>
-      </c>
-      <c r="C251"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-    </row>
-    <row r="252" spans="1:13">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="C252" s="26">
+        <v>3</v>
+      </c>
+      <c r="D252" s="1">
+        <v>3</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="1"/>
@@ -9375,12 +10170,15 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B253" s="1">
-        <v>0.568054526575</v>
-      </c>
-      <c r="D253" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="B253" s="82">
+        <v>1</v>
+      </c>
+      <c r="C253" s="26"/>
+      <c r="D253" s="81">
+        <v>0.2</v>
+      </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1"/>
@@ -9393,12 +10191,15 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B254" s="1">
-        <v>0.59659852084599996</v>
-      </c>
-      <c r="D254" s="1"/>
+        <v>473</v>
+      </c>
+      <c r="B254" s="82">
+        <v>1</v>
+      </c>
+      <c r="C254" s="26"/>
+      <c r="D254" s="81">
+        <v>0.1</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1"/>
@@ -9411,12 +10212,13 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B255" s="1">
-        <v>0.54316311400899997</v>
-      </c>
-      <c r="D255" s="1"/>
+        <v>482</v>
+      </c>
+      <c r="B255" s="85">
+        <v>651535</v>
+      </c>
+      <c r="C255" s="26"/>
+      <c r="D255" s="81"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="1"/>
@@ -9429,12 +10231,13 @@
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B256" s="1">
-        <v>10</v>
-      </c>
-      <c r="D256" s="1"/>
+        <v>483</v>
+      </c>
+      <c r="B256" s="85">
+        <v>4160</v>
+      </c>
+      <c r="C256" s="26"/>
+      <c r="D256" s="81"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="1"/>
@@ -9447,12 +10250,13 @@
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B257" s="1">
-        <v>1</v>
-      </c>
-      <c r="D257" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="B257" s="85">
+        <v>2622</v>
+      </c>
+      <c r="C257" s="26"/>
+      <c r="D257" s="81"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="1"/>
@@ -9464,13 +10268,9 @@
       <c r="M257" s="2"/>
     </row>
     <row r="258" spans="1:13">
-      <c r="A258" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B258" s="1">
-        <f>58888.9330211/(60*60)</f>
-        <v>16.358036950305554</v>
-      </c>
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -9483,9 +10283,18 @@
       <c r="M258" s="2"/>
     </row>
     <row r="259" spans="1:13">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="D259" s="1"/>
+      <c r="A259" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0.55623386209699999</v>
+      </c>
+      <c r="C259">
+        <v>0.30193325091200002</v>
+      </c>
+      <c r="D259" s="1">
+        <v>0.296636620016</v>
+      </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1"/>
@@ -9497,9 +10306,18 @@
       <c r="M259" s="2"/>
     </row>
     <row r="260" spans="1:13">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="D260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0.57671216554399996</v>
+      </c>
+      <c r="C260">
+        <v>0.35826661275499999</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0.32957350139499902</v>
+      </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="1"/>
@@ -9511,9 +10329,18 @@
       <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="D261" s="1"/>
+      <c r="A261" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0.53855916990599995</v>
+      </c>
+      <c r="C261">
+        <v>0.26106096036999998</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0.26968855537000003</v>
+      </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="1"/>
@@ -9525,9 +10352,18 @@
       <c r="M261" s="2"/>
     </row>
     <row r="262" spans="1:13">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="D262" s="1"/>
+      <c r="A262" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B262" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="C262">
+        <v>22</v>
+      </c>
+      <c r="D262" s="1">
+        <v>3</v>
+      </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="1"/>
@@ -9538,56 +10374,55 @@
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
     </row>
-    <row r="263" spans="1:13" s="35" customFormat="1">
-      <c r="A263" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="97"/>
-      <c r="F263" s="97"/>
-      <c r="G263" s="4"/>
-      <c r="H263" s="97"/>
-      <c r="I263" s="97"/>
-      <c r="J263" s="97"/>
-      <c r="K263" s="97"/>
-      <c r="L263" s="97"/>
-      <c r="M263" s="97"/>
-    </row>
-    <row r="264" spans="1:13" s="100" customFormat="1">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E264" s="99"/>
-      <c r="F264" s="99"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="99"/>
-      <c r="I264" s="99"/>
-      <c r="J264" s="99"/>
-      <c r="K264" s="99"/>
-      <c r="L264" s="99"/>
-      <c r="M264" s="99"/>
+    <row r="263" spans="1:13">
+      <c r="A263" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0.55626305104600005</v>
+      </c>
+      <c r="D263" s="1">
+        <v>0.30136508638350001</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2"/>
+    </row>
+    <row r="264" spans="1:13">
+      <c r="A264" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0.57671216554399996</v>
+      </c>
+      <c r="D264" s="1">
+        <v>0.32957350139499902</v>
+      </c>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+      <c r="L264" s="2"/>
+      <c r="M264" s="2"/>
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B265" s="26">
-        <v>10</v>
-      </c>
-      <c r="C265" s="26">
-        <v>10</v>
+        <v>520</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0.53861204272300001</v>
       </c>
       <c r="D265" s="1">
-        <v>10</v>
+        <v>0.27760804910949999</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -9601,13 +10436,10 @@
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B266" s="26">
-        <v>3</v>
-      </c>
-      <c r="C266" s="26">
-        <v>3</v>
+        <v>521</v>
+      </c>
+      <c r="B266" s="1">
+        <v>21.8</v>
       </c>
       <c r="D266" s="1">
         <v>3</v>
@@ -9622,215 +10454,225 @@
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
     </row>
-    <row r="267" spans="1:13">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="1:13" s="12" customFormat="1">
+      <c r="A267" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B267" s="12">
+        <f>144814.023426/(60*60)</f>
+        <v>40.226117618333333</v>
+      </c>
+      <c r="C267" s="25">
+        <f>929461.724412/(60*60)</f>
+        <v>258.18381233666668</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" s="12" customFormat="1">
+      <c r="C268" s="101"/>
+    </row>
+    <row r="269" spans="1:13" s="35" customFormat="1">
+      <c r="A269" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="97"/>
+      <c r="F269" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="97"/>
+      <c r="J269" s="97"/>
+      <c r="K269" s="97"/>
+      <c r="L269" s="97"/>
+      <c r="M269" s="97"/>
+    </row>
+    <row r="270" spans="1:13" s="100" customFormat="1">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E270" s="99"/>
+      <c r="F270" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H270" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I270" s="99"/>
+      <c r="J270" s="99"/>
+      <c r="K270" s="99"/>
+      <c r="L270" s="99"/>
+      <c r="M270" s="99"/>
+    </row>
+    <row r="271" spans="1:13" s="25" customFormat="1">
+      <c r="A271" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B271" s="12">
+        <v>3</v>
+      </c>
+      <c r="C271" s="12">
+        <v>10</v>
+      </c>
+      <c r="D271" s="12">
+        <v>10</v>
+      </c>
+      <c r="E271" s="27"/>
+      <c r="F271" s="27">
+        <v>3</v>
+      </c>
+      <c r="G271" s="12"/>
+      <c r="H271" s="27"/>
+      <c r="I271" s="27"/>
+      <c r="J271" s="27"/>
+      <c r="K271" s="27"/>
+      <c r="L271" s="27"/>
+      <c r="M271" s="27"/>
+    </row>
+    <row r="272" spans="1:13" s="25" customFormat="1">
+      <c r="A272" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B267" s="82">
+      <c r="B272" s="107">
+        <v>1</v>
+      </c>
+      <c r="C272" s="107">
+        <v>1</v>
+      </c>
+      <c r="D272" s="107">
         <v>0.2</v>
       </c>
-      <c r="C267" s="26"/>
-      <c r="D267" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-    </row>
-    <row r="268" spans="1:13">
-      <c r="A268" s="1"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-    </row>
-    <row r="269" spans="1:13">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-    </row>
-    <row r="270" spans="1:13">
-      <c r="A270" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B270" s="1">
-        <v>0.52060678879</v>
-      </c>
-      <c r="C270">
-        <v>0.30193325091200002</v>
-      </c>
-      <c r="D270" s="1">
-        <v>0.296636620016</v>
-      </c>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-    </row>
-    <row r="271" spans="1:13">
-      <c r="A271" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B271" s="1">
-        <v>0.559170285953</v>
-      </c>
-      <c r="C271">
-        <v>0.35826661275499999</v>
-      </c>
-      <c r="D271" s="1">
-        <v>0.32957350139499902</v>
-      </c>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-    </row>
-    <row r="272" spans="1:13">
-      <c r="A272" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B272" s="1">
-        <v>0.48717736361699998</v>
-      </c>
-      <c r="C272">
-        <v>0.26106096036999998</v>
-      </c>
-      <c r="D272" s="1">
-        <v>0.26968855537000003</v>
-      </c>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="E272" s="27"/>
+      <c r="F272" s="111">
+        <v>1</v>
+      </c>
+      <c r="G272" s="12"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="27"/>
+      <c r="J272" s="27"/>
+      <c r="K272" s="27"/>
+      <c r="L272" s="27"/>
+      <c r="M272" s="27"/>
+    </row>
+    <row r="273" spans="1:13" s="25" customFormat="1">
       <c r="A273" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B273" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="C273">
-        <v>22</v>
-      </c>
-      <c r="D273" s="1">
-        <v>3</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="1"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-    </row>
-    <row r="274" spans="1:13">
+        <v>473</v>
+      </c>
+      <c r="B273" s="107">
+        <v>1</v>
+      </c>
+      <c r="C273" s="107">
+        <v>1</v>
+      </c>
+      <c r="D273" s="107">
+        <v>1</v>
+      </c>
+      <c r="E273" s="27"/>
+      <c r="F273" s="111">
+        <v>1</v>
+      </c>
+      <c r="G273" s="12"/>
+      <c r="H273" s="27"/>
+      <c r="I273" s="27"/>
+      <c r="J273" s="27"/>
+      <c r="K273" s="27"/>
+      <c r="L273" s="27"/>
+      <c r="M273" s="27"/>
+    </row>
+    <row r="274" spans="1:13" s="25" customFormat="1">
       <c r="A274" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B274" s="1"/>
-      <c r="D274" s="1">
-        <v>0.30136508638350001</v>
-      </c>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-    </row>
-    <row r="275" spans="1:13">
+        <v>482</v>
+      </c>
+      <c r="B274" s="12">
+        <v>13584</v>
+      </c>
+      <c r="C274" s="12">
+        <v>31223</v>
+      </c>
+      <c r="D274" s="12">
+        <v>19700</v>
+      </c>
+      <c r="E274" s="27"/>
+      <c r="F274" s="27">
+        <v>15965</v>
+      </c>
+      <c r="G274" s="12"/>
+      <c r="H274" s="27"/>
+      <c r="I274" s="27"/>
+      <c r="J274" s="27"/>
+      <c r="K274" s="27"/>
+      <c r="L274" s="27"/>
+      <c r="M274" s="27"/>
+    </row>
+    <row r="275" spans="1:13" s="25" customFormat="1">
       <c r="A275" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B275" s="1"/>
-      <c r="D275" s="1">
-        <v>0.32957350139499902</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="1"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-    </row>
-    <row r="276" spans="1:13">
-      <c r="A276" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B276" s="1"/>
-      <c r="D276" s="1">
-        <v>0.27760804910949999</v>
-      </c>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="B275" s="12">
+        <v>5728</v>
+      </c>
+      <c r="C275" s="12">
+        <v>5769</v>
+      </c>
+      <c r="D275" s="12">
+        <v>10811</v>
+      </c>
+      <c r="E275" s="27"/>
+      <c r="F275" s="27">
+        <v>5728</v>
+      </c>
+      <c r="G275" s="12"/>
+      <c r="H275" s="27"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="27"/>
+      <c r="K275" s="27"/>
+      <c r="L275" s="27"/>
+      <c r="M275" s="27"/>
+    </row>
+    <row r="276" spans="1:13" s="25" customFormat="1">
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="27"/>
+      <c r="F276" s="27"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="27"/>
+      <c r="I276" s="27"/>
+      <c r="J276" s="27"/>
+      <c r="K276" s="27"/>
+      <c r="L276" s="27"/>
+      <c r="M276" s="27"/>
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B277" s="1"/>
-      <c r="D277" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0.64221370962400004</v>
+      </c>
+      <c r="C277">
+        <v>0.34279795373900002</v>
+      </c>
+      <c r="D277" s="26">
+        <v>0.25807520653799998</v>
       </c>
       <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
+      <c r="F277" s="2">
+        <v>0.480745912484</v>
+      </c>
       <c r="G277" s="1"/>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
@@ -9841,20 +10683,22 @@
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B278" s="1">
-        <v>1</v>
+        <v>0.65446452418599999</v>
       </c>
       <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278" s="3">
-        <v>1</v>
+        <v>0.65725368524600003</v>
+      </c>
+      <c r="D278" s="26">
+        <v>0.51539162061499999</v>
       </c>
       <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="3"/>
+      <c r="F278" s="2">
+        <v>0.85840889624100003</v>
+      </c>
+      <c r="G278" s="1"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
@@ -9862,275 +10706,345 @@
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
     </row>
-    <row r="279" spans="1:13" s="12" customFormat="1">
-      <c r="A279" s="12" t="s">
+    <row r="279" spans="1:13" s="1" customFormat="1">
+      <c r="A279" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0.63041310956399998</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0.231864809073</v>
+      </c>
+      <c r="D279" s="1">
+        <v>0.172134613549</v>
+      </c>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3">
+        <v>0.33386130271600001</v>
+      </c>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="A280" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>1</v>
+      </c>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2">
+        <v>1</v>
+      </c>
+      <c r="G280" s="1"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+      <c r="M280" s="2"/>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="A281" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0.64486091308399995</v>
+      </c>
+      <c r="C281">
+        <v>0.40575044208299998</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0.28072078551000001</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2">
+        <v>0.51683045702099994</v>
+      </c>
+      <c r="G281" s="1"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+      <c r="M281" s="2"/>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="A282" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0.65446452418599999</v>
+      </c>
+      <c r="C282">
+        <v>0.53151276265799996</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0.51539162061499999</v>
+      </c>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2">
+        <v>0.85678271585800003</v>
+      </c>
+      <c r="G282" s="1"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2"/>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B283" s="1">
+        <v>0.63553507271499998</v>
+      </c>
+      <c r="C283" s="108">
+        <v>0.32811458082400002</v>
+      </c>
+      <c r="D283" s="1">
+        <v>0.19289212449000001</v>
+      </c>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2">
+        <v>0.37001626255499998</v>
+      </c>
+      <c r="G283" s="1"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1</v>
+      </c>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2">
+        <v>1</v>
+      </c>
+      <c r="G284" s="1"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+      <c r="M284" s="2"/>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B279" s="12">
-        <f>437953.239453/(60*60)</f>
-        <v>121.65367762583334</v>
-      </c>
-      <c r="C279" s="25">
-        <f>929461.724412/(60*60)</f>
-        <v>258.18381233666668</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" s="12" customFormat="1">
-      <c r="C280" s="101"/>
-    </row>
-    <row r="281" spans="1:13" s="35" customFormat="1">
-      <c r="A281" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="97"/>
-      <c r="F281" s="97"/>
-      <c r="G281" s="4"/>
-      <c r="H281" s="97"/>
-      <c r="I281" s="97"/>
-      <c r="J281" s="97"/>
-      <c r="K281" s="97"/>
-      <c r="L281" s="97"/>
-      <c r="M281" s="97"/>
-    </row>
-    <row r="282" spans="1:13" s="100" customFormat="1">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5" t="s">
+      <c r="B285" s="1">
+        <f>34790.2647679/(60*60)</f>
+        <v>9.6639624355277771</v>
+      </c>
+      <c r="C285">
+        <f>27695.3879449/(60*60)</f>
+        <v>7.6931633180277785</v>
+      </c>
+      <c r="D285" s="1">
+        <f>79529.694277/(60*60)</f>
+        <v>22.091581743611112</v>
+      </c>
+      <c r="E285" s="10"/>
+      <c r="F285" s="2">
+        <f>3643.66030002/(60*60)</f>
+        <v>1.0121278611166666</v>
+      </c>
+      <c r="G285" s="1"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+      <c r="M285" s="2"/>
+    </row>
+    <row r="286" spans="1:13" s="8" customFormat="1">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286"/>
+      <c r="D286" s="7"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="7"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="9"/>
+      <c r="K286" s="9"/>
+      <c r="L286" s="9"/>
+      <c r="M286" s="9"/>
+    </row>
+    <row r="287" spans="1:13" s="35" customFormat="1">
+      <c r="A287" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="97"/>
+      <c r="F287" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
+      <c r="I287" s="97"/>
+      <c r="J287" s="97"/>
+      <c r="K287" s="97"/>
+      <c r="L287" s="97"/>
+      <c r="M287" s="97"/>
+    </row>
+    <row r="288" spans="1:13" s="100" customFormat="1">
+      <c r="A288" s="5"/>
+      <c r="B288" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C282" s="5" t="s">
+      <c r="C288" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D282" s="5" t="s">
+      <c r="D288" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E282" s="99"/>
-      <c r="F282" s="99"/>
-      <c r="G282" s="5"/>
-      <c r="H282" s="99"/>
-      <c r="I282" s="99"/>
-      <c r="J282" s="99"/>
-      <c r="K282" s="99"/>
-      <c r="L282" s="99"/>
-      <c r="M282" s="99"/>
-    </row>
-    <row r="283" spans="1:13" s="25" customFormat="1">
-      <c r="A283" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B283" s="12">
-        <v>3</v>
-      </c>
-      <c r="C283" s="12">
-        <v>10</v>
-      </c>
-      <c r="D283" s="12">
-        <v>10</v>
-      </c>
-      <c r="E283" s="27"/>
-      <c r="F283" s="27"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="27"/>
-      <c r="I283" s="27"/>
-      <c r="J283" s="27"/>
-      <c r="K283" s="27"/>
-      <c r="L283" s="27"/>
-      <c r="M283" s="27"/>
-    </row>
-    <row r="284" spans="1:13" s="25" customFormat="1">
-      <c r="A284" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B284" s="107">
-        <v>1</v>
-      </c>
-      <c r="C284" s="107">
-        <v>1</v>
-      </c>
-      <c r="D284" s="107">
-        <v>0.2</v>
-      </c>
-      <c r="E284" s="27"/>
-      <c r="F284" s="27"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="27"/>
-      <c r="I284" s="27"/>
-      <c r="J284" s="27"/>
-      <c r="K284" s="27"/>
-      <c r="L284" s="27"/>
-      <c r="M284" s="27"/>
-    </row>
-    <row r="285" spans="1:13" s="25" customFormat="1">
-      <c r="A285" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B285" s="107">
-        <v>1</v>
-      </c>
-      <c r="C285" s="107">
-        <v>1</v>
-      </c>
-      <c r="D285" s="107">
-        <v>1</v>
-      </c>
-      <c r="E285" s="27"/>
-      <c r="F285" s="27"/>
-      <c r="G285" s="12"/>
-      <c r="H285" s="27"/>
-      <c r="I285" s="27"/>
-      <c r="J285" s="27"/>
-      <c r="K285" s="27"/>
-      <c r="L285" s="27"/>
-      <c r="M285" s="27"/>
-    </row>
-    <row r="286" spans="1:13" s="25" customFormat="1">
-      <c r="A286" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B286" s="12">
-        <v>13584</v>
-      </c>
-      <c r="C286" s="12">
-        <v>31223</v>
-      </c>
-      <c r="D286" s="12">
-        <v>19700</v>
-      </c>
-      <c r="E286" s="27"/>
-      <c r="F286" s="27"/>
-      <c r="G286" s="12"/>
-      <c r="H286" s="27"/>
-      <c r="I286" s="27"/>
-      <c r="J286" s="27"/>
-      <c r="K286" s="27"/>
-      <c r="L286" s="27"/>
-      <c r="M286" s="27"/>
-    </row>
-    <row r="287" spans="1:13" s="25" customFormat="1">
-      <c r="A287" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B287" s="12">
-        <v>5728</v>
-      </c>
-      <c r="C287" s="12">
-        <v>5769</v>
-      </c>
-      <c r="D287" s="12">
-        <v>10811</v>
-      </c>
-      <c r="E287" s="27"/>
-      <c r="F287" s="27"/>
-      <c r="G287" s="12"/>
-      <c r="H287" s="27"/>
-      <c r="I287" s="27"/>
-      <c r="J287" s="27"/>
-      <c r="K287" s="27"/>
-      <c r="L287" s="27"/>
-      <c r="M287" s="27"/>
-    </row>
-    <row r="288" spans="1:13" s="25" customFormat="1">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
-      <c r="E288" s="27"/>
-      <c r="F288" s="27"/>
-      <c r="G288" s="12"/>
-      <c r="H288" s="27"/>
-      <c r="I288" s="27"/>
-      <c r="J288" s="27"/>
-      <c r="K288" s="27"/>
-      <c r="L288" s="27"/>
-      <c r="M288" s="27"/>
+      <c r="E288" s="99"/>
+      <c r="F288" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H288" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I288" s="99"/>
+      <c r="J288" s="99"/>
+      <c r="K288" s="99"/>
+      <c r="L288" s="99"/>
+      <c r="M288" s="99"/>
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="1" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="B289" s="1">
-        <v>0.64221370962400004</v>
+        <v>3</v>
       </c>
       <c r="C289">
-        <v>0.34279795373900002</v>
-      </c>
-      <c r="D289" s="26">
-        <v>0.25807520653799998</v>
+        <v>10</v>
+      </c>
+      <c r="D289" s="1">
+        <v>3</v>
       </c>
       <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
+      <c r="F289" s="2">
+        <v>3</v>
+      </c>
       <c r="G289" s="1"/>
-      <c r="H289" s="2"/>
+      <c r="H289" s="2">
+        <v>5</v>
+      </c>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" s="1" customFormat="1">
       <c r="A290" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B290" s="1">
-        <v>0.65446452418599999</v>
-      </c>
-      <c r="C290">
-        <v>0.65725368524600003</v>
-      </c>
-      <c r="D290" s="26">
-        <v>0.51539162061499999</v>
-      </c>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-    </row>
-    <row r="291" spans="1:13" s="1" customFormat="1">
+        <v>472</v>
+      </c>
+      <c r="B290" s="81">
+        <v>1</v>
+      </c>
+      <c r="C290" s="10">
+        <v>1</v>
+      </c>
+      <c r="D290" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="E290" s="3"/>
+      <c r="F290" s="109">
+        <v>1</v>
+      </c>
+      <c r="H290" s="109">
+        <v>0.5</v>
+      </c>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="3"/>
+      <c r="M290" s="3"/>
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B291" s="1">
-        <v>0.63041310956399998</v>
-      </c>
-      <c r="C291" s="1">
-        <v>0.231864809073</v>
-      </c>
-      <c r="D291" s="1">
-        <v>0.172134613549</v>
-      </c>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
-      <c r="K291" s="3"/>
-      <c r="L291" s="3"/>
-      <c r="M291" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="B291" s="81">
+        <v>1</v>
+      </c>
+      <c r="C291" s="10">
+        <v>1</v>
+      </c>
+      <c r="D291" s="81">
+        <v>1</v>
+      </c>
+      <c r="E291" s="2"/>
+      <c r="F291" s="11">
+        <v>1</v>
+      </c>
+      <c r="G291" s="1"/>
+      <c r="H291" s="11">
+        <v>1</v>
+      </c>
+      <c r="I291" s="2"/>
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
+      <c r="L291" s="2"/>
+      <c r="M291" s="2"/>
     </row>
     <row r="292" spans="1:13">
       <c r="A292" s="1" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B292" s="1">
-        <v>1</v>
-      </c>
-      <c r="C292" s="1">
-        <v>1</v>
+        <v>305148</v>
+      </c>
+      <c r="C292">
+        <v>221845</v>
       </c>
       <c r="D292" s="1">
-        <v>1</v>
+        <v>110922</v>
       </c>
       <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
+      <c r="F292" s="2">
+        <v>482297</v>
+      </c>
       <c r="G292" s="1"/>
-      <c r="H292" s="2"/>
+      <c r="H292" s="2">
+        <v>526529</v>
+      </c>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
@@ -10139,21 +11053,25 @@
     </row>
     <row r="293" spans="1:13">
       <c r="A293" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B293" s="1">
-        <v>0.64486091308399995</v>
+        <v>5728</v>
       </c>
       <c r="C293">
-        <v>0.40575044208299998</v>
+        <v>5769</v>
       </c>
       <c r="D293" s="1">
-        <v>0.28072078551000001</v>
+        <v>82397</v>
       </c>
       <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
+      <c r="F293" s="2">
+        <v>5728</v>
+      </c>
       <c r="G293" s="1"/>
-      <c r="H293" s="2"/>
+      <c r="H293" s="2">
+        <v>10811</v>
+      </c>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
@@ -10162,21 +11080,21 @@
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B294" s="1">
-        <v>0.65446452418599999</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B294" s="1"/>
       <c r="C294">
-        <v>0.53151276265799996</v>
-      </c>
-      <c r="D294" s="1">
-        <v>0.51539162061499999</v>
-      </c>
+        <v>4288</v>
+      </c>
+      <c r="D294" s="1"/>
       <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
+      <c r="F294" s="2">
+        <v>218</v>
+      </c>
       <c r="G294" s="1"/>
-      <c r="H294" s="2"/>
+      <c r="H294" s="2">
+        <v>558</v>
+      </c>
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
@@ -10184,19 +11102,11 @@
       <c r="M294" s="2"/>
     </row>
     <row r="295" spans="1:13">
-      <c r="A295" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B295" s="1">
-        <v>0.63553507271499998</v>
-      </c>
-      <c r="C295" s="108">
-        <v>0.32811458082400002</v>
-      </c>
-      <c r="D295" s="1">
-        <v>0.19289212449000001</v>
-      </c>
-      <c r="E295" s="2"/>
+      <c r="A295" s="12"/>
+      <c r="B295" s="83"/>
+      <c r="C295" s="84"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="11"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1"/>
       <c r="H295" s="2"/>
@@ -10208,21 +11118,25 @@
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B296" s="1">
-        <v>1</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B296" s="83">
+        <v>0.64362824113799999</v>
+      </c>
+      <c r="C296" s="84">
+        <v>0.36440334223300003</v>
       </c>
       <c r="D296" s="1">
-        <v>1</v>
+        <v>0.36039063071900002</v>
       </c>
       <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
+      <c r="F296" s="2">
+        <v>0.60950918760999995</v>
+      </c>
       <c r="G296" s="1"/>
-      <c r="H296" s="2"/>
+      <c r="H296" s="2">
+        <v>0.14925312721299999</v>
+      </c>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
@@ -10231,21 +11145,25 @@
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B297" s="1">
-        <v>1</v>
+        <v>0.69987417616699998</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0.48080575343199999</v>
       </c>
       <c r="D297" s="1">
-        <v>1</v>
+        <v>0.486269885924</v>
       </c>
       <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
+      <c r="F297" s="2">
+        <v>0.67350646915099999</v>
+      </c>
       <c r="G297" s="1"/>
-      <c r="H297" s="2"/>
+      <c r="H297" s="2">
+        <v>0.222828414108</v>
+      </c>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
@@ -10254,137 +11172,191 @@
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B298" s="1">
-        <f>34790.2647679/(60*60)</f>
-        <v>9.6639624355277771</v>
+        <v>0.59575030256899997</v>
       </c>
       <c r="C298">
-        <f>27695.3879449/(60*60)</f>
-        <v>7.6931633180277785</v>
+        <v>0.29337714032000001</v>
       </c>
       <c r="D298" s="1">
-        <f>79529.694277/(60*60)</f>
-        <v>22.091581743611112</v>
-      </c>
-      <c r="E298" s="10"/>
-      <c r="F298" s="2"/>
+        <v>0.28628172305299998</v>
+      </c>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2">
+        <v>0.55661870258699997</v>
+      </c>
       <c r="G298" s="1"/>
-      <c r="H298" s="2"/>
+      <c r="H298" s="2">
+        <v>0.11220452890800001</v>
+      </c>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
     </row>
-    <row r="299" spans="1:13" s="8" customFormat="1">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299"/>
-      <c r="D299" s="7"/>
-      <c r="F299" s="9"/>
-      <c r="G299" s="7"/>
-      <c r="H299" s="9"/>
-      <c r="I299" s="9"/>
-      <c r="J299" s="9"/>
-      <c r="K299" s="9"/>
-      <c r="L299" s="9"/>
-      <c r="M299" s="9"/>
-    </row>
-    <row r="300" spans="1:13" s="35" customFormat="1">
-      <c r="A300" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="97"/>
-      <c r="F300" s="97"/>
-      <c r="G300" s="4"/>
-      <c r="H300" s="97"/>
-      <c r="I300" s="97"/>
-      <c r="J300" s="97"/>
-      <c r="K300" s="97"/>
-      <c r="L300" s="97"/>
-      <c r="M300" s="97"/>
-    </row>
-    <row r="301" spans="1:13" s="100" customFormat="1">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E301" s="99"/>
-      <c r="F301" s="99"/>
-      <c r="G301" s="5"/>
-      <c r="H301" s="99"/>
-      <c r="I301" s="99"/>
-      <c r="J301" s="99"/>
-      <c r="K301" s="99"/>
-      <c r="L301" s="99"/>
-      <c r="M301" s="99"/>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B299" s="1">
+        <v>18</v>
+      </c>
+      <c r="C299">
+        <v>4</v>
+      </c>
+      <c r="D299" s="1">
+        <v>1</v>
+      </c>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2">
+        <v>2</v>
+      </c>
+      <c r="G299" s="1"/>
+      <c r="H299" s="2">
+        <v>1</v>
+      </c>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="K299" s="2"/>
+      <c r="L299" s="2"/>
+      <c r="M299" s="2"/>
+    </row>
+    <row r="300" spans="1:13" s="1" customFormat="1">
+      <c r="A300" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B300">
+        <v>0.64378633739500002</v>
+      </c>
+      <c r="C300">
+        <v>0.39031871412800001</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0.388793502372</v>
+      </c>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3">
+        <v>0.63022254161299995</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0.19957159131300001</v>
+      </c>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B301" s="12">
+        <v>0.69987417616699998</v>
+      </c>
+      <c r="C301" s="12">
+        <v>0.46005774679599998</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0.48879564594300001</v>
+      </c>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2">
+        <v>0.668588189735</v>
+      </c>
+      <c r="G301" s="1"/>
+      <c r="H301" s="2">
+        <v>0.20985894307</v>
+      </c>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="2"/>
     </row>
     <row r="302" spans="1:13">
       <c r="A302" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B302" s="1">
-        <v>3</v>
-      </c>
-      <c r="C302">
-        <v>10</v>
-      </c>
-      <c r="D302" s="1"/>
+        <v>485</v>
+      </c>
+      <c r="B302" s="12">
+        <v>0.59602125980999998</v>
+      </c>
+      <c r="C302" s="12">
+        <v>0.338939674824</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0.32276033387899999</v>
+      </c>
       <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
+      <c r="F302" s="2">
+        <v>0.59602102098300003</v>
+      </c>
       <c r="G302" s="1"/>
-      <c r="H302" s="2"/>
+      <c r="H302" s="2">
+        <v>0.19024568754400001</v>
+      </c>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
     </row>
-    <row r="303" spans="1:13" s="1" customFormat="1">
+    <row r="303" spans="1:13">
       <c r="A303" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B303" s="81">
+        <v>484</v>
+      </c>
+      <c r="B303" s="7">
+        <v>18</v>
+      </c>
+      <c r="C303" s="8">
+        <v>9</v>
+      </c>
+      <c r="D303" s="1">
+        <v>3</v>
+      </c>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2">
+        <v>2</v>
+      </c>
+      <c r="G303" s="1"/>
+      <c r="H303" s="2">
         <v>1</v>
       </c>
-      <c r="C303" s="10">
-        <v>1</v>
-      </c>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
-      <c r="J303" s="3"/>
-      <c r="K303" s="3"/>
-      <c r="L303" s="3"/>
-      <c r="M303" s="3"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+      <c r="M303" s="2"/>
     </row>
     <row r="304" spans="1:13">
       <c r="A304" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B304" s="81">
-        <v>1</v>
-      </c>
-      <c r="C304" s="10">
-        <v>1</v>
-      </c>
-      <c r="D304" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="B304" s="7">
+        <f>62226.8335788/(60*60)</f>
+        <v>17.285231549666666</v>
+      </c>
+      <c r="C304" s="8">
+        <f>63279.076081/(60*60)</f>
+        <v>17.577521133611111</v>
+      </c>
+      <c r="D304" s="1">
+        <f>476530.557258/(60*60)</f>
+        <v>132.36959923833334</v>
+      </c>
       <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
+      <c r="F304" s="2">
+        <f>47406.416955/(60*60)</f>
+        <v>13.168449154166666</v>
+      </c>
       <c r="G304" s="1"/>
-      <c r="H304" s="2"/>
+      <c r="H304" s="2">
+        <f>111774.987089/(60*60)</f>
+        <v>31.048607524722222</v>
+      </c>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
@@ -10392,15 +11364,9 @@
       <c r="M304" s="2"/>
     </row>
     <row r="305" spans="1:13">
-      <c r="A305" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B305" s="1">
-        <v>305148</v>
-      </c>
-      <c r="C305">
-        <v>221845</v>
-      </c>
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
       <c r="D305" s="1"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
@@ -10412,52 +11378,39 @@
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
     </row>
-    <row r="306" spans="1:13">
-      <c r="A306" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B306" s="1">
-        <v>5728</v>
-      </c>
-      <c r="C306">
-        <v>5769</v>
-      </c>
-      <c r="D306" s="1"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="1"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-      <c r="J306" s="2"/>
-      <c r="K306" s="2"/>
-      <c r="L306" s="2"/>
-      <c r="M306" s="2"/>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="A307" s="12"/>
-      <c r="B307" s="83"/>
-      <c r="C307" s="84"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="11"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2"/>
-      <c r="K307" s="2"/>
-      <c r="L307" s="2"/>
-      <c r="M307" s="2"/>
+    <row r="306" spans="1:13" s="25" customFormat="1">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="27"/>
+      <c r="F306" s="27"/>
+      <c r="G306" s="12"/>
+      <c r="H306" s="27"/>
+      <c r="I306" s="27"/>
+      <c r="J306" s="27"/>
+      <c r="K306" s="27"/>
+      <c r="L306" s="27"/>
+      <c r="M306" s="27"/>
+    </row>
+    <row r="307" spans="1:13" s="25" customFormat="1">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="27"/>
+      <c r="F307" s="27"/>
+      <c r="G307" s="12"/>
+      <c r="H307" s="27"/>
+      <c r="I307" s="27"/>
+      <c r="J307" s="27"/>
+      <c r="K307" s="27"/>
+      <c r="L307" s="27"/>
+      <c r="M307" s="27"/>
     </row>
     <row r="308" spans="1:13">
-      <c r="A308" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B308" s="83">
-        <v>0.64362824113799999</v>
-      </c>
-      <c r="C308" s="84">
-        <v>0.36440334223300003</v>
-      </c>
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
@@ -10470,15 +11423,8 @@
       <c r="M308" s="2"/>
     </row>
     <row r="309" spans="1:13">
-      <c r="A309" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B309" s="1">
-        <v>0.69987417616699998</v>
-      </c>
-      <c r="C309">
-        <v>0.48080575343199999</v>
-      </c>
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
@@ -10491,15 +11437,8 @@
       <c r="M309" s="2"/>
     </row>
     <row r="310" spans="1:13">
-      <c r="A310" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B310" s="1">
-        <v>0.59575030256899997</v>
-      </c>
-      <c r="C310">
-        <v>0.29337714032000001</v>
-      </c>
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -10512,158 +11451,104 @@
       <c r="M310" s="2"/>
     </row>
     <row r="311" spans="1:13">
-      <c r="A311" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B311" s="1">
-        <v>18</v>
-      </c>
-      <c r="C311">
-        <v>4</v>
-      </c>
-      <c r="D311" s="1"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="1"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2"/>
-      <c r="K311" s="2"/>
-      <c r="L311" s="2"/>
-      <c r="M311" s="2"/>
-    </row>
-    <row r="312" spans="1:13" s="1" customFormat="1">
-      <c r="A312" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B312">
-        <v>0.64378633739500002</v>
-      </c>
-      <c r="C312">
-        <v>0.39031871412800001</v>
-      </c>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
-      <c r="J312" s="3"/>
-      <c r="K312" s="3"/>
-      <c r="L312" s="3"/>
-      <c r="M312" s="3"/>
-    </row>
-    <row r="313" spans="1:13">
-      <c r="A313" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B313" s="12">
-        <v>0.69987417616699998</v>
-      </c>
-      <c r="C313" s="12">
-        <v>0.46005774679599998</v>
-      </c>
-      <c r="D313" s="1"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="1"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2"/>
-      <c r="K313" s="2"/>
-      <c r="L313" s="2"/>
-      <c r="M313" s="2"/>
-    </row>
-    <row r="314" spans="1:13">
-      <c r="A314" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B314" s="12">
-        <v>0.59602125980999998</v>
-      </c>
-      <c r="C314" s="12">
-        <v>0.338939674824</v>
-      </c>
-      <c r="D314" s="1"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
-      <c r="G314" s="1"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-      <c r="J314" s="2"/>
-      <c r="K314" s="2"/>
-      <c r="L314" s="2"/>
-      <c r="M314" s="2"/>
-    </row>
-    <row r="315" spans="1:13">
-      <c r="A315" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B315" s="7">
-        <v>18</v>
-      </c>
-      <c r="C315" s="8">
-        <v>9</v>
-      </c>
-      <c r="D315" s="1"/>
-      <c r="E315" s="2"/>
-      <c r="F315" s="2"/>
-      <c r="G315" s="1"/>
-      <c r="H315" s="2"/>
-      <c r="I315" s="2"/>
-      <c r="J315" s="2"/>
-      <c r="K315" s="2"/>
-      <c r="L315" s="2"/>
-      <c r="M315" s="2"/>
-    </row>
-    <row r="316" spans="1:13">
-      <c r="A316" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B316" s="7">
-        <v>1</v>
-      </c>
-      <c r="C316" s="8">
-        <v>1</v>
-      </c>
-      <c r="D316" s="1"/>
-      <c r="E316" s="11"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="1"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
-      <c r="J316" s="2"/>
-      <c r="K316" s="2"/>
-      <c r="L316" s="2"/>
-      <c r="M316" s="2"/>
-    </row>
-    <row r="317" spans="1:13">
-      <c r="A317" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B317" s="7">
-        <f>62226.8335788/(60*60)</f>
-        <v>17.285231549666666</v>
-      </c>
-      <c r="C317" s="8">
-        <f>63279.076081/(60*60)</f>
-        <v>17.577521133611111</v>
-      </c>
-      <c r="D317" s="1"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="1"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2"/>
-      <c r="K317" s="2"/>
-      <c r="L317" s="2"/>
-      <c r="M317" s="2"/>
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="10"/>
+    </row>
+    <row r="312" spans="1:13" s="12" customFormat="1">
+      <c r="A312" s="7"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="13"/>
+      <c r="I312" s="13"/>
+      <c r="J312" s="13"/>
+      <c r="K312" s="13"/>
+      <c r="L312" s="13"/>
+      <c r="M312" s="13"/>
+    </row>
+    <row r="313" spans="1:13" s="12" customFormat="1">
+      <c r="A313"/>
+      <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+      <c r="I313" s="13"/>
+      <c r="J313" s="13"/>
+      <c r="K313" s="13"/>
+      <c r="L313" s="13"/>
+      <c r="M313" s="13"/>
+    </row>
+    <row r="314" spans="1:13" s="8" customFormat="1">
+      <c r="A314"/>
+      <c r="B314"/>
+      <c r="C314"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="7"/>
+      <c r="H314" s="9"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="9"/>
+      <c r="M314" s="9"/>
+    </row>
+    <row r="315" spans="1:13" s="8" customFormat="1">
+      <c r="A315" s="12"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="7"/>
+      <c r="H315" s="9"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+      <c r="L315" s="9"/>
+      <c r="M315" s="9"/>
+    </row>
+    <row r="316" spans="1:13" s="8" customFormat="1">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="7"/>
+      <c r="H316" s="9"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="9"/>
+      <c r="K316" s="9"/>
+      <c r="L316" s="9"/>
+      <c r="M316" s="9"/>
+    </row>
+    <row r="317" spans="1:13" s="12" customFormat="1">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="13"/>
+      <c r="I317" s="13"/>
+      <c r="J317" s="13"/>
+      <c r="K317" s="13"/>
+      <c r="L317" s="13"/>
+      <c r="M317" s="13"/>
     </row>
     <row r="318" spans="1:13">
-      <c r="A318" s="12"/>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="1"/>
       <c r="H318" s="2"/>
@@ -10673,41 +11558,34 @@
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
     </row>
-    <row r="319" spans="1:13" s="25" customFormat="1">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319"/>
-      <c r="D319" s="12"/>
-      <c r="E319" s="27"/>
-      <c r="F319" s="27"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="27"/>
-      <c r="I319" s="27"/>
-      <c r="J319" s="27"/>
-      <c r="K319" s="27"/>
-      <c r="L319" s="27"/>
-      <c r="M319" s="27"/>
-    </row>
-    <row r="320" spans="1:13" s="25" customFormat="1">
+    <row r="319" spans="1:13" s="1" customFormat="1">
+      <c r="F319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+      <c r="L319" s="3"/>
+      <c r="M319" s="3"/>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
-      <c r="D320" s="12"/>
-      <c r="E320" s="27"/>
-      <c r="F320" s="27"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="27"/>
-      <c r="I320" s="27"/>
-      <c r="J320" s="27"/>
-      <c r="K320" s="27"/>
-      <c r="L320" s="27"/>
-      <c r="M320" s="27"/>
+      <c r="D320" s="1"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="2"/>
+      <c r="I320" s="2"/>
+      <c r="J320" s="2"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="2"/>
+      <c r="M320" s="2"/>
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="1"/>
       <c r="H321" s="2"/>
@@ -10720,8 +11598,8 @@
     <row r="322" spans="1:13">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="1"/>
       <c r="H322" s="2"/>
@@ -10734,8 +11612,9 @@
     <row r="323" spans="1:13">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="2"/>
+      <c r="E323" s="10"/>
       <c r="F323" s="2"/>
       <c r="G323" s="1"/>
       <c r="H323" s="2"/>
@@ -10745,307 +11624,132 @@
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" s="8" customFormat="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
-      <c r="C324" s="10"/>
-    </row>
-    <row r="325" spans="1:13" s="12" customFormat="1">
-      <c r="A325" s="7"/>
-      <c r="B325" s="7"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="13"/>
-      <c r="E325" s="13"/>
-      <c r="F325" s="13"/>
-      <c r="G325" s="13"/>
-      <c r="H325" s="13"/>
-      <c r="I325" s="13"/>
-      <c r="J325" s="13"/>
-      <c r="K325" s="13"/>
-      <c r="L325" s="13"/>
-      <c r="M325" s="13"/>
-    </row>
-    <row r="326" spans="1:13" s="12" customFormat="1">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
-      <c r="D326" s="13"/>
-      <c r="E326" s="13"/>
-      <c r="F326" s="13"/>
-      <c r="G326" s="13"/>
-      <c r="H326" s="13"/>
-      <c r="I326" s="13"/>
-      <c r="J326" s="13"/>
-      <c r="K326" s="13"/>
-      <c r="L326" s="13"/>
-      <c r="M326" s="13"/>
-    </row>
-    <row r="327" spans="1:13" s="8" customFormat="1">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327" s="7"/>
-      <c r="E327" s="9"/>
-      <c r="F327" s="9"/>
-      <c r="G327" s="7"/>
-      <c r="H327" s="9"/>
-      <c r="I327" s="9"/>
-      <c r="J327" s="9"/>
-      <c r="K327" s="9"/>
-      <c r="L327" s="9"/>
-      <c r="M327" s="9"/>
-    </row>
-    <row r="328" spans="1:13" s="8" customFormat="1">
-      <c r="A328" s="12"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="9"/>
-      <c r="G328" s="7"/>
-      <c r="H328" s="9"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="9"/>
-      <c r="K328" s="9"/>
-      <c r="L328" s="9"/>
-      <c r="M328" s="9"/>
-    </row>
-    <row r="329" spans="1:13" s="8" customFormat="1">
+      <c r="C324" s="1"/>
+      <c r="D324" s="7"/>
+      <c r="F324" s="9"/>
+      <c r="G324" s="7"/>
+      <c r="H324" s="9"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="9"/>
+      <c r="K324" s="9"/>
+      <c r="L324" s="9"/>
+      <c r="M324" s="9"/>
+    </row>
+    <row r="326" spans="1:13">
+      <c r="A326" s="12"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="12"/>
+    </row>
+    <row r="327" spans="1:13" s="12" customFormat="1"/>
+    <row r="328" spans="1:13" s="12" customFormat="1">
+      <c r="G328" s="13"/>
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
-      <c r="G329" s="7"/>
-      <c r="H329" s="9"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="9"/>
-      <c r="K329" s="9"/>
-      <c r="L329" s="9"/>
-      <c r="M329" s="9"/>
-    </row>
-    <row r="330" spans="1:13" s="12" customFormat="1">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="E330" s="13"/>
-      <c r="F330" s="13"/>
-      <c r="G330" s="13"/>
-      <c r="H330" s="13"/>
-      <c r="I330" s="13"/>
-      <c r="J330" s="13"/>
-      <c r="K330" s="13"/>
-      <c r="L330" s="13"/>
-      <c r="M330" s="13"/>
+    </row>
+    <row r="330" spans="1:13">
+      <c r="A330" s="12"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
     </row>
     <row r="331" spans="1:13">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="1"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2"/>
-      <c r="K331" s="2"/>
-      <c r="L331" s="2"/>
-      <c r="M331" s="2"/>
-    </row>
-    <row r="332" spans="1:13" s="1" customFormat="1">
-      <c r="F332" s="3"/>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
-      <c r="J332" s="3"/>
-      <c r="K332" s="3"/>
-      <c r="L332" s="3"/>
-      <c r="M332" s="3"/>
+      <c r="A331" s="12"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="12"/>
+    </row>
+    <row r="332" spans="1:13">
+      <c r="A332" s="12"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
     </row>
     <row r="333" spans="1:13">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-      <c r="J333" s="2"/>
-      <c r="K333" s="2"/>
-      <c r="L333" s="2"/>
-      <c r="M333" s="2"/>
+      <c r="A333" s="12"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
     </row>
     <row r="334" spans="1:13">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="1"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2"/>
-      <c r="K334" s="2"/>
-      <c r="L334" s="2"/>
-      <c r="M334" s="2"/>
+      <c r="A334" s="25"/>
+      <c r="B334" s="25"/>
+      <c r="C334" s="25"/>
     </row>
     <row r="335" spans="1:13">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="F335" s="2"/>
-      <c r="G335" s="1"/>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
-      <c r="J335" s="2"/>
-      <c r="K335" s="2"/>
-      <c r="L335" s="2"/>
-      <c r="M335" s="2"/>
+      <c r="A335" s="12"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="12"/>
     </row>
     <row r="336" spans="1:13">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="10"/>
-      <c r="F336" s="2"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
-      <c r="J336" s="2"/>
-      <c r="K336" s="2"/>
-      <c r="L336" s="2"/>
-      <c r="M336" s="2"/>
-    </row>
-    <row r="337" spans="1:13" s="8" customFormat="1">
+      <c r="A336" s="12"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="12"/>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="7"/>
-      <c r="F337" s="9"/>
-      <c r="G337" s="7"/>
-      <c r="H337" s="9"/>
-      <c r="I337" s="9"/>
-      <c r="J337" s="9"/>
-      <c r="K337" s="9"/>
-      <c r="L337" s="9"/>
-      <c r="M337" s="9"/>
-    </row>
-    <row r="339" spans="1:13">
-      <c r="A339" s="12"/>
-      <c r="B339" s="12"/>
-      <c r="C339" s="12"/>
-    </row>
-    <row r="340" spans="1:13" s="12" customFormat="1"/>
-    <row r="341" spans="1:13" s="12" customFormat="1">
-      <c r="G341" s="13"/>
-    </row>
-    <row r="342" spans="1:13">
-      <c r="A342" s="12"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="12"/>
-    </row>
-    <row r="343" spans="1:13">
-      <c r="A343" s="12"/>
-      <c r="B343" s="12"/>
-      <c r="C343" s="12"/>
-    </row>
-    <row r="344" spans="1:13">
-      <c r="A344" s="12"/>
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
-    </row>
-    <row r="345" spans="1:13">
-      <c r="A345" s="12"/>
-      <c r="B345" s="12"/>
-      <c r="C345" s="12"/>
-    </row>
-    <row r="346" spans="1:13">
-      <c r="A346" s="12"/>
-      <c r="B346" s="12"/>
-      <c r="C346" s="12"/>
-    </row>
-    <row r="347" spans="1:13">
-      <c r="A347" s="25"/>
-      <c r="B347" s="25"/>
-      <c r="C347" s="25"/>
-    </row>
-    <row r="348" spans="1:13">
-      <c r="A348" s="12"/>
-      <c r="B348" s="12"/>
-      <c r="C348" s="12"/>
-    </row>
-    <row r="349" spans="1:13">
-      <c r="A349" s="12"/>
-      <c r="B349" s="12"/>
-      <c r="C349" s="12"/>
-    </row>
-    <row r="350" spans="1:13">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="1:13" s="12" customFormat="1">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351"/>
-    </row>
-    <row r="352" spans="1:13" s="12" customFormat="1">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352"/>
-      <c r="G352" s="13"/>
-    </row>
-    <row r="353" spans="1:7" s="25" customFormat="1">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-      <c r="C353"/>
-    </row>
-    <row r="354" spans="1:7" s="25" customFormat="1">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354"/>
-    </row>
-    <row r="355" spans="1:7" s="25" customFormat="1">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355"/>
-    </row>
-    <row r="356" spans="1:7" s="25" customFormat="1">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356"/>
-    </row>
-    <row r="357" spans="1:7" s="25" customFormat="1">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-      <c r="C357"/>
-    </row>
-    <row r="358" spans="1:7" s="25" customFormat="1">
-      <c r="A358"/>
-      <c r="B358"/>
-      <c r="C358"/>
-    </row>
-    <row r="359" spans="1:7" s="25" customFormat="1">
-      <c r="A359"/>
-      <c r="B359"/>
-      <c r="C359"/>
-    </row>
-    <row r="360" spans="1:7" s="12" customFormat="1">
-      <c r="A360"/>
-      <c r="B360"/>
-      <c r="C360"/>
-    </row>
-    <row r="361" spans="1:7" s="12" customFormat="1">
-      <c r="A361"/>
-      <c r="B361"/>
-      <c r="C361"/>
-      <c r="G361" s="13"/>
+    </row>
+    <row r="338" spans="1:7" s="12" customFormat="1">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338"/>
+    </row>
+    <row r="339" spans="1:7" s="12" customFormat="1">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339"/>
+      <c r="G339" s="13"/>
+    </row>
+    <row r="340" spans="1:7" s="25" customFormat="1">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340"/>
+    </row>
+    <row r="341" spans="1:7" s="25" customFormat="1">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341"/>
+    </row>
+    <row r="342" spans="1:7" s="25" customFormat="1">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342"/>
+    </row>
+    <row r="343" spans="1:7" s="25" customFormat="1">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343"/>
+    </row>
+    <row r="344" spans="1:7" s="25" customFormat="1">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344"/>
+    </row>
+    <row r="345" spans="1:7" s="25" customFormat="1">
+      <c r="A345"/>
+      <c r="B345"/>
+      <c r="C345"/>
+    </row>
+    <row r="346" spans="1:7" s="25" customFormat="1">
+      <c r="A346"/>
+      <c r="B346"/>
+      <c r="C346"/>
+    </row>
+    <row r="347" spans="1:7" s="12" customFormat="1">
+      <c r="A347"/>
+      <c r="B347"/>
+      <c r="C347"/>
+    </row>
+    <row r="348" spans="1:7" s="12" customFormat="1">
+      <c r="A348"/>
+      <c r="B348"/>
+      <c r="C348"/>
+      <c r="G348" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11056,10 +11760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11067,54 +11771,60 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" hidden="1">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:11" hidden="1">
       <c r="B3" s="104" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D3" s="105"/>
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="H3" s="105"/>
+      <c r="I3" s="106"/>
+    </row>
+    <row r="4" spans="2:11" hidden="1">
       <c r="B4" s="94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D4" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="94" t="s">
-        <v>499</v>
-      </c>
       <c r="F4" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H4" s="94" t="s">
         <v>529</v>
       </c>
-      <c r="G4" s="94" t="s">
-        <v>530</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4" s="93" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" hidden="1">
       <c r="B5" s="95" t="s">
         <v>304</v>
       </c>
@@ -11130,12 +11840,15 @@
       <c r="F5" s="93">
         <v>0.568054526575</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="G5" s="93">
+        <v>0.55626305104600005</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" hidden="1">
       <c r="B6" s="95" t="s">
         <v>296</v>
       </c>
@@ -11146,15 +11859,16 @@
         <v>0.39842475725499998</v>
       </c>
       <c r="E6" s="93">
-        <v>0.37247357138499998</v>
+        <v>0.40163892943099999</v>
       </c>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
-      <c r="H6" s="93" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" hidden="1">
       <c r="B7" s="95" t="s">
         <v>299</v>
       </c>
@@ -11165,47 +11879,59 @@
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
-      <c r="H7" s="93" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="H7" s="93"/>
+      <c r="I7" s="93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" hidden="1"/>
+    <row r="9" spans="2:11" hidden="1"/>
+    <row r="10" spans="2:11" hidden="1">
       <c r="B10" s="104" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D10" s="105"/>
       <c r="E10" s="105"/>
       <c r="F10" s="105"/>
       <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="103"/>
+    </row>
+    <row r="11" spans="2:11" hidden="1">
       <c r="B11" s="94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D11" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="94" t="s">
-        <v>499</v>
-      </c>
       <c r="F11" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H11" s="94" t="s">
         <v>529</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="I11" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="J11" s="102" t="s">
         <v>530</v>
       </c>
-      <c r="H11" s="93" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="K11" s="110"/>
+    </row>
+    <row r="12" spans="2:11" hidden="1">
       <c r="B12" s="95" t="s">
         <v>304</v>
       </c>
@@ -11213,84 +11939,119 @@
         <v>0.55433625440699996</v>
       </c>
       <c r="D12" s="93">
-        <v>0.54444648013200003</v>
+        <v>0.54520244163800002</v>
       </c>
       <c r="E12" s="93">
         <v>0.57622570056800004</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-      <c r="H12" s="93">
+      <c r="H12" s="93"/>
+      <c r="I12" s="93">
         <v>0.60799999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="J12" s="102">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" hidden="1">
       <c r="B13" s="95" t="s">
         <v>296</v>
       </c>
       <c r="C13" s="93">
         <v>0.40556372286999998</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="93">
+        <v>0.36107703625199999</v>
+      </c>
       <c r="E13" s="93">
         <v>0.38849284401799999</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
-      <c r="H13" s="93">
+      <c r="H13" s="93"/>
+      <c r="I13" s="93">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="J13" s="93">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" hidden="1">
       <c r="B14" s="95" t="s">
         <v>299</v>
       </c>
       <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="D14" s="93">
+        <v>0.29245777091199998</v>
+      </c>
+      <c r="E14" s="93">
+        <v>0.30138543316299998</v>
+      </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
       <c r="H14" s="93">
+        <v>7008</v>
+      </c>
+      <c r="I14" s="93">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="J14" s="93">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" hidden="1">
+      <c r="J15">
+        <f>SUM(J12:J14)</f>
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" hidden="1"/>
+    <row r="17" spans="2:12" hidden="1">
       <c r="B17" s="104" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D17" s="105"/>
       <c r="E17" s="105"/>
       <c r="F17" s="105"/>
       <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="103"/>
+    </row>
+    <row r="18" spans="2:12" hidden="1">
       <c r="B18" s="94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D18" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="E18" s="94" t="s">
-        <v>499</v>
-      </c>
       <c r="F18" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H18" s="94" t="s">
         <v>529</v>
       </c>
-      <c r="G18" s="94" t="s">
+      <c r="I18" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="J18" s="102" t="s">
         <v>530</v>
       </c>
-      <c r="H18" s="93" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+    </row>
+    <row r="19" spans="2:12" hidden="1">
       <c r="B19" s="95" t="s">
         <v>304</v>
       </c>
@@ -11305,11 +12066,15 @@
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
-      <c r="H19" s="93">
+      <c r="H19" s="93"/>
+      <c r="I19" s="93">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="J19" s="102">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" hidden="1">
       <c r="B20" s="95" t="s">
         <v>296</v>
       </c>
@@ -11324,11 +12089,15 @@
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
-      <c r="H20" s="93">
+      <c r="H20" s="93"/>
+      <c r="I20" s="93">
         <v>0.629</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="J20" s="102">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" hidden="1">
       <c r="B21" s="95" t="s">
         <v>299</v>
       </c>
@@ -11341,8 +12110,348 @@
       <c r="E21" s="93"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="93">
+      <c r="H21" s="93"/>
+      <c r="I21" s="93">
         <v>0.63400000000000001</v>
+      </c>
+      <c r="J21" s="93">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" hidden="1"/>
+    <row r="24" spans="2:12">
+      <c r="B24" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="G25" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H25" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="I25" s="93" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="93">
+        <v>0.57232841863100004</v>
+      </c>
+      <c r="D26" s="93">
+        <v>0.53949972234200005</v>
+      </c>
+      <c r="E26" s="93">
+        <v>0.58328682582000002</v>
+      </c>
+      <c r="F26" s="93">
+        <v>0.58377859778399999</v>
+      </c>
+      <c r="G26" s="93">
+        <v>0.55626305104600005</v>
+      </c>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="93">
+        <v>0.40000483500799999</v>
+      </c>
+      <c r="D27" s="93">
+        <v>0.39842475725499998</v>
+      </c>
+      <c r="E27" s="93">
+        <v>0.40163892943099999</v>
+      </c>
+      <c r="F27" s="93">
+        <v>0.40468879936800001</v>
+      </c>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93">
+        <v>2600</v>
+      </c>
+      <c r="I27" s="93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="93">
+        <v>0.221841076118</v>
+      </c>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>503</v>
+      </c>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="103"/>
+      <c r="L31" s="113"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H32" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="I32" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="J32" s="102" t="s">
+        <v>530</v>
+      </c>
+      <c r="K32" s="112"/>
+      <c r="L32" s="113"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="93">
+        <v>0.56434440035300004</v>
+      </c>
+      <c r="D33" s="93">
+        <v>0.55831624720999995</v>
+      </c>
+      <c r="E33" s="93">
+        <v>0.57083508647199999</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93">
+        <v>443</v>
+      </c>
+      <c r="I33" s="93">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J33" s="102">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="93">
+        <v>0.405733097381</v>
+      </c>
+      <c r="D34" s="93">
+        <v>0.32509258224299997</v>
+      </c>
+      <c r="E34" s="93">
+        <v>0.34283486704600002</v>
+      </c>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93">
+        <v>629</v>
+      </c>
+      <c r="I34" s="93">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J34" s="93">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93">
+        <v>0.24590209516200001</v>
+      </c>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93">
+        <v>1812</v>
+      </c>
+      <c r="I35" s="93">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J35" s="93">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="J36">
+        <f>SUM(J33:J35)</f>
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="105" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="103"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="F39" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H39" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="I39" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="J39" s="102" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="93">
+        <v>0.64303784106499995</v>
+      </c>
+      <c r="D40" s="93">
+        <v>0.51683045702099994</v>
+      </c>
+      <c r="E40" s="93">
+        <v>0.63022254161299995</v>
+      </c>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93">
+        <v>204</v>
+      </c>
+      <c r="I40" s="93">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J40" s="102">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="93">
+        <v>0.39633771103799997</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93">
+        <v>0.629</v>
+      </c>
+      <c r="J41" s="102">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="114">
+        <v>0.244086672</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="J42" s="93">
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
@@ -11358,10 +12467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A81" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView showRuler="0" topLeftCell="A93" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11611,7 +12720,7 @@
       <c r="C30" s="71"/>
       <c r="D30" s="61"/>
       <c r="F30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J30">
         <v>314550</v>
@@ -11629,7 +12738,7 @@
       </c>
       <c r="D31" s="58"/>
       <c r="F31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J31">
         <v>204303</v>
@@ -11705,7 +12814,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="68" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B39" s="53" t="s">
         <v>421</v>
@@ -11725,7 +12834,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B41" s="53" t="s">
         <v>422</v>
@@ -11935,7 +13044,7 @@
         <v>439</v>
       </c>
       <c r="F55" s="91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
@@ -12386,15 +13495,118 @@
     </row>
     <row r="99" spans="1:4" s="35" customFormat="1">
       <c r="A99" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>527</v>
-      </c>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="93"/>
+      <c r="B3" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="93">
+        <v>0.54093905478000004</v>
+      </c>
+      <c r="C4" s="93">
+        <v>0.54520244163800002</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93">
+        <v>0.54688872558199997</v>
+      </c>
+      <c r="F4" s="93">
+        <v>0.54920459751799999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93">
+        <v>0.36107703625199999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93">
+        <v>0.29245777091199998</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12407,7 +13619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z450"/>
   <sheetViews>
@@ -19990,7 +21202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q328"/>
   <sheetViews>
@@ -24511,7 +25723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="0" windowWidth="19260" windowHeight="16360" tabRatio="657" activeTab="1"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="23400" windowHeight="16360" tabRatio="657"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="541">
   <si>
     <t>Molecular Function</t>
   </si>
@@ -1964,8 +1964,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1387">
+  <cellStyleXfs count="1391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3505,7 +3509,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1387">
+  <cellStyles count="1391">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4199,6 +4203,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4892,6 +4898,8 @@
     <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5221,10 +5229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M332"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5606,7 +5614,9 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
         <v>5</v>
@@ -5632,7 +5642,9 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
         <v>3</v>
@@ -5658,7 +5670,9 @@
       <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="81">
+        <v>1</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="11">
         <v>1</v>
@@ -5682,7 +5696,9 @@
       <c r="C23" s="108">
         <v>65918</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>157915</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
         <v>62240</v>
@@ -5706,7 +5722,9 @@
       <c r="C24" s="108">
         <v>8351</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>12759</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
         <v>7264</v>
@@ -5766,7 +5784,9 @@
       <c r="C27">
         <v>0.36154761508099997</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>0.31179277986800003</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
         <v>0.56146399021600002</v>
@@ -5793,7 +5813,9 @@
       <c r="C28">
         <v>0.50670366055600002</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.355939058064</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
         <v>0.57214231228800005</v>
@@ -5820,7 +5842,9 @@
       <c r="C29">
         <v>0.28105462600800002</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.277388892617</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
         <v>0.55137818229299995</v>
@@ -5847,7 +5871,9 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
         <v>2</v>
@@ -5874,7 +5900,9 @@
       <c r="C31">
         <v>0.39842475725499998</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>0.313366908853</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
         <v>0.56434440035300004</v>
@@ -5901,7 +5929,9 @@
       <c r="C32">
         <v>0.49287125225700001</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.355939058064</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
         <v>0.57163226351999996</v>
@@ -5928,7 +5958,9 @@
       <c r="C33">
         <v>0.33478607116800002</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>0.27989055346399999</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
         <v>0.55744445698900003</v>
@@ -5955,7 +5987,9 @@
       <c r="C34">
         <v>2.4</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
         <v>2</v>
@@ -6053,11 +6087,15 @@
       <c r="A39" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2">
         <v>5</v>
@@ -6074,11 +6112,15 @@
       <c r="A40" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
         <v>3</v>
@@ -6095,11 +6137,15 @@
       <c r="A41" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>16659</v>
+      </c>
       <c r="C41">
         <v>19252</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3">
+        <v>37356</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
         <v>16659</v>
@@ -6116,11 +6162,15 @@
       <c r="A42" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>1816</v>
+      </c>
       <c r="C42">
         <v>2229</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>2401</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2">
         <v>1877</v>
@@ -6134,8 +6184,12 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="1">
+        <v>843</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -6148,18 +6202,11 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
-        <v>462</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44">
-        <v>0.36403529024100001</v>
-      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2">
-        <v>0.56102639635999996</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -6170,16 +6217,20 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>462</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.55747120183599996</v>
+      </c>
       <c r="C45">
-        <v>0.53418588580299997</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>0.36403529024100001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.311596445404</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
-        <v>0.56557965266300003</v>
+        <v>0.56102639635999996</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
@@ -6191,16 +6242,20 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>463</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.56936034674500002</v>
+      </c>
       <c r="C46">
-        <v>0.27610331008299999</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>0.53418588580299997</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.37334212508999998</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
-        <v>0.55656463304299997</v>
+        <v>0.56557965266300003</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
@@ -6212,16 +6267,20 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.54634771790400005</v>
+      </c>
       <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>0.27610331008299999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.267404010021</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
-        <v>2</v>
+        <v>0.55656463304299997</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
@@ -6233,16 +6292,20 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="C48">
-        <v>0.40556372286999998</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
-        <v>0.56433691725099999</v>
+        <v>2</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
@@ -6254,16 +6317,20 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.558382880508</v>
+      </c>
       <c r="C49">
-        <v>0.50018986494899997</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>0.40556372286999998</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.314074636327</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
-        <v>0.56500988200299995</v>
+        <v>0.56433691725099999</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="2"/>
@@ -6275,16 +6342,20 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.56936034674500002</v>
+      </c>
       <c r="C50">
-        <v>0.34179689241299999</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>0.50018986494899997</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.37334212508999998</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
-        <v>0.56369053583700002</v>
+        <v>0.56500988200299995</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
@@ -6296,16 +6367,20 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>477</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.54810592871800001</v>
+      </c>
       <c r="C51">
-        <v>1.6</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>0.34179689241299999</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.27107365799799998</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
-        <v>2</v>
+        <v>0.56369053583700002</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
@@ -6317,18 +6392,20 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>478</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="C52">
-        <f>21890.6608701/(60*60)</f>
-        <v>6.0807391305833338</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
-        <f>5441.92880583/(60*60)</f>
-        <v>1.5116468905083333</v>
+        <v>2</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
@@ -6339,11 +6416,26 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="1">
+        <f>7260.89316607/(60*60)</f>
+        <v>2.0169147683527777</v>
+      </c>
+      <c r="C53">
+        <f>21890.6608701/(60*60)</f>
+        <v>6.0807391305833338</v>
+      </c>
+      <c r="D53" s="3">
+        <f>67577.7197659/(60*60)</f>
+        <v>18.771588823861109</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2">
+        <f>5441.92880583/(60*60)</f>
+        <v>1.5116468905083333</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -6366,78 +6458,67 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" s="4" customFormat="1">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1">
+      <c r="A56" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="5" customFormat="1">
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="1:13" s="5" customFormat="1">
+      <c r="B57" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5</v>
-      </c>
-      <c r="H57" s="2">
-        <v>5</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>461</v>
+        <v>291</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>5</v>
@@ -6453,21 +6534,26 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B59" s="81">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="11">
-        <v>1</v>
-      </c>
-      <c r="G59" s="109">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11">
-        <v>1</v>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -6477,12 +6563,17 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B60" s="81">
         <v>1</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="C60" s="81">
+        <v>1</v>
+      </c>
+      <c r="D60" s="109">
+        <v>1</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="11">
         <v>1</v>
@@ -6501,21 +6592,26 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B61" s="1">
-        <v>62240</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>532</v>
+      </c>
+      <c r="B61" s="81">
+        <v>1</v>
+      </c>
+      <c r="C61" s="81">
+        <v>1</v>
+      </c>
+      <c r="D61" s="109">
+        <v>1</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2">
-        <v>62240</v>
-      </c>
-      <c r="G61" s="3">
-        <v>65918</v>
-      </c>
-      <c r="H61" s="2">
-        <v>157915</v>
+      <c r="F61" s="11">
+        <v>1</v>
+      </c>
+      <c r="G61" s="109">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11">
+        <v>1</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -6525,19 +6621,23 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" s="1">
-        <v>7308</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>62240</v>
+      </c>
+      <c r="D62" s="3">
+        <v>157915</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2">
+        <v>62240</v>
+      </c>
       <c r="G62" s="3">
-        <v>8277</v>
+        <v>65918</v>
       </c>
       <c r="H62" s="2">
-        <v>12815</v>
+        <v>157915</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -6547,17 +6647,21 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="D63" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7308</v>
+      </c>
+      <c r="D63" s="3">
+        <v>12907</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="3">
-        <v>919</v>
+        <v>8277</v>
       </c>
       <c r="H63" s="2">
-        <v>2184</v>
+        <v>12815</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -6566,13 +6670,21 @@
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3">
+        <v>10992</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="3">
+        <v>919</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2184</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -6580,26 +6692,13 @@
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.64805276266599998</v>
-      </c>
-      <c r="C65">
-        <v>0.37767025855899999</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2">
-        <v>0.63573908025000003</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.34992037744799998</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.21206398451399999</v>
-      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6608,24 +6707,26 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B66" s="1">
-        <v>0.70243964447999996</v>
+        <v>0.64805276266599998</v>
       </c>
       <c r="C66">
-        <v>0.52676407527799995</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>0.37767025855899999</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.31205954244849998</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
-        <v>0.76505994170900005</v>
+        <v>0.63573908025000003</v>
       </c>
       <c r="G66" s="3">
-        <v>0.58526797581000001</v>
+        <v>0.34992037744799998</v>
       </c>
       <c r="H66" s="2">
-        <v>0.473384271307</v>
+        <v>0.21206398451399999</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -6635,24 +6736,26 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B67" s="1">
-        <v>0.60204252691399995</v>
+        <v>0.70243964447999996</v>
       </c>
       <c r="C67">
-        <v>0.294501958003</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>0.52676407527799995</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.32338808960400001</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2">
-        <v>0.54398941004099999</v>
+        <v>0.76505994170900005</v>
       </c>
       <c r="G67" s="3">
-        <v>0.24959638262100001</v>
+        <v>0.58526797581000001</v>
       </c>
       <c r="H67" s="2">
-        <v>0.13665614137400001</v>
+        <v>0.473384271307</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -6662,24 +6765,26 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B68" s="1">
-        <v>6.8</v>
+        <v>0.60204252691399995</v>
       </c>
       <c r="C68">
-        <v>1.2</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>0.294501958003</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.30149791975599999</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
-        <v>5.2</v>
+        <v>0.54398941004099999</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>0.24959638262100001</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0.13665614137400001</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -6689,24 +6794,26 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B69" s="1">
-        <v>0.64962673023600004</v>
+        <v>6.8</v>
       </c>
       <c r="C69">
-        <v>0.40246566695699998</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
-        <v>0.64303784106499995</v>
+        <v>5.2</v>
       </c>
       <c r="G69" s="3">
-        <v>0.39633771103799997</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2">
-        <v>0.244086671753</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -6716,24 +6823,26 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B70" s="1">
-        <v>0.71565352077599997</v>
+        <v>0.64962673023600004</v>
       </c>
       <c r="C70">
-        <v>0.463761201638</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>0.40246566695699998</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.31314877923099999</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2">
-        <v>0.76374796069399997</v>
+        <v>0.64303784106499995</v>
       </c>
       <c r="G70" s="3">
-        <v>0.58461875423300003</v>
+        <v>0.39633771103799997</v>
       </c>
       <c r="H70" s="2">
-        <v>0.47152976045700001</v>
+        <v>0.244086671753</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -6743,24 +6852,26 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B71" s="1">
-        <v>0.59529483547299999</v>
+        <v>0.71565352077599997</v>
       </c>
       <c r="C71">
-        <v>0.35601713587</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>0.463761201638</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.32338808960400001</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
-        <v>0.55544619074900003</v>
+        <v>0.76374796069399997</v>
       </c>
       <c r="G71" s="3">
-        <v>0.29984709613600002</v>
+        <v>0.58461875423300003</v>
       </c>
       <c r="H71" s="2">
-        <v>0.16469226863700001</v>
+        <v>0.47152976045700001</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -6770,24 +6881,26 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" s="1">
-        <v>8.8000000000000007</v>
+        <v>0.59529483547299999</v>
       </c>
       <c r="C72">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>0.35601713587</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.30353818641499902</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
-        <v>5.2</v>
+        <v>0.55544619074900003</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>0.29984709613600002</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0.16469226863700001</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -6797,29 +6910,26 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B73" s="1">
-        <f>15342.5640671/(60*60)</f>
-        <v>4.2618233519722226</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C73">
-        <f>39076.0317781/(60*60)</f>
-        <v>10.854453271694444</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
-        <f>8110.09684682/(60*60)</f>
-        <v>2.2528046796722223</v>
+        <v>5.2</v>
       </c>
       <c r="G73" s="3">
-        <f>12288.5697439/(60*60)</f>
-        <v>3.4134915955277778</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2">
-        <f>57639.935349/(60*60)</f>
-        <v>16.011093152499999</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -6828,93 +6938,98 @@
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B74" s="1">
+        <f>15342.5640671/(60*60)</f>
+        <v>4.2618233519722226</v>
+      </c>
+      <c r="C74">
+        <f>39076.0317781/(60*60)</f>
+        <v>10.854453271694444</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
+      <c r="F74" s="2">
+        <f>8110.09684682/(60*60)</f>
+        <v>2.2528046796722223</v>
+      </c>
+      <c r="G74" s="3">
+        <f>12288.5697439/(60*60)</f>
+        <v>3.4134915955277778</v>
+      </c>
+      <c r="H74" s="2">
+        <f>57639.935349/(60*60)</f>
+        <v>16.011093152499999</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" s="4" customFormat="1">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:13">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" s="4" customFormat="1">
+      <c r="A76" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="5" customFormat="1">
-      <c r="B76" s="5" t="s">
+    <row r="77" spans="1:13" s="5" customFormat="1">
+      <c r="B77" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B77" s="1">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2">
-        <v>5</v>
-      </c>
-      <c r="G77" s="3">
-        <v>5</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>461</v>
+        <v>291</v>
       </c>
       <c r="B78" s="1">
         <v>5</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="3">
         <v>5</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" s="3">
         <v>5</v>
@@ -6928,23 +7043,23 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="B79" s="1">
-        <v>4583</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>4616</v>
+        <v>3</v>
       </c>
       <c r="D79" s="3">
-        <v>8649</v>
+        <v>5</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
-        <v>4583</v>
+        <v>3</v>
       </c>
       <c r="G79" s="3">
-        <v>4616</v>
+        <v>5</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -6955,23 +7070,23 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B80" s="1">
-        <v>636</v>
+        <v>4583</v>
       </c>
       <c r="C80">
-        <v>796</v>
+        <v>4616</v>
       </c>
       <c r="D80" s="3">
-        <v>1200</v>
+        <v>8649</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
-        <v>666</v>
+        <v>4583</v>
       </c>
       <c r="G80" s="3">
-        <v>784</v>
+        <v>4616</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -6982,16 +7097,23 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="D81" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="B81" s="1">
+        <v>636</v>
+      </c>
+      <c r="C81">
+        <v>796</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1200</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
-        <v>292</v>
+        <v>666</v>
       </c>
       <c r="G81" s="3">
-        <v>329</v>
+        <v>784</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -7001,12 +7123,18 @@
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
+      <c r="F82" s="2">
+        <v>292</v>
+      </c>
+      <c r="G82" s="3">
+        <v>329</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -7015,25 +7143,12 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0.64969930593000003</v>
-      </c>
-      <c r="C83">
-        <v>0.37692168634200002</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.33053819339099999</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="2">
-        <v>0.63624991107499995</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.35143375196400001</v>
-      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -7043,23 +7158,23 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B84" s="1">
-        <v>0.70583675124599998</v>
+        <v>0.64969930593000003</v>
       </c>
       <c r="C84">
-        <v>0.54919246156299995</v>
+        <v>0.37692168634200002</v>
       </c>
       <c r="D84" s="3">
-        <v>0.34849253161900001</v>
+        <v>0.33053819339099999</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
-        <v>0.77570783283099998</v>
+        <v>0.63624991107499995</v>
       </c>
       <c r="G84" s="3">
-        <v>0.59342730963799994</v>
+        <v>0.35143375196400001</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -7070,23 +7185,23 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="1">
-        <v>0.602202921951</v>
+        <v>0.70583675124599998</v>
       </c>
       <c r="C85">
-        <v>0.28713442019000002</v>
+        <v>0.54919246156299995</v>
       </c>
       <c r="D85" s="3">
-        <v>0.31436486208100001</v>
+        <v>0.34849253161900001</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <v>0.539526109546</v>
+        <v>0.77570783283099998</v>
       </c>
       <c r="G85" s="3">
-        <v>0.249700117247</v>
+        <v>0.59342730963799994</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -7097,23 +7212,23 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B86" s="1">
-        <v>12.2</v>
+        <v>0.602202921951</v>
       </c>
       <c r="C86">
-        <v>1.2</v>
+        <v>0.28713442019000002</v>
       </c>
       <c r="D86" s="3">
-        <v>1</v>
+        <v>0.31436486208100001</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
-        <v>8</v>
+        <v>0.539526109546</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>0.249700117247</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -7124,23 +7239,23 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B87" s="1">
-        <v>0.65499221150700004</v>
+        <v>12.2</v>
       </c>
       <c r="C87">
-        <v>0.41682058483599999</v>
+        <v>1.2</v>
       </c>
       <c r="D87" s="3">
-        <v>0.335492816059</v>
+        <v>1</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
-        <v>0.64646374457599998</v>
+        <v>8</v>
       </c>
       <c r="G87" s="3">
-        <v>0.41756144638300002</v>
+        <v>1</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -7151,23 +7266,23 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B88" s="1">
-        <v>0.70853610610499995</v>
+        <v>0.65499221150700004</v>
       </c>
       <c r="C88">
-        <v>0.473330008887</v>
+        <v>0.41682058483599999</v>
       </c>
       <c r="D88" s="3">
-        <v>0.34849253161900001</v>
+        <v>0.335492816059</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
-        <v>0.77355004148100004</v>
+        <v>0.64646374457599998</v>
       </c>
       <c r="G88" s="3">
-        <v>0.59261286153799997</v>
+        <v>0.41756144638300002</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -7178,23 +7293,23 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B89" s="1">
-        <v>0.609533856767</v>
+        <v>0.70853610610499995</v>
       </c>
       <c r="C89">
-        <v>0.37308812155299997</v>
+        <v>0.473330008887</v>
       </c>
       <c r="D89" s="3">
-        <v>0.32345259782300001</v>
+        <v>0.34849253161900001</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
-        <v>0.55552420471499997</v>
+        <v>0.77355004148100004</v>
       </c>
       <c r="G89" s="3">
-        <v>0.32243423818799999</v>
+        <v>0.59261286153799997</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -7205,23 +7320,23 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B90" s="1">
-        <v>13</v>
+        <v>0.609533856767</v>
       </c>
       <c r="C90">
-        <v>1.8</v>
+        <v>0.37308812155299997</v>
       </c>
       <c r="D90" s="3">
-        <v>1</v>
+        <v>0.32345259782300001</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
-        <v>8</v>
+        <v>0.55552420471499997</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>0.32243423818799999</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -7232,28 +7347,23 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B91" s="1">
-        <f>2973.51055908/(60*60)</f>
-        <v>0.82597515529999999</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <f>3786.9177022/(60*60)</f>
-        <v>1.0519215839444445</v>
+        <v>1.8</v>
       </c>
       <c r="D91" s="3">
-        <f>17027.715533/(60*60)</f>
-        <v>4.7299209813888883</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
-        <f>2526.96068382/(60*60)</f>
-        <v>0.70193352328333336</v>
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <f>3082.74151397/(60*60)</f>
-        <v>0.85631708721388888</v>
+        <v>1</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -7263,12 +7373,30 @@
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B92" s="1">
+        <f>2973.51055908/(60*60)</f>
+        <v>0.82597515529999999</v>
+      </c>
+      <c r="C92">
+        <f>3786.9177022/(60*60)</f>
+        <v>1.0519215839444445</v>
+      </c>
+      <c r="D92" s="3">
+        <f>17027.715533/(60*60)</f>
+        <v>4.7299209813888883</v>
+      </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="3"/>
+      <c r="F92" s="2">
+        <f>2526.96068382/(60*60)</f>
+        <v>0.70193352328333336</v>
+      </c>
+      <c r="G92" s="3">
+        <f>3082.74151397/(60*60)</f>
+        <v>0.85631708721388888</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -7304,83 +7432,74 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" s="4" customFormat="1">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:13">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" s="4" customFormat="1">
+      <c r="A96" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="5" customFormat="1">
-      <c r="B96" s="5" t="s">
+    <row r="97" spans="1:13" s="5" customFormat="1">
+      <c r="B97" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B97" s="26">
+      <c r="B98" s="26">
         <v>3</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C98" s="26">
         <v>3</v>
       </c>
-      <c r="D97" s="26">
+      <c r="D98" s="26">
         <v>3</v>
       </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" s="1" customFormat="1">
-      <c r="A98" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B98" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C98" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D98" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1">
       <c r="A99" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B99" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C99" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D99" s="80">
-        <v>0.1</v>
+        <v>472</v>
+      </c>
+      <c r="B99" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="C99" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D99" s="79">
+        <v>0.2</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -7392,34 +7511,34 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+    <row r="100" spans="1:13" s="1" customFormat="1">
+      <c r="A100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B100" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C100" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D100" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0.54123569231599999</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.332173751485</v>
-      </c>
-      <c r="D101" s="3">
-        <v>0.28263653123400001</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="3"/>
@@ -7432,16 +7551,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>467</v>
+        <v>29</v>
       </c>
       <c r="B102" s="1">
-        <v>0.69026655235699996</v>
+        <v>0.54123569231599999</v>
       </c>
       <c r="C102" s="1">
-        <v>0.56665696099100005</v>
+        <v>0.332173751485</v>
       </c>
       <c r="D102" s="3">
-        <v>0.448743637054</v>
+        <v>0.28263653123400001</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -7455,16 +7574,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B103" s="1">
-        <v>0.44513052206300002</v>
+        <v>0.69026655235699996</v>
       </c>
       <c r="C103" s="1">
-        <v>0.234950855629</v>
+        <v>0.56665696099100005</v>
       </c>
       <c r="D103" s="3">
-        <v>0.20627989225099999</v>
+        <v>0.448743637054</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -7478,16 +7597,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="1">
-        <v>41</v>
+        <v>0.44513052206300002</v>
       </c>
       <c r="C104" s="1">
-        <v>1</v>
+        <v>0.234950855629</v>
       </c>
       <c r="D104" s="3">
-        <v>1</v>
+        <v>0.20627989225099999</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -7501,10 +7620,10 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B105" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -7522,34 +7641,45 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1">
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1">
+      <c r="A107" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B107" s="1">
         <f>19974.843426/(60*60)</f>
         <v>5.5485676183333332</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <f>67321.9787359/(60*60)</f>
         <v>18.700549648861113</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D107" s="3">
         <f>327632.954097/(60*60)</f>
         <v>91.009153915833338</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" s="1" customFormat="1">
-      <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="6"/>
@@ -7572,74 +7702,63 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="D109" s="3"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:13" s="4" customFormat="1">
-      <c r="A110" s="4" t="s">
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" s="4" customFormat="1">
+      <c r="A111" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="5" customFormat="1">
-      <c r="B111" s="5" t="s">
+    <row r="112" spans="1:13" s="5" customFormat="1">
+      <c r="B112" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B112" s="26">
-        <v>3</v>
-      </c>
-      <c r="C112" s="26">
-        <v>3</v>
-      </c>
-      <c r="D112" s="26">
-        <v>3</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B113" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C113" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D113" s="79">
-        <v>0.2</v>
+        <v>461</v>
+      </c>
+      <c r="B113" s="26">
+        <v>3</v>
+      </c>
+      <c r="C113" s="26">
+        <v>3</v>
+      </c>
+      <c r="D113" s="26">
+        <v>3</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -7653,16 +7772,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B114" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C114" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D114" s="80">
-        <v>0.1</v>
+        <v>472</v>
+      </c>
+      <c r="B114" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="C114" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D114" s="79">
+        <v>0.2</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -7675,9 +7794,18 @@
       <c r="M114" s="2"/>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="D115" s="3"/>
+      <c r="A115" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B115" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C115" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D115" s="80">
+        <v>0.1</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="3"/>
@@ -7688,64 +7816,55 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:13">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1">
+      <c r="A117" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B117" s="1">
         <v>0.58701127993400004</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C117" s="1">
         <v>0.37201945201999997</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D117" s="3">
         <v>0.303088379751</v>
       </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0.63869553760599995</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.51737629308599997</v>
-      </c>
-      <c r="D117" s="3">
-        <v>0.32761940948000001</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B118" s="1">
-        <v>0.54306555258800004</v>
+        <v>0.63869553760599995</v>
       </c>
       <c r="C118" s="1">
-        <v>0.29042465982600002</v>
+        <v>0.51737629308599997</v>
       </c>
       <c r="D118" s="3">
-        <v>0.28197504514600003</v>
+        <v>0.32761940948000001</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -7759,16 +7878,16 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B119" s="1">
-        <v>13</v>
+        <v>0.54306555258800004</v>
       </c>
       <c r="C119" s="1">
-        <v>1</v>
+        <v>0.29042465982600002</v>
       </c>
       <c r="D119" s="3">
-        <v>3</v>
+        <v>0.28197504514600003</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -7782,13 +7901,17 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B120" s="1">
+        <v>13</v>
+      </c>
+      <c r="C120" s="1">
         <v>1</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3">
+        <v>3</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="3"/>
@@ -8083,13 +8206,15 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B135" s="1">
-        <v>1</v>
+        <f>62705.809418/(60*60)</f>
+        <v>17.418280393888889</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <f>86001.47382/(60*60)</f>
+        <v>23.889298283333332</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
@@ -8103,17 +8228,6 @@
       <c r="M135" s="2"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B136" s="1">
-        <f>62705.809418/(60*60)</f>
-        <v>17.418280393888889</v>
-      </c>
-      <c r="C136">
-        <f>86001.47382/(60*60)</f>
-        <v>23.889298283333332</v>
-      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -8126,6 +8240,15 @@
       <c r="M136" s="2"/>
     </row>
     <row r="137" spans="1:13">
+      <c r="A137" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B137" s="26">
+        <v>3</v>
+      </c>
+      <c r="C137" s="26">
+        <v>3</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -8139,13 +8262,13 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B138" s="26">
-        <v>3</v>
-      </c>
-      <c r="C138" s="26">
-        <v>3</v>
+        <v>472</v>
+      </c>
+      <c r="B138" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="C138" s="82">
+        <v>1</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
@@ -8160,10 +8283,10 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B139" s="82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C139" s="82">
         <v>1</v>
@@ -8181,13 +8304,13 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B140" s="82">
-        <v>1</v>
-      </c>
-      <c r="C140" s="82">
-        <v>1</v>
+        <v>482</v>
+      </c>
+      <c r="B140" s="85">
+        <v>152574</v>
+      </c>
+      <c r="C140" s="85">
+        <v>110922</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
@@ -8202,13 +8325,13 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B141" s="85">
-        <v>152574</v>
+        <v>15560</v>
       </c>
       <c r="C141" s="85">
-        <v>110922</v>
+        <v>82397</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
@@ -8222,15 +8345,7 @@
       <c r="M141" s="2"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B142" s="85">
-        <v>15560</v>
-      </c>
-      <c r="C142" s="85">
-        <v>82397</v>
-      </c>
+      <c r="A142" s="1"/>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -8243,7 +8358,15 @@
       <c r="M142" s="2"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.58328682582000002</v>
+      </c>
+      <c r="C143">
+        <v>0.360502147976</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -8257,13 +8380,13 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>29</v>
+        <v>467</v>
       </c>
       <c r="B144" s="1">
-        <v>0.58328682582000002</v>
+        <v>0.632411026928</v>
       </c>
       <c r="C144">
-        <v>0.360502147976</v>
+        <v>0.48775433765199999</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
@@ -8278,13 +8401,13 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B145" s="1">
-        <v>0.632411026928</v>
+        <v>0.54124424583800002</v>
       </c>
       <c r="C145">
-        <v>0.48775433765199999</v>
+        <v>0.28590995151300003</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
@@ -8299,13 +8422,13 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B146" s="1">
-        <v>0.54124424583800002</v>
+        <v>17</v>
       </c>
       <c r="C146">
-        <v>0.28590995151300003</v>
+        <v>1</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
@@ -8320,13 +8443,13 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B147" s="1">
-        <v>17</v>
+        <v>0.58355527655299999</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0.38865855884099998</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
@@ -8341,217 +8464,233 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B148" s="1">
-        <v>0.58355527655299999</v>
+        <v>0.632411026928</v>
       </c>
       <c r="C148">
-        <v>0.38865855884099998</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
+        <v>0.489216710251</v>
+      </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B149" s="1">
-        <v>0.632411026928</v>
+        <v>0.54170672049400004</v>
       </c>
       <c r="C149">
-        <v>0.489216710251</v>
-      </c>
+        <v>0.32239126135599999</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B150" s="1">
-        <v>0.54170672049400004</v>
+        <v>17</v>
       </c>
       <c r="C150">
-        <v>0.32239126135599999</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B151" s="1">
-        <v>17</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B152" s="1">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B153" s="1">
         <f>80494.262604/(60*60)</f>
         <v>22.359517390000001</v>
       </c>
-      <c r="C153">
+      <c r="C151">
         <f>469755.182134/(60*60)</f>
         <v>130.48755059277778</v>
       </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-    </row>
-    <row r="158" spans="1:13" s="4" customFormat="1">
-      <c r="A158" s="4" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+    </row>
+    <row r="156" spans="1:13" s="4" customFormat="1">
+      <c r="A156" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96" t="s">
+      <c r="D156" s="96"/>
+      <c r="E156" s="96"/>
+      <c r="F156" s="96" t="s">
         <v>527</v>
       </c>
-      <c r="G158" s="96"/>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="96"/>
-      <c r="K158" s="96"/>
-      <c r="L158" s="96"/>
-      <c r="M158" s="96"/>
-    </row>
-    <row r="159" spans="1:13" s="100" customFormat="1">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5" t="s">
+      <c r="G156" s="96"/>
+      <c r="H156" s="96"/>
+      <c r="I156" s="96"/>
+      <c r="J156" s="96"/>
+      <c r="K156" s="96"/>
+      <c r="L156" s="96"/>
+      <c r="M156" s="96"/>
+    </row>
+    <row r="157" spans="1:13" s="100" customFormat="1">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C157" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D159" s="98" t="s">
+      <c r="D157" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E159" s="99"/>
-      <c r="F159" s="5" t="s">
+      <c r="E157" s="99"/>
+      <c r="F157" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="G157" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H159" s="98" t="s">
+      <c r="H157" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="I159" s="99"/>
-      <c r="J159" s="99"/>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="99"/>
+      <c r="I157" s="99"/>
+      <c r="J157" s="99"/>
+      <c r="K157" s="99"/>
+      <c r="L157" s="99"/>
+      <c r="M157" s="99"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B158" s="1">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3">
+        <v>5</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2">
+        <v>3</v>
+      </c>
+      <c r="G158" s="3">
+        <v>3</v>
+      </c>
+      <c r="H158" s="2">
+        <v>5</v>
+      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B159" s="81">
+        <v>1</v>
+      </c>
+      <c r="C159" s="10">
+        <v>1</v>
+      </c>
+      <c r="D159" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" s="11">
+        <v>1</v>
+      </c>
+      <c r="G159" s="109">
+        <v>1</v>
+      </c>
+      <c r="H159" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B160" s="1">
-        <v>3</v>
-      </c>
-      <c r="C160">
-        <v>5</v>
-      </c>
-      <c r="D160" s="3">
-        <v>5</v>
+        <v>473</v>
+      </c>
+      <c r="B160" s="81">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10">
+        <v>1</v>
+      </c>
+      <c r="D160" s="109">
+        <v>1</v>
       </c>
       <c r="E160" s="2"/>
-      <c r="F160" s="2">
-        <v>3</v>
-      </c>
-      <c r="G160" s="3">
-        <v>3</v>
-      </c>
-      <c r="H160" s="2">
-        <v>5</v>
+      <c r="F160" s="11">
+        <v>1</v>
+      </c>
+      <c r="G160" s="109">
+        <v>1</v>
+      </c>
+      <c r="H160" s="11">
+        <v>1</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -8561,26 +8700,26 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B161" s="81">
-        <v>1</v>
-      </c>
-      <c r="C161" s="10">
-        <v>1</v>
-      </c>
-      <c r="D161" s="109">
-        <v>0.2</v>
+        <v>482</v>
+      </c>
+      <c r="B161" s="86">
+        <v>13584</v>
+      </c>
+      <c r="C161">
+        <v>31223</v>
+      </c>
+      <c r="D161" s="3">
+        <v>19700</v>
       </c>
       <c r="E161" s="2"/>
-      <c r="F161" s="11">
-        <v>1</v>
-      </c>
-      <c r="G161" s="109">
-        <v>1</v>
-      </c>
-      <c r="H161" s="11">
-        <v>0.5</v>
+      <c r="F161" s="2">
+        <v>13584</v>
+      </c>
+      <c r="G161" s="3">
+        <v>31223</v>
+      </c>
+      <c r="H161" s="2">
+        <v>49250</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -8590,26 +8729,26 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B162" s="81">
-        <v>1</v>
-      </c>
-      <c r="C162" s="10">
-        <v>1</v>
-      </c>
-      <c r="D162" s="109">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B162" s="86">
+        <v>20823</v>
+      </c>
+      <c r="C162">
+        <v>24064</v>
+      </c>
+      <c r="D162" s="3">
+        <v>46694</v>
       </c>
       <c r="E162" s="2"/>
-      <c r="F162" s="11">
-        <v>1</v>
-      </c>
-      <c r="G162" s="109">
-        <v>1</v>
-      </c>
-      <c r="H162" s="11">
-        <v>1</v>
+      <c r="F162" s="2">
+        <v>20823</v>
+      </c>
+      <c r="G162" s="3">
+        <v>24064</v>
+      </c>
+      <c r="H162" s="2">
+        <v>46694</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -8619,26 +8758,22 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B163" s="86">
-        <v>13584</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B163" s="86"/>
       <c r="C163">
-        <v>31223</v>
-      </c>
-      <c r="D163" s="3">
-        <v>19700</v>
-      </c>
+        <v>4858</v>
+      </c>
+      <c r="D163" s="3"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2">
-        <v>13584</v>
+        <v>410</v>
       </c>
       <c r="G163" s="3">
-        <v>31223</v>
+        <v>629</v>
       </c>
       <c r="H163" s="2">
-        <v>49250</v>
+        <v>1185</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -8647,28 +8782,13 @@
       <c r="M163" s="2"/>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B164" s="86">
-        <v>20823</v>
-      </c>
-      <c r="C164">
-        <v>24064</v>
-      </c>
-      <c r="D164" s="3">
-        <v>46694</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="D164" s="3"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2">
-        <v>20823</v>
-      </c>
-      <c r="G164" s="3">
-        <v>24064</v>
-      </c>
-      <c r="H164" s="2">
-        <v>46694</v>
-      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -8677,22 +8797,26 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B165" s="86"/>
+        <v>29</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.544435373768</v>
+      </c>
       <c r="C165">
-        <v>4858</v>
-      </c>
-      <c r="D165" s="3"/>
+        <v>0.33058326203299998</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.27648899426599999</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2">
-        <v>410</v>
+        <v>0.55206751971199997</v>
       </c>
       <c r="G165" s="3">
-        <v>629</v>
+        <v>0.27513703684800001</v>
       </c>
       <c r="H165" s="2">
-        <v>1185</v>
+        <v>3.5037999856700003E-2</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -8701,13 +8825,28 @@
       <c r="M165" s="2"/>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="D166" s="3"/>
+      <c r="A166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0.51530898957399995</v>
+      </c>
+      <c r="C166">
+        <v>0.46690352498299997</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.58535094510100005</v>
+      </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="2"/>
+      <c r="F166" s="2">
+        <v>0.570019669517</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0.59337554345700005</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0.16008180621699999</v>
+      </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
@@ -8716,26 +8855,26 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B167" s="1">
-        <v>0.544435373768</v>
+        <v>0.57705158358200004</v>
       </c>
       <c r="C167">
-        <v>0.33058326203299998</v>
+        <v>0.25587600063400001</v>
       </c>
       <c r="D167" s="3">
-        <v>0.27648899426599999</v>
+        <v>0.18098944316099999</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2">
-        <v>0.55206751971199997</v>
+        <v>0.53521161184199995</v>
       </c>
       <c r="G167" s="3">
-        <v>0.27513703684800001</v>
+        <v>0.17908849556799999</v>
       </c>
       <c r="H167" s="2">
-        <v>3.5037999856700003E-2</v>
+        <v>1.9671843061000002E-2</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -8745,26 +8884,26 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B168" s="1">
-        <v>0.51530898957399995</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>0.46690352498299997</v>
+        <v>1</v>
       </c>
       <c r="D168" s="3">
-        <v>0.58535094510100005</v>
+        <v>1</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2">
-        <v>0.570019669517</v>
+        <v>1</v>
       </c>
       <c r="G168" s="3">
-        <v>0.59337554345700005</v>
+        <v>1</v>
       </c>
       <c r="H168" s="2">
-        <v>0.16008180621699999</v>
+        <v>1</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -8774,26 +8913,26 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="B169" s="1">
-        <v>0.57705158358200004</v>
+        <v>0.54520244163800002</v>
       </c>
       <c r="C169">
-        <v>0.25587600063400001</v>
+        <v>0.36584915146899999</v>
       </c>
       <c r="D169" s="3">
-        <v>0.18098944316099999</v>
+        <v>0.29245777091199998</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2">
-        <v>0.53521161184199995</v>
+        <v>0.55831624720999995</v>
       </c>
       <c r="G169" s="3">
-        <v>0.17908849556799999</v>
+        <v>0.32509258224299997</v>
       </c>
       <c r="H169" s="2">
-        <v>1.9671843061000002E-2</v>
+        <v>4.6929596022299999E-2</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -8803,26 +8942,26 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="B170" s="1">
-        <v>1</v>
+        <v>0.51530898957399995</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0.456920330215</v>
       </c>
       <c r="D170" s="3">
-        <v>1</v>
+        <v>0.58535094510100005</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2">
-        <v>1</v>
+        <v>0.56942978753200002</v>
       </c>
       <c r="G170" s="3">
-        <v>1</v>
+        <v>0.59625797977899997</v>
       </c>
       <c r="H170" s="2">
-        <v>1</v>
+        <v>0.15988548227999999</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -8832,26 +8971,26 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B171" s="1">
-        <v>0.54520244163800002</v>
+        <v>0.57877776380000001</v>
       </c>
       <c r="C171">
-        <v>0.36584915146899999</v>
+        <v>0.30504836729099999</v>
       </c>
       <c r="D171" s="3">
-        <v>0.29245777091199998</v>
+        <v>0.194923517101</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2">
-        <v>0.55831624720999995</v>
+        <v>0.54762820752700003</v>
       </c>
       <c r="G171" s="3">
-        <v>0.32509258224299997</v>
+        <v>0.22346532431400001</v>
       </c>
       <c r="H171" s="2">
-        <v>4.6929596022299999E-2</v>
+        <v>2.7500819005E-2</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -8861,26 +9000,26 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B172" s="1">
-        <v>0.51530898957399995</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>0.456920330215</v>
+        <v>3</v>
       </c>
       <c r="D172" s="3">
-        <v>0.58535094510100005</v>
+        <v>1</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2">
-        <v>0.56942978753200002</v>
+        <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>0.59625797977899997</v>
+        <v>2</v>
       </c>
       <c r="H172" s="2">
-        <v>0.15988548227999999</v>
+        <v>1</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -8888,161 +9027,161 @@
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="1:13">
-      <c r="A173" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B173" s="1">
-        <v>0.57877776380000001</v>
-      </c>
-      <c r="C173">
-        <v>0.30504836729099999</v>
-      </c>
-      <c r="D173" s="3">
-        <v>0.194923517101</v>
-      </c>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2">
-        <v>0.54762820752700003</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0.22346532431400001</v>
-      </c>
-      <c r="H173" s="2">
-        <v>2.7500819005E-2</v>
-      </c>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B174" s="1">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>3</v>
-      </c>
-      <c r="D174" s="3">
-        <v>1</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>2</v>
-      </c>
-      <c r="H174" s="2">
-        <v>1</v>
-      </c>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="1:13" s="12" customFormat="1">
-      <c r="A175" s="12" t="s">
+    <row r="173" spans="1:13" s="12" customFormat="1">
+      <c r="A173" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B173" s="12">
         <f>75998.92347/(60*60)</f>
         <v>21.110812074999998</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C173" s="12">
         <f>224997.318769/(60*60)</f>
         <v>62.499255213611114</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D173" s="12">
         <f>190149.622466/(60*60)</f>
         <v>52.81933957388889</v>
       </c>
-      <c r="F175" s="12">
+      <c r="F173" s="12">
         <f>9091.90804005/(60*60)</f>
         <v>2.5255300111250003</v>
       </c>
-      <c r="G175" s="12">
+      <c r="G173" s="12">
         <f>34827.5274389/(60*60)</f>
         <v>9.6743131774722215</v>
       </c>
-      <c r="H175" s="12">
+      <c r="H173" s="12">
         <f>112109.865358/(60*60)</f>
         <v>31.14162926611111</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="12" customFormat="1">
-      <c r="C176" s="25"/>
-    </row>
-    <row r="177" spans="1:13" s="12" customFormat="1">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-    </row>
-    <row r="178" spans="1:13" s="4" customFormat="1">
-      <c r="A178" s="4" t="s">
+    <row r="174" spans="1:13" s="12" customFormat="1">
+      <c r="C174" s="25"/>
+    </row>
+    <row r="175" spans="1:13" s="12" customFormat="1">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+    </row>
+    <row r="176" spans="1:13" s="4" customFormat="1">
+      <c r="A176" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F178" s="96" t="s">
+      <c r="F176" s="96" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="100" customFormat="1">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5" t="s">
+    <row r="177" spans="1:13" s="100" customFormat="1">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D179" s="98" t="s">
+      <c r="D177" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E179" s="99"/>
-      <c r="F179" s="5" t="s">
+      <c r="E177" s="99"/>
+      <c r="F177" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H179" s="98" t="s">
+      <c r="H177" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="I179" s="99"/>
-      <c r="J179" s="99"/>
-      <c r="K179" s="99"/>
-      <c r="L179" s="99"/>
-      <c r="M179" s="99"/>
+      <c r="I177" s="99"/>
+      <c r="J177" s="99"/>
+      <c r="K177" s="99"/>
+      <c r="L177" s="99"/>
+      <c r="M177" s="99"/>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B178" s="1">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" s="3">
+        <v>10</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2">
+        <v>3</v>
+      </c>
+      <c r="G178" s="3">
+        <v>3</v>
+      </c>
+      <c r="H178" s="2">
+        <v>3</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B179" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C179" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D179" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="11">
+        <v>1</v>
+      </c>
+      <c r="G179" s="109">
+        <v>1</v>
+      </c>
+      <c r="H179" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B180" s="1">
-        <v>3</v>
-      </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-      <c r="D180" s="3">
-        <v>10</v>
+        <v>473</v>
+      </c>
+      <c r="B180" s="81">
+        <v>1</v>
+      </c>
+      <c r="C180" s="10">
+        <v>1</v>
+      </c>
+      <c r="D180" s="109">
+        <v>1</v>
       </c>
       <c r="E180" s="2"/>
-      <c r="F180" s="2">
-        <v>3</v>
-      </c>
-      <c r="G180" s="3">
-        <v>3</v>
-      </c>
-      <c r="H180" s="2">
-        <v>3</v>
+      <c r="F180" s="11">
+        <v>1</v>
+      </c>
+      <c r="G180" s="109">
+        <v>1</v>
+      </c>
+      <c r="H180" s="11">
+        <v>1</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -9052,26 +9191,26 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B181" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C181" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D181" s="109">
-        <v>0.2</v>
+        <v>482</v>
+      </c>
+      <c r="B181" s="86">
+        <v>61029</v>
+      </c>
+      <c r="C181">
+        <v>110922</v>
+      </c>
+      <c r="D181" s="3">
+        <v>131753</v>
       </c>
       <c r="E181" s="2"/>
-      <c r="F181" s="11">
-        <v>1</v>
-      </c>
-      <c r="G181" s="109">
-        <v>1</v>
-      </c>
-      <c r="H181" s="11">
-        <v>0.5</v>
+      <c r="F181" s="2">
+        <v>482297</v>
+      </c>
+      <c r="G181" s="3">
+        <v>352665</v>
+      </c>
+      <c r="H181" s="2">
+        <v>526529</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -9081,26 +9220,26 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B182" s="81">
-        <v>1</v>
-      </c>
-      <c r="C182" s="10">
-        <v>1</v>
-      </c>
-      <c r="D182" s="109">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B182" s="86">
+        <v>20823</v>
+      </c>
+      <c r="C182">
+        <v>24064</v>
+      </c>
+      <c r="D182" s="3">
+        <v>46694</v>
       </c>
       <c r="E182" s="2"/>
-      <c r="F182" s="11">
-        <v>1</v>
-      </c>
-      <c r="G182" s="109">
-        <v>1</v>
-      </c>
-      <c r="H182" s="11">
-        <v>1</v>
+      <c r="F182" s="2">
+        <v>20823</v>
+      </c>
+      <c r="G182" s="3">
+        <v>24064</v>
+      </c>
+      <c r="H182" s="2">
+        <v>46694</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -9110,26 +9249,21 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B183" s="86">
-        <v>61029</v>
-      </c>
-      <c r="C183">
-        <v>110922</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B183" s="86"/>
       <c r="D183" s="3">
-        <v>131753</v>
+        <v>7008</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
-        <v>482297</v>
+        <v>444</v>
       </c>
       <c r="G183" s="3">
-        <v>352665</v>
+        <v>749</v>
       </c>
       <c r="H183" s="2">
-        <v>526529</v>
+        <v>1812</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -9138,28 +9272,13 @@
       <c r="M183" s="2"/>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B184" s="86">
-        <v>20823</v>
-      </c>
-      <c r="C184">
-        <v>24064</v>
-      </c>
-      <c r="D184" s="3">
-        <v>46694</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="D184" s="3"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="2">
-        <v>20823</v>
-      </c>
-      <c r="G184" s="3">
-        <v>24064</v>
-      </c>
-      <c r="H184" s="2">
-        <v>46694</v>
-      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -9168,21 +9287,26 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B185" s="86"/>
+        <v>29</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0.57622570056800004</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.34365936343100001</v>
+      </c>
       <c r="D185" s="3">
-        <v>7008</v>
+        <v>0.29917800974699998</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2">
-        <v>444</v>
+        <v>0.56539082063400004</v>
       </c>
       <c r="G185" s="3">
-        <v>749</v>
+        <v>0.315856022136</v>
       </c>
       <c r="H185" s="2">
-        <v>1812</v>
+        <v>0.23097233601600001</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -9191,13 +9315,28 @@
       <c r="M185" s="2"/>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="D186" s="3"/>
+      <c r="A186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0.589396971115</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.52669084960599999</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.32954939875099998</v>
+      </c>
       <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="2"/>
+      <c r="F186" s="2">
+        <v>0.59725853896299996</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0.40649828947599997</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.26231347069900002</v>
+      </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -9206,26 +9345,26 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B187" s="1">
-        <v>0.57622570056800004</v>
+        <v>0.56363023988299998</v>
       </c>
       <c r="C187" s="1">
-        <v>0.34365936343100001</v>
+        <v>0.25503247252599998</v>
       </c>
       <c r="D187" s="3">
-        <v>0.29917800974699998</v>
+        <v>0.27393231118099998</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2">
-        <v>0.56539082063400004</v>
+        <v>0.53675155274599995</v>
       </c>
       <c r="G187" s="3">
-        <v>0.315856022136</v>
+        <v>0.258266864288</v>
       </c>
       <c r="H187" s="2">
-        <v>0.23097233601600001</v>
+        <v>0.20632114731100001</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -9235,434 +9374,422 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B188" s="1">
-        <v>0.589396971115</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1">
-        <v>0.52669084960599999</v>
+        <v>2</v>
       </c>
       <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F188" s="2">
+        <v>5</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" s="12" customFormat="1">
+      <c r="A189" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0.38357532447199999</v>
+      </c>
+      <c r="D189" s="12">
+        <v>0.30138543316299998</v>
+      </c>
+      <c r="F189" s="12">
+        <v>0.57083508647199999</v>
+      </c>
+      <c r="G189" s="12">
+        <v>0.34283486704600002</v>
+      </c>
+      <c r="H189" s="12">
+        <v>0.24590209516200001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" s="12" customFormat="1">
+      <c r="A190" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.51365541473300003</v>
+      </c>
+      <c r="D190" s="12">
         <v>0.32954939875099998</v>
       </c>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2">
-        <v>0.59725853896299996</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0.40649828947599997</v>
-      </c>
-      <c r="H188" s="2">
-        <v>0.26231347069900002</v>
-      </c>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B189" s="1">
-        <v>0.56363023988299998</v>
-      </c>
-      <c r="C189" s="1">
-        <v>0.25503247252599998</v>
-      </c>
-      <c r="D189" s="3">
-        <v>0.27393231118099998</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2">
-        <v>0.53675155274599995</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0.258266864288</v>
-      </c>
-      <c r="H189" s="2">
-        <v>0.20632114731100001</v>
-      </c>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B190" s="1">
-        <v>3</v>
-      </c>
-      <c r="C190" s="1">
-        <v>2</v>
-      </c>
-      <c r="D190" s="3">
-        <v>1</v>
-      </c>
-      <c r="F190" s="2">
-        <v>5</v>
-      </c>
-      <c r="G190" s="3">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2">
-        <v>1</v>
+      <c r="F190" s="12">
+        <v>0.59669108244400004</v>
+      </c>
+      <c r="G190" s="12">
+        <v>0.40546338021400002</v>
+      </c>
+      <c r="H190" s="12">
+        <v>0.25659870620000003</v>
       </c>
     </row>
     <row r="191" spans="1:13" s="12" customFormat="1">
       <c r="A191" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C191" s="1">
-        <v>0.38357532447199999</v>
+        <v>0.30606598648799999</v>
       </c>
       <c r="D191" s="12">
-        <v>0.30138543316299998</v>
+        <v>0.27765635336099997</v>
       </c>
       <c r="F191" s="12">
-        <v>0.57083508647199999</v>
+        <v>0.54712682374199995</v>
       </c>
       <c r="G191" s="12">
-        <v>0.34283486704600002</v>
+        <v>0.29696516007399998</v>
       </c>
       <c r="H191" s="12">
-        <v>0.24590209516200001</v>
+        <v>0.236061597048</v>
       </c>
     </row>
     <row r="192" spans="1:13" s="12" customFormat="1">
       <c r="A192" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C192" s="1">
-        <v>0.51365541473300003</v>
+        <v>4</v>
       </c>
       <c r="D192" s="12">
-        <v>0.32954939875099998</v>
+        <v>1</v>
       </c>
       <c r="F192" s="12">
-        <v>0.59669108244400004</v>
+        <v>5</v>
       </c>
       <c r="G192" s="12">
-        <v>0.40546338021400002</v>
+        <v>1</v>
       </c>
       <c r="H192" s="12">
-        <v>0.25659870620000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1">
-      <c r="A193" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C193" s="1">
-        <v>0.30606598648799999</v>
-      </c>
-      <c r="D193" s="12">
-        <v>0.27765635336099997</v>
-      </c>
-      <c r="F193" s="12">
-        <v>0.54712682374199995</v>
-      </c>
-      <c r="G193" s="12">
-        <v>0.29696516007399998</v>
-      </c>
-      <c r="H193" s="12">
-        <v>0.236061597048</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="12" customFormat="1">
-      <c r="A194" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C194" s="1">
-        <v>4</v>
-      </c>
-      <c r="D194" s="12">
-        <v>1</v>
-      </c>
-      <c r="F194" s="12">
-        <v>5</v>
-      </c>
-      <c r="G194" s="12">
-        <v>1</v>
-      </c>
-      <c r="H194" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="12" customFormat="1">
-      <c r="A195" s="12" t="s">
+      <c r="A193" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B193" s="12">
         <f>59078.7621992/(60*60)</f>
         <v>16.410767277555554</v>
       </c>
-      <c r="C195" s="12">
+      <c r="C193" s="12">
         <f>153526.70817/(60*60)</f>
         <v>42.646307825000001</v>
       </c>
-      <c r="D195" s="12">
+      <c r="D193" s="12">
         <f>349362.91562/(60*60)</f>
         <v>97.045254338888881</v>
       </c>
-      <c r="F195" s="12">
+      <c r="F193" s="12">
         <f>55922.479008/(60*60)</f>
         <v>15.534021946666668</v>
       </c>
-      <c r="G195" s="12">
+      <c r="G193" s="12">
         <f>60103.0951519/(60*60)</f>
         <v>16.69530420886111</v>
       </c>
-      <c r="H195" s="12">
+      <c r="H193" s="12">
         <f>200646.565432/(60*60)</f>
         <v>55.735157064444444</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="12" customFormat="1"/>
+    <row r="194" spans="1:8" s="12" customFormat="1"/>
+    <row r="195" spans="1:8" s="12" customFormat="1">
+      <c r="A195" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B195" s="12">
+        <v>3</v>
+      </c>
+      <c r="C195" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="12" customFormat="1">
+      <c r="A196" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B196" s="107">
+        <v>1</v>
+      </c>
+      <c r="C196" s="107">
+        <v>1</v>
+      </c>
+    </row>
     <row r="197" spans="1:8" s="12" customFormat="1">
       <c r="A197" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B197" s="12">
-        <v>3</v>
-      </c>
-      <c r="C197" s="12">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B197" s="107">
+        <v>1</v>
+      </c>
+      <c r="C197" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1">
       <c r="A198" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B198" s="107">
-        <v>1</v>
-      </c>
-      <c r="C198" s="107">
-        <v>1</v>
+        <v>482</v>
+      </c>
+      <c r="B198" s="12">
+        <v>305148</v>
+      </c>
+      <c r="C198" s="12">
+        <v>221845</v>
       </c>
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1">
       <c r="A199" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B199" s="107">
-        <v>1</v>
-      </c>
-      <c r="C199" s="107">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B199" s="12">
+        <v>20823</v>
+      </c>
+      <c r="C199" s="12">
+        <v>24064</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1">
-      <c r="A200" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B200" s="12">
-        <v>305148</v>
-      </c>
-      <c r="C200" s="12">
-        <v>221845</v>
-      </c>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1">
       <c r="A201" s="1" t="s">
-        <v>483</v>
+        <v>29</v>
       </c>
       <c r="B201" s="12">
-        <v>20823</v>
+        <v>0.56615836214600002</v>
       </c>
       <c r="C201" s="12">
-        <v>24064</v>
+        <v>0.36469801495562099</v>
       </c>
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B202" s="12">
+        <v>0.57224914217900003</v>
+      </c>
+      <c r="C202" s="12">
+        <v>0.48342461575064599</v>
+      </c>
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1">
       <c r="A203" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B203" s="12">
-        <v>0.56615836214600002</v>
+        <v>0.56019587206800003</v>
       </c>
       <c r="C203" s="12">
-        <v>0.36469801495562099</v>
+        <v>0.29279023756912498</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1">
       <c r="A204" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B204" s="12">
-        <v>0.57224914217900003</v>
+        <v>9</v>
       </c>
       <c r="C204" s="12">
-        <v>0.48342461575064599</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1">
       <c r="A205" s="1" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="B205" s="12">
-        <v>0.56019587206800003</v>
+        <v>0.56618173750900003</v>
       </c>
       <c r="C205" s="12">
-        <v>0.29279023756912498</v>
+        <v>0.38849284401799999</v>
       </c>
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1">
       <c r="A206" s="1" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="B206" s="12">
-        <v>9</v>
+        <v>0.57224914217900003</v>
       </c>
       <c r="C206" s="12">
-        <v>3</v>
+        <v>0.45432970324100003</v>
       </c>
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1">
       <c r="A207" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B207" s="12">
-        <v>0.56618173750900003</v>
+        <v>0.56024164512200003</v>
       </c>
       <c r="C207" s="12">
-        <v>0.38849284401799999</v>
+        <v>0.33932176973799999</v>
       </c>
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1">
       <c r="A208" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B208" s="12">
-        <v>0.57224914217900003</v>
+        <v>9</v>
       </c>
       <c r="C208" s="12">
-        <v>0.45432970324100003</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:13" s="12" customFormat="1">
-      <c r="A209" s="1" t="s">
-        <v>511</v>
+      <c r="A209" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="B209" s="12">
-        <v>0.56024164512200003</v>
+        <v>1</v>
       </c>
       <c r="C209" s="12">
-        <v>0.33932176973799999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:13" s="12" customFormat="1">
-      <c r="A210" s="1" t="s">
-        <v>512</v>
+      <c r="A210" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="B210" s="12">
-        <v>9</v>
-      </c>
-      <c r="C210" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" s="12" customFormat="1">
-      <c r="A211" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B211" s="12">
-        <v>1</v>
-      </c>
-      <c r="C211" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" s="12" customFormat="1">
-      <c r="A212" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B212" s="12">
         <f>113330.489251/(60*60)</f>
         <v>31.480691458611112</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="12" customFormat="1"/>
-    <row r="214" spans="1:13" s="12" customFormat="1"/>
-    <row r="215" spans="1:13" s="12" customFormat="1">
-      <c r="C215" s="25"/>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-    </row>
-    <row r="217" spans="1:13" s="35" customFormat="1">
-      <c r="A217" s="4" t="s">
+    <row r="211" spans="1:13" s="12" customFormat="1"/>
+    <row r="212" spans="1:13" s="12" customFormat="1"/>
+    <row r="213" spans="1:13" s="12" customFormat="1">
+      <c r="C213" s="25"/>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+    </row>
+    <row r="215" spans="1:13" s="35" customFormat="1">
+      <c r="A215" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="96"/>
-      <c r="E217" s="97"/>
-      <c r="F217" s="96"/>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-      <c r="I217" s="97"/>
-      <c r="J217" s="97"/>
-      <c r="K217" s="97"/>
-      <c r="L217" s="97"/>
-      <c r="M217" s="97"/>
-    </row>
-    <row r="218" spans="1:13" s="100" customFormat="1">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5" t="s">
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="97"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="97"/>
+      <c r="J215" s="97"/>
+      <c r="K215" s="97"/>
+      <c r="L215" s="97"/>
+      <c r="M215" s="97"/>
+    </row>
+    <row r="216" spans="1:13" s="100" customFormat="1">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C216" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D218" s="98" t="s">
+      <c r="D216" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E218" s="99"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="98"/>
-      <c r="I218" s="99"/>
-      <c r="J218" s="99"/>
-      <c r="K218" s="99"/>
-      <c r="L218" s="99"/>
-      <c r="M218" s="99"/>
+      <c r="E216" s="99"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="98"/>
+      <c r="I216" s="99"/>
+      <c r="J216" s="99"/>
+      <c r="K216" s="99"/>
+      <c r="L216" s="99"/>
+      <c r="M216" s="99"/>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="A217" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B217" s="26">
+        <v>10</v>
+      </c>
+      <c r="C217" s="26">
+        <v>10</v>
+      </c>
+      <c r="D217" s="26">
+        <v>10</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+    </row>
+    <row r="218" spans="1:13">
+      <c r="A218" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B218" s="26">
+        <v>3</v>
+      </c>
+      <c r="C218" s="26">
+        <v>3</v>
+      </c>
+      <c r="D218" s="26">
+        <v>10</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B219" s="26">
-        <v>10</v>
-      </c>
-      <c r="C219" s="26">
-        <v>10</v>
-      </c>
-      <c r="D219" s="26">
-        <v>10</v>
+        <v>472</v>
+      </c>
+      <c r="B219" s="82">
+        <v>1</v>
+      </c>
+      <c r="C219" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="D219" s="82">
+        <v>0.5</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-      <c r="G219" s="3"/>
+      <c r="G219" s="109"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
@@ -9672,20 +9799,20 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B220" s="26">
-        <v>3</v>
-      </c>
-      <c r="C220" s="26">
-        <v>3</v>
-      </c>
-      <c r="D220" s="26">
-        <v>10</v>
+        <v>473</v>
+      </c>
+      <c r="B220" s="82">
+        <v>1</v>
+      </c>
+      <c r="C220" s="82">
+        <v>1</v>
+      </c>
+      <c r="D220" s="82">
+        <v>0.2</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
-      <c r="G220" s="3"/>
+      <c r="G220" s="109"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
@@ -9694,21 +9821,13 @@
       <c r="M220" s="2"/>
     </row>
     <row r="221" spans="1:13">
-      <c r="A221" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B221" s="82">
-        <v>1</v>
-      </c>
-      <c r="C221" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="D221" s="82">
-        <v>0.5</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="3"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
-      <c r="G221" s="109"/>
+      <c r="G221" s="3"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
@@ -9718,20 +9837,18 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B222" s="82">
-        <v>1</v>
-      </c>
-      <c r="C222" s="82">
-        <v>1</v>
-      </c>
-      <c r="D222" s="82">
-        <v>0.2</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0.56444653526800004</v>
+      </c>
+      <c r="C222">
+        <v>0.37142344429500002</v>
+      </c>
+      <c r="D222" s="3"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
-      <c r="G222" s="109"/>
+      <c r="G222" s="3"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -9740,9 +9857,15 @@
       <c r="M222" s="2"/>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0.60010196679500005</v>
+      </c>
+      <c r="C223">
+        <v>0.57106867546499995</v>
+      </c>
       <c r="D223" s="3"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -9756,13 +9879,13 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B224" s="1">
-        <v>0.56444653526800004</v>
+        <v>0.53306287161900001</v>
       </c>
       <c r="C224">
-        <v>0.37142344429500002</v>
+        <v>0.27521142308699997</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="2"/>
@@ -9777,13 +9900,13 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B225" s="1">
-        <v>0.60010196679500005</v>
+        <v>14.2</v>
       </c>
       <c r="C225">
-        <v>0.57106867546499995</v>
+        <v>1</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="2"/>
@@ -9798,13 +9921,13 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="B226" s="1">
-        <v>0.53306287161900001</v>
+        <v>0.56446533663099996</v>
       </c>
       <c r="C226">
-        <v>0.27521142308699997</v>
+        <v>0.40468879936800001</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="2"/>
@@ -9819,13 +9942,13 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="B227" s="1">
-        <v>14.2</v>
+        <v>0.60010196679500005</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0.49009585211200002</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="2"/>
@@ -9840,13 +9963,13 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B228" s="1">
-        <v>0.56446533663099996</v>
+        <v>0.53309637348899996</v>
       </c>
       <c r="C228">
-        <v>0.40468879936800001</v>
+        <v>0.34463209886399998</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="2"/>
@@ -9861,13 +9984,13 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B229" s="1">
-        <v>0.60010196679500005</v>
+        <v>14.2</v>
       </c>
       <c r="C229">
-        <v>0.49009585211200002</v>
+        <v>1</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="2"/>
@@ -9880,128 +10003,132 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" s="12" customFormat="1">
       <c r="A230" s="1" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="B230" s="1">
-        <v>0.53309637348899996</v>
-      </c>
-      <c r="C230">
-        <v>0.34463209886399998</v>
-      </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B231" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" s="3"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-    </row>
-    <row r="232" spans="1:13" s="12" customFormat="1">
-      <c r="A232" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B232" s="1">
         <f>61101.6695879/(60*60)</f>
         <v>16.972685996638891</v>
       </c>
-      <c r="C232" s="25">
+      <c r="C230" s="25">
         <f>467806.127903/(60*60)</f>
         <v>129.94614663972223</v>
       </c>
     </row>
-    <row r="233" spans="1:13" s="12" customFormat="1">
-      <c r="C233" s="25"/>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-    </row>
-    <row r="235" spans="1:13" s="35" customFormat="1">
-      <c r="A235" s="4" t="s">
+    <row r="231" spans="1:13" s="12" customFormat="1">
+      <c r="C231" s="25"/>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+    </row>
+    <row r="233" spans="1:13" s="35" customFormat="1">
+      <c r="A233" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="97"/>
-      <c r="F235" s="97"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="97"/>
-      <c r="I235" s="97"/>
-      <c r="J235" s="97"/>
-      <c r="K235" s="97"/>
-      <c r="L235" s="97"/>
-      <c r="M235" s="97"/>
-    </row>
-    <row r="236" spans="1:13" s="100" customFormat="1">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5" t="s">
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="97"/>
+      <c r="F233" s="97"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="97"/>
+      <c r="I233" s="97"/>
+      <c r="J233" s="97"/>
+      <c r="K233" s="97"/>
+      <c r="L233" s="97"/>
+      <c r="M233" s="97"/>
+    </row>
+    <row r="234" spans="1:13" s="100" customFormat="1">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C234" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D234" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E236" s="99"/>
-      <c r="F236" s="99"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="99"/>
-      <c r="I236" s="99"/>
-      <c r="J236" s="99"/>
-      <c r="K236" s="99"/>
-      <c r="L236" s="99"/>
-      <c r="M236" s="99"/>
+      <c r="E234" s="99"/>
+      <c r="F234" s="99"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="99"/>
+      <c r="I234" s="99"/>
+      <c r="J234" s="99"/>
+      <c r="K234" s="99"/>
+      <c r="L234" s="99"/>
+      <c r="M234" s="99"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B235" s="26">
+        <v>10</v>
+      </c>
+      <c r="C235" s="26">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1">
+        <v>10</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B236" s="26">
+        <v>3</v>
+      </c>
+      <c r="C236" s="26">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B237" s="26">
-        <v>10</v>
-      </c>
-      <c r="C237" s="26">
-        <v>5</v>
-      </c>
-      <c r="D237" s="1">
-        <v>10</v>
+        <v>472</v>
+      </c>
+      <c r="B237" s="82">
+        <v>1</v>
+      </c>
+      <c r="C237" s="82">
+        <v>1</v>
+      </c>
+      <c r="D237" s="81">
+        <v>0.2</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -10015,16 +10142,16 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B238" s="26">
-        <v>3</v>
-      </c>
-      <c r="C238" s="26">
-        <v>5</v>
-      </c>
-      <c r="D238" s="1">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B238" s="82">
+        <v>1</v>
+      </c>
+      <c r="C238" s="82">
+        <v>1</v>
+      </c>
+      <c r="D238" s="81">
+        <v>0.1</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -10038,17 +10165,15 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B239" s="82">
-        <v>1</v>
-      </c>
-      <c r="C239" s="82">
-        <v>1</v>
-      </c>
-      <c r="D239" s="81">
-        <v>0.2</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B239" s="85">
+        <v>651535</v>
+      </c>
+      <c r="C239" s="26">
+        <v>102365</v>
+      </c>
+      <c r="D239" s="81"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1"/>
@@ -10061,17 +10186,15 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B240" s="82">
-        <v>1</v>
-      </c>
-      <c r="C240" s="82">
-        <v>1</v>
-      </c>
-      <c r="D240" s="81">
-        <v>0.1</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B240" s="85">
+        <v>4160</v>
+      </c>
+      <c r="C240" s="26">
+        <v>40358</v>
+      </c>
+      <c r="D240" s="81"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1"/>
@@ -10084,13 +10207,13 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="B241" s="85">
-        <v>651535</v>
+        <v>2622</v>
       </c>
       <c r="C241" s="26">
-        <v>102365</v>
+        <v>3457</v>
       </c>
       <c r="D241" s="81"/>
       <c r="E241" s="2"/>
@@ -10104,16 +10227,10 @@
       <c r="M241" s="2"/>
     </row>
     <row r="242" spans="1:13">
-      <c r="A242" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B242" s="85">
-        <v>4160</v>
-      </c>
-      <c r="C242" s="26">
-        <v>40358</v>
-      </c>
-      <c r="D242" s="81"/>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="1"/>
@@ -10126,15 +10243,17 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B243" s="85">
-        <v>2622</v>
-      </c>
-      <c r="C243" s="26">
-        <v>3457</v>
-      </c>
-      <c r="D243" s="81"/>
+        <v>462</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0.55623386209699999</v>
+      </c>
+      <c r="C243">
+        <v>0.371000410424</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0.296636620016</v>
+      </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1"/>
@@ -10146,10 +10265,18 @@
       <c r="M243" s="2"/>
     </row>
     <row r="244" spans="1:13">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="A244" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0.57671216554399996</v>
+      </c>
+      <c r="C244">
+        <v>0.49649649633699999</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0.32957350139499902</v>
+      </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1"/>
@@ -10162,16 +10289,16 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B245" s="1">
-        <v>0.55623386209699999</v>
+        <v>0.53855916990599995</v>
       </c>
       <c r="C245">
-        <v>0.371000410424</v>
+        <v>0.29614735501299999</v>
       </c>
       <c r="D245" s="1">
-        <v>0.296636620016</v>
+        <v>0.26968855537000003</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -10185,16 +10312,16 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B246" s="1">
-        <v>0.57671216554399996</v>
+        <v>21.8</v>
       </c>
       <c r="C246">
-        <v>0.49649649633699999</v>
+        <v>1</v>
       </c>
       <c r="D246" s="1">
-        <v>0.32957350139499902</v>
+        <v>3</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -10208,16 +10335,16 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="B247" s="1">
-        <v>0.53855916990599995</v>
+        <v>0.55626305104600005</v>
       </c>
       <c r="C247">
-        <v>0.29614735501299999</v>
+        <v>0.397483802685</v>
       </c>
       <c r="D247" s="1">
-        <v>0.26968855537000003</v>
+        <v>0.30136508638350001</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -10231,16 +10358,16 @@
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="B248" s="1">
-        <v>21.8</v>
+        <v>0.57671216554399996</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0.48426569256500002</v>
       </c>
       <c r="D248" s="1">
-        <v>3</v>
+        <v>0.32957350139499902</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -10254,16 +10381,16 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B249" s="1">
-        <v>0.55626305104600005</v>
+        <v>0.53861204272300001</v>
       </c>
       <c r="C249">
-        <v>0.397483802685</v>
+        <v>0.33722315136100001</v>
       </c>
       <c r="D249" s="1">
-        <v>0.30136508638350001</v>
+        <v>0.27760804910949999</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -10277,16 +10404,16 @@
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B250" s="1">
-        <v>0.57671216554399996</v>
+        <v>21.8</v>
       </c>
       <c r="C250">
-        <v>0.48426569256500002</v>
+        <v>2.8</v>
       </c>
       <c r="D250" s="1">
-        <v>0.32957350139499902</v>
+        <v>3</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -10298,130 +10425,134 @@
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
     </row>
-    <row r="251" spans="1:13">
-      <c r="A251" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B251" s="1">
-        <v>0.53861204272300001</v>
-      </c>
-      <c r="C251">
-        <v>0.33722315136100001</v>
-      </c>
-      <c r="D251" s="1">
-        <v>0.27760804910949999</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-    </row>
-    <row r="252" spans="1:13">
-      <c r="A252" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B252" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="C252">
-        <v>2.8</v>
-      </c>
-      <c r="D252" s="1">
-        <v>3</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-    </row>
-    <row r="253" spans="1:13" s="12" customFormat="1">
-      <c r="A253" s="12" t="s">
+    <row r="251" spans="1:13" s="12" customFormat="1">
+      <c r="A251" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B253" s="12">
+      <c r="B251" s="12">
         <f>144814.023426/(60*60)</f>
         <v>40.226117618333333</v>
       </c>
-      <c r="C253" s="25">
+      <c r="C251" s="25">
         <f>644056.879452/(60*60)</f>
         <v>178.90468873666669</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="12" customFormat="1">
-      <c r="C254" s="101"/>
-    </row>
-    <row r="255" spans="1:13" s="35" customFormat="1">
-      <c r="A255" s="4" t="s">
+    <row r="252" spans="1:13" s="12" customFormat="1">
+      <c r="C252" s="101"/>
+    </row>
+    <row r="253" spans="1:13" s="35" customFormat="1">
+      <c r="A253" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="97"/>
-      <c r="F255" s="96" t="s">
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="97"/>
+      <c r="F253" s="96" t="s">
         <v>527</v>
       </c>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="97"/>
-      <c r="J255" s="97"/>
-      <c r="K255" s="97"/>
-      <c r="L255" s="97"/>
-      <c r="M255" s="97"/>
-    </row>
-    <row r="256" spans="1:13" s="100" customFormat="1">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5" t="s">
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="97"/>
+      <c r="J253" s="97"/>
+      <c r="K253" s="97"/>
+      <c r="L253" s="97"/>
+      <c r="M253" s="97"/>
+    </row>
+    <row r="254" spans="1:13" s="100" customFormat="1">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C254" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D254" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E256" s="99"/>
-      <c r="F256" s="5" t="s">
+      <c r="E254" s="99"/>
+      <c r="F254" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G256" s="5" t="s">
+      <c r="G254" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H256" s="98" t="s">
+      <c r="H254" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="I256" s="99"/>
-      <c r="J256" s="99"/>
-      <c r="K256" s="99"/>
-      <c r="L256" s="99"/>
-      <c r="M256" s="99"/>
+      <c r="I254" s="99"/>
+      <c r="J254" s="99"/>
+      <c r="K254" s="99"/>
+      <c r="L254" s="99"/>
+      <c r="M254" s="99"/>
+    </row>
+    <row r="255" spans="1:13" s="25" customFormat="1">
+      <c r="A255" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B255" s="12">
+        <v>3</v>
+      </c>
+      <c r="C255" s="12">
+        <v>10</v>
+      </c>
+      <c r="D255" s="12">
+        <v>10</v>
+      </c>
+      <c r="E255" s="27"/>
+      <c r="F255" s="27">
+        <v>3</v>
+      </c>
+      <c r="G255" s="12"/>
+      <c r="H255" s="27"/>
+      <c r="I255" s="27"/>
+      <c r="J255" s="27"/>
+      <c r="K255" s="27"/>
+      <c r="L255" s="27"/>
+      <c r="M255" s="27"/>
+    </row>
+    <row r="256" spans="1:13" s="25" customFormat="1">
+      <c r="A256" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B256" s="107">
+        <v>1</v>
+      </c>
+      <c r="C256" s="107">
+        <v>1</v>
+      </c>
+      <c r="D256" s="107">
+        <v>0.2</v>
+      </c>
+      <c r="E256" s="27"/>
+      <c r="F256" s="111">
+        <v>1</v>
+      </c>
+      <c r="G256" s="12"/>
+      <c r="H256" s="27"/>
+      <c r="I256" s="27"/>
+      <c r="J256" s="27"/>
+      <c r="K256" s="27"/>
+      <c r="L256" s="27"/>
+      <c r="M256" s="27"/>
     </row>
     <row r="257" spans="1:13" s="25" customFormat="1">
       <c r="A257" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B257" s="12">
-        <v>3</v>
-      </c>
-      <c r="C257" s="12">
-        <v>10</v>
-      </c>
-      <c r="D257" s="12">
-        <v>10</v>
+        <v>473</v>
+      </c>
+      <c r="B257" s="107">
+        <v>1</v>
+      </c>
+      <c r="C257" s="107">
+        <v>1</v>
+      </c>
+      <c r="D257" s="107">
+        <v>1</v>
       </c>
       <c r="E257" s="27"/>
-      <c r="F257" s="27">
-        <v>3</v>
+      <c r="F257" s="111">
+        <v>1</v>
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="27"/>
@@ -10433,20 +10564,20 @@
     </row>
     <row r="258" spans="1:13" s="25" customFormat="1">
       <c r="A258" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B258" s="107">
-        <v>1</v>
-      </c>
-      <c r="C258" s="107">
-        <v>1</v>
-      </c>
-      <c r="D258" s="107">
-        <v>0.2</v>
+        <v>482</v>
+      </c>
+      <c r="B258" s="12">
+        <v>13584</v>
+      </c>
+      <c r="C258" s="12">
+        <v>31223</v>
+      </c>
+      <c r="D258" s="12">
+        <v>19700</v>
       </c>
       <c r="E258" s="27"/>
-      <c r="F258" s="111">
-        <v>1</v>
+      <c r="F258" s="27">
+        <v>15965</v>
       </c>
       <c r="G258" s="12"/>
       <c r="H258" s="27"/>
@@ -10458,20 +10589,20 @@
     </row>
     <row r="259" spans="1:13" s="25" customFormat="1">
       <c r="A259" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B259" s="107">
-        <v>1</v>
-      </c>
-      <c r="C259" s="107">
-        <v>1</v>
-      </c>
-      <c r="D259" s="107">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B259" s="12">
+        <v>5728</v>
+      </c>
+      <c r="C259" s="12">
+        <v>5769</v>
+      </c>
+      <c r="D259" s="12">
+        <v>10811</v>
       </c>
       <c r="E259" s="27"/>
-      <c r="F259" s="111">
-        <v>1</v>
+      <c r="F259" s="27">
+        <v>5728</v>
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="27"/>
@@ -10482,22 +10613,12 @@
       <c r="M259" s="27"/>
     </row>
     <row r="260" spans="1:13" s="25" customFormat="1">
-      <c r="A260" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B260" s="12">
-        <v>13584</v>
-      </c>
-      <c r="C260" s="12">
-        <v>31223</v>
-      </c>
-      <c r="D260" s="12">
-        <v>19700</v>
-      </c>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
       <c r="E260" s="27"/>
-      <c r="F260" s="27">
-        <v>15965</v>
-      </c>
+      <c r="F260" s="27"/>
       <c r="G260" s="12"/>
       <c r="H260" s="27"/>
       <c r="I260" s="27"/>
@@ -10506,87 +10627,96 @@
       <c r="L260" s="27"/>
       <c r="M260" s="27"/>
     </row>
-    <row r="261" spans="1:13" s="25" customFormat="1">
+    <row r="261" spans="1:13">
       <c r="A261" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B261" s="12">
-        <v>5728</v>
-      </c>
-      <c r="C261" s="12">
-        <v>5769</v>
-      </c>
-      <c r="D261" s="12">
-        <v>10811</v>
-      </c>
-      <c r="E261" s="27"/>
-      <c r="F261" s="27">
-        <v>5728</v>
-      </c>
-      <c r="G261" s="12"/>
-      <c r="H261" s="27"/>
-      <c r="I261" s="27"/>
-      <c r="J261" s="27"/>
-      <c r="K261" s="27"/>
-      <c r="L261" s="27"/>
-      <c r="M261" s="27"/>
-    </row>
-    <row r="262" spans="1:13" s="25" customFormat="1">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="27"/>
-      <c r="F262" s="27"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="27"/>
-      <c r="I262" s="27"/>
-      <c r="J262" s="27"/>
-      <c r="K262" s="27"/>
-      <c r="L262" s="27"/>
-      <c r="M262" s="27"/>
-    </row>
-    <row r="263" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0.64221370962400004</v>
+      </c>
+      <c r="C261">
+        <v>0.34279795373900002</v>
+      </c>
+      <c r="D261" s="26">
+        <v>0.25807520653799998</v>
+      </c>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2">
+        <v>0.480745912484</v>
+      </c>
+      <c r="G261" s="1"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0.65446452418599999</v>
+      </c>
+      <c r="C262">
+        <v>0.65725368524600003</v>
+      </c>
+      <c r="D262" s="26">
+        <v>0.51539162061499999</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2">
+        <v>0.85840889624100003</v>
+      </c>
+      <c r="G262" s="1"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2"/>
+    </row>
+    <row r="263" spans="1:13" s="1" customFormat="1">
       <c r="A263" s="1" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B263" s="1">
-        <v>0.64221370962400004</v>
-      </c>
-      <c r="C263">
-        <v>0.34279795373900002</v>
-      </c>
-      <c r="D263" s="26">
-        <v>0.25807520653799998</v>
-      </c>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2">
-        <v>0.480745912484</v>
-      </c>
-      <c r="G263" s="1"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
+        <v>0.63041310956399998</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0.231864809073</v>
+      </c>
+      <c r="D263" s="1">
+        <v>0.172134613549</v>
+      </c>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3">
+        <v>0.33386130271600001</v>
+      </c>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B264" s="1">
-        <v>0.65446452418599999</v>
-      </c>
-      <c r="C264">
-        <v>0.65725368524600003</v>
-      </c>
-      <c r="D264" s="26">
-        <v>0.51539162061499999</v>
+        <v>1</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2">
-        <v>0.85840889624100003</v>
+        <v>1</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="2"/>
@@ -10596,46 +10726,47 @@
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
     </row>
-    <row r="265" spans="1:13" s="1" customFormat="1">
+    <row r="265" spans="1:13">
       <c r="A265" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B265" s="1">
-        <v>0.63041310956399998</v>
-      </c>
-      <c r="C265" s="1">
-        <v>0.231864809073</v>
+        <v>0.64486091308399995</v>
+      </c>
+      <c r="C265">
+        <v>0.40575044208299998</v>
       </c>
       <c r="D265" s="1">
-        <v>0.172134613549</v>
-      </c>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3">
-        <v>0.33386130271600001</v>
-      </c>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
+        <v>0.28072078551000001</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2">
+        <v>0.51683045702099994</v>
+      </c>
+      <c r="G265" s="1"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2"/>
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B266" s="1">
-        <v>1</v>
-      </c>
-      <c r="C266" s="1">
-        <v>1</v>
+        <v>0.65446452418599999</v>
+      </c>
+      <c r="C266">
+        <v>0.53151276265799996</v>
       </c>
       <c r="D266" s="1">
-        <v>1</v>
+        <v>0.51539162061499999</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2">
-        <v>1</v>
+        <v>0.85678271585800003</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="2"/>
@@ -10647,20 +10778,20 @@
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B267" s="1">
-        <v>0.64486091308399995</v>
-      </c>
-      <c r="C267">
-        <v>0.40575044208299998</v>
+        <v>0.63553507271499998</v>
+      </c>
+      <c r="C267" s="108">
+        <v>0.32811458082400002</v>
       </c>
       <c r="D267" s="1">
-        <v>0.28072078551000001</v>
+        <v>0.19289212449000001</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2">
-        <v>0.51683045702099994</v>
+        <v>0.37001626255499998</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="2"/>
@@ -10672,20 +10803,20 @@
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B268" s="1">
-        <v>0.65446452418599999</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>0.53151276265799996</v>
+        <v>1</v>
       </c>
       <c r="D268" s="1">
-        <v>0.51539162061499999</v>
+        <v>1</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2">
-        <v>0.85678271585800003</v>
+        <v>1</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="2"/>
@@ -10697,20 +10828,24 @@
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B269" s="1">
-        <v>0.63553507271499998</v>
-      </c>
-      <c r="C269" s="108">
-        <v>0.32811458082400002</v>
+        <f>34790.2647679/(60*60)</f>
+        <v>9.6639624355277771</v>
+      </c>
+      <c r="C269">
+        <f>27695.3879449/(60*60)</f>
+        <v>7.6931633180277785</v>
       </c>
       <c r="D269" s="1">
-        <v>0.19289212449000001</v>
-      </c>
-      <c r="E269" s="2"/>
+        <f>79529.694277/(60*60)</f>
+        <v>22.091581743611112</v>
+      </c>
+      <c r="E269" s="10"/>
       <c r="F269" s="2">
-        <v>0.37001626255499998</v>
+        <f>3643.66030002/(60*60)</f>
+        <v>1.0121278611166666</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="2"/>
@@ -10720,142 +10855,142 @@
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
     </row>
-    <row r="270" spans="1:13">
-      <c r="A270" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B270" s="1">
+    <row r="270" spans="1:13" s="8" customFormat="1">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270"/>
+      <c r="D270" s="7"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="9"/>
+      <c r="I270" s="9"/>
+      <c r="J270" s="9"/>
+      <c r="K270" s="9"/>
+      <c r="L270" s="9"/>
+      <c r="M270" s="9"/>
+    </row>
+    <row r="271" spans="1:13" s="35" customFormat="1">
+      <c r="A271" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="97"/>
+      <c r="F271" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="97"/>
+      <c r="J271" s="97"/>
+      <c r="K271" s="97"/>
+      <c r="L271" s="97"/>
+      <c r="M271" s="97"/>
+    </row>
+    <row r="272" spans="1:13" s="100" customFormat="1">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E272" s="99"/>
+      <c r="F272" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H272" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I272" s="99"/>
+      <c r="J272" s="99"/>
+      <c r="K272" s="99"/>
+      <c r="L272" s="99"/>
+      <c r="M272" s="99"/>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B273" s="1">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>10</v>
+      </c>
+      <c r="D273" s="1">
+        <v>3</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2">
+        <v>3</v>
+      </c>
+      <c r="G273" s="1">
+        <v>5</v>
+      </c>
+      <c r="H273" s="2">
+        <v>5</v>
+      </c>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+    </row>
+    <row r="274" spans="1:13" s="1" customFormat="1">
+      <c r="A274" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B274" s="81">
         <v>1</v>
       </c>
-      <c r="C270">
+      <c r="C274" s="10">
         <v>1</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D274" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="E274" s="3"/>
+      <c r="F274" s="109">
         <v>1</v>
       </c>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2">
-        <v>1</v>
-      </c>
-      <c r="G270" s="1"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-    </row>
-    <row r="271" spans="1:13">
-      <c r="A271" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B271" s="1">
-        <f>34790.2647679/(60*60)</f>
-        <v>9.6639624355277771</v>
-      </c>
-      <c r="C271">
-        <f>27695.3879449/(60*60)</f>
-        <v>7.6931633180277785</v>
-      </c>
-      <c r="D271" s="1">
-        <f>79529.694277/(60*60)</f>
-        <v>22.091581743611112</v>
-      </c>
-      <c r="E271" s="10"/>
-      <c r="F271" s="2">
-        <f>3643.66030002/(60*60)</f>
-        <v>1.0121278611166666</v>
-      </c>
-      <c r="G271" s="1"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-    </row>
-    <row r="272" spans="1:13" s="8" customFormat="1">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272"/>
-      <c r="D272" s="7"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="9"/>
-      <c r="I272" s="9"/>
-      <c r="J272" s="9"/>
-      <c r="K272" s="9"/>
-      <c r="L272" s="9"/>
-      <c r="M272" s="9"/>
-    </row>
-    <row r="273" spans="1:13" s="35" customFormat="1">
-      <c r="A273" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="97"/>
-      <c r="F273" s="96" t="s">
-        <v>527</v>
-      </c>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-      <c r="I273" s="97"/>
-      <c r="J273" s="97"/>
-      <c r="K273" s="97"/>
-      <c r="L273" s="97"/>
-      <c r="M273" s="97"/>
-    </row>
-    <row r="274" spans="1:13" s="100" customFormat="1">
-      <c r="A274" s="5"/>
-      <c r="B274" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E274" s="99"/>
-      <c r="F274" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G274" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H274" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="I274" s="99"/>
-      <c r="J274" s="99"/>
-      <c r="K274" s="99"/>
-      <c r="L274" s="99"/>
-      <c r="M274" s="99"/>
+      <c r="G274" s="81"/>
+      <c r="H274" s="109">
+        <v>0.5</v>
+      </c>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B275" s="1">
-        <v>3</v>
-      </c>
-      <c r="C275">
-        <v>10</v>
-      </c>
-      <c r="D275" s="1">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B275" s="81">
+        <v>1</v>
+      </c>
+      <c r="C275" s="10">
+        <v>1</v>
+      </c>
+      <c r="D275" s="81">
+        <v>1</v>
       </c>
       <c r="E275" s="2"/>
-      <c r="F275" s="2">
-        <v>3</v>
-      </c>
-      <c r="G275" s="1">
-        <v>5</v>
-      </c>
-      <c r="H275" s="2">
-        <v>5</v>
+      <c r="F275" s="11">
+        <v>1</v>
+      </c>
+      <c r="G275" s="81"/>
+      <c r="H275" s="11">
+        <v>1</v>
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
@@ -10863,53 +10998,53 @@
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
     </row>
-    <row r="276" spans="1:13" s="1" customFormat="1">
+    <row r="276" spans="1:13">
       <c r="A276" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B276" s="81">
-        <v>1</v>
-      </c>
-      <c r="C276" s="10">
-        <v>1</v>
-      </c>
-      <c r="D276" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="E276" s="3"/>
-      <c r="F276" s="109">
-        <v>1</v>
-      </c>
-      <c r="G276" s="81"/>
-      <c r="H276" s="109">
-        <v>0.5</v>
-      </c>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
+        <v>482</v>
+      </c>
+      <c r="B276" s="1">
+        <v>305148</v>
+      </c>
+      <c r="C276">
+        <v>221845</v>
+      </c>
+      <c r="D276" s="1">
+        <v>110922</v>
+      </c>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2">
+        <v>482297</v>
+      </c>
+      <c r="G276" s="1"/>
+      <c r="H276" s="2">
+        <v>526529</v>
+      </c>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="2"/>
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B277" s="81">
-        <v>1</v>
-      </c>
-      <c r="C277" s="10">
-        <v>1</v>
-      </c>
-      <c r="D277" s="81">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B277" s="1">
+        <v>5728</v>
+      </c>
+      <c r="C277">
+        <v>5769</v>
+      </c>
+      <c r="D277" s="1">
+        <v>82397</v>
       </c>
       <c r="E277" s="2"/>
-      <c r="F277" s="11">
-        <v>1</v>
-      </c>
-      <c r="G277" s="81"/>
-      <c r="H277" s="11">
-        <v>1</v>
+      <c r="F277" s="2">
+        <v>5728</v>
+      </c>
+      <c r="G277" s="1"/>
+      <c r="H277" s="2">
+        <v>10811</v>
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
@@ -10919,24 +11054,20 @@
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B278" s="1">
-        <v>305148</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B278" s="1"/>
       <c r="C278">
-        <v>221845</v>
-      </c>
-      <c r="D278" s="1">
-        <v>110922</v>
-      </c>
+        <v>4288</v>
+      </c>
+      <c r="D278" s="1"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2">
-        <v>482297</v>
+        <v>218</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="2">
-        <v>526529</v>
+        <v>558</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
@@ -10945,26 +11076,14 @@
       <c r="M278" s="2"/>
     </row>
     <row r="279" spans="1:13">
-      <c r="A279" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B279" s="1">
-        <v>5728</v>
-      </c>
-      <c r="C279">
-        <v>5769</v>
-      </c>
-      <c r="D279" s="1">
-        <v>82397</v>
-      </c>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2">
-        <v>5728</v>
-      </c>
+      <c r="A279" s="12"/>
+      <c r="B279" s="83"/>
+      <c r="C279" s="84"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="2"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="2">
-        <v>10811</v>
-      </c>
+      <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
@@ -10973,20 +11092,24 @@
     </row>
     <row r="280" spans="1:13">
       <c r="A280" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B280" s="1"/>
-      <c r="C280">
-        <v>4288</v>
-      </c>
-      <c r="D280" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B280" s="83">
+        <v>0.64362824113799999</v>
+      </c>
+      <c r="C280" s="84">
+        <v>0.36440334223300003</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0.36039063071900002</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2">
-        <v>218</v>
+        <v>0.60950918760999995</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="2">
-        <v>558</v>
+        <v>0.14925312721299999</v>
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
@@ -10995,14 +11118,26 @@
       <c r="M280" s="2"/>
     </row>
     <row r="281" spans="1:13">
-      <c r="A281" s="12"/>
-      <c r="B281" s="83"/>
-      <c r="C281" s="84"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="11"/>
-      <c r="F281" s="2"/>
+      <c r="A281" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0.69987417616699998</v>
+      </c>
+      <c r="C281">
+        <v>0.48080575343199999</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0.486269885924</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2">
+        <v>0.67350646915099999</v>
+      </c>
       <c r="G281" s="1"/>
-      <c r="H281" s="2"/>
+      <c r="H281" s="2">
+        <v>0.222828414108</v>
+      </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
@@ -11011,24 +11146,24 @@
     </row>
     <row r="282" spans="1:13">
       <c r="A282" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B282" s="83">
-        <v>0.64362824113799999</v>
-      </c>
-      <c r="C282" s="84">
-        <v>0.36440334223300003</v>
+        <v>468</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0.59575030256899997</v>
+      </c>
+      <c r="C282">
+        <v>0.29337714032000001</v>
       </c>
       <c r="D282" s="1">
-        <v>0.36039063071900002</v>
+        <v>0.28628172305299998</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2">
-        <v>0.60950918760999995</v>
+        <v>0.55661870258699997</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="2">
-        <v>0.14925312721299999</v>
+        <v>0.11220452890800001</v>
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
@@ -11038,24 +11173,24 @@
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B283" s="1">
-        <v>0.69987417616699998</v>
+        <v>18</v>
       </c>
       <c r="C283">
-        <v>0.48080575343199999</v>
+        <v>4</v>
       </c>
       <c r="D283" s="1">
-        <v>0.486269885924</v>
+        <v>1</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2">
-        <v>0.67350646915099999</v>
+        <v>2</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="2">
-        <v>0.222828414108</v>
+        <v>1</v>
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
@@ -11063,53 +11198,52 @@
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" s="1" customFormat="1">
       <c r="A284" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B284" s="1">
-        <v>0.59575030256899997</v>
+        <v>487</v>
+      </c>
+      <c r="B284">
+        <v>0.64378633739500002</v>
       </c>
       <c r="C284">
-        <v>0.29337714032000001</v>
+        <v>0.39031871412800001</v>
       </c>
       <c r="D284" s="1">
-        <v>0.28628172305299998</v>
-      </c>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2">
-        <v>0.55661870258699997</v>
-      </c>
-      <c r="G284" s="1"/>
-      <c r="H284" s="2">
-        <v>0.11220452890800001</v>
-      </c>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
+        <v>0.388793502372</v>
+      </c>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3">
+        <v>0.63022254161299995</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0.19957159131300001</v>
+      </c>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B285" s="1">
-        <v>18</v>
-      </c>
-      <c r="C285">
-        <v>4</v>
+        <v>486</v>
+      </c>
+      <c r="B285" s="12">
+        <v>0.69987417616699998</v>
+      </c>
+      <c r="C285" s="12">
+        <v>0.46005774679599998</v>
       </c>
       <c r="D285" s="1">
-        <v>1</v>
+        <v>0.48879564594300001</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2">
-        <v>2</v>
+        <v>0.668588189735</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="2">
-        <v>1</v>
+        <v>0.20985894307</v>
       </c>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
@@ -11117,52 +11251,53 @@
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
     </row>
-    <row r="286" spans="1:13" s="1" customFormat="1">
+    <row r="286" spans="1:13">
       <c r="A286" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B286">
-        <v>0.64378633739500002</v>
-      </c>
-      <c r="C286">
-        <v>0.39031871412800001</v>
+        <v>485</v>
+      </c>
+      <c r="B286" s="12">
+        <v>0.59602125980999998</v>
+      </c>
+      <c r="C286" s="12">
+        <v>0.338939674824</v>
       </c>
       <c r="D286" s="1">
-        <v>0.388793502372</v>
-      </c>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3">
-        <v>0.63022254161299995</v>
-      </c>
-      <c r="H286" s="3">
-        <v>0.19957159131300001</v>
-      </c>
-      <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
-      <c r="K286" s="3"/>
-      <c r="L286" s="3"/>
-      <c r="M286" s="3"/>
+        <v>0.32276033387899999</v>
+      </c>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2">
+        <v>0.59602102098300003</v>
+      </c>
+      <c r="G286" s="1"/>
+      <c r="H286" s="2">
+        <v>0.19024568754400001</v>
+      </c>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+      <c r="M286" s="2"/>
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B287" s="12">
-        <v>0.69987417616699998</v>
-      </c>
-      <c r="C287" s="12">
-        <v>0.46005774679599998</v>
+        <v>484</v>
+      </c>
+      <c r="B287" s="7">
+        <v>18</v>
+      </c>
+      <c r="C287" s="8">
+        <v>9</v>
       </c>
       <c r="D287" s="1">
-        <v>0.48879564594300001</v>
+        <v>3</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2">
-        <v>0.668588189735</v>
+        <v>2</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="2">
-        <v>0.20985894307</v>
+        <v>1</v>
       </c>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
@@ -11172,24 +11307,29 @@
     </row>
     <row r="288" spans="1:13">
       <c r="A288" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B288" s="12">
-        <v>0.59602125980999998</v>
-      </c>
-      <c r="C288" s="12">
-        <v>0.338939674824</v>
+        <v>466</v>
+      </c>
+      <c r="B288" s="7">
+        <f>62226.8335788/(60*60)</f>
+        <v>17.285231549666666</v>
+      </c>
+      <c r="C288" s="8">
+        <f>63279.076081/(60*60)</f>
+        <v>17.577521133611111</v>
       </c>
       <c r="D288" s="1">
-        <v>0.32276033387899999</v>
+        <f>476530.557258/(60*60)</f>
+        <v>132.36959923833334</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2">
-        <v>0.59602102098300003</v>
+        <f>47406.416955/(60*60)</f>
+        <v>13.168449154166666</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="2">
-        <v>0.19024568754400001</v>
+        <f>111774.987089/(60*60)</f>
+        <v>31.048607524722222</v>
       </c>
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
@@ -11198,108 +11338,77 @@
       <c r="M288" s="2"/>
     </row>
     <row r="289" spans="1:13">
-      <c r="A289" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B289" s="7">
-        <v>18</v>
-      </c>
-      <c r="C289" s="8">
-        <v>9</v>
-      </c>
-      <c r="D289" s="1">
-        <v>3</v>
-      </c>
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="1"/>
       <c r="E289" s="2"/>
-      <c r="F289" s="2">
-        <v>2</v>
-      </c>
+      <c r="F289" s="2"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="2">
-        <v>1</v>
-      </c>
+      <c r="H289" s="2"/>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
     </row>
-    <row r="290" spans="1:13">
-      <c r="A290" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B290" s="7">
-        <f>62226.8335788/(60*60)</f>
-        <v>17.285231549666666</v>
-      </c>
-      <c r="C290" s="8">
-        <f>63279.076081/(60*60)</f>
-        <v>17.577521133611111</v>
-      </c>
-      <c r="D290" s="1">
-        <f>476530.557258/(60*60)</f>
-        <v>132.36959923833334</v>
-      </c>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2">
-        <f>47406.416955/(60*60)</f>
-        <v>13.168449154166666</v>
-      </c>
-      <c r="G290" s="1"/>
-      <c r="H290" s="2">
-        <f>111774.987089/(60*60)</f>
-        <v>31.048607524722222</v>
-      </c>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-    </row>
-    <row r="291" spans="1:13">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="1"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-    </row>
-    <row r="292" spans="1:13" s="25" customFormat="1">
+    <row r="290" spans="1:13" s="25" customFormat="1">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="27"/>
+      <c r="F290" s="27"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="27"/>
+      <c r="I290" s="27"/>
+      <c r="J290" s="27"/>
+      <c r="K290" s="27"/>
+      <c r="L290" s="27"/>
+      <c r="M290" s="27"/>
+    </row>
+    <row r="291" spans="1:13" s="25" customFormat="1">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="27"/>
+      <c r="F291" s="27"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="27"/>
+      <c r="I291" s="27"/>
+      <c r="J291" s="27"/>
+      <c r="K291" s="27"/>
+      <c r="L291" s="27"/>
+      <c r="M291" s="27"/>
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
-      <c r="C292"/>
-      <c r="D292" s="12"/>
-      <c r="E292" s="27"/>
-      <c r="F292" s="27"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="27"/>
-      <c r="I292" s="27"/>
-      <c r="J292" s="27"/>
-      <c r="K292" s="27"/>
-      <c r="L292" s="27"/>
-      <c r="M292" s="27"/>
-    </row>
-    <row r="293" spans="1:13" s="25" customFormat="1">
+      <c r="D292" s="1"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+      <c r="M292" s="2"/>
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="12"/>
-      <c r="E293" s="27"/>
-      <c r="F293" s="27"/>
-      <c r="G293" s="12"/>
-      <c r="H293" s="27"/>
-      <c r="I293" s="27"/>
-      <c r="J293" s="27"/>
-      <c r="K293" s="27"/>
-      <c r="L293" s="27"/>
-      <c r="M293" s="27"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="1"/>
@@ -11318,70 +11427,72 @@
     <row r="295" spans="1:13">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="1"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-    </row>
-    <row r="296" spans="1:13">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="1"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-    </row>
-    <row r="297" spans="1:13">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="10"/>
-    </row>
-    <row r="298" spans="1:13" s="12" customFormat="1">
-      <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="13"/>
-      <c r="H298" s="13"/>
-      <c r="I298" s="13"/>
-      <c r="J298" s="13"/>
-      <c r="K298" s="13"/>
-      <c r="L298" s="13"/>
-      <c r="M298" s="13"/>
-    </row>
-    <row r="299" spans="1:13" s="12" customFormat="1">
-      <c r="A299"/>
-      <c r="B299"/>
-      <c r="C299"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="13"/>
-      <c r="H299" s="13"/>
-      <c r="I299" s="13"/>
-      <c r="J299" s="13"/>
-      <c r="K299" s="13"/>
-      <c r="L299" s="13"/>
-      <c r="M299" s="13"/>
+      <c r="C295" s="10"/>
+    </row>
+    <row r="296" spans="1:13" s="12" customFormat="1">
+      <c r="A296" s="7"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+      <c r="J296" s="13"/>
+      <c r="K296" s="13"/>
+      <c r="L296" s="13"/>
+      <c r="M296" s="13"/>
+    </row>
+    <row r="297" spans="1:13" s="12" customFormat="1">
+      <c r="A297"/>
+      <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="J297" s="13"/>
+      <c r="K297" s="13"/>
+      <c r="L297" s="13"/>
+      <c r="M297" s="13"/>
+    </row>
+    <row r="298" spans="1:13" s="8" customFormat="1">
+      <c r="A298"/>
+      <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="7"/>
+      <c r="H298" s="9"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
+      <c r="L298" s="9"/>
+      <c r="M298" s="9"/>
+    </row>
+    <row r="299" spans="1:13" s="8" customFormat="1">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="7"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
+      <c r="L299" s="9"/>
+      <c r="M299" s="9"/>
     </row>
     <row r="300" spans="1:13" s="8" customFormat="1">
-      <c r="A300"/>
-      <c r="B300"/>
-      <c r="C300"/>
+      <c r="A300" s="12"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="7"/>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
@@ -11393,49 +11504,42 @@
       <c r="L300" s="9"/>
       <c r="M300" s="9"/>
     </row>
-    <row r="301" spans="1:13" s="8" customFormat="1">
-      <c r="A301" s="12"/>
-      <c r="B301" s="12"/>
-      <c r="C301" s="12"/>
-      <c r="D301" s="7"/>
-      <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="7"/>
-      <c r="H301" s="9"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="9"/>
-      <c r="K301" s="9"/>
-      <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
-    </row>
-    <row r="302" spans="1:13" s="8" customFormat="1">
-      <c r="A302" s="12"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="12"/>
-      <c r="D302" s="7"/>
-      <c r="E302" s="9"/>
-      <c r="F302" s="9"/>
-      <c r="G302" s="7"/>
-      <c r="H302" s="9"/>
-      <c r="I302" s="9"/>
-      <c r="J302" s="9"/>
-      <c r="K302" s="9"/>
-      <c r="L302" s="9"/>
-      <c r="M302" s="9"/>
-    </row>
-    <row r="303" spans="1:13" s="12" customFormat="1">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="E303" s="13"/>
-      <c r="F303" s="13"/>
-      <c r="G303" s="13"/>
-      <c r="H303" s="13"/>
-      <c r="I303" s="13"/>
-      <c r="J303" s="13"/>
-      <c r="K303" s="13"/>
-      <c r="L303" s="13"/>
-      <c r="M303" s="13"/>
+    <row r="301" spans="1:13" s="12" customFormat="1">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+      <c r="J301" s="13"/>
+      <c r="K301" s="13"/>
+      <c r="L301" s="13"/>
+      <c r="M301" s="13"/>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2"/>
+    </row>
+    <row r="303" spans="1:13" s="1" customFormat="1">
+      <c r="F303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
     </row>
     <row r="304" spans="1:13">
       <c r="A304" s="1"/>
@@ -11451,14 +11555,19 @@
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
     </row>
-    <row r="305" spans="1:13" s="1" customFormat="1">
-      <c r="F305" s="3"/>
-      <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
-      <c r="J305" s="3"/>
-      <c r="K305" s="3"/>
-      <c r="L305" s="3"/>
-      <c r="M305" s="3"/>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="1"/>
@@ -11479,6 +11588,7 @@
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
+      <c r="E307" s="10"/>
       <c r="F307" s="2"/>
       <c r="G307" s="1"/>
       <c r="H307" s="2"/>
@@ -11488,57 +11598,38 @@
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" s="8" customFormat="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="F308" s="2"/>
-      <c r="G308" s="1"/>
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
-      <c r="K308" s="2"/>
-      <c r="L308" s="2"/>
-      <c r="M308" s="2"/>
-    </row>
-    <row r="309" spans="1:13">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="1"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2"/>
-      <c r="K309" s="2"/>
-      <c r="L309" s="2"/>
-      <c r="M309" s="2"/>
-    </row>
-    <row r="310" spans="1:13" s="8" customFormat="1">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="7"/>
-      <c r="F310" s="9"/>
-      <c r="G310" s="7"/>
-      <c r="H310" s="9"/>
-      <c r="I310" s="9"/>
-      <c r="J310" s="9"/>
-      <c r="K310" s="9"/>
-      <c r="L310" s="9"/>
-      <c r="M310" s="9"/>
-    </row>
-    <row r="312" spans="1:13">
-      <c r="A312" s="12"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="12"/>
-    </row>
-    <row r="313" spans="1:13" s="12" customFormat="1"/>
-    <row r="314" spans="1:13" s="12" customFormat="1">
-      <c r="G314" s="13"/>
+      <c r="D308" s="7"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="9"/>
+      <c r="M308" s="9"/>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+    </row>
+    <row r="311" spans="1:13" s="12" customFormat="1"/>
+    <row r="312" spans="1:13" s="12" customFormat="1">
+      <c r="G312" s="13"/>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="12"/>
@@ -11556,9 +11647,9 @@
       <c r="C317" s="12"/>
     </row>
     <row r="318" spans="1:13">
-      <c r="A318" s="12"/>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="A318" s="25"/>
+      <c r="B318" s="25"/>
+      <c r="C318" s="25"/>
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="12"/>
@@ -11566,34 +11657,34 @@
       <c r="C319" s="12"/>
     </row>
     <row r="320" spans="1:13">
-      <c r="A320" s="25"/>
-      <c r="B320" s="25"/>
-      <c r="C320" s="25"/>
+      <c r="A320" s="12"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="12"/>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="12"/>
-      <c r="B321" s="12"/>
-      <c r="C321" s="12"/>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="12"/>
-      <c r="B322" s="12"/>
-      <c r="C322" s="12"/>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+    </row>
+    <row r="322" spans="1:7" s="12" customFormat="1">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322"/>
+    </row>
+    <row r="323" spans="1:7" s="12" customFormat="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="1:7" s="12" customFormat="1">
+      <c r="C323"/>
+      <c r="G323" s="13"/>
+    </row>
+    <row r="324" spans="1:7" s="25" customFormat="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324"/>
     </row>
-    <row r="325" spans="1:7" s="12" customFormat="1">
+    <row r="325" spans="1:7" s="25" customFormat="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325"/>
-      <c r="G325" s="13"/>
     </row>
     <row r="326" spans="1:7" s="25" customFormat="1">
       <c r="A326" s="1"/>
@@ -11611,35 +11702,25 @@
       <c r="C328"/>
     </row>
     <row r="329" spans="1:7" s="25" customFormat="1">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
+      <c r="A329"/>
+      <c r="B329"/>
       <c r="C329"/>
     </row>
     <row r="330" spans="1:7" s="25" customFormat="1">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
+      <c r="A330"/>
+      <c r="B330"/>
       <c r="C330"/>
     </row>
-    <row r="331" spans="1:7" s="25" customFormat="1">
+    <row r="331" spans="1:7" s="12" customFormat="1">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
     </row>
-    <row r="332" spans="1:7" s="25" customFormat="1">
+    <row r="332" spans="1:7" s="12" customFormat="1">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
-    </row>
-    <row r="333" spans="1:7" s="12" customFormat="1">
-      <c r="A333"/>
-      <c r="B333"/>
-      <c r="C333"/>
-    </row>
-    <row r="334" spans="1:7" s="12" customFormat="1">
-      <c r="A334"/>
-      <c r="B334"/>
-      <c r="C334"/>
-      <c r="G334" s="13"/>
+      <c r="G332" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11656,8 +11737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD22"/>
+    <sheetView showRuler="0" topLeftCell="B2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11675,10 +11756,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="2:11" hidden="1">
+    <row r="2" spans="2:11">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:11" hidden="1">
+    <row r="3" spans="2:11">
       <c r="B3" s="104" t="s">
         <v>9</v>
       </c>
@@ -11692,7 +11773,7 @@
       <c r="H3" s="105"/>
       <c r="I3" s="106"/>
     </row>
-    <row r="4" spans="2:11" hidden="1">
+    <row r="4" spans="2:11">
       <c r="B4" s="94" t="s">
         <v>482</v>
       </c>
@@ -11718,7 +11799,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="2:11" hidden="1">
+    <row r="5" spans="2:11">
       <c r="B5" s="95" t="s">
         <v>304</v>
       </c>
@@ -11742,7 +11823,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="2:11" hidden="1">
+    <row r="6" spans="2:11">
       <c r="B6" s="95" t="s">
         <v>296</v>
       </c>
@@ -11762,12 +11843,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="2:11" hidden="1">
+    <row r="7" spans="2:11">
       <c r="B7" s="95" t="s">
         <v>299</v>
       </c>
       <c r="C7" s="93">
-        <v>0.221841076118</v>
+        <v>0.28773165953199997</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="93"/>
@@ -11778,9 +11859,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="2:11" hidden="1"/>
-    <row r="9" spans="2:11" hidden="1"/>
-    <row r="10" spans="2:11" hidden="1">
+    <row r="10" spans="2:11">
       <c r="B10" s="104" t="s">
         <v>9</v>
       </c>
@@ -11795,7 +11874,7 @@
       <c r="I10" s="106"/>
       <c r="J10" s="103"/>
     </row>
-    <row r="11" spans="2:11" hidden="1">
+    <row r="11" spans="2:11">
       <c r="B11" s="94" t="s">
         <v>482</v>
       </c>
@@ -11825,7 +11904,7 @@
       </c>
       <c r="K11" s="110"/>
     </row>
-    <row r="12" spans="2:11" hidden="1">
+    <row r="12" spans="2:11">
       <c r="B12" s="95" t="s">
         <v>304</v>
       </c>
@@ -11848,7 +11927,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1">
+    <row r="13" spans="2:11">
       <c r="B13" s="95" t="s">
         <v>296</v>
       </c>
@@ -11871,7 +11950,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="2:11" hidden="1">
+    <row r="14" spans="2:11">
       <c r="B14" s="95" t="s">
         <v>299</v>
       </c>
@@ -11894,14 +11973,13 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1">
+    <row r="15" spans="2:11">
       <c r="J15">
         <f>SUM(J12:J14)</f>
         <v>2942</v>
       </c>
     </row>
-    <row r="16" spans="2:11" hidden="1"/>
-    <row r="17" spans="2:12" hidden="1">
+    <row r="17" spans="2:12">
       <c r="B17" s="104" t="s">
         <v>9</v>
       </c>
@@ -11916,7 +11994,7 @@
       <c r="I17" s="106"/>
       <c r="J17" s="103"/>
     </row>
-    <row r="18" spans="2:12" hidden="1">
+    <row r="18" spans="2:12">
       <c r="B18" s="94" t="s">
         <v>482</v>
       </c>
@@ -11945,7 +12023,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="2:12" hidden="1">
+    <row r="19" spans="2:12">
       <c r="B19" s="95" t="s">
         <v>304</v>
       </c>
@@ -11968,7 +12046,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1">
+    <row r="20" spans="2:12">
       <c r="B20" s="95" t="s">
         <v>296</v>
       </c>
@@ -11991,7 +12069,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="2:12" hidden="1">
+    <row r="21" spans="2:12">
       <c r="B21" s="95" t="s">
         <v>299</v>
       </c>
@@ -12012,7 +12090,6 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="22" spans="2:12" hidden="1"/>
     <row r="24" spans="2:12">
       <c r="B24" s="104" t="s">
         <v>9</v>
@@ -12368,10 +12445,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12440,7 +12517,7 @@
         <v>0.36078276811499999</v>
       </c>
       <c r="C5">
-        <v>0.36584915146899999</v>
+        <v>0.36418496787499999</v>
       </c>
       <c r="D5" s="93">
         <v>0.35775300801799997</v>
@@ -12461,7 +12538,9 @@
         <v>0.29245777091199998</v>
       </c>
       <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="E6" s="93">
+        <v>0.30147039482600002</v>
+      </c>
       <c r="F6" s="93"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
@@ -12523,8 +12602,67 @@
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
     </row>
+    <row r="14" spans="1:6" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="93"/>
+      <c r="B15" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="93">
+        <v>0.54641282934199997</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93">
+        <v>0.54851258290399996</v>
+      </c>
+      <c r="F16" s="102">
+        <v>0.548458132795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="102"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Hierarchical Classification Results.xlsx
+++ b/Hierarchical Classification Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="23400" windowHeight="16360" tabRatio="657"/>
+    <workbookView xWindow="5020" yWindow="0" windowWidth="23780" windowHeight="16360" tabRatio="657"/>
   </bookViews>
   <sheets>
     <sheet name="GO-Bayes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="546">
   <si>
     <t>Molecular Function</t>
   </si>
@@ -1648,6 +1648,21 @@
   </si>
   <si>
     <t>Yeast proteins</t>
+  </si>
+  <si>
+    <t>Concatenate papers by protein</t>
+  </si>
+  <si>
+    <t>Max F1 pruned</t>
+  </si>
+  <si>
+    <t>Max Precision pruned</t>
+  </si>
+  <si>
+    <t>Max Recall pruned</t>
+  </si>
+  <si>
+    <t>Best Thresh % pruned</t>
   </si>
 </sst>
 </file>
@@ -1964,8 +1979,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1391">
+  <cellStyleXfs count="1401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3509,7 +3534,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1391">
+  <cellStyles count="1401">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4205,6 +4230,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4900,6 +4930,11 @@
     <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5229,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M332"/>
+  <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6018,7 +6053,9 @@
         <f>82249.328444/(60*60)</f>
         <v>22.84703567888889</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
         <f>11725.006268/(60*60)</f>
@@ -6543,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2">
@@ -6675,7 +6712,7 @@
       </c>
       <c r="B64" s="1"/>
       <c r="D64" s="3">
-        <v>10992</v>
+        <v>7940</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6803,7 +6840,7 @@
         <v>1.2</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
@@ -6919,7 +6956,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D73" s="3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
@@ -6949,7 +6986,10 @@
         <f>39076.0317781/(60*60)</f>
         <v>10.854453271694444</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3">
+        <f>183519.357289/(60*60)</f>
+        <v>50.977599246944443</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
         <f>8110.09684682/(60*60)</f>
@@ -7453,6 +7493,9 @@
       <c r="C96" s="4" t="s">
         <v>219</v>
       </c>
+      <c r="F96" s="4" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="97" spans="1:13" s="5" customFormat="1">
       <c r="B97" s="5" t="s">
@@ -7479,7 +7522,9 @@
         <v>3</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2">
+        <v>3</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -7502,7 +7547,9 @@
         <v>0.2</v>
       </c>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="109">
+        <v>1</v>
+      </c>
       <c r="G99" s="6"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -7525,7 +7572,9 @@
         <v>0.1</v>
       </c>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="109">
+        <v>0.3</v>
+      </c>
       <c r="G100" s="6"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -7563,7 +7612,9 @@
         <v>0.28263653123400001</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2">
+        <v>0.570401451946</v>
+      </c>
       <c r="G102" s="3"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -7586,7 +7637,9 @@
         <v>0.448743637054</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="F103" s="2">
+        <v>0.54120101946700006</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -7609,7 +7662,9 @@
         <v>0.20627989225099999</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="F104" s="2">
+        <v>0.60293260426600004</v>
+      </c>
       <c r="G104" s="3"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -7632,7 +7687,9 @@
         <v>1</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -7643,19 +7700,15 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="F106" s="2">
+        <v>0.57100743513800001</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -7664,102 +7717,117 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1">
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2">
+        <v>0.54120101946700006</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2">
+        <v>0.60428835917599999</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1">
+      <c r="A110" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B110" s="1">
         <f>19974.843426/(60*60)</f>
         <v>5.5485676183333332</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C110" s="1">
         <f>67321.9787359/(60*60)</f>
         <v>18.700549648861113</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D110" s="3">
         <f>327632.954097/(60*60)</f>
         <v>91.009153915833338</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" s="1" customFormat="1">
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" s="1" customFormat="1">
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:13" s="4" customFormat="1">
-      <c r="A111" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="5" customFormat="1">
-      <c r="B112" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B113" s="26">
-        <v>3</v>
-      </c>
-      <c r="C113" s="26">
-        <v>3</v>
-      </c>
-      <c r="D113" s="26">
-        <v>3</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="D113" s="3"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="3"/>
@@ -7770,56 +7838,38 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B114" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="C114" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="D114" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B115" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="C115" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="D115" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
+    <row r="114" spans="1:13" s="4" customFormat="1">
+      <c r="A114" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="5" customFormat="1">
+      <c r="B115" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="D116" s="3"/>
+      <c r="A116" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B116" s="26">
+        <v>3</v>
+      </c>
+      <c r="C116" s="26">
+        <v>3</v>
+      </c>
+      <c r="D116" s="26">
+        <v>3</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
@@ -7830,41 +7880,41 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1">
+    <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0.58701127993400004</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.37201945201999997</v>
-      </c>
-      <c r="D117" s="3">
-        <v>0.303088379751</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
+        <v>472</v>
+      </c>
+      <c r="B117" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="C117" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="D117" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0.63869553760599995</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.51737629308599997</v>
-      </c>
-      <c r="D118" s="3">
-        <v>0.32761940948000001</v>
+        <v>473</v>
+      </c>
+      <c r="B118" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="C118" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="D118" s="80">
+        <v>0.1</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -7877,18 +7927,9 @@
       <c r="M118" s="2"/>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0.54306555258800004</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.29042465982600002</v>
-      </c>
-      <c r="D119" s="3">
-        <v>0.28197504514600003</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
@@ -7899,42 +7940,42 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" s="1" customFormat="1">
       <c r="A120" s="1" t="s">
-        <v>469</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1">
-        <v>13</v>
+        <v>0.58701127993400004</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
+        <v>0.37201945201999997</v>
       </c>
       <c r="D120" s="3">
-        <v>3</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
+        <v>0.303088379751</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B121" s="1">
-        <f>48495.66765/(60*60)</f>
-        <v>13.471018791666667</v>
+        <v>0.63869553760599995</v>
       </c>
       <c r="C121" s="1">
-        <f>55646.4552431/(60*60)</f>
-        <v>15.457348678638889</v>
-      </c>
-      <c r="D121" s="3"/>
+        <v>0.51737629308599997</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.32761940948000001</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="3"/>
@@ -7946,9 +7987,18 @@
       <c r="M121" s="2"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="D122" s="3"/>
+      <c r="A122" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.54306555258800004</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.29042465982600002</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.28197504514600003</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="3"/>
@@ -7961,15 +8011,17 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B123" s="1">
+        <v>13</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123" s="3"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="3"/>
@@ -7982,15 +8034,17 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B124" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C124" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="B124" s="1">
+        <f>48495.66765/(60*60)</f>
+        <v>13.471018791666667</v>
+      </c>
+      <c r="C124" s="1">
+        <f>55646.4552431/(60*60)</f>
+        <v>15.457348678638889</v>
+      </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="3"/>
@@ -8002,16 +8056,9 @@
       <c r="M124" s="2"/>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B125" s="81">
-        <v>1</v>
-      </c>
-      <c r="C125" s="81">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2"/>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="D125" s="3"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="3"/>
@@ -8023,9 +8070,16 @@
       <c r="M125" s="2"/>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="D126" s="2"/>
+      <c r="A126" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="3"/>
@@ -8038,15 +8092,15 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0.58411354119000003</v>
-      </c>
-      <c r="C127">
-        <v>0.37247357138499998</v>
-      </c>
-      <c r="D127" s="3"/>
+        <v>472</v>
+      </c>
+      <c r="B127" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C127" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="3"/>
@@ -8057,38 +8111,31 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1">
+    <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.62570359615399995</v>
-      </c>
-      <c r="C128">
-        <v>0.52278472510899998</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="B128" s="81">
+        <v>1</v>
+      </c>
+      <c r="C128" s="81">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B129" s="1">
-        <v>0.54770780850800005</v>
-      </c>
-      <c r="C129">
-        <v>0.28929532886800002</v>
-      </c>
-      <c r="D129" s="3"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
@@ -8101,13 +8148,13 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>469</v>
+        <v>29</v>
       </c>
       <c r="B130" s="1">
-        <v>10</v>
+        <v>0.58411354119000003</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0.37247357138499998</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
@@ -8120,36 +8167,36 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" s="1" customFormat="1">
       <c r="A131" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="B131" s="1">
-        <v>0.58480186572199999</v>
+        <v>0.62570359615399995</v>
       </c>
       <c r="C131">
-        <v>0.40163892943099999</v>
+        <v>0.52278472510899998</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B132" s="1">
-        <v>0.62570359615399995</v>
+        <v>0.54770780850800005</v>
       </c>
       <c r="C132">
-        <v>0.50742618513100002</v>
+        <v>0.28929532886800002</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
@@ -8164,13 +8211,13 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B133" s="1">
-        <v>0.54891945177500001</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>0.33235101547200002</v>
+        <v>1</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
@@ -8185,13 +8232,13 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B134" s="1">
-        <v>10</v>
+        <v>0.58480186572199999</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>0.40163892943099999</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
@@ -8206,15 +8253,13 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B135" s="1">
-        <f>62705.809418/(60*60)</f>
-        <v>17.418280393888889</v>
+        <v>0.62570359615399995</v>
       </c>
       <c r="C135">
-        <f>86001.47382/(60*60)</f>
-        <v>23.889298283333332</v>
+        <v>0.50742618513100002</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
@@ -8228,6 +8273,15 @@
       <c r="M135" s="2"/>
     </row>
     <row r="136" spans="1:13">
+      <c r="A136" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.54891945177500001</v>
+      </c>
+      <c r="C136">
+        <v>0.33235101547200002</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -8241,12 +8295,12 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B137" s="26">
-        <v>3</v>
-      </c>
-      <c r="C137" s="26">
+        <v>484</v>
+      </c>
+      <c r="B137" s="1">
+        <v>10</v>
+      </c>
+      <c r="C137">
         <v>3</v>
       </c>
       <c r="D137" s="3"/>
@@ -8262,13 +8316,15 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B138" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="C138" s="82">
-        <v>1</v>
+        <v>466</v>
+      </c>
+      <c r="B138" s="1">
+        <f>62705.809418/(60*60)</f>
+        <v>17.418280393888889</v>
+      </c>
+      <c r="C138">
+        <f>86001.47382/(60*60)</f>
+        <v>23.889298283333332</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
@@ -8282,15 +8338,6 @@
       <c r="M138" s="2"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B139" s="82">
-        <v>1</v>
-      </c>
-      <c r="C139" s="82">
-        <v>1</v>
-      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -8304,13 +8351,13 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B140" s="85">
-        <v>152574</v>
-      </c>
-      <c r="C140" s="85">
-        <v>110922</v>
+        <v>461</v>
+      </c>
+      <c r="B140" s="26">
+        <v>3</v>
+      </c>
+      <c r="C140" s="26">
+        <v>3</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
@@ -8325,13 +8372,13 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B141" s="85">
-        <v>15560</v>
-      </c>
-      <c r="C141" s="85">
-        <v>82397</v>
+        <v>472</v>
+      </c>
+      <c r="B141" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="82">
+        <v>1</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
@@ -8345,7 +8392,15 @@
       <c r="M141" s="2"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B142" s="82">
+        <v>1</v>
+      </c>
+      <c r="C142" s="82">
+        <v>1</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -8359,13 +8414,13 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="1">
-        <v>0.58328682582000002</v>
-      </c>
-      <c r="C143">
-        <v>0.360502147976</v>
+        <v>482</v>
+      </c>
+      <c r="B143" s="85">
+        <v>152574</v>
+      </c>
+      <c r="C143" s="85">
+        <v>110922</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
@@ -8380,13 +8435,13 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B144" s="1">
-        <v>0.632411026928</v>
-      </c>
-      <c r="C144">
-        <v>0.48775433765199999</v>
+        <v>483</v>
+      </c>
+      <c r="B144" s="85">
+        <v>15560</v>
+      </c>
+      <c r="C144" s="85">
+        <v>82397</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
@@ -8400,15 +8455,7 @@
       <c r="M144" s="2"/>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B145" s="1">
-        <v>0.54124424583800002</v>
-      </c>
-      <c r="C145">
-        <v>0.28590995151300003</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -8422,13 +8469,13 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>469</v>
+        <v>29</v>
       </c>
       <c r="B146" s="1">
-        <v>17</v>
+        <v>0.58328682582000002</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0.360502147976</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
@@ -8443,13 +8490,13 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="B147" s="1">
-        <v>0.58355527655299999</v>
+        <v>0.632411026928</v>
       </c>
       <c r="C147">
-        <v>0.38865855884099998</v>
+        <v>0.48775433765199999</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
@@ -8464,24 +8511,34 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B148" s="1">
-        <v>0.632411026928</v>
+        <v>0.54124424583800002</v>
       </c>
       <c r="C148">
-        <v>0.489216710251</v>
-      </c>
+        <v>0.28590995151300003</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B149" s="1">
-        <v>0.54170672049400004</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>0.32239126135599999</v>
+        <v>1</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
@@ -8496,49 +8553,80 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B150" s="1">
-        <v>17</v>
+        <v>0.58355527655299999</v>
       </c>
       <c r="C150">
-        <v>1</v>
-      </c>
+        <v>0.38865855884099998</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0.632411026928</v>
+      </c>
+      <c r="C151">
+        <v>0.489216710251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.54170672049400004</v>
+      </c>
+      <c r="C152">
+        <v>0.32239126135599999</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B153" s="1">
+        <v>17</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B154" s="1">
         <f>80494.262604/(60*60)</f>
         <v>22.359517390000001</v>
       </c>
-      <c r="C151">
+      <c r="C154">
         <f>469755.182134/(60*60)</f>
         <v>130.48755059277778</v>
       </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -8564,76 +8652,52 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="1:13" s="4" customFormat="1">
-      <c r="A156" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D156" s="96"/>
-      <c r="E156" s="96"/>
-      <c r="F156" s="96" t="s">
-        <v>527</v>
-      </c>
-      <c r="G156" s="96"/>
-      <c r="H156" s="96"/>
-      <c r="I156" s="96"/>
-      <c r="J156" s="96"/>
-      <c r="K156" s="96"/>
-      <c r="L156" s="96"/>
-      <c r="M156" s="96"/>
-    </row>
-    <row r="157" spans="1:13" s="100" customFormat="1">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D157" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E157" s="99"/>
-      <c r="F157" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H157" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="I157" s="99"/>
-      <c r="J157" s="99"/>
-      <c r="K157" s="99"/>
-      <c r="L157" s="99"/>
-      <c r="M157" s="99"/>
+    <row r="156" spans="1:13">
+      <c r="A156" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B157" s="81">
+        <v>1</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B158" s="1">
-        <v>3</v>
-      </c>
-      <c r="C158">
-        <v>5</v>
-      </c>
-      <c r="D158" s="3">
-        <v>5</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="D158" s="3"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="2">
-        <v>3</v>
-      </c>
-      <c r="G158" s="3">
-        <v>3</v>
-      </c>
-      <c r="H158" s="2">
-        <v>5</v>
-      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -8642,27 +8706,14 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B159" s="81">
-        <v>1</v>
-      </c>
-      <c r="C159" s="10">
-        <v>1</v>
-      </c>
-      <c r="D159" s="109">
-        <v>0.2</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="11">
-        <v>1</v>
-      </c>
-      <c r="G159" s="109">
-        <v>1</v>
-      </c>
-      <c r="H159" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -8671,27 +8722,14 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B160" s="81">
-        <v>1</v>
-      </c>
-      <c r="C160" s="10">
-        <v>1</v>
-      </c>
-      <c r="D160" s="109">
-        <v>1</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="D160" s="3"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="11">
-        <v>1</v>
-      </c>
-      <c r="G160" s="109">
-        <v>1</v>
-      </c>
-      <c r="H160" s="11">
-        <v>1</v>
-      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -8699,82 +8737,25 @@
       <c r="M160" s="2"/>
     </row>
     <row r="161" spans="1:13">
-      <c r="A161" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B161" s="86">
-        <v>13584</v>
-      </c>
-      <c r="C161">
-        <v>31223</v>
-      </c>
-      <c r="D161" s="3">
-        <v>19700</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2">
-        <v>13584</v>
-      </c>
-      <c r="G161" s="3">
-        <v>31223</v>
-      </c>
-      <c r="H161" s="2">
-        <v>49250</v>
-      </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B162" s="86">
-        <v>20823</v>
-      </c>
-      <c r="C162">
-        <v>24064</v>
-      </c>
-      <c r="D162" s="3">
-        <v>46694</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2">
-        <v>20823</v>
-      </c>
-      <c r="G162" s="3">
-        <v>24064</v>
-      </c>
-      <c r="H162" s="2">
-        <v>46694</v>
-      </c>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B163" s="86"/>
-      <c r="C163">
-        <v>4858</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B163" s="1"/>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="2">
-        <v>410</v>
-      </c>
-      <c r="G163" s="3">
-        <v>629</v>
-      </c>
-      <c r="H163" s="2">
-        <v>1185</v>
-      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -8782,7 +8763,9 @@
       <c r="M163" s="2"/>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="B164" s="1"/>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
@@ -8797,27 +8780,14 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B165" s="1">
-        <v>0.544435373768</v>
-      </c>
-      <c r="C165">
-        <v>0.33058326203299998</v>
-      </c>
-      <c r="D165" s="3">
-        <v>0.27648899426599999</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="D165" s="3"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="2">
-        <v>0.55206751971199997</v>
-      </c>
-      <c r="G165" s="3">
-        <v>0.27513703684800001</v>
-      </c>
-      <c r="H165" s="2">
-        <v>3.5037999856700003E-2</v>
-      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -8826,85 +8796,26 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B166" s="1">
-        <v>0.51530898957399995</v>
-      </c>
-      <c r="C166">
-        <v>0.46690352498299997</v>
-      </c>
-      <c r="D166" s="3">
-        <v>0.58535094510100005</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2">
-        <v>0.570019669517</v>
-      </c>
-      <c r="G166" s="3">
-        <v>0.59337554345700005</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0.16008180621699999</v>
-      </c>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B167" s="1">
-        <v>0.57705158358200004</v>
-      </c>
-      <c r="C167">
-        <v>0.25587600063400001</v>
-      </c>
-      <c r="D167" s="3">
-        <v>0.18098944316099999</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2">
-        <v>0.53521161184199995</v>
-      </c>
-      <c r="G167" s="3">
-        <v>0.17908849556799999</v>
-      </c>
-      <c r="H167" s="2">
-        <v>1.9671843061000002E-2</v>
-      </c>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B168" s="1">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" s="3">
-        <v>1</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="2">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2">
-        <v>1</v>
-      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -8913,27 +8824,14 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B169" s="1">
-        <v>0.54520244163800002</v>
-      </c>
-      <c r="C169">
-        <v>0.36584915146899999</v>
-      </c>
-      <c r="D169" s="3">
-        <v>0.29245777091199998</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="2">
-        <v>0.55831624720999995</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0.32509258224299997</v>
-      </c>
-      <c r="H169" s="2">
-        <v>4.6929596022299999E-2</v>
-      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -8942,27 +8840,14 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B170" s="1">
-        <v>0.51530898957399995</v>
-      </c>
-      <c r="C170">
-        <v>0.456920330215</v>
-      </c>
-      <c r="D170" s="3">
-        <v>0.58535094510100005</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="2">
-        <v>0.56942978753200002</v>
-      </c>
-      <c r="G170" s="3">
-        <v>0.59625797977899997</v>
-      </c>
-      <c r="H170" s="2">
-        <v>0.15988548227999999</v>
-      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -8970,160 +8855,204 @@
       <c r="M170" s="2"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B171" s="1">
-        <v>0.57877776380000001</v>
-      </c>
-      <c r="C171">
-        <v>0.30504836729099999</v>
-      </c>
-      <c r="D171" s="3">
-        <v>0.194923517101</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="2">
-        <v>0.54762820752700003</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0.22346532431400001</v>
-      </c>
-      <c r="H171" s="2">
-        <v>2.7500819005E-2</v>
-      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="1:13">
-      <c r="A172" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B172" s="1">
+    <row r="172" spans="1:13" s="4" customFormat="1">
+      <c r="A172" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D172" s="96"/>
+      <c r="E172" s="96"/>
+      <c r="F172" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="G172" s="96"/>
+      <c r="H172" s="96"/>
+      <c r="I172" s="96"/>
+      <c r="J172" s="96"/>
+      <c r="K172" s="96"/>
+      <c r="L172" s="96"/>
+      <c r="M172" s="96"/>
+    </row>
+    <row r="173" spans="1:13" s="100" customFormat="1">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D173" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E173" s="99"/>
+      <c r="F173" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H173" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I173" s="99"/>
+      <c r="J173" s="99"/>
+      <c r="K173" s="99"/>
+      <c r="L173" s="99"/>
+      <c r="M173" s="99"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B174" s="1">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174" s="3">
+        <v>5</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2">
+        <v>3</v>
+      </c>
+      <c r="G174" s="3">
+        <v>3</v>
+      </c>
+      <c r="H174" s="2">
+        <v>5</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B175" s="81">
         <v>1</v>
       </c>
-      <c r="C172">
-        <v>3</v>
-      </c>
-      <c r="D172" s="3">
+      <c r="C175" s="10">
         <v>1</v>
       </c>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2">
+      <c r="D175" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="11">
         <v>1</v>
       </c>
-      <c r="G172" s="3">
-        <v>2</v>
-      </c>
-      <c r="H172" s="2">
+      <c r="G175" s="109">
         <v>1</v>
       </c>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-    </row>
-    <row r="173" spans="1:13" s="12" customFormat="1">
-      <c r="A173" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B173" s="12">
-        <f>75998.92347/(60*60)</f>
-        <v>21.110812074999998</v>
-      </c>
-      <c r="C173" s="12">
-        <f>224997.318769/(60*60)</f>
-        <v>62.499255213611114</v>
-      </c>
-      <c r="D173" s="12">
-        <f>190149.622466/(60*60)</f>
-        <v>52.81933957388889</v>
-      </c>
-      <c r="F173" s="12">
-        <f>9091.90804005/(60*60)</f>
-        <v>2.5255300111250003</v>
-      </c>
-      <c r="G173" s="12">
-        <f>34827.5274389/(60*60)</f>
-        <v>9.6743131774722215</v>
-      </c>
-      <c r="H173" s="12">
-        <f>112109.865358/(60*60)</f>
-        <v>31.14162926611111</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" s="12" customFormat="1">
-      <c r="C174" s="25"/>
-    </row>
-    <row r="175" spans="1:13" s="12" customFormat="1">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-    </row>
-    <row r="176" spans="1:13" s="4" customFormat="1">
-      <c r="A176" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F176" s="96" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" s="100" customFormat="1">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D177" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E177" s="99"/>
-      <c r="F177" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H177" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="I177" s="99"/>
-      <c r="J177" s="99"/>
-      <c r="K177" s="99"/>
-      <c r="L177" s="99"/>
-      <c r="M177" s="99"/>
+      <c r="H175" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B176" s="81">
+        <v>1</v>
+      </c>
+      <c r="C176" s="10">
+        <v>1</v>
+      </c>
+      <c r="D176" s="109">
+        <v>1</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="11">
+        <v>1</v>
+      </c>
+      <c r="G176" s="109">
+        <v>1</v>
+      </c>
+      <c r="H176" s="11">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B177" s="86">
+        <v>13584</v>
+      </c>
+      <c r="C177">
+        <v>31223</v>
+      </c>
+      <c r="D177" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2">
+        <v>13584</v>
+      </c>
+      <c r="G177" s="3">
+        <v>31223</v>
+      </c>
+      <c r="H177" s="2">
+        <v>49250</v>
+      </c>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B178" s="1">
-        <v>3</v>
+        <v>483</v>
+      </c>
+      <c r="B178" s="86">
+        <v>20823</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>24064</v>
       </c>
       <c r="D178" s="3">
-        <v>10</v>
+        <v>46694</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2">
-        <v>3</v>
+        <v>20823</v>
       </c>
       <c r="G178" s="3">
-        <v>3</v>
+        <v>24064</v>
       </c>
       <c r="H178" s="2">
-        <v>3</v>
+        <v>46694</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -9133,26 +9062,22 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B179" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="C179" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D179" s="109">
-        <v>0.2</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B179" s="86"/>
+      <c r="C179">
+        <v>4858</v>
+      </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="11">
-        <v>1</v>
-      </c>
-      <c r="G179" s="109">
-        <v>1</v>
-      </c>
-      <c r="H179" s="11">
-        <v>0.5</v>
+      <c r="F179" s="2">
+        <v>410</v>
+      </c>
+      <c r="G179" s="3">
+        <v>629</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1185</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -9161,28 +9086,13 @@
       <c r="M179" s="2"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B180" s="81">
-        <v>1</v>
-      </c>
-      <c r="C180" s="10">
-        <v>1</v>
-      </c>
-      <c r="D180" s="109">
-        <v>1</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="D180" s="3"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="11">
-        <v>1</v>
-      </c>
-      <c r="G180" s="109">
-        <v>1</v>
-      </c>
-      <c r="H180" s="11">
-        <v>1</v>
-      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -9191,26 +9101,26 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B181" s="86">
-        <v>61029</v>
+        <v>29</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0.544435373768</v>
       </c>
       <c r="C181">
-        <v>110922</v>
+        <v>0.33058326203299998</v>
       </c>
       <c r="D181" s="3">
-        <v>131753</v>
+        <v>0.27648899426599999</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2">
-        <v>482297</v>
+        <v>0.55206751971199997</v>
       </c>
       <c r="G181" s="3">
-        <v>352665</v>
+        <v>0.27513703684800001</v>
       </c>
       <c r="H181" s="2">
-        <v>526529</v>
+        <v>3.5037999856700003E-2</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -9220,26 +9130,26 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B182" s="86">
-        <v>20823</v>
+        <v>467</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.51530898957399995</v>
       </c>
       <c r="C182">
-        <v>24064</v>
+        <v>0.46690352498299997</v>
       </c>
       <c r="D182" s="3">
-        <v>46694</v>
+        <v>0.58535094510100005</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2">
-        <v>20823</v>
+        <v>0.570019669517</v>
       </c>
       <c r="G182" s="3">
-        <v>24064</v>
+        <v>0.59337554345700005</v>
       </c>
       <c r="H182" s="2">
-        <v>46694</v>
+        <v>0.16008180621699999</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -9249,21 +9159,26 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B183" s="86"/>
+        <v>468</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0.57705158358200004</v>
+      </c>
+      <c r="C183">
+        <v>0.25587600063400001</v>
+      </c>
       <c r="D183" s="3">
-        <v>7008</v>
+        <v>0.18098944316099999</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
-        <v>444</v>
+        <v>0.53521161184199995</v>
       </c>
       <c r="G183" s="3">
-        <v>749</v>
+        <v>0.17908849556799999</v>
       </c>
       <c r="H183" s="2">
-        <v>1812</v>
+        <v>1.9671843061000002E-2</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -9272,13 +9187,28 @@
       <c r="M183" s="2"/>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="D184" s="3"/>
+      <c r="A184" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
       <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="2"/>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1</v>
+      </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -9287,26 +9217,26 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="B185" s="1">
-        <v>0.57622570056800004</v>
-      </c>
-      <c r="C185" s="1">
-        <v>0.34365936343100001</v>
+        <v>0.54520244163800002</v>
+      </c>
+      <c r="C185">
+        <v>0.36584915146899999</v>
       </c>
       <c r="D185" s="3">
-        <v>0.29917800974699998</v>
+        <v>0.29245777091199998</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2">
-        <v>0.56539082063400004</v>
+        <v>0.55831624720999995</v>
       </c>
       <c r="G185" s="3">
-        <v>0.315856022136</v>
+        <v>0.32509258224299997</v>
       </c>
       <c r="H185" s="2">
-        <v>0.23097233601600001</v>
+        <v>4.6929596022299999E-2</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -9316,26 +9246,26 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="B186" s="1">
-        <v>0.589396971115</v>
-      </c>
-      <c r="C186" s="1">
-        <v>0.52669084960599999</v>
+        <v>0.51530898957399995</v>
+      </c>
+      <c r="C186">
+        <v>0.456920330215</v>
       </c>
       <c r="D186" s="3">
-        <v>0.32954939875099998</v>
+        <v>0.58535094510100005</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2">
-        <v>0.59725853896299996</v>
+        <v>0.56942978753200002</v>
       </c>
       <c r="G186" s="3">
-        <v>0.40649828947599997</v>
+        <v>0.59625797977899997</v>
       </c>
       <c r="H186" s="2">
-        <v>0.26231347069900002</v>
+        <v>0.15988548227999999</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -9345,26 +9275,26 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="B187" s="1">
-        <v>0.56363023988299998</v>
-      </c>
-      <c r="C187" s="1">
-        <v>0.25503247252599998</v>
+        <v>0.57877776380000001</v>
+      </c>
+      <c r="C187">
+        <v>0.30504836729099999</v>
       </c>
       <c r="D187" s="3">
-        <v>0.27393231118099998</v>
+        <v>0.194923517101</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2">
-        <v>0.53675155274599995</v>
+        <v>0.54762820752700003</v>
       </c>
       <c r="G187" s="3">
-        <v>0.258266864288</v>
+        <v>0.22346532431400001</v>
       </c>
       <c r="H187" s="2">
-        <v>0.20632114731100001</v>
+        <v>2.7500819005E-2</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -9374,719 +9304,796 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="C188">
         <v>3</v>
-      </c>
-      <c r="C188" s="1">
-        <v>2</v>
       </c>
       <c r="D188" s="3">
         <v>1</v>
       </c>
+      <c r="E188" s="2"/>
       <c r="F188" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G188" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" s="2">
         <v>1</v>
       </c>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
     </row>
     <row r="189" spans="1:13" s="12" customFormat="1">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B189" s="12">
+        <f>75998.92347/(60*60)</f>
+        <v>21.110812074999998</v>
+      </c>
+      <c r="C189" s="12">
+        <f>224997.318769/(60*60)</f>
+        <v>62.499255213611114</v>
+      </c>
+      <c r="D189" s="12">
+        <f>190149.622466/(60*60)</f>
+        <v>52.81933957388889</v>
+      </c>
+      <c r="F189" s="12">
+        <f>9091.90804005/(60*60)</f>
+        <v>2.5255300111250003</v>
+      </c>
+      <c r="G189" s="12">
+        <f>34827.5274389/(60*60)</f>
+        <v>9.6743131774722215</v>
+      </c>
+      <c r="H189" s="12">
+        <f>112109.865358/(60*60)</f>
+        <v>31.14162926611111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" s="12" customFormat="1">
+      <c r="C190" s="25"/>
+    </row>
+    <row r="191" spans="1:13" s="12" customFormat="1">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+    </row>
+    <row r="192" spans="1:13" s="4" customFormat="1">
+      <c r="A192" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F192" s="96" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" s="100" customFormat="1">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D193" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E193" s="99"/>
+      <c r="F193" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H193" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I193" s="99"/>
+      <c r="J193" s="99"/>
+      <c r="K193" s="99"/>
+      <c r="L193" s="99"/>
+      <c r="M193" s="99"/>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" s="3">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2">
+        <v>3</v>
+      </c>
+      <c r="G194" s="3">
+        <v>3</v>
+      </c>
+      <c r="H194" s="2">
+        <v>3</v>
+      </c>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B195" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="C195" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D195" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="11">
+        <v>1</v>
+      </c>
+      <c r="G195" s="109">
+        <v>1</v>
+      </c>
+      <c r="H195" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B196" s="81">
+        <v>1</v>
+      </c>
+      <c r="C196" s="10">
+        <v>1</v>
+      </c>
+      <c r="D196" s="109">
+        <v>1</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="11">
+        <v>1</v>
+      </c>
+      <c r="G196" s="109">
+        <v>1</v>
+      </c>
+      <c r="H196" s="11">
+        <v>1</v>
+      </c>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B197" s="86">
+        <v>61029</v>
+      </c>
+      <c r="C197">
+        <v>110922</v>
+      </c>
+      <c r="D197" s="3">
+        <v>131753</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2">
+        <v>482297</v>
+      </c>
+      <c r="G197" s="3">
+        <v>352665</v>
+      </c>
+      <c r="H197" s="2">
+        <v>526529</v>
+      </c>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B198" s="86">
+        <v>20823</v>
+      </c>
+      <c r="C198">
+        <v>24064</v>
+      </c>
+      <c r="D198" s="3">
+        <v>46694</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2">
+        <v>20823</v>
+      </c>
+      <c r="G198" s="3">
+        <v>24064</v>
+      </c>
+      <c r="H198" s="2">
+        <v>46694</v>
+      </c>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B199" s="86"/>
+      <c r="D199" s="3">
+        <v>7008</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2">
+        <v>444</v>
+      </c>
+      <c r="G199" s="3">
+        <v>749</v>
+      </c>
+      <c r="H199" s="2">
+        <v>1812</v>
+      </c>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.57622570056800004</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0.34365936343100001</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.29917800974699998</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2">
+        <v>0.56539082063400004</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0.315856022136</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0.23097233601600001</v>
+      </c>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0.589396971115</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.52669084960599999</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.32954939875099998</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2">
+        <v>0.59725853896299996</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0.40649828947599997</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0.26231347069900002</v>
+      </c>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0.56363023988299998</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0.25503247252599998</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.27393231118099998</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2">
+        <v>0.53675155274599995</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0.258266864288</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0.20632114731100001</v>
+      </c>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B204" s="1">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1">
+        <v>2</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" s="2">
+        <v>5</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="12" customFormat="1">
+      <c r="A205" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C205" s="1">
         <v>0.38357532447199999</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D205" s="12">
         <v>0.30138543316299998</v>
       </c>
-      <c r="F189" s="12">
+      <c r="F205" s="12">
         <v>0.57083508647199999</v>
       </c>
-      <c r="G189" s="12">
+      <c r="G205" s="12">
         <v>0.34283486704600002</v>
       </c>
-      <c r="H189" s="12">
+      <c r="H205" s="12">
         <v>0.24590209516200001</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="12" customFormat="1">
-      <c r="A190" s="1" t="s">
+    <row r="206" spans="1:13" s="12" customFormat="1">
+      <c r="A206" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C206" s="1">
         <v>0.51365541473300003</v>
       </c>
-      <c r="D190" s="12">
+      <c r="D206" s="12">
         <v>0.32954939875099998</v>
       </c>
-      <c r="F190" s="12">
+      <c r="F206" s="12">
         <v>0.59669108244400004</v>
       </c>
-      <c r="G190" s="12">
+      <c r="G206" s="12">
         <v>0.40546338021400002</v>
       </c>
-      <c r="H190" s="12">
+      <c r="H206" s="12">
         <v>0.25659870620000003</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="12" customFormat="1">
-      <c r="A191" s="1" t="s">
+    <row r="207" spans="1:13" s="12" customFormat="1">
+      <c r="A207" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C207" s="1">
         <v>0.30606598648799999</v>
       </c>
-      <c r="D191" s="12">
+      <c r="D207" s="12">
         <v>0.27765635336099997</v>
       </c>
-      <c r="F191" s="12">
+      <c r="F207" s="12">
         <v>0.54712682374199995</v>
       </c>
-      <c r="G191" s="12">
+      <c r="G207" s="12">
         <v>0.29696516007399998</v>
       </c>
-      <c r="H191" s="12">
+      <c r="H207" s="12">
         <v>0.236061597048</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="12" customFormat="1">
-      <c r="A192" s="1" t="s">
+    <row r="208" spans="1:13" s="12" customFormat="1">
+      <c r="A208" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C208" s="1">
         <v>4</v>
       </c>
-      <c r="D192" s="12">
+      <c r="D208" s="12">
         <v>1</v>
       </c>
-      <c r="F192" s="12">
+      <c r="F208" s="12">
         <v>5</v>
       </c>
-      <c r="G192" s="12">
+      <c r="G208" s="12">
         <v>1</v>
       </c>
-      <c r="H192" s="12">
+      <c r="H208" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="12" customFormat="1">
-      <c r="A193" s="12" t="s">
+    <row r="209" spans="1:8" s="12" customFormat="1">
+      <c r="A209" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B209" s="12">
         <f>59078.7621992/(60*60)</f>
         <v>16.410767277555554</v>
       </c>
-      <c r="C193" s="12">
+      <c r="C209" s="12">
         <f>153526.70817/(60*60)</f>
         <v>42.646307825000001</v>
       </c>
-      <c r="D193" s="12">
+      <c r="D209" s="12">
         <f>349362.91562/(60*60)</f>
         <v>97.045254338888881</v>
       </c>
-      <c r="F193" s="12">
+      <c r="F209" s="12">
         <f>55922.479008/(60*60)</f>
         <v>15.534021946666668</v>
       </c>
-      <c r="G193" s="12">
+      <c r="G209" s="12">
         <f>60103.0951519/(60*60)</f>
         <v>16.69530420886111</v>
       </c>
-      <c r="H193" s="12">
+      <c r="H209" s="12">
         <f>200646.565432/(60*60)</f>
         <v>55.735157064444444</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="12" customFormat="1"/>
-    <row r="195" spans="1:8" s="12" customFormat="1">
-      <c r="A195" s="1" t="s">
+    <row r="210" spans="1:8" s="12" customFormat="1"/>
+    <row r="211" spans="1:8" s="12" customFormat="1">
+      <c r="A211" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B211" s="12">
         <v>3</v>
       </c>
-      <c r="C195" s="12">
+      <c r="C211" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="12" customFormat="1">
-      <c r="A196" s="1" t="s">
+    <row r="212" spans="1:8" s="12" customFormat="1">
+      <c r="A212" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B196" s="107">
+      <c r="B212" s="107">
         <v>1</v>
       </c>
-      <c r="C196" s="107">
+      <c r="C212" s="107">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="12" customFormat="1">
-      <c r="A197" s="1" t="s">
+    <row r="213" spans="1:8" s="12" customFormat="1">
+      <c r="A213" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B197" s="107">
+      <c r="B213" s="107">
         <v>1</v>
       </c>
-      <c r="C197" s="107">
+      <c r="C213" s="107">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="12" customFormat="1">
-      <c r="A198" s="1" t="s">
+    <row r="214" spans="1:8" s="12" customFormat="1">
+      <c r="A214" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B198" s="12">
+      <c r="B214" s="12">
         <v>305148</v>
       </c>
-      <c r="C198" s="12">
+      <c r="C214" s="12">
         <v>221845</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="12" customFormat="1">
-      <c r="A199" s="1" t="s">
+    <row r="215" spans="1:8" s="12" customFormat="1">
+      <c r="A215" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B199" s="12">
+      <c r="B215" s="12">
         <v>20823</v>
       </c>
-      <c r="C199" s="12">
+      <c r="C215" s="12">
         <v>24064</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="12" customFormat="1">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" s="12" customFormat="1">
-      <c r="A201" s="1" t="s">
+    <row r="216" spans="1:8" s="12" customFormat="1">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" s="12" customFormat="1">
+      <c r="A217" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="12">
+      <c r="B217" s="12">
         <v>0.56615836214600002</v>
       </c>
-      <c r="C201" s="12">
+      <c r="C217" s="12">
         <v>0.36469801495562099</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="12" customFormat="1">
-      <c r="A202" s="1" t="s">
+    <row r="218" spans="1:8" s="12" customFormat="1">
+      <c r="A218" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B202" s="12">
+      <c r="B218" s="12">
         <v>0.57224914217900003</v>
       </c>
-      <c r="C202" s="12">
+      <c r="C218" s="12">
         <v>0.48342461575064599</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="12" customFormat="1">
-      <c r="A203" s="1" t="s">
+    <row r="219" spans="1:8" s="12" customFormat="1">
+      <c r="A219" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B219" s="12">
         <v>0.56019587206800003</v>
       </c>
-      <c r="C203" s="12">
+      <c r="C219" s="12">
         <v>0.29279023756912498</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="12" customFormat="1">
-      <c r="A204" s="1" t="s">
+    <row r="220" spans="1:8" s="12" customFormat="1">
+      <c r="A220" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B204" s="12">
+      <c r="B220" s="12">
         <v>9</v>
       </c>
-      <c r="C204" s="12">
+      <c r="C220" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="12" customFormat="1">
-      <c r="A205" s="1" t="s">
+    <row r="221" spans="1:8" s="12" customFormat="1">
+      <c r="A221" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B205" s="12">
+      <c r="B221" s="12">
         <v>0.56618173750900003</v>
       </c>
-      <c r="C205" s="12">
+      <c r="C221" s="12">
         <v>0.38849284401799999</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="12" customFormat="1">
-      <c r="A206" s="1" t="s">
+    <row r="222" spans="1:8" s="12" customFormat="1">
+      <c r="A222" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B206" s="12">
+      <c r="B222" s="12">
         <v>0.57224914217900003</v>
       </c>
-      <c r="C206" s="12">
+      <c r="C222" s="12">
         <v>0.45432970324100003</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="12" customFormat="1">
-      <c r="A207" s="1" t="s">
+    <row r="223" spans="1:8" s="12" customFormat="1">
+      <c r="A223" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B207" s="12">
+      <c r="B223" s="12">
         <v>0.56024164512200003</v>
       </c>
-      <c r="C207" s="12">
+      <c r="C223" s="12">
         <v>0.33932176973799999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="12" customFormat="1">
-      <c r="A208" s="1" t="s">
+    <row r="224" spans="1:8" s="12" customFormat="1">
+      <c r="A224" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B208" s="12">
+      <c r="B224" s="12">
         <v>9</v>
       </c>
-      <c r="C208" s="12">
+      <c r="C224" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="12" customFormat="1">
-      <c r="A209" s="12" t="s">
+    <row r="225" spans="1:13" s="12" customFormat="1">
+      <c r="A225" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="12">
+      <c r="B225" s="12">
         <v>1</v>
       </c>
-      <c r="C209" s="12">
+      <c r="C225" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="12" customFormat="1">
-      <c r="A210" s="12" t="s">
+    <row r="226" spans="1:13" s="12" customFormat="1">
+      <c r="A226" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B210" s="12">
+      <c r="B226" s="12">
         <f>113330.489251/(60*60)</f>
         <v>31.480691458611112</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="12" customFormat="1"/>
-    <row r="212" spans="1:13" s="12" customFormat="1"/>
-    <row r="213" spans="1:13" s="12" customFormat="1">
-      <c r="C213" s="25"/>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-    </row>
-    <row r="215" spans="1:13" s="35" customFormat="1">
-      <c r="A215" s="4" t="s">
+    <row r="227" spans="1:13" s="12" customFormat="1"/>
+    <row r="228" spans="1:13" s="12" customFormat="1"/>
+    <row r="229" spans="1:13" s="12" customFormat="1">
+      <c r="C229" s="25"/>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+    </row>
+    <row r="231" spans="1:13" s="35" customFormat="1">
+      <c r="A231" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="96"/>
-      <c r="E215" s="97"/>
-      <c r="F215" s="96"/>
-      <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
-      <c r="I215" s="97"/>
-      <c r="J215" s="97"/>
-      <c r="K215" s="97"/>
-      <c r="L215" s="97"/>
-      <c r="M215" s="97"/>
-    </row>
-    <row r="216" spans="1:13" s="100" customFormat="1">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5" t="s">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="96"/>
+      <c r="E231" s="97"/>
+      <c r="F231" s="96"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="97"/>
+      <c r="J231" s="97"/>
+      <c r="K231" s="97"/>
+      <c r="L231" s="97"/>
+      <c r="M231" s="97"/>
+    </row>
+    <row r="232" spans="1:13" s="100" customFormat="1">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D216" s="98" t="s">
+      <c r="D232" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E216" s="99"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="98"/>
-      <c r="I216" s="99"/>
-      <c r="J216" s="99"/>
-      <c r="K216" s="99"/>
-      <c r="L216" s="99"/>
-      <c r="M216" s="99"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="1" t="s">
+      <c r="E232" s="99"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="98"/>
+      <c r="I232" s="99"/>
+      <c r="J232" s="99"/>
+      <c r="K232" s="99"/>
+      <c r="L232" s="99"/>
+      <c r="M232" s="99"/>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B217" s="26">
+      <c r="B233" s="26">
         <v>10</v>
       </c>
-      <c r="C217" s="26">
+      <c r="C233" s="26">
         <v>10</v>
       </c>
-      <c r="D217" s="26">
+      <c r="D233" s="26">
         <v>10</v>
       </c>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="1" t="s">
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B218" s="26">
+      <c r="B234" s="26">
         <v>3</v>
       </c>
-      <c r="C218" s="26">
+      <c r="C234" s="26">
         <v>3</v>
       </c>
-      <c r="D218" s="26">
+      <c r="D234" s="26">
         <v>10</v>
       </c>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B219" s="82">
-        <v>1</v>
-      </c>
-      <c r="C219" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="D219" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="109"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B220" s="82">
-        <v>1</v>
-      </c>
-      <c r="C220" s="82">
-        <v>1</v>
-      </c>
-      <c r="D220" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="109"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-    </row>
-    <row r="222" spans="1:13">
-      <c r="A222" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B222" s="1">
-        <v>0.56444653526800004</v>
-      </c>
-      <c r="C222">
-        <v>0.37142344429500002</v>
-      </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="A223" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B223" s="1">
-        <v>0.60010196679500005</v>
-      </c>
-      <c r="C223">
-        <v>0.57106867546499995</v>
-      </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B224" s="1">
-        <v>0.53306287161900001</v>
-      </c>
-      <c r="C224">
-        <v>0.27521142308699997</v>
-      </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B225" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225" s="3"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B226" s="1">
-        <v>0.56446533663099996</v>
-      </c>
-      <c r="C226">
-        <v>0.40468879936800001</v>
-      </c>
-      <c r="D226" s="3"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B227" s="1">
-        <v>0.60010196679500005</v>
-      </c>
-      <c r="C227">
-        <v>0.49009585211200002</v>
-      </c>
-      <c r="D227" s="3"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B228" s="1">
-        <v>0.53309637348899996</v>
-      </c>
-      <c r="C228">
-        <v>0.34463209886399998</v>
-      </c>
-      <c r="D228" s="3"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B229" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229" s="3"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-    </row>
-    <row r="230" spans="1:13" s="12" customFormat="1">
-      <c r="A230" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B230" s="1">
-        <f>61101.6695879/(60*60)</f>
-        <v>16.972685996638891</v>
-      </c>
-      <c r="C230" s="25">
-        <f>467806.127903/(60*60)</f>
-        <v>129.94614663972223</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" s="12" customFormat="1">
-      <c r="C231" s="25"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-    </row>
-    <row r="233" spans="1:13" s="35" customFormat="1">
-      <c r="A233" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="97"/>
-      <c r="F233" s="97"/>
-      <c r="G233" s="4"/>
-      <c r="H233" s="97"/>
-      <c r="I233" s="97"/>
-      <c r="J233" s="97"/>
-      <c r="K233" s="97"/>
-      <c r="L233" s="97"/>
-      <c r="M233" s="97"/>
-    </row>
-    <row r="234" spans="1:13" s="100" customFormat="1">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E234" s="99"/>
-      <c r="F234" s="99"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="99"/>
-      <c r="I234" s="99"/>
-      <c r="J234" s="99"/>
-      <c r="K234" s="99"/>
-      <c r="L234" s="99"/>
-      <c r="M234" s="99"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B235" s="26">
-        <v>10</v>
-      </c>
-      <c r="C235" s="26">
-        <v>5</v>
-      </c>
-      <c r="D235" s="1">
-        <v>10</v>
+        <v>472</v>
+      </c>
+      <c r="B235" s="82">
+        <v>1</v>
+      </c>
+      <c r="C235" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="D235" s="82">
+        <v>0.5</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
-      <c r="G235" s="1"/>
+      <c r="G235" s="109"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
@@ -10096,20 +10103,20 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B236" s="26">
-        <v>3</v>
-      </c>
-      <c r="C236" s="26">
-        <v>5</v>
-      </c>
-      <c r="D236" s="1">
-        <v>3</v>
+        <v>473</v>
+      </c>
+      <c r="B236" s="82">
+        <v>1</v>
+      </c>
+      <c r="C236" s="82">
+        <v>1</v>
+      </c>
+      <c r="D236" s="82">
+        <v>0.2</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
-      <c r="G236" s="1"/>
+      <c r="G236" s="109"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -10118,21 +10125,13 @@
       <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13">
-      <c r="A237" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B237" s="82">
-        <v>1</v>
-      </c>
-      <c r="C237" s="82">
-        <v>1</v>
-      </c>
-      <c r="D237" s="81">
-        <v>0.2</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="3"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
-      <c r="G237" s="1"/>
+      <c r="G237" s="3"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
@@ -10142,20 +10141,18 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B238" s="82">
-        <v>1</v>
-      </c>
-      <c r="C238" s="82">
-        <v>1</v>
-      </c>
-      <c r="D238" s="81">
-        <v>0.1</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0.56444653526800004</v>
+      </c>
+      <c r="C238">
+        <v>0.37142344429500002</v>
+      </c>
+      <c r="D238" s="3"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
-      <c r="G238" s="1"/>
+      <c r="G238" s="3"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
@@ -10165,18 +10162,18 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B239" s="85">
-        <v>651535</v>
-      </c>
-      <c r="C239" s="26">
-        <v>102365</v>
-      </c>
-      <c r="D239" s="81"/>
+        <v>463</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0.60010196679500005</v>
+      </c>
+      <c r="C239">
+        <v>0.57106867546499995</v>
+      </c>
+      <c r="D239" s="3"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
-      <c r="G239" s="1"/>
+      <c r="G239" s="3"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
@@ -10186,18 +10183,18 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B240" s="85">
-        <v>4160</v>
-      </c>
-      <c r="C240" s="26">
-        <v>40358</v>
-      </c>
-      <c r="D240" s="81"/>
+        <v>464</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0.53306287161900001</v>
+      </c>
+      <c r="C240">
+        <v>0.27521142308699997</v>
+      </c>
+      <c r="D240" s="3"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
-      <c r="G240" s="1"/>
+      <c r="G240" s="3"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
@@ -10207,18 +10204,18 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B241" s="85">
-        <v>2622</v>
-      </c>
-      <c r="C241" s="26">
-        <v>3457</v>
-      </c>
-      <c r="D241" s="81"/>
+        <v>465</v>
+      </c>
+      <c r="B241" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" s="3"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
-      <c r="G241" s="1"/>
+      <c r="G241" s="3"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
@@ -10227,13 +10224,19 @@
       <c r="M241" s="2"/>
     </row>
     <row r="242" spans="1:13">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0.56446533663099996</v>
+      </c>
+      <c r="C242">
+        <v>0.40468879936800001</v>
+      </c>
+      <c r="D242" s="3"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
-      <c r="G242" s="1"/>
+      <c r="G242" s="3"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
@@ -10243,20 +10246,18 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="B243" s="1">
-        <v>0.55623386209699999</v>
+        <v>0.60010196679500005</v>
       </c>
       <c r="C243">
-        <v>0.371000410424</v>
-      </c>
-      <c r="D243" s="1">
-        <v>0.296636620016</v>
-      </c>
+        <v>0.49009585211200002</v>
+      </c>
+      <c r="D243" s="3"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
-      <c r="G243" s="1"/>
+      <c r="G243" s="3"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
@@ -10266,20 +10267,18 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="B244" s="1">
-        <v>0.57671216554399996</v>
+        <v>0.53309637348899996</v>
       </c>
       <c r="C244">
-        <v>0.49649649633699999</v>
-      </c>
-      <c r="D244" s="1">
-        <v>0.32957350139499902</v>
-      </c>
+        <v>0.34463209886399998</v>
+      </c>
+      <c r="D244" s="3"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
-      <c r="G244" s="1"/>
+      <c r="G244" s="3"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
@@ -10289,20 +10288,18 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="B245" s="1">
-        <v>0.53855916990599995</v>
+        <v>14.2</v>
       </c>
       <c r="C245">
-        <v>0.29614735501299999</v>
-      </c>
-      <c r="D245" s="1">
-        <v>0.26968855537000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D245" s="3"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
-      <c r="G245" s="1"/>
+      <c r="G245" s="3"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
@@ -10310,65 +10307,26 @@
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" s="12" customFormat="1">
       <c r="A246" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B246" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246" s="1">
-        <v>3</v>
-      </c>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-    </row>
-    <row r="247" spans="1:13">
-      <c r="A247" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B247" s="1">
-        <v>0.55626305104600005</v>
-      </c>
-      <c r="C247">
-        <v>0.397483802685</v>
-      </c>
-      <c r="D247" s="1">
-        <v>0.30136508638350001</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
+        <f>61101.6695879/(60*60)</f>
+        <v>16.972685996638891</v>
+      </c>
+      <c r="C246" s="25">
+        <f>467806.127903/(60*60)</f>
+        <v>129.94614663972223</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" s="12" customFormat="1">
+      <c r="C247" s="25"/>
     </row>
     <row r="248" spans="1:13">
-      <c r="A248" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B248" s="1">
-        <v>0.57671216554399996</v>
-      </c>
-      <c r="C248">
-        <v>0.48426569256500002</v>
-      </c>
-      <c r="D248" s="1">
-        <v>0.32957350139499902</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="D248" s="1"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1"/>
@@ -10379,271 +10337,275 @@
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" spans="1:13">
-      <c r="A249" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B249" s="1">
-        <v>0.53861204272300001</v>
-      </c>
-      <c r="C249">
-        <v>0.33722315136100001</v>
-      </c>
-      <c r="D249" s="1">
-        <v>0.27760804910949999</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-    </row>
-    <row r="250" spans="1:13">
-      <c r="A250" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B250" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="C250">
-        <v>2.8</v>
-      </c>
-      <c r="D250" s="1">
+    <row r="249" spans="1:13" s="35" customFormat="1">
+      <c r="A249" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="97"/>
+      <c r="F249" s="97"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="97"/>
+      <c r="I249" s="97"/>
+      <c r="J249" s="97"/>
+      <c r="K249" s="97"/>
+      <c r="L249" s="97"/>
+      <c r="M249" s="97"/>
+    </row>
+    <row r="250" spans="1:13" s="100" customFormat="1">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E250" s="99"/>
+      <c r="F250" s="99"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="99"/>
+      <c r="I250" s="99"/>
+      <c r="J250" s="99"/>
+      <c r="K250" s="99"/>
+      <c r="L250" s="99"/>
+      <c r="M250" s="99"/>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B251" s="26">
+        <v>10</v>
+      </c>
+      <c r="C251" s="26">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>10</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B252" s="26">
         <v>3</v>
       </c>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-    </row>
-    <row r="251" spans="1:13" s="12" customFormat="1">
-      <c r="A251" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B251" s="12">
-        <f>144814.023426/(60*60)</f>
-        <v>40.226117618333333</v>
-      </c>
-      <c r="C251" s="25">
-        <f>644056.879452/(60*60)</f>
-        <v>178.90468873666669</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" s="12" customFormat="1">
-      <c r="C252" s="101"/>
-    </row>
-    <row r="253" spans="1:13" s="35" customFormat="1">
-      <c r="A253" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="97"/>
-      <c r="F253" s="96" t="s">
-        <v>527</v>
-      </c>
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="97"/>
-      <c r="J253" s="97"/>
-      <c r="K253" s="97"/>
-      <c r="L253" s="97"/>
-      <c r="M253" s="97"/>
-    </row>
-    <row r="254" spans="1:13" s="100" customFormat="1">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E254" s="99"/>
-      <c r="F254" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G254" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H254" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="I254" s="99"/>
-      <c r="J254" s="99"/>
-      <c r="K254" s="99"/>
-      <c r="L254" s="99"/>
-      <c r="M254" s="99"/>
-    </row>
-    <row r="255" spans="1:13" s="25" customFormat="1">
+      <c r="C252" s="26">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>3</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B253" s="82">
+        <v>1</v>
+      </c>
+      <c r="C253" s="82">
+        <v>1</v>
+      </c>
+      <c r="D253" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B254" s="82">
+        <v>1</v>
+      </c>
+      <c r="C254" s="82">
+        <v>1</v>
+      </c>
+      <c r="D254" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B255" s="12">
-        <v>3</v>
-      </c>
-      <c r="C255" s="12">
-        <v>10</v>
-      </c>
-      <c r="D255" s="12">
-        <v>10</v>
-      </c>
-      <c r="E255" s="27"/>
-      <c r="F255" s="27">
-        <v>3</v>
-      </c>
-      <c r="G255" s="12"/>
-      <c r="H255" s="27"/>
-      <c r="I255" s="27"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
-      <c r="L255" s="27"/>
-      <c r="M255" s="27"/>
-    </row>
-    <row r="256" spans="1:13" s="25" customFormat="1">
+        <v>482</v>
+      </c>
+      <c r="B255" s="85">
+        <v>651535</v>
+      </c>
+      <c r="C255" s="26">
+        <v>102365</v>
+      </c>
+      <c r="D255" s="81"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B256" s="107">
-        <v>1</v>
-      </c>
-      <c r="C256" s="107">
-        <v>1</v>
-      </c>
-      <c r="D256" s="107">
-        <v>0.2</v>
-      </c>
-      <c r="E256" s="27"/>
-      <c r="F256" s="111">
-        <v>1</v>
-      </c>
-      <c r="G256" s="12"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
-      <c r="K256" s="27"/>
-      <c r="L256" s="27"/>
-      <c r="M256" s="27"/>
-    </row>
-    <row r="257" spans="1:13" s="25" customFormat="1">
+        <v>483</v>
+      </c>
+      <c r="B256" s="85">
+        <v>4160</v>
+      </c>
+      <c r="C256" s="26">
+        <v>40358</v>
+      </c>
+      <c r="D256" s="81"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="2"/>
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B257" s="107">
-        <v>1</v>
-      </c>
-      <c r="C257" s="107">
-        <v>1</v>
-      </c>
-      <c r="D257" s="107">
-        <v>1</v>
-      </c>
-      <c r="E257" s="27"/>
-      <c r="F257" s="111">
-        <v>1</v>
-      </c>
-      <c r="G257" s="12"/>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="27"/>
-      <c r="M257" s="27"/>
-    </row>
-    <row r="258" spans="1:13" s="25" customFormat="1">
-      <c r="A258" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B258" s="12">
-        <v>13584</v>
-      </c>
-      <c r="C258" s="12">
-        <v>31223</v>
-      </c>
-      <c r="D258" s="12">
-        <v>19700</v>
-      </c>
-      <c r="E258" s="27"/>
-      <c r="F258" s="27">
-        <v>15965</v>
-      </c>
-      <c r="G258" s="12"/>
-      <c r="H258" s="27"/>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27"/>
-      <c r="M258" s="27"/>
-    </row>
-    <row r="259" spans="1:13" s="25" customFormat="1">
+        <v>525</v>
+      </c>
+      <c r="B257" s="85">
+        <v>2622</v>
+      </c>
+      <c r="C257" s="26">
+        <v>3457</v>
+      </c>
+      <c r="D257" s="81"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="2"/>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="2"/>
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B259" s="12">
-        <v>5728</v>
-      </c>
-      <c r="C259" s="12">
-        <v>5769</v>
-      </c>
-      <c r="D259" s="12">
-        <v>10811</v>
-      </c>
-      <c r="E259" s="27"/>
-      <c r="F259" s="27">
-        <v>5728</v>
-      </c>
-      <c r="G259" s="12"/>
-      <c r="H259" s="27"/>
-      <c r="I259" s="27"/>
-      <c r="J259" s="27"/>
-      <c r="K259" s="27"/>
-      <c r="L259" s="27"/>
-      <c r="M259" s="27"/>
-    </row>
-    <row r="260" spans="1:13" s="25" customFormat="1">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="27"/>
-      <c r="F260" s="27"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="27"/>
-      <c r="I260" s="27"/>
-      <c r="J260" s="27"/>
-      <c r="K260" s="27"/>
-      <c r="L260" s="27"/>
-      <c r="M260" s="27"/>
+        <v>462</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0.55623386209699999</v>
+      </c>
+      <c r="C259">
+        <v>0.371000410424</v>
+      </c>
+      <c r="D259" s="1">
+        <v>0.296636620016</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0.57671216554399996</v>
+      </c>
+      <c r="C260">
+        <v>0.49649649633699999</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0.32957350139499902</v>
+      </c>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="1" t="s">
-        <v>29</v>
+        <v>464</v>
       </c>
       <c r="B261" s="1">
-        <v>0.64221370962400004</v>
+        <v>0.53855916990599995</v>
       </c>
       <c r="C261">
-        <v>0.34279795373900002</v>
-      </c>
-      <c r="D261" s="26">
-        <v>0.25807520653799998</v>
+        <v>0.29614735501299999</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0.26968855537000003</v>
       </c>
       <c r="E261" s="2"/>
-      <c r="F261" s="2">
-        <v>0.480745912484</v>
-      </c>
+      <c r="F261" s="2"/>
       <c r="G261" s="1"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
@@ -10654,21 +10616,19 @@
     </row>
     <row r="262" spans="1:13">
       <c r="A262" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B262" s="1">
-        <v>0.65446452418599999</v>
+        <v>21.8</v>
       </c>
       <c r="C262">
-        <v>0.65725368524600003</v>
-      </c>
-      <c r="D262" s="26">
-        <v>0.51539162061499999</v>
+        <v>1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>3</v>
       </c>
       <c r="E262" s="2"/>
-      <c r="F262" s="2">
-        <v>0.85840889624100003</v>
-      </c>
+      <c r="F262" s="2"/>
       <c r="G262" s="1"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
@@ -10677,47 +10637,44 @@
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
     </row>
-    <row r="263" spans="1:13" s="1" customFormat="1">
+    <row r="263" spans="1:13">
       <c r="A263" s="1" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="B263" s="1">
-        <v>0.63041310956399998</v>
-      </c>
-      <c r="C263" s="1">
-        <v>0.231864809073</v>
+        <v>0.55626305104600005</v>
+      </c>
+      <c r="C263">
+        <v>0.397483802685</v>
       </c>
       <c r="D263" s="1">
-        <v>0.172134613549</v>
-      </c>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3">
-        <v>0.33386130271600001</v>
-      </c>
-      <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
+        <v>0.30136508638350001</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2"/>
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="1" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="B264" s="1">
-        <v>1</v>
-      </c>
-      <c r="C264" s="1">
-        <v>1</v>
+        <v>0.57671216554399996</v>
+      </c>
+      <c r="C264">
+        <v>0.48426569256500002</v>
       </c>
       <c r="D264" s="1">
-        <v>1</v>
+        <v>0.32957350139499902</v>
       </c>
       <c r="E264" s="2"/>
-      <c r="F264" s="2">
-        <v>1</v>
-      </c>
+      <c r="F264" s="2"/>
       <c r="G264" s="1"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
@@ -10728,21 +10685,19 @@
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="1" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="B265" s="1">
-        <v>0.64486091308399995</v>
+        <v>0.53861204272300001</v>
       </c>
       <c r="C265">
-        <v>0.40575044208299998</v>
+        <v>0.33722315136100001</v>
       </c>
       <c r="D265" s="1">
-        <v>0.28072078551000001</v>
+        <v>0.27760804910949999</v>
       </c>
       <c r="E265" s="2"/>
-      <c r="F265" s="2">
-        <v>0.51683045702099994</v>
-      </c>
+      <c r="F265" s="2"/>
       <c r="G265" s="1"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
@@ -10753,21 +10708,19 @@
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="1" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="B266" s="1">
-        <v>0.65446452418599999</v>
+        <v>21.8</v>
       </c>
       <c r="C266">
-        <v>0.53151276265799996</v>
+        <v>2.8</v>
       </c>
       <c r="D266" s="1">
-        <v>0.51539162061499999</v>
+        <v>3</v>
       </c>
       <c r="E266" s="2"/>
-      <c r="F266" s="2">
-        <v>0.85678271585800003</v>
-      </c>
+      <c r="F266" s="2"/>
       <c r="G266" s="1"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
@@ -10776,276 +10729,227 @@
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
     </row>
-    <row r="267" spans="1:13">
-      <c r="A267" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B267" s="1">
-        <v>0.63553507271499998</v>
-      </c>
-      <c r="C267" s="108">
-        <v>0.32811458082400002</v>
-      </c>
-      <c r="D267" s="1">
-        <v>0.19289212449000001</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2">
-        <v>0.37001626255499998</v>
-      </c>
-      <c r="G267" s="1"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-    </row>
-    <row r="268" spans="1:13">
-      <c r="A268" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B268" s="1">
+    <row r="267" spans="1:13" s="12" customFormat="1">
+      <c r="A267" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B267" s="12">
+        <f>144814.023426/(60*60)</f>
+        <v>40.226117618333333</v>
+      </c>
+      <c r="C267" s="25">
+        <f>644056.879452/(60*60)</f>
+        <v>178.90468873666669</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" s="12" customFormat="1">
+      <c r="C268" s="101"/>
+    </row>
+    <row r="269" spans="1:13" s="35" customFormat="1">
+      <c r="A269" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="97"/>
+      <c r="F269" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="97"/>
+      <c r="J269" s="97"/>
+      <c r="K269" s="97"/>
+      <c r="L269" s="97"/>
+      <c r="M269" s="97"/>
+    </row>
+    <row r="270" spans="1:13" s="100" customFormat="1">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E270" s="99"/>
+      <c r="F270" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H270" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I270" s="99"/>
+      <c r="J270" s="99"/>
+      <c r="K270" s="99"/>
+      <c r="L270" s="99"/>
+      <c r="M270" s="99"/>
+    </row>
+    <row r="271" spans="1:13" s="25" customFormat="1">
+      <c r="A271" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B271" s="12">
+        <v>3</v>
+      </c>
+      <c r="C271" s="12">
+        <v>10</v>
+      </c>
+      <c r="D271" s="12">
+        <v>10</v>
+      </c>
+      <c r="E271" s="27"/>
+      <c r="F271" s="27">
+        <v>3</v>
+      </c>
+      <c r="G271" s="12"/>
+      <c r="H271" s="27"/>
+      <c r="I271" s="27"/>
+      <c r="J271" s="27"/>
+      <c r="K271" s="27"/>
+      <c r="L271" s="27"/>
+      <c r="M271" s="27"/>
+    </row>
+    <row r="272" spans="1:13" s="25" customFormat="1">
+      <c r="A272" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B272" s="107">
         <v>1</v>
       </c>
-      <c r="C268">
+      <c r="C272" s="107">
         <v>1</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D272" s="107">
+        <v>0.2</v>
+      </c>
+      <c r="E272" s="27"/>
+      <c r="F272" s="111">
         <v>1</v>
       </c>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2">
+      <c r="G272" s="12"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="27"/>
+      <c r="J272" s="27"/>
+      <c r="K272" s="27"/>
+      <c r="L272" s="27"/>
+      <c r="M272" s="27"/>
+    </row>
+    <row r="273" spans="1:13" s="25" customFormat="1">
+      <c r="A273" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B273" s="107">
         <v>1</v>
       </c>
-      <c r="G268" s="1"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-    </row>
-    <row r="269" spans="1:13">
-      <c r="A269" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B269" s="1">
-        <f>34790.2647679/(60*60)</f>
-        <v>9.6639624355277771</v>
-      </c>
-      <c r="C269">
-        <f>27695.3879449/(60*60)</f>
-        <v>7.6931633180277785</v>
-      </c>
-      <c r="D269" s="1">
-        <f>79529.694277/(60*60)</f>
-        <v>22.091581743611112</v>
-      </c>
-      <c r="E269" s="10"/>
-      <c r="F269" s="2">
-        <f>3643.66030002/(60*60)</f>
-        <v>1.0121278611166666</v>
-      </c>
-      <c r="G269" s="1"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-    </row>
-    <row r="270" spans="1:13" s="8" customFormat="1">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270"/>
-      <c r="D270" s="7"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="9"/>
-      <c r="I270" s="9"/>
-      <c r="J270" s="9"/>
-      <c r="K270" s="9"/>
-      <c r="L270" s="9"/>
-      <c r="M270" s="9"/>
-    </row>
-    <row r="271" spans="1:13" s="35" customFormat="1">
-      <c r="A271" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="97"/>
-      <c r="F271" s="96" t="s">
-        <v>527</v>
-      </c>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="97"/>
-      <c r="J271" s="97"/>
-      <c r="K271" s="97"/>
-      <c r="L271" s="97"/>
-      <c r="M271" s="97"/>
-    </row>
-    <row r="272" spans="1:13" s="100" customFormat="1">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E272" s="99"/>
-      <c r="F272" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H272" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="I272" s="99"/>
-      <c r="J272" s="99"/>
-      <c r="K272" s="99"/>
-      <c r="L272" s="99"/>
-      <c r="M272" s="99"/>
-    </row>
-    <row r="273" spans="1:13">
-      <c r="A273" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B273" s="1">
-        <v>3</v>
-      </c>
-      <c r="C273">
-        <v>10</v>
-      </c>
-      <c r="D273" s="1">
-        <v>3</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2">
-        <v>3</v>
-      </c>
-      <c r="G273" s="1">
-        <v>5</v>
-      </c>
-      <c r="H273" s="2">
-        <v>5</v>
-      </c>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-    </row>
-    <row r="274" spans="1:13" s="1" customFormat="1">
+      <c r="C273" s="107">
+        <v>1</v>
+      </c>
+      <c r="D273" s="107">
+        <v>1</v>
+      </c>
+      <c r="E273" s="27"/>
+      <c r="F273" s="111">
+        <v>1</v>
+      </c>
+      <c r="G273" s="12"/>
+      <c r="H273" s="27"/>
+      <c r="I273" s="27"/>
+      <c r="J273" s="27"/>
+      <c r="K273" s="27"/>
+      <c r="L273" s="27"/>
+      <c r="M273" s="27"/>
+    </row>
+    <row r="274" spans="1:13" s="25" customFormat="1">
       <c r="A274" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B274" s="81">
-        <v>1</v>
-      </c>
-      <c r="C274" s="10">
-        <v>1</v>
-      </c>
-      <c r="D274" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="E274" s="3"/>
-      <c r="F274" s="109">
-        <v>1</v>
-      </c>
-      <c r="G274" s="81"/>
-      <c r="H274" s="109">
-        <v>0.5</v>
-      </c>
-      <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3"/>
-      <c r="M274" s="3"/>
-    </row>
-    <row r="275" spans="1:13">
+        <v>482</v>
+      </c>
+      <c r="B274" s="12">
+        <v>13584</v>
+      </c>
+      <c r="C274" s="12">
+        <v>31223</v>
+      </c>
+      <c r="D274" s="12">
+        <v>19700</v>
+      </c>
+      <c r="E274" s="27"/>
+      <c r="F274" s="27">
+        <v>15965</v>
+      </c>
+      <c r="G274" s="12"/>
+      <c r="H274" s="27"/>
+      <c r="I274" s="27"/>
+      <c r="J274" s="27"/>
+      <c r="K274" s="27"/>
+      <c r="L274" s="27"/>
+      <c r="M274" s="27"/>
+    </row>
+    <row r="275" spans="1:13" s="25" customFormat="1">
       <c r="A275" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B275" s="81">
-        <v>1</v>
-      </c>
-      <c r="C275" s="10">
-        <v>1</v>
-      </c>
-      <c r="D275" s="81">
-        <v>1</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" s="11">
-        <v>1</v>
-      </c>
-      <c r="G275" s="81"/>
-      <c r="H275" s="11">
-        <v>1</v>
-      </c>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-    </row>
-    <row r="276" spans="1:13">
-      <c r="A276" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B276" s="1">
-        <v>305148</v>
-      </c>
-      <c r="C276">
-        <v>221845</v>
-      </c>
-      <c r="D276" s="1">
-        <v>110922</v>
-      </c>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2">
-        <v>482297</v>
-      </c>
-      <c r="G276" s="1"/>
-      <c r="H276" s="2">
-        <v>526529</v>
-      </c>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="B275" s="12">
+        <v>5728</v>
+      </c>
+      <c r="C275" s="12">
+        <v>5769</v>
+      </c>
+      <c r="D275" s="12">
+        <v>10811</v>
+      </c>
+      <c r="E275" s="27"/>
+      <c r="F275" s="27">
+        <v>5728</v>
+      </c>
+      <c r="G275" s="12"/>
+      <c r="H275" s="27"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="27"/>
+      <c r="K275" s="27"/>
+      <c r="L275" s="27"/>
+      <c r="M275" s="27"/>
+    </row>
+    <row r="276" spans="1:13" s="25" customFormat="1">
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="27"/>
+      <c r="F276" s="27"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="27"/>
+      <c r="I276" s="27"/>
+      <c r="J276" s="27"/>
+      <c r="K276" s="27"/>
+      <c r="L276" s="27"/>
+      <c r="M276" s="27"/>
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="1" t="s">
-        <v>483</v>
+        <v>29</v>
       </c>
       <c r="B277" s="1">
-        <v>5728</v>
+        <v>0.64221370962400004</v>
       </c>
       <c r="C277">
-        <v>5769</v>
-      </c>
-      <c r="D277" s="1">
-        <v>82397</v>
+        <v>0.34279795373900002</v>
+      </c>
+      <c r="D277" s="26">
+        <v>0.25807520653799998</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2">
-        <v>5728</v>
+        <v>0.480745912484</v>
       </c>
       <c r="G277" s="1"/>
-      <c r="H277" s="2">
-        <v>10811</v>
-      </c>
+      <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
@@ -11054,63 +10958,72 @@
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B278" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0.65446452418599999</v>
+      </c>
       <c r="C278">
-        <v>4288</v>
-      </c>
-      <c r="D278" s="1"/>
+        <v>0.65725368524600003</v>
+      </c>
+      <c r="D278" s="26">
+        <v>0.51539162061499999</v>
+      </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2">
-        <v>218</v>
+        <v>0.85840889624100003</v>
       </c>
       <c r="G278" s="1"/>
-      <c r="H278" s="2">
-        <v>558</v>
-      </c>
+      <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/